--- a/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - wholesale minimal standard scenario.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - wholesale minimal standard scenario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_a_wholesale_calculation\when_minimal_standard_scenario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_an_energy_calculation\when_minimal_standard_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04932A25-014C-422F-885F-13343440C8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA6521A-4949-4C73-9C62-1C152E0CCC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
   </bookViews>
@@ -29,24 +29,6 @@
     <definedName name="netEx_quarter2" localSheetId="0">Hour1!$H$49</definedName>
     <definedName name="netEx_quarter3" localSheetId="0">Hour1!$H$50</definedName>
     <definedName name="netEx_quarter4" localSheetId="0">Hour1!$H$51</definedName>
-    <definedName name="powerIn15M" localSheetId="0">Hour1!$T$6</definedName>
-    <definedName name="powerIn15M_quarter1" localSheetId="0">Hour1!$U$6</definedName>
-    <definedName name="powerIn15M_quarter2" localSheetId="0">Hour1!$V$6</definedName>
-    <definedName name="powerIn15M_quarter3" localSheetId="0">Hour1!$W$6</definedName>
-    <definedName name="powerIn15M_quarter4" localSheetId="0">Hour1!$X$6</definedName>
-    <definedName name="powerIn1H_quarter1" localSheetId="0">Hour1!$Y$55</definedName>
-    <definedName name="powerIn1H_quarter2" localSheetId="0">Hour1!$Y$56</definedName>
-    <definedName name="powerIn1H_quarter3" localSheetId="0">Hour1!$Y$57</definedName>
-    <definedName name="powerIn1H_quarter4" localSheetId="0">Hour1!$Y$58</definedName>
-    <definedName name="powerOut15M" localSheetId="0">Hour1!$T$7</definedName>
-    <definedName name="powerOut15M_quarter1" localSheetId="0">Hour1!$U$7</definedName>
-    <definedName name="powerOut15M_quarter2" localSheetId="0">Hour1!$V$7</definedName>
-    <definedName name="powerOut15M_quarter3" localSheetId="0">Hour1!$W$7</definedName>
-    <definedName name="powerOut15M_quarter4" localSheetId="0">Hour1!$X$7</definedName>
-    <definedName name="powerOut1H_quarter1" localSheetId="0">Hour1!$Y$61</definedName>
-    <definedName name="powerOut1H_quarter2" localSheetId="0">Hour1!$Y$62</definedName>
-    <definedName name="powerOut1H_quarter3" localSheetId="0">Hour1!$Y$63</definedName>
-    <definedName name="powerOut1H_quarter4" localSheetId="0">Hour1!$Y$64</definedName>
     <definedName name="totalConsumption_quarter1" localSheetId="0">Hour1!$Y$67</definedName>
     <definedName name="totalConsumption_quarter2" localSheetId="0">Hour1!$Y$68</definedName>
     <definedName name="totalConsumption_quarter3" localSheetId="0">Hour1!$Y$69</definedName>
@@ -123,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="129">
   <si>
     <t>energy_supplier_id</t>
   </si>
@@ -218,9 +200,6 @@
     <t>el ind i ga (1H målepunkter)</t>
   </si>
   <si>
-    <t>el ind i ga (15M målepunkter)</t>
-  </si>
-  <si>
     <t>el ud af ga (1H målepunkter)</t>
   </si>
   <si>
@@ -249,9 +228,6 @@
   </si>
   <si>
     <t>negative_grid_loss</t>
-  </si>
-  <si>
-    <t>el ud af ga (15M målepunkter)</t>
   </si>
   <si>
     <t>Total flex consumtion 1H / 4</t>
@@ -419,6 +395,9 @@
     <t>E20</t>
   </si>
   <si>
+    <t>3000000000000</t>
+  </si>
+  <si>
     <t>skmp</t>
   </si>
   <si>
@@ -426,6 +405,9 @@
   </si>
   <si>
     <t>2200000000000</t>
+  </si>
+  <si>
+    <t>E02</t>
   </si>
   <si>
     <t>All energy suppliers</t>
@@ -440,37 +422,76 @@
     <t>TotalHour</t>
   </si>
   <si>
+    <t>170000001500000101</t>
+  </si>
+  <si>
+    <t>170000001500000201</t>
+  </si>
+  <si>
+    <t>180000001500000001</t>
+  </si>
+  <si>
     <t>flex_consumption</t>
+  </si>
+  <si>
+    <t>200000000000000002</t>
+  </si>
+  <si>
+    <t>200000000000000004</t>
+  </si>
+  <si>
+    <t>170000000000000102</t>
+  </si>
+  <si>
+    <t>170000000000000103</t>
+  </si>
+  <si>
+    <t>170000000000000202</t>
+  </si>
+  <si>
+    <t>170000000000000203</t>
   </si>
   <si>
     <t>180000000000000002</t>
   </si>
   <si>
-    <t>2000000000000</t>
+    <t>180000000000000003</t>
   </si>
   <si>
-    <t>200000000000000001</t>
+    <t>802</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>2000000000000</t>
   </si>
   <si>
     <t>801</t>
   </si>
   <si>
-    <t>170000000150001000</t>
+    <t>803</t>
   </si>
   <si>
-    <t>180000000150001000</t>
+    <t>200000001500000001</t>
   </si>
   <si>
-    <t>170000000000000201</t>
+    <t>200000001500000003</t>
   </si>
   <si>
-    <t>180000000000000001</t>
+    <t>170000000000001000</t>
   </si>
   <si>
-    <t>4000000000000</t>
+    <t>180000000000001000</t>
   </si>
   <si>
-    <t>4400000000000</t>
+    <t>na_ga for ga_id</t>
+  </si>
+  <si>
+    <t>na_ga for values</t>
+  </si>
+  <si>
+    <t>Sorted</t>
   </si>
 </sst>
 </file>
@@ -741,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -833,6 +854,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1419,8 +1443,8 @@
   </sheetPr>
   <dimension ref="A1:CN400"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:K25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1453,8 +1477,10 @@
     <col min="31" max="31" width="27.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="22.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="40" width="8.7265625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="8.7265625" style="1" customWidth="1"/>
     <col min="41" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -1463,7 +1489,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>7</v>
@@ -1475,16 +1501,16 @@
         <v>12</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>104</v>
@@ -1505,22 +1531,22 @@
         <v>18</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="AA1" s="24"/>
       <c r="AC1" s="24"/>
@@ -1536,64 +1562,63 @@
       <c r="AG1" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="AH1" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="24"/>
+      <c r="AH1" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
     </row>
     <row r="2" spans="1:92" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12">
+        <v>10</v>
+      </c>
       <c r="G2" s="12"/>
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
       <c r="J2" s="43">
         <f t="shared" ref="J2:J19" si="0">IF(C2="","",SUM(F2:I2))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q2" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
       <c r="R2" s="24"/>
       <c r="S2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T2" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U2" s="42">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V2" s="42">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT15M")</f>
@@ -1612,74 +1637,77 @@
       <c r="AA2" s="24"/>
       <c r="AC2" s="24"/>
       <c r="AD2" s="27" t="str" cm="1">
-        <f t="array" ref="AD2:AD3">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[ga_id] &lt;&gt; "")))</f>
+        <f t="array" ref="AD2:AD4">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[ga_id] &lt;&gt; "")))</f>
         <v>800</v>
       </c>
       <c r="AE2" s="27" t="str" cm="1">
-        <f t="array" ref="AE2">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AE28:AE41,AE28:AE41 &lt;&gt; "")))</f>
+        <f t="array" ref="AE2:AE4">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AE28:AE41,AE28:AE41 &lt;&gt; "")))</f>
         <v>1000000000000</v>
       </c>
       <c r="AF2" s="27" t="str" cm="1">
-        <f t="array" ref="AF2">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AF28:AF40,AF28:AF40 &lt;&gt; "")))</f>
+        <f t="array" ref="AF2:AF3">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AF28:AF40,AF28:AF40 &lt;&gt; "")))</f>
         <v>1100000000000</v>
       </c>
       <c r="AG2" s="27" t="str">
         <f>IF(B$2="production","E18",IF($B$2="flex_consumption","D01","E02"))</f>
         <v>D01</v>
       </c>
-      <c r="AH2" s="27" t="str" cm="1">
-        <f t="array" ref="AH2:AH3">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn.VSTACK(_xlfn._xlws.FILTER(TableDay1[from_ga],TableDay1[from_ga] &lt;&gt; ""),_xlfn._xlws.FILTER(TableDay1[to_ga],TableDay1[to_ga] &lt;&gt; ""))))</f>
-        <v>800</v>
-      </c>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="27"/>
+      <c r="AH2" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ2" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C3" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12">
+        <v>20.003</v>
+      </c>
       <c r="G3" s="12"/>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
       <c r="J3" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.003</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
+        <v>117</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="R3" s="24"/>
       <c r="S3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T3" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U3" s="42">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V3" s="42">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
@@ -1700,61 +1728,79 @@
       <c r="AD3" s="24" t="str">
         <v>801</v>
       </c>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
+      <c r="AE3" s="24" t="str">
+        <v>2000000000000</v>
+      </c>
+      <c r="AF3" s="24" t="str">
+        <v>2200000000000</v>
+      </c>
       <c r="AG3" s="24"/>
-      <c r="AH3" s="24" t="str">
+      <c r="AH3" s="27" t="str" cm="1">
+        <f t="array" ref="AH3:AH6">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),""))&lt;&gt;""))</f>
         <v>801</v>
       </c>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
+      <c r="AI3" s="24" t="str" cm="1">
+        <f t="array" ref="AI3:AI6">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),""))&lt;&gt;""))</f>
+        <v>801</v>
+      </c>
+      <c r="AJ3" s="24" t="str" cm="1">
+        <f t="array" ref="AJ3:AK13">_xlfn._xlws.SORT(AH3:AI13,1)</f>
+        <v>801</v>
+      </c>
+      <c r="AK3" s="24" t="str">
+        <v>801</v>
+      </c>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>90</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="43">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
+        <v>92</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>121</v>
+      </c>
       <c r="R4" s="24"/>
       <c r="S4" s="7" t="s">
         <v>28</v>
       </c>
       <c r="T4" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E18",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U4" s="42">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[type],"E18",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V4" s="42">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[type],"E18",TableDay1[resolution],"PT15M")</f>
@@ -1772,44 +1818,77 @@
       <c r="Z4" s="24"/>
       <c r="AA4" s="24"/>
       <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
+      <c r="AD4" s="24" t="str">
+        <v>802</v>
+      </c>
+      <c r="AE4" s="24" t="str">
+        <v>3000000000000</v>
+      </c>
       <c r="AF4" s="24"/>
       <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
+      <c r="AH4" s="24" t="str">
+        <v>802</v>
+      </c>
+      <c r="AI4" s="24" t="str">
+        <v>802</v>
+      </c>
+      <c r="AJ4" s="24" t="str">
+        <v>802</v>
+      </c>
+      <c r="AK4" s="24" t="str">
+        <v>802</v>
+      </c>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
+      <c r="F5" s="12">
+        <v>1.117</v>
+      </c>
       <c r="G5" s="12"/>
       <c r="H5" s="41"/>
       <c r="I5" s="41"/>
-      <c r="J5" s="43" t="str">
+      <c r="J5" s="43">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K5" s="10"/>
+        <v>1.117</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
+      <c r="O5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>118</v>
+      </c>
       <c r="R5" s="24"/>
       <c r="S5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="T5" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U5" s="42">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V5" s="42">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
@@ -1831,53 +1910,67 @@
       <c r="AE5" s="24"/>
       <c r="AF5" s="24"/>
       <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
+      <c r="AH5" s="24" t="str">
+        <v>803</v>
+      </c>
+      <c r="AI5" s="24" t="str">
+        <v>803</v>
+      </c>
+      <c r="AJ5" s="24" t="str">
+        <v>803</v>
+      </c>
+      <c r="AK5" s="24" t="str">
+        <v>803</v>
+      </c>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5</v>
+      </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="43" t="str">
+      <c r="J6" s="43">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="O6" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
       <c r="R6" s="24"/>
-      <c r="S6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="9">
-        <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="42">
-        <f>SUMIFS(TableDay1[Quarter1],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="42">
-        <f>SUMIFS(TableDay1[Quarter2],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="42">
-        <f>SUMIFS(TableDay1[Quarter3],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="42">
-        <f>SUMIFS(TableDay1[Quarter4],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>0</v>
-      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
       <c r="Y6" s="24"/>
       <c r="Z6" s="24"/>
       <c r="AA6" s="24"/>
@@ -1886,67 +1979,67 @@
       <c r="AE6" s="24"/>
       <c r="AF6" s="24"/>
       <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
+      <c r="AH6" s="24" t="str">
+        <v>804</v>
+      </c>
+      <c r="AI6" s="24" t="str">
+        <v>804</v>
+      </c>
+      <c r="AJ6" s="24" t="str">
+        <v>804</v>
+      </c>
+      <c r="AK6" s="24" t="str">
+        <v>804</v>
+      </c>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C7" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="F7" s="12">
-        <v>19.158999999999999</v>
+        <v>8</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
       <c r="J7" s="43">
         <f t="shared" si="0"/>
-        <v>19.158999999999999</v>
+        <v>8</v>
       </c>
       <c r="K7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
       <c r="R7" s="24"/>
-      <c r="S7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" s="9">
-        <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[from_ga],"800")</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="42">
-        <f>SUMIFS(TableDay1[Quarter1],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[from_ga],"800")</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="42">
-        <f>SUMIFS(TableDay1[Quarter2],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[from_ga],"800")</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="42">
-        <f>SUMIFS(TableDay1[Quarter3],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[from_ga],"800")</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="42">
-        <f>SUMIFS(TableDay1[Quarter4],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[from_ga],"800")</f>
-        <v>0</v>
-      </c>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
       <c r="Y7" s="24"/>
       <c r="Z7" s="24"/>
       <c r="AA7" s="24"/>
@@ -1957,25 +2050,52 @@
       <c r="AG7" s="24"/>
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
+      <c r="AJ7" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="24"/>
+      <c r="AQ7" s="24"/>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.80700000000000005</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
-      <c r="J8" s="43" t="str">
+      <c r="J8" s="43">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="O8" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
       <c r="R8" s="24"/>
@@ -1995,36 +2115,51 @@
       <c r="AG8" s="24"/>
       <c r="AH8" s="24"/>
       <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
+      <c r="AJ8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="24"/>
     </row>
     <row r="9" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C9" s="10" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="12">
+        <v>10</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
@@ -2037,16 +2172,16 @@
         <v>9</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Z9" s="27"/>
       <c r="AA9" s="24"/>
@@ -2057,43 +2192,56 @@
       <c r="AG9" s="35"/>
       <c r="AH9" s="35"/>
       <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
+      <c r="AJ9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="24"/>
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C10" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="F10" s="12">
-        <v>3.3570000000000002</v>
+        <v>10</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="43">
         <f t="shared" si="0"/>
-        <v>3.3570000000000002</v>
+        <v>10</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q10" s="29" t="s">
-        <v>94</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
       <c r="R10" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S10" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U10,TableDay1[es_id],0)),"")</f>
@@ -2109,16 +2257,16 @@
       </c>
       <c r="V10" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[es_id],U10,IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT1H")/4</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W10" s="19">
         <f>V10</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X10" s="19"/>
       <c r="Y10" s="23">
         <f t="shared" ref="Y10:Y33" si="1">ROUND(W10, 3)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="27"/>
       <c r="AA10" s="24"/>
@@ -2129,29 +2277,56 @@
       <c r="AG10" s="36"/>
       <c r="AH10" s="35"/>
       <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
+      <c r="AJ10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="24"/>
+      <c r="AQ10" s="24"/>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.25</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
-      <c r="J11" s="43" t="str">
+      <c r="J11" s="43">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="O11" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="P11" s="29"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S11" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U11,TableDay1[es_id],0)),"")</f>
@@ -2167,11 +2342,11 @@
       </c>
       <c r="V11" s="19">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W11" s="19">
         <f>X11+W10</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X11" s="19">
         <f>V11-Y10</f>
@@ -2179,7 +2354,7 @@
       </c>
       <c r="Y11" s="23">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="27"/>
       <c r="AA11" s="24"/>
@@ -2190,29 +2365,54 @@
       <c r="AG11" s="36"/>
       <c r="AH11" s="35"/>
       <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
+      <c r="AJ11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="24"/>
     </row>
     <row r="12" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="12">
+        <v>6</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
-      <c r="J12" s="43" t="str">
+      <c r="J12" s="43">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="O12" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S12" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U12,TableDay1[es_id],0)),"")</f>
@@ -2228,11 +2428,11 @@
       </c>
       <c r="V12" s="19">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W12" s="19">
         <f>X12+W11</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X12" s="19">
         <f>V12-Y11</f>
@@ -2240,7 +2440,7 @@
       </c>
       <c r="Y12" s="23">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="27"/>
       <c r="AA12" s="24"/>
@@ -2255,29 +2455,54 @@
       <c r="AG12" s="36"/>
       <c r="AH12" s="35"/>
       <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
+      <c r="AJ12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="24"/>
+      <c r="AQ12" s="24"/>
     </row>
     <row r="13" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="12">
+        <v>4</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
-      <c r="J13" s="43" t="str">
+      <c r="J13" s="43">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="O13" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
       <c r="R13" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S13" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U13,TableDay1[es_id],0)),"")</f>
@@ -2293,11 +2518,11 @@
       </c>
       <c r="V13" s="19">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W13" s="19">
         <f>X13+W12</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X13" s="19">
         <f>V13-Y12</f>
@@ -2305,7 +2530,7 @@
       </c>
       <c r="Y13" s="23">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="27"/>
       <c r="AA13" s="24"/>
@@ -2316,58 +2541,85 @@
         <v>1000000000000</v>
       </c>
       <c r="AF13" s="36" t="str" cm="1">
-        <f t="array" ref="AF13:AF15">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(TableDay1[brp_id],TableDay1[brp_id] &lt;&gt; "")))</f>
+        <f t="array" ref="AF13:AF14">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(TableDay1[brp_id],TableDay1[brp_id] &lt;&gt; "")))</f>
         <v>1100000000000</v>
       </c>
       <c r="AG13" s="36"/>
       <c r="AH13" s="35"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
     </row>
     <row r="14" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="12">
+        <v>2.0030000000000001</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
-      <c r="J14" s="43" t="str">
+      <c r="J14" s="43">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="O14" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
       <c r="R14" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S14" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U14,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>800</v>
       </c>
       <c r="T14" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U14,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>1100000000000</v>
       </c>
       <c r="U14" s="26" t="str">
         <f>IF(AE$3=0,"",AE$3)</f>
-        <v/>
+        <v>2000000000000</v>
       </c>
       <c r="V14" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[es_id],U14,IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT1H")/4</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W14" s="19">
         <f>V14</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X14" s="19"/>
       <c r="Y14" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z14" s="27"/>
       <c r="AA14" s="27"/>
@@ -2382,15 +2634,15 @@
       </c>
       <c r="AG14" s="36"/>
       <c r="AH14" s="36"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="24"/>
+      <c r="AQ14" s="24"/>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
@@ -2442,46 +2694,62 @@
       <c r="CN14" s="2"/>
     </row>
     <row r="15" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C15" s="13"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="41"/>
       <c r="I15" s="41"/>
-      <c r="J15" s="43" t="str">
+      <c r="J15" s="43">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S15" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U15,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>800</v>
       </c>
       <c r="T15" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U15,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>1100000000000</v>
       </c>
       <c r="U15" s="26" t="str">
         <f t="shared" ref="U15:V17" si="3">U$14</f>
-        <v/>
+        <v>2000000000000</v>
       </c>
       <c r="V15" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W15" s="19">
         <f>X15+W14</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X15" s="19">
         <f>V15-Y14</f>
@@ -2489,7 +2757,7 @@
       </c>
       <c r="Y15" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
@@ -2497,22 +2765,20 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="36"/>
       <c r="AE15" s="36" t="str">
-        <v>4000000000000</v>
-      </c>
-      <c r="AF15" s="36" t="str">
-        <v>4400000000000</v>
-      </c>
+        <v>3000000000000</v>
+      </c>
+      <c r="AF15" s="36"/>
       <c r="AG15" s="36"/>
       <c r="AH15" s="36"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="2"/>
-      <c r="AP15" s="2"/>
-      <c r="AQ15" s="2"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="24"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="24"/>
+      <c r="AQ15" s="24"/>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
@@ -2564,46 +2830,62 @@
       <c r="CN15" s="2"/>
     </row>
     <row r="16" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C16" s="13"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
-      <c r="J16" s="43" t="str">
+      <c r="J16" s="43">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S16" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U16,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>800</v>
       </c>
       <c r="T16" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U16,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>1100000000000</v>
       </c>
       <c r="U16" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2000000000000</v>
       </c>
       <c r="V16" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W16" s="19">
         <f>X16+W15</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X16" s="19">
         <f>V16-Y15</f>
@@ -2611,7 +2893,7 @@
       </c>
       <c r="Y16" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z16" s="27"/>
       <c r="AA16" s="27"/>
@@ -2622,15 +2904,15 @@
       <c r="AF16" s="36"/>
       <c r="AG16" s="36"/>
       <c r="AH16" s="36"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="24"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="24"/>
+      <c r="AQ16" s="24"/>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2"/>
@@ -2701,27 +2983,27 @@
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S17" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U17,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>800</v>
       </c>
       <c r="T17" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U17,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>1100000000000</v>
       </c>
       <c r="U17" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2000000000000</v>
       </c>
       <c r="V17" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W17" s="19">
         <f>X17+W16</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X17" s="19">
         <f>V17-Y16</f>
@@ -2729,7 +3011,7 @@
       </c>
       <c r="Y17" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z17" s="27"/>
       <c r="AA17" s="27"/>
@@ -2740,15 +3022,15 @@
       <c r="AF17" s="36"/>
       <c r="AG17" s="36"/>
       <c r="AH17" s="36"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="2"/>
-      <c r="AP17" s="2"/>
-      <c r="AQ17" s="2"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="24"/>
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="24"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="24"/>
+      <c r="AQ17" s="24"/>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
@@ -2819,32 +3101,32 @@
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S18" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U18,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>800</v>
       </c>
       <c r="T18" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U18,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>2200000000000</v>
       </c>
       <c r="U18" s="26" t="str">
         <f>IF(AE$4=0,"",AE$4)</f>
-        <v/>
+        <v>3000000000000</v>
       </c>
       <c r="V18" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[es_id],U18,IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT1H")/4</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="W18" s="19">
         <f>V18</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="X18" s="19"/>
       <c r="Y18" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.3E-2</v>
       </c>
       <c r="Z18" s="27"/>
       <c r="AA18" s="27"/>
@@ -2855,15 +3137,15 @@
       <c r="AF18" s="36"/>
       <c r="AG18" s="36"/>
       <c r="AH18" s="36"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="2"/>
-      <c r="AP18" s="2"/>
-      <c r="AQ18" s="2"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="24"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="24"/>
+      <c r="AQ18" s="24"/>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
@@ -2934,35 +3216,35 @@
       <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
       <c r="R19" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S19" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U19,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>800</v>
       </c>
       <c r="T19" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U19,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>2200000000000</v>
       </c>
       <c r="U19" s="26" t="str">
         <f t="shared" ref="U19:V21" si="4">U$18</f>
-        <v/>
+        <v>3000000000000</v>
       </c>
       <c r="V19" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="W19" s="19">
         <f>X19+W18</f>
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="X19" s="19">
         <f>V19-Y18</f>
-        <v>0</v>
+        <v>-5.0000000000000044E-4</v>
       </c>
       <c r="Y19" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="Z19" s="27"/>
       <c r="AA19" s="27"/>
@@ -2973,15 +3255,15 @@
       <c r="AF19" s="36"/>
       <c r="AG19" s="36"/>
       <c r="AH19" s="36"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="2"/>
-      <c r="AP19" s="2"/>
-      <c r="AQ19" s="2"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="24"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2"/>
@@ -3046,35 +3328,35 @@
       <c r="J20" s="49"/>
       <c r="K20" s="50"/>
       <c r="R20" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S20" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U20,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>800</v>
       </c>
       <c r="T20" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U20,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>2200000000000</v>
       </c>
       <c r="U20" s="26" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>3000000000000</v>
       </c>
       <c r="V20" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="W20" s="19">
         <f>X20+W19</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="X20" s="19">
         <f>V20-Y19</f>
-        <v>0</v>
+        <v>5.0000000000000044E-4</v>
       </c>
       <c r="Y20" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.3E-2</v>
       </c>
       <c r="Z20" s="27"/>
       <c r="AA20" s="27"/>
@@ -3085,15 +3367,15 @@
       <c r="AF20" s="36"/>
       <c r="AG20" s="36"/>
       <c r="AH20" s="36"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
-      <c r="AN20" s="2"/>
-      <c r="AO20" s="2"/>
-      <c r="AP20" s="2"/>
-      <c r="AQ20" s="2"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="24"/>
+      <c r="AN20" s="24"/>
+      <c r="AO20" s="24"/>
+      <c r="AP20" s="24"/>
+      <c r="AQ20" s="24"/>
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2"/>
@@ -3173,7 +3455,7 @@
         <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3182,35 +3464,35 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S21" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U21,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>800</v>
       </c>
       <c r="T21" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U21,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>2200000000000</v>
       </c>
       <c r="U21" s="26" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>3000000000000</v>
       </c>
       <c r="V21" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="W21" s="19">
         <f>X21+W20</f>
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="X21" s="19">
         <f>V21-Y20</f>
-        <v>0</v>
+        <v>-5.0000000000000044E-4</v>
       </c>
       <c r="Y21" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="Z21" s="27"/>
       <c r="AA21" s="27"/>
@@ -3221,15 +3503,15 @@
       <c r="AF21" s="35"/>
       <c r="AG21" s="36"/>
       <c r="AH21" s="36"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="2"/>
-      <c r="AN21" s="2"/>
-      <c r="AO21" s="2"/>
-      <c r="AP21" s="2"/>
-      <c r="AQ21" s="2"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="24"/>
+      <c r="AK21" s="24"/>
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="24"/>
+      <c r="AO21" s="24"/>
+      <c r="AP21" s="24"/>
+      <c r="AQ21" s="24"/>
       <c r="AR21" s="2"/>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2"/>
@@ -3291,7 +3573,7 @@
         <v/>
       </c>
       <c r="D22" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" s="31" t="str">
         <f>IF(B$1="ga",IF(AND(ROW()&gt;21,ROW()&lt;26),$AD$2,""),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AND(ROW()&lt;22+(COUNTA(AE$2:AE$11)*4),ROW()&gt;21),$AD$2,""),IF(B$1="ga_brp",IF(AND(ROW()&lt;22+(COUNTA(AF$2:AF$11)*4),ROW()&gt;21),$AD$2,""))))</f>
@@ -3307,19 +3589,19 @@
       </c>
       <c r="H22" s="33" t="str">
         <f ca="1">IF(E22="","",SUBSTITUTE(ROUND(I22+J22+K22,3),",","."))</f>
-        <v>5.629</v>
+        <v>10</v>
       </c>
       <c r="I22" s="9">
         <f>SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F22,IF(B$1="ga_brp",G22,E22)),R$10:R$33,D22)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J22" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D22,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D22,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F22,IF(B$1="ga_brp",G22,E22)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
+        <v>10</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" ref="K22:K45" ca="1" si="5">IF(AND(C22="skmp",B$2="production"),VLOOKUP(D22,D$78:H$81,5,FALSE),IF(AND(B22="glmp",B$2="flex_consumption"),VLOOKUP(D22,D$72:H$75,5,FALSE),0))</f>
         <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <f t="shared" ref="K22:K45" si="5">IF(AND(C22="skmp",B$2="production"),VLOOKUP(D22,D$78:H$81,5,FALSE),IF(AND(B22="glmp",B$2="flex_consumption"),VLOOKUP(D22,D$72:H$75,5,FALSE),0))</f>
-        <v>3.1289999999999996</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3328,7 +3610,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S22" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U22,TableDay1[es_id],0)),"")</f>
@@ -3364,15 +3646,15 @@
       <c r="AF22" s="35"/>
       <c r="AG22" s="36"/>
       <c r="AH22" s="36"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="2"/>
-      <c r="AP22" s="2"/>
-      <c r="AQ22" s="2"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="24"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
       <c r="AR22" s="2"/>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2"/>
@@ -3433,7 +3715,7 @@
         <v/>
       </c>
       <c r="D23" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23" s="31" t="str">
         <f t="shared" ref="E23:E45" si="6">IF(B$1="ga",IF(AND(ROW()&gt;21,ROW()&lt;26),$AD$2,""),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AND(ROW()&lt;22+(COUNTA(AE$2:AE$11)*4),ROW()&gt;21),$AD$2,""),IF(B$1="ga_brp",IF(AND(ROW()&lt;22+(COUNTA(AF$2:AF$11)*4),ROW()&gt;21),$AD$2,""))))</f>
@@ -3449,19 +3731,19 @@
       </c>
       <c r="H23" s="33" t="str">
         <f t="shared" ref="H23:H45" ca="1" si="7">IF(E23="","",SUBSTITUTE(ROUND(I23+J23+K23,3),",","."))</f>
-        <v>5.63</v>
+        <v>1.458</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" ref="I23:I45" si="8">SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F23,IF(B$1="ga_brp",G23,E23)),R$10:R$33,D23)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J23" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D23,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D23,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F23,IF(B$1="ga_brp",G23,E23)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
         <v>0</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="5"/>
-        <v>3.13</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4579999999999997</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3470,7 +3752,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S23" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U23,TableDay1[es_id],0)),"")</f>
@@ -3509,15 +3791,15 @@
       <c r="AF23" s="35"/>
       <c r="AG23" s="36"/>
       <c r="AH23" s="36"/>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="2"/>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" s="2"/>
-      <c r="AP23" s="2"/>
-      <c r="AQ23" s="2"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="24"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="24"/>
+      <c r="AQ23" s="24"/>
       <c r="AR23" s="2"/>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
@@ -3578,7 +3860,7 @@
         <v/>
       </c>
       <c r="D24" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24" s="31" t="str">
         <f t="shared" si="6"/>
@@ -3594,19 +3876,19 @@
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>5.628</v>
+        <v>1.457</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J24" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D24,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D24,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F24,IF(B$1="ga_brp",G24,E24)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
         <v>0</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="5"/>
-        <v>3.1280000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4569999999999999</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3615,7 +3897,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S24" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U24,TableDay1[es_id],0)),"")</f>
@@ -3657,15 +3939,15 @@
       <c r="AF24" s="35"/>
       <c r="AG24" s="36"/>
       <c r="AH24" s="36"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="2"/>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="24"/>
+      <c r="AL24" s="24"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="24"/>
+      <c r="AO24" s="24"/>
+      <c r="AP24" s="24"/>
+      <c r="AQ24" s="24"/>
       <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
@@ -3726,7 +4008,7 @@
         <v/>
       </c>
       <c r="D25" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E25" s="31" t="str">
         <f t="shared" si="6"/>
@@ -3742,19 +4024,19 @@
       </c>
       <c r="H25" s="33" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>5.629</v>
+        <v>1.459</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J25" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D25,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D25,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F25,IF(B$1="ga_brp",G25,E25)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
         <v>0</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="5"/>
-        <v>3.1289999999999996</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.459000000000001</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="2"/>
@@ -3763,7 +4045,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S25" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U25,TableDay1[es_id],0)),"")</f>
@@ -3805,15 +4087,15 @@
       <c r="AF25" s="35"/>
       <c r="AG25" s="36"/>
       <c r="AH25" s="36"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="2"/>
-      <c r="AN25" s="2"/>
-      <c r="AO25" s="2"/>
-      <c r="AP25" s="2"/>
-      <c r="AQ25" s="2"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="24"/>
+      <c r="AM25" s="24"/>
+      <c r="AN25" s="24"/>
+      <c r="AO25" s="24"/>
+      <c r="AP25" s="24"/>
+      <c r="AQ25" s="24"/>
       <c r="AR25" s="2"/>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
@@ -3874,27 +4156,27 @@
         <v/>
       </c>
       <c r="D26" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E26" s="31" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F26" s="31" t="str">
         <f>IF(B$1="ga",IF(E26="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G26="","","null"))))</f>
-        <v/>
+        <v>2000000000000</v>
       </c>
       <c r="G26" s="31" t="str">
         <f>IF(B$1="ga",IF(E26="","","null"),IF(B$1="ga_es",IF(F26="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F26="","",INDEX(TableDay1[brp_id],MATCH(F26,TableDay1[es_id],0),1)))))</f>
-        <v/>
+        <v>1100000000000</v>
       </c>
       <c r="H26" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.5</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J26" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D26,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D26,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F26,IF(B$1="ga_brp",G26,E26)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -3911,7 +4193,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S26" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U26,TableDay1[es_id],0)),"")</f>
@@ -3947,15 +4229,15 @@
       <c r="AF26" s="35"/>
       <c r="AG26" s="36"/>
       <c r="AH26" s="36"/>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
-      <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
-      <c r="AM26" s="2"/>
-      <c r="AN26" s="2"/>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="2"/>
-      <c r="AQ26" s="2"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="24"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="24"/>
+      <c r="AP26" s="24"/>
+      <c r="AQ26" s="24"/>
       <c r="AR26" s="2"/>
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
@@ -4016,27 +4298,27 @@
         <v/>
       </c>
       <c r="D27" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" s="31" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F27" s="31" t="str">
         <f>IF(B$1="ga",IF(E27="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G27="","","null"))))</f>
-        <v/>
+        <v>2000000000000</v>
       </c>
       <c r="G27" s="31" t="str">
         <f>IF(B$1="ga",IF(E27="","","null"),IF(B$1="ga_es",IF(F27="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F27="","",INDEX(TableDay1[brp_id],MATCH(F27,TableDay1[es_id],0),1)))))</f>
-        <v/>
+        <v>1100000000000</v>
       </c>
       <c r="H27" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.5</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J27" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D27,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D27,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F27,IF(B$1="ga_brp",G27,E27)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -4053,7 +4335,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S27" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U27,TableDay1[es_id],0)),"")</f>
@@ -4098,15 +4380,15 @@
       </c>
       <c r="AG27" s="36"/>
       <c r="AH27" s="36"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="2"/>
-      <c r="AQ27" s="2"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="24"/>
+      <c r="AK27" s="24"/>
+      <c r="AL27" s="24"/>
+      <c r="AM27" s="24"/>
+      <c r="AN27" s="24"/>
+      <c r="AO27" s="24"/>
+      <c r="AP27" s="24"/>
+      <c r="AQ27" s="24"/>
       <c r="AR27" s="2"/>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2"/>
@@ -4167,27 +4449,27 @@
         <v/>
       </c>
       <c r="D28" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E28" s="31" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F28" s="31" t="str">
         <f>IF(B$1="ga",IF(E28="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G28="","","null"))))</f>
-        <v/>
+        <v>2000000000000</v>
       </c>
       <c r="G28" s="31" t="str">
         <f>IF(B$1="ga",IF(E28="","","null"),IF(B$1="ga_es",IF(F28="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F28="","",INDEX(TableDay1[brp_id],MATCH(F28,TableDay1[es_id],0),1)))))</f>
-        <v/>
+        <v>1100000000000</v>
       </c>
       <c r="H28" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.5</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J28" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D28,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D28,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F28,IF(B$1="ga_brp",G28,E28)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -4204,7 +4486,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S28" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U28,TableDay1[es_id],0)),"")</f>
@@ -4249,15 +4531,15 @@
       </c>
       <c r="AG28" s="36"/>
       <c r="AH28" s="36"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
-      <c r="AM28" s="2"/>
-      <c r="AN28" s="2"/>
-      <c r="AO28" s="2"/>
-      <c r="AP28" s="2"/>
-      <c r="AQ28" s="2"/>
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="24"/>
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="24"/>
+      <c r="AP28" s="24"/>
+      <c r="AQ28" s="24"/>
       <c r="AR28" s="2"/>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
@@ -4318,27 +4600,27 @@
         <v/>
       </c>
       <c r="D29" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E29" s="31" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F29" s="31" t="str">
         <f>IF(B$1="ga",IF(E29="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G29="","","null"))))</f>
-        <v/>
+        <v>2000000000000</v>
       </c>
       <c r="G29" s="31" t="str">
         <f>IF(B$1="ga",IF(E29="","","null"),IF(B$1="ga_es",IF(F29="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F29="","",INDEX(TableDay1[brp_id],MATCH(F29,TableDay1[es_id],0),1)))))</f>
-        <v/>
+        <v>1100000000000</v>
       </c>
       <c r="H29" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.5</v>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J29" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D29,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D29,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F29,IF(B$1="ga_brp",G29,E29)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -4350,7 +4632,7 @@
       </c>
       <c r="L29" s="2"/>
       <c r="R29" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S29" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U29,TableDay1[es_id],0)),"")</f>
@@ -4387,23 +4669,23 @@
       <c r="AD29" s="36"/>
       <c r="AE29" s="36" t="str" cm="1">
         <f t="array" ref="AE29">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE14)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE14)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v/>
+        <v>2000000000000</v>
       </c>
       <c r="AF29" s="36" t="str" cm="1">
         <f t="array" ref="AF29">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF14)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF14)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v/>
+        <v>2200000000000</v>
       </c>
       <c r="AG29" s="36"/>
       <c r="AH29" s="36"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
-      <c r="AL29" s="2"/>
-      <c r="AM29" s="2"/>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2"/>
-      <c r="AP29" s="2"/>
-      <c r="AQ29" s="2"/>
+      <c r="AI29" s="24"/>
+      <c r="AJ29" s="24"/>
+      <c r="AK29" s="24"/>
+      <c r="AL29" s="24"/>
+      <c r="AM29" s="24"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="24"/>
+      <c r="AP29" s="24"/>
+      <c r="AQ29" s="24"/>
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2"/>
@@ -4461,30 +4743,30 @@
       </c>
       <c r="C30" s="16" t="str">
         <f>IF(AND(F30&lt;&gt;"null",F30&lt;&gt;""),IF(F30=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G30&lt;&gt;"null",G30&lt;&gt;""),IF(G30=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E30=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v/>
+        <v>skmp</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E30" s="31" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F30" s="31" t="str">
         <f>IF(B$1="ga",IF(E30="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$4=0,"",AE$4),IF(B$1="ga_brp",IF(G30="","","null"))))</f>
-        <v/>
+        <v>3000000000000</v>
       </c>
       <c r="G30" s="31" t="str">
         <f>IF(B$1="ga",IF(E30="","","null"),IF(B$1="ga_es",IF(F30="","","null"),IF(B$1="ga_brp",IF(AF$4=0,"",AF$4),IF(F30="","",INDEX(TableDay1[brp_id],MATCH(F30,TableDay1[es_id],0),1)))))</f>
-        <v/>
+        <v>2200000000000</v>
       </c>
       <c r="H30" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.063</v>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.3E-2</v>
       </c>
       <c r="J30" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D30,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D30,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F30,IF(B$1="ga_brp",G30,E30)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -4496,7 +4778,7 @@
       </c>
       <c r="L30" s="2"/>
       <c r="R30" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S30" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U30,TableDay1[es_id],0)),"")</f>
@@ -4530,7 +4812,7 @@
       <c r="AD30" s="36"/>
       <c r="AE30" s="36" t="str" cm="1">
         <f t="array" ref="AE30">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE15)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE15)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v/>
+        <v>3000000000000</v>
       </c>
       <c r="AF30" s="36" t="str" cm="1">
         <f t="array" ref="AF30">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF15)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF15)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
@@ -4538,15 +4820,15 @@
       </c>
       <c r="AG30" s="36"/>
       <c r="AH30" s="36"/>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="2"/>
-      <c r="AK30" s="2"/>
-      <c r="AL30" s="2"/>
-      <c r="AM30" s="2"/>
-      <c r="AN30" s="2"/>
-      <c r="AO30" s="2"/>
-      <c r="AP30" s="2"/>
-      <c r="AQ30" s="2"/>
+      <c r="AI30" s="24"/>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="24"/>
+      <c r="AL30" s="24"/>
+      <c r="AM30" s="24"/>
+      <c r="AN30" s="24"/>
+      <c r="AO30" s="24"/>
+      <c r="AP30" s="24"/>
+      <c r="AQ30" s="24"/>
       <c r="AR30" s="2"/>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2"/>
@@ -4604,30 +4886,30 @@
       </c>
       <c r="C31" s="16" t="str">
         <f>IF(AND(F31&lt;&gt;"null",F31&lt;&gt;""),IF(F31=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G31&lt;&gt;"null",G31&lt;&gt;""),IF(G31=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E31=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v/>
+        <v>skmp</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E31" s="31" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F31" s="31" t="str">
         <f>IF(B$1="ga",IF(E31="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$4=0,"",AE$4),IF(B$1="ga_brp",IF(G31="","","null"))))</f>
-        <v/>
+        <v>3000000000000</v>
       </c>
       <c r="G31" s="31" t="str">
         <f>IF(B$1="ga",IF(E31="","","null"),IF(B$1="ga_es",IF(F31="","","null"),IF(B$1="ga_brp",IF(AF$4=0,"",AF$4),IF(F31="","",INDEX(TableDay1[brp_id],MATCH(F31,TableDay1[es_id],0),1)))))</f>
-        <v/>
+        <v>2200000000000</v>
       </c>
       <c r="H31" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.062</v>
       </c>
       <c r="I31" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="J31" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D31,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D31,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F31,IF(B$1="ga_brp",G31,E31)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -4639,7 +4921,7 @@
       </c>
       <c r="L31" s="2"/>
       <c r="R31" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S31" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U31,TableDay1[es_id],0)),"")</f>
@@ -4684,15 +4966,15 @@
       </c>
       <c r="AG31" s="36"/>
       <c r="AH31" s="36"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2"/>
-      <c r="AL31" s="2"/>
-      <c r="AM31" s="2"/>
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2"/>
-      <c r="AP31" s="2"/>
-      <c r="AQ31" s="2"/>
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="24"/>
+      <c r="AL31" s="24"/>
+      <c r="AM31" s="24"/>
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="24"/>
+      <c r="AP31" s="24"/>
+      <c r="AQ31" s="24"/>
       <c r="AR31" s="2"/>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
@@ -4750,30 +5032,30 @@
       </c>
       <c r="C32" s="16" t="str">
         <f>IF(AND(F32&lt;&gt;"null",F32&lt;&gt;""),IF(F32=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G32&lt;&gt;"null",G32&lt;&gt;""),IF(G32=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E32=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v/>
+        <v>skmp</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E32" s="31" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F32" s="31" t="str">
         <f>IF(B$1="ga",IF(E32="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$4=0,"",AE$4),IF(B$1="ga_brp",IF(G32="","","null"))))</f>
-        <v/>
+        <v>3000000000000</v>
       </c>
       <c r="G32" s="31" t="str">
         <f>IF(B$1="ga",IF(E32="","","null"),IF(B$1="ga_es",IF(F32="","","null"),IF(B$1="ga_brp",IF(AF$4=0,"",AF$4),IF(F32="","",INDEX(TableDay1[brp_id],MATCH(F32,TableDay1[es_id],0),1)))))</f>
-        <v/>
+        <v>2200000000000</v>
       </c>
       <c r="H32" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.063</v>
       </c>
       <c r="I32" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.3E-2</v>
       </c>
       <c r="J32" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D32,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D32,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F32,IF(B$1="ga_brp",G32,E32)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -4785,7 +5067,7 @@
       </c>
       <c r="L32" s="2"/>
       <c r="R32" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S32" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U32,TableDay1[es_id],0)),"")</f>
@@ -4830,15 +5112,15 @@
       </c>
       <c r="AG32" s="36"/>
       <c r="AH32" s="36"/>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
-      <c r="AK32" s="2"/>
-      <c r="AL32" s="2"/>
-      <c r="AM32" s="2"/>
-      <c r="AN32" s="2"/>
-      <c r="AO32" s="2"/>
-      <c r="AP32" s="2"/>
-      <c r="AQ32" s="2"/>
+      <c r="AI32" s="24"/>
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="24"/>
+      <c r="AL32" s="24"/>
+      <c r="AM32" s="24"/>
+      <c r="AN32" s="24"/>
+      <c r="AO32" s="24"/>
+      <c r="AP32" s="24"/>
+      <c r="AQ32" s="24"/>
       <c r="AR32" s="2"/>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
@@ -4896,30 +5178,30 @@
       </c>
       <c r="C33" s="16" t="str">
         <f>IF(AND(F33&lt;&gt;"null",F33&lt;&gt;""),IF(F33=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G33&lt;&gt;"null",G33&lt;&gt;""),IF(G33=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E33=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v/>
+        <v>skmp</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E33" s="31" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F33" s="31" t="str">
         <f>IF(B$1="ga",IF(E33="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$4=0,"",AE$4),IF(B$1="ga_brp",IF(G33="","","null"))))</f>
-        <v/>
+        <v>3000000000000</v>
       </c>
       <c r="G33" s="31" t="str">
         <f>IF(B$1="ga",IF(E33="","","null"),IF(B$1="ga_es",IF(F33="","","null"),IF(B$1="ga_brp",IF(AF$4=0,"",AF$4),IF(F33="","",INDEX(TableDay1[brp_id],MATCH(F33,TableDay1[es_id],0),1)))))</f>
-        <v/>
+        <v>2200000000000</v>
       </c>
       <c r="H33" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.062</v>
       </c>
       <c r="I33" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="J33" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D33,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D33,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F33,IF(B$1="ga_brp",G33,E33)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -4931,7 +5213,7 @@
       </c>
       <c r="L33" s="2"/>
       <c r="R33" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S33" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U33,TableDay1[es_id],0)),"")</f>
@@ -4976,15 +5258,15 @@
       </c>
       <c r="AG33" s="36"/>
       <c r="AH33" s="36"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33" s="2"/>
-      <c r="AN33" s="2"/>
-      <c r="AO33" s="2"/>
-      <c r="AP33" s="2"/>
-      <c r="AQ33" s="2"/>
+      <c r="AI33" s="24"/>
+      <c r="AJ33" s="24"/>
+      <c r="AK33" s="24"/>
+      <c r="AL33" s="24"/>
+      <c r="AM33" s="24"/>
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="24"/>
+      <c r="AP33" s="24"/>
+      <c r="AQ33" s="24"/>
       <c r="AR33" s="2"/>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2"/>
@@ -5045,7 +5327,7 @@
         <v/>
       </c>
       <c r="D34" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E34" s="31" t="str">
         <f t="shared" si="6"/>
@@ -5099,15 +5381,15 @@
       </c>
       <c r="AG34" s="36"/>
       <c r="AH34" s="36"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
-      <c r="AM34" s="2"/>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="2"/>
-      <c r="AP34" s="2"/>
-      <c r="AQ34" s="2"/>
+      <c r="AI34" s="24"/>
+      <c r="AJ34" s="24"/>
+      <c r="AK34" s="24"/>
+      <c r="AL34" s="24"/>
+      <c r="AM34" s="24"/>
+      <c r="AN34" s="24"/>
+      <c r="AO34" s="24"/>
+      <c r="AP34" s="24"/>
+      <c r="AQ34" s="24"/>
       <c r="AR34" s="2"/>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2"/>
@@ -5168,7 +5450,7 @@
         <v/>
       </c>
       <c r="D35" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E35" s="31" t="str">
         <f t="shared" si="6"/>
@@ -5205,19 +5487,19 @@
       <c r="U35" s="24"/>
       <c r="V35" s="28">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT1H")</f>
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W35" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X35" s="16"/>
       <c r="Y35" s="28">
         <f>SUM(Y37:Y40)</f>
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z35" s="21">
         <f>SUM(Z37:Z40)</f>
-        <v>10</v>
+        <v>10.252000000000001</v>
       </c>
       <c r="AA35" s="27"/>
       <c r="AB35" s="2"/>
@@ -5233,15 +5515,15 @@
       </c>
       <c r="AG35" s="36"/>
       <c r="AH35" s="36"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
-      <c r="AM35" s="2"/>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="2"/>
-      <c r="AP35" s="2"/>
-      <c r="AQ35" s="2"/>
+      <c r="AI35" s="24"/>
+      <c r="AJ35" s="24"/>
+      <c r="AK35" s="24"/>
+      <c r="AL35" s="24"/>
+      <c r="AM35" s="24"/>
+      <c r="AN35" s="24"/>
+      <c r="AO35" s="24"/>
+      <c r="AP35" s="24"/>
+      <c r="AQ35" s="24"/>
       <c r="AR35" s="2"/>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2"/>
@@ -5292,7 +5574,7 @@
       <c r="CM35" s="2"/>
       <c r="CN35" s="2"/>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="16" t="str">
         <f>IF(AND(F36&lt;&gt;"null",F36&lt;&gt;""),IF(F36=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G36&lt;&gt;"null",G36&lt;&gt;""),IF(G36=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E36=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5302,7 +5584,7 @@
         <v/>
       </c>
       <c r="D36" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" s="31" t="str">
         <f t="shared" si="6"/>
@@ -5337,23 +5619,23 @@
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
       <c r="U36" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V36" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT1H")/4</f>
-        <v>2.5</v>
+        <v>2.5625</v>
       </c>
       <c r="W36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y36" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X36" s="7" t="s">
+      <c r="Z36" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y36" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z36" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA36" s="27"/>
       <c r="AB36" s="2"/>
@@ -5428,7 +5710,7 @@
       <c r="CM36" s="2"/>
       <c r="CN36" s="2"/>
     </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16" t="str">
         <f>IF(AND(F37&lt;&gt;"null",F37&lt;&gt;""),IF(F37=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G37&lt;&gt;"null",G37&lt;&gt;""),IF(G37=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E37=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5438,7 +5720,7 @@
         <v/>
       </c>
       <c r="D37" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="31" t="str">
         <f t="shared" si="6"/>
@@ -5473,24 +5755,24 @@
       <c r="S37" s="24"/>
       <c r="T37" s="24"/>
       <c r="U37" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V37" s="19">
         <f>V$36</f>
-        <v>2.5</v>
+        <v>2.5625</v>
       </c>
       <c r="W37" s="19">
         <f>V37</f>
-        <v>2.5</v>
+        <v>2.5625</v>
       </c>
       <c r="X37" s="19"/>
       <c r="Y37" s="23">
         <f>ROUND(W37, 3)</f>
-        <v>2.5</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="Z37" s="23">
         <f>ROUND(V37,3)</f>
-        <v>2.5</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="AA37" s="27"/>
       <c r="AB37" s="2"/>
@@ -5565,7 +5847,7 @@
       <c r="CM37" s="2"/>
       <c r="CN37" s="2"/>
     </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="16" t="str">
         <f>IF(AND(F38&lt;&gt;"null",F38&lt;&gt;""),IF(F38=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G38&lt;&gt;"null",G38&lt;&gt;""),IF(G38=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E38=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5575,7 +5857,7 @@
         <v/>
       </c>
       <c r="D38" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E38" s="31" t="str">
         <f t="shared" si="6"/>
@@ -5610,27 +5892,27 @@
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
       <c r="U38" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V38" s="19">
         <f>V$36</f>
-        <v>2.5</v>
+        <v>2.5625</v>
       </c>
       <c r="W38" s="19">
         <f>X38+W37</f>
-        <v>2.5</v>
+        <v>2.5619999999999998</v>
       </c>
       <c r="X38" s="19">
         <f>V38-Y37</f>
-        <v>0</v>
+        <v>-5.0000000000016698E-4</v>
       </c>
       <c r="Y38" s="23">
         <f>ROUND(W38, 3)</f>
-        <v>2.5</v>
+        <v>2.5619999999999998</v>
       </c>
       <c r="Z38" s="23">
         <f>ROUND(V38,3)</f>
-        <v>2.5</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="AA38" s="27"/>
       <c r="AB38" s="2"/>
@@ -5705,7 +5987,7 @@
       <c r="CM38" s="2"/>
       <c r="CN38" s="2"/>
     </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="16" t="str">
         <f>IF(AND(F39&lt;&gt;"null",F39&lt;&gt;""),IF(F39=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G39&lt;&gt;"null",G39&lt;&gt;""),IF(G39=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E39=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5715,7 +5997,7 @@
         <v/>
       </c>
       <c r="D39" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E39" s="31" t="str">
         <f t="shared" si="6"/>
@@ -5750,27 +6032,27 @@
       <c r="S39" s="24"/>
       <c r="T39" s="24"/>
       <c r="U39" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V39" s="19">
         <f>V$36</f>
-        <v>2.5</v>
+        <v>2.5625</v>
       </c>
       <c r="W39" s="19">
         <f>X39+W38</f>
-        <v>2.5</v>
+        <v>2.5625</v>
       </c>
       <c r="X39" s="19">
         <f>V39-Y38</f>
-        <v>0</v>
+        <v>5.0000000000016698E-4</v>
       </c>
       <c r="Y39" s="23">
         <f>ROUND(W39, 3)</f>
-        <v>2.5</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="Z39" s="23">
         <f>ROUND(V39,3)</f>
-        <v>2.5</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="AA39" s="27"/>
       <c r="AB39" s="2"/>
@@ -5845,7 +6127,7 @@
       <c r="CM39" s="2"/>
       <c r="CN39" s="2"/>
     </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="16" t="str">
         <f>IF(AND(F40&lt;&gt;"null",F40&lt;&gt;""),IF(F40=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G40&lt;&gt;"null",G40&lt;&gt;""),IF(G40=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E40=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5855,7 +6137,7 @@
         <v/>
       </c>
       <c r="D40" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E40" s="31" t="str">
         <f t="shared" si="6"/>
@@ -5890,27 +6172,27 @@
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
       <c r="U40" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V40" s="19">
         <f>V$36</f>
-        <v>2.5</v>
+        <v>2.5625</v>
       </c>
       <c r="W40" s="19">
         <f>X40+W39</f>
-        <v>2.5</v>
+        <v>2.5619999999999998</v>
       </c>
       <c r="X40" s="19">
         <f>V40-Y39</f>
-        <v>0</v>
+        <v>-5.0000000000016698E-4</v>
       </c>
       <c r="Y40" s="23">
         <f>ROUND(W40, 3)</f>
-        <v>2.5</v>
+        <v>2.5619999999999998</v>
       </c>
       <c r="Z40" s="23">
         <f>ROUND(V40,3)</f>
-        <v>2.5</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="AA40" s="27"/>
       <c r="AB40" s="2"/>
@@ -5985,7 +6267,7 @@
       <c r="CM40" s="2"/>
       <c r="CN40" s="2"/>
     </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="16" t="str">
         <f>IF(AND(F41&lt;&gt;"null",F41&lt;&gt;""),IF(F41=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G41&lt;&gt;"null",G41&lt;&gt;""),IF(G41=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E41=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5995,7 +6277,7 @@
         <v/>
       </c>
       <c r="D41" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E41" s="31" t="str">
         <f t="shared" si="6"/>
@@ -6032,19 +6314,19 @@
       <c r="U41" s="24"/>
       <c r="V41" s="28">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E18",TableDay1[resolution],"PT1H")</f>
-        <v>19.158999999999999</v>
+        <v>6.0030000000000001</v>
       </c>
       <c r="W41" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X41" s="40"/>
       <c r="Y41" s="28">
         <f>SUM(Y43:Y46)</f>
-        <v>19.158999999999999</v>
+        <v>6.0030000000000001</v>
       </c>
       <c r="Z41" s="21">
         <f>SUM(Z43:Z46)</f>
-        <v>19.16</v>
+        <v>6.0039999999999996</v>
       </c>
       <c r="AA41" s="27"/>
       <c r="AB41" s="2"/>
@@ -6119,7 +6401,7 @@
       <c r="CM41" s="2"/>
       <c r="CN41" s="2"/>
     </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="16" t="str">
         <f>IF(AND(F42&lt;&gt;"null",F42&lt;&gt;""),IF(F42=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G42&lt;&gt;"null",G42&lt;&gt;""),IF(G42=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E42=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6129,7 +6411,7 @@
         <v/>
       </c>
       <c r="D42" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="31" t="str">
         <f t="shared" si="6"/>
@@ -6168,19 +6450,19 @@
       </c>
       <c r="V42" s="22">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E18",TableDay1[resolution],"PT1H")/4</f>
-        <v>4.7897499999999997</v>
+        <v>1.50075</v>
       </c>
       <c r="W42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X42" s="7" t="s">
+      <c r="Z42" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y42" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z42" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA42" s="27"/>
       <c r="AB42" s="2"/>
@@ -6255,7 +6537,7 @@
       <c r="CM42" s="2"/>
       <c r="CN42" s="2"/>
     </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="16" t="str">
         <f>IF(AND(F43&lt;&gt;"null",F43&lt;&gt;""),IF(F43=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G43&lt;&gt;"null",G43&lt;&gt;""),IF(G43=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E43=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6265,7 +6547,7 @@
         <v/>
       </c>
       <c r="D43" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E43" s="31" t="str">
         <f t="shared" si="6"/>
@@ -6300,24 +6582,24 @@
       <c r="S43" s="24"/>
       <c r="T43" s="24"/>
       <c r="U43" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V43" s="19">
         <f>V$42</f>
-        <v>4.7897499999999997</v>
+        <v>1.50075</v>
       </c>
       <c r="W43" s="19">
         <f>V43</f>
-        <v>4.7897499999999997</v>
+        <v>1.50075</v>
       </c>
       <c r="X43" s="19"/>
       <c r="Y43" s="23">
         <f>ROUND(W43, 3)</f>
-        <v>4.79</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="Z43" s="23">
         <f>ROUND(V43,3)</f>
-        <v>4.79</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="AA43" s="27"/>
       <c r="AB43" s="2"/>
@@ -6386,7 +6668,7 @@
       <c r="CM43" s="2"/>
       <c r="CN43" s="2"/>
     </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" s="16" t="str">
         <f>IF(AND(F44&lt;&gt;"null",F44&lt;&gt;""),IF(F44=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G44&lt;&gt;"null",G44&lt;&gt;""),IF(G44=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E44=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6396,7 +6678,7 @@
         <v/>
       </c>
       <c r="D44" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E44" s="31" t="str">
         <f t="shared" si="6"/>
@@ -6431,27 +6713,27 @@
       <c r="S44" s="24"/>
       <c r="T44" s="24"/>
       <c r="U44" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V44" s="19">
         <f>V$42</f>
-        <v>4.7897499999999997</v>
+        <v>1.50075</v>
       </c>
       <c r="W44" s="19">
         <f>X44+W43</f>
-        <v>4.7894999999999994</v>
+        <v>1.5005000000000002</v>
       </c>
       <c r="X44" s="19">
         <f>V44-Y43</f>
-        <v>-2.5000000000030553E-4</v>
+        <v>-2.4999999999986144E-4</v>
       </c>
       <c r="Y44" s="23">
         <f>ROUND(W44, 3)</f>
-        <v>4.79</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="Z44" s="23">
         <f>ROUND(V44,3)</f>
-        <v>4.79</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="AA44" s="27"/>
       <c r="AB44" s="2"/>
@@ -6520,7 +6802,7 @@
       <c r="CM44" s="2"/>
       <c r="CN44" s="2"/>
     </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" s="16" t="str">
         <f>IF(AND(F45&lt;&gt;"null",F45&lt;&gt;""),IF(F45=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G45&lt;&gt;"null",G45&lt;&gt;""),IF(G45=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E45=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6530,7 +6812,7 @@
         <v/>
       </c>
       <c r="D45" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E45" s="31" t="str">
         <f t="shared" si="6"/>
@@ -6565,27 +6847,27 @@
       <c r="S45" s="24"/>
       <c r="T45" s="24"/>
       <c r="U45" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V45" s="19">
         <f>V$42</f>
-        <v>4.7897499999999997</v>
+        <v>1.50075</v>
       </c>
       <c r="W45" s="19">
         <f>X45+W44</f>
-        <v>4.7892499999999991</v>
+        <v>1.5002500000000003</v>
       </c>
       <c r="X45" s="19">
         <f>V45-Y44</f>
-        <v>-2.5000000000030553E-4</v>
+        <v>-2.4999999999986144E-4</v>
       </c>
       <c r="Y45" s="23">
         <f>ROUND(W45, 3)</f>
-        <v>4.7889999999999997</v>
+        <v>1.5</v>
       </c>
       <c r="Z45" s="23">
         <f>ROUND(V45,3)</f>
-        <v>4.79</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="AA45" s="27"/>
       <c r="AB45" s="2"/>
@@ -6654,10 +6936,10 @@
       <c r="CM45" s="2"/>
       <c r="CN45" s="2"/>
     </row>
-    <row r="46" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="2"/>
       <c r="E46" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F46" s="47"/>
       <c r="G46" s="47"/>
@@ -6666,15 +6948,15 @@
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
       <c r="U46" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V46" s="19">
         <f>V$42</f>
-        <v>4.7897499999999997</v>
+        <v>1.50075</v>
       </c>
       <c r="W46" s="19">
         <f>X46+W45</f>
-        <v>4.7899999999999991</v>
+        <v>1.5010000000000003</v>
       </c>
       <c r="X46" s="19">
         <f>V46-Y45</f>
@@ -6682,11 +6964,11 @@
       </c>
       <c r="Y46" s="23">
         <f>ROUND(W46, 3)</f>
-        <v>4.79</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="Z46" s="23">
         <f>ROUND(V46,3)</f>
-        <v>4.79</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="AA46" s="27"/>
       <c r="AB46" s="2"/>
@@ -6755,7 +7037,7 @@
       <c r="CM46" s="2"/>
       <c r="CN46" s="2"/>
     </row>
-    <row r="47" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="C47" s="2"/>
       <c r="D47" s="4" t="s">
         <v>20</v>
@@ -6778,19 +7060,19 @@
       <c r="U47" s="24"/>
       <c r="V47" s="28">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT1H")</f>
-        <v>0</v>
+        <v>8.8070000000000004</v>
       </c>
       <c r="W47" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X47" s="40"/>
       <c r="Y47" s="28">
         <f>SUM(Y49:Y52)</f>
-        <v>0</v>
+        <v>8.8070000000000004</v>
       </c>
       <c r="Z47" s="21">
         <f>SUM(Z49:Z52)</f>
-        <v>0</v>
+        <v>8.8079999999999998</v>
       </c>
       <c r="AA47" s="27"/>
       <c r="AB47" s="2"/>
@@ -6859,52 +7141,53 @@
       <c r="CM47" s="2"/>
       <c r="CN47" s="2"/>
     </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E48" s="31" t="str">
         <f>$AD$2</f>
         <v>800</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H48" s="32">
-        <f>powerIn1H_quarter1+powerIn15M_quarter1-powerOut1H_quarter1-powerOut15M_quarter1</f>
-        <v>0.83899999999999997</v>
+        <f ca="1">SUMIF(D90:D113,D48,H90:H113)</f>
+        <v>9.7220000000000013</v>
       </c>
       <c r="I48" s="27" t="str">
-        <f>SUBSTITUTE(ROUND(H48,3),",",".")</f>
-        <v>0.839</v>
-      </c>
+        <f ca="1">SUBSTITUTE(ROUND(H48,3),",",".")</f>
+        <v>9.722</v>
+      </c>
+      <c r="J48" s="2"/>
       <c r="R48" s="24"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
       <c r="U48" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V48" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT1H")/4</f>
-        <v>0</v>
+        <v>2.2017500000000001</v>
       </c>
       <c r="W48" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y48" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X48" s="7" t="s">
+      <c r="Z48" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y48" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z48" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA48" s="27"/>
       <c r="AB48" s="2"/>
@@ -6973,53 +7256,54 @@
       <c r="CM48" s="2"/>
       <c r="CN48" s="2"/>
     </row>
-    <row r="49" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E49" s="31" t="str">
         <f t="shared" ref="E49:E51" si="12">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49" s="32">
-        <f>powerIn1H_quarter2+powerIn15M_quarter2-powerOut1H_quarter2-powerOut15M_quarter2</f>
-        <v>0.84</v>
+        <f t="shared" ref="H49:H51" ca="1" si="13">SUMIF(D91:D114,D49,H91:H114)</f>
+        <v>4.7210000000000001</v>
       </c>
       <c r="I49" s="27" t="str">
-        <f t="shared" ref="I49:I51" si="13">SUBSTITUTE(ROUND(H49,3),",",".")</f>
-        <v>0.84</v>
-      </c>
+        <f t="shared" ref="I49:I51" ca="1" si="14">SUBSTITUTE(ROUND(H49,3),",",".")</f>
+        <v>4.721</v>
+      </c>
+      <c r="J49" s="2"/>
       <c r="R49" s="24"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V49" s="19">
         <f>V$48</f>
-        <v>0</v>
+        <v>2.2017500000000001</v>
       </c>
       <c r="W49" s="19">
         <f>V49</f>
-        <v>0</v>
+        <v>2.2017500000000001</v>
       </c>
       <c r="X49" s="19"/>
       <c r="Y49" s="23">
         <f>ROUND(W49, 3)</f>
-        <v>0</v>
+        <v>2.202</v>
       </c>
       <c r="Z49" s="23">
         <f>ROUND(V49,3)</f>
-        <v>0</v>
+        <v>2.202</v>
       </c>
       <c r="AA49" s="27"/>
       <c r="AB49" s="2"/>
@@ -7088,56 +7372,57 @@
       <c r="CM49" s="2"/>
       <c r="CN49" s="2"/>
     </row>
-    <row r="50" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E50" s="31" t="str">
         <f t="shared" si="12"/>
         <v>800</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50" s="32">
-        <f>powerIn1H_quarter3+powerIn15M_quarter3-powerOut1H_quarter3-powerOut15M_quarter3</f>
-        <v>0.83899999999999997</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4.7210000000000001</v>
       </c>
       <c r="I50" s="27" t="str">
-        <f t="shared" si="13"/>
-        <v>0.839</v>
-      </c>
+        <f t="shared" ca="1" si="14"/>
+        <v>4.721</v>
+      </c>
+      <c r="J50" s="2"/>
       <c r="R50" s="24"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="U50" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V50" s="19">
         <f>V$48</f>
-        <v>0</v>
+        <v>2.2017500000000001</v>
       </c>
       <c r="W50" s="19">
         <f>X50+W49</f>
-        <v>0</v>
+        <v>2.2015000000000002</v>
       </c>
       <c r="X50" s="19">
         <f>V50-Y49</f>
-        <v>0</v>
+        <v>-2.4999999999986144E-4</v>
       </c>
       <c r="Y50" s="23">
         <f>ROUND(W50, 3)</f>
-        <v>0</v>
+        <v>2.202</v>
       </c>
       <c r="Z50" s="23">
         <f>ROUND(V50,3)</f>
-        <v>0</v>
+        <v>2.202</v>
       </c>
       <c r="AA50" s="24"/>
       <c r="AB50" s="2"/>
@@ -7206,56 +7491,57 @@
       <c r="CM50" s="2"/>
       <c r="CN50" s="2"/>
     </row>
-    <row r="51" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E51" s="31" t="str">
         <f t="shared" si="12"/>
         <v>800</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51" s="32">
-        <f>powerIn1H_quarter4+powerIn15M_quarter4-powerOut1H_quarter4-powerOut15M_quarter4</f>
-        <v>0.83899999999999997</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4.7220000000000004</v>
       </c>
       <c r="I51" s="27" t="str">
-        <f t="shared" si="13"/>
-        <v>0.839</v>
-      </c>
+        <f t="shared" ca="1" si="14"/>
+        <v>4.722</v>
+      </c>
+      <c r="J51" s="2"/>
       <c r="R51" s="24"/>
       <c r="S51" s="24"/>
       <c r="T51" s="24"/>
       <c r="U51" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V51" s="19">
         <f>V$48</f>
-        <v>0</v>
+        <v>2.2017500000000001</v>
       </c>
       <c r="W51" s="19">
         <f>X51+W50</f>
-        <v>0</v>
+        <v>2.2012500000000004</v>
       </c>
       <c r="X51" s="19">
         <f>V51-Y50</f>
-        <v>0</v>
+        <v>-2.4999999999986144E-4</v>
       </c>
       <c r="Y51" s="23">
         <f>ROUND(W51, 3)</f>
-        <v>0</v>
+        <v>2.2010000000000001</v>
       </c>
       <c r="Z51" s="23">
         <f>ROUND(V51,3)</f>
-        <v>0</v>
+        <v>2.202</v>
       </c>
       <c r="AA51" s="24"/>
       <c r="AB51" s="2"/>
@@ -7324,12 +7610,12 @@
       <c r="CM51" s="2"/>
       <c r="CN51" s="2"/>
     </row>
-    <row r="52" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="E52" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F52" s="52"/>
       <c r="G52" s="52"/>
@@ -7338,27 +7624,27 @@
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
       <c r="U52" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="V52" s="19">
         <f>V$48</f>
-        <v>0</v>
+        <v>2.2017500000000001</v>
       </c>
       <c r="W52" s="19">
         <f>X52+W51</f>
-        <v>0</v>
+        <v>2.2020000000000004</v>
       </c>
       <c r="X52" s="19">
         <f>V52-Y51</f>
-        <v>0</v>
+        <v>7.5000000000002842E-4</v>
       </c>
       <c r="Y52" s="23">
         <f>ROUND(W52, 3)</f>
-        <v>0</v>
+        <v>2.202</v>
       </c>
       <c r="Z52" s="23">
         <f>ROUND(V52,3)</f>
-        <v>0</v>
+        <v>2.202</v>
       </c>
       <c r="AA52" s="24"/>
       <c r="AB52" s="2"/>
@@ -7427,7 +7713,7 @@
       <c r="CM52" s="2"/>
       <c r="CN52" s="2"/>
     </row>
-    <row r="53" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -7452,19 +7738,19 @@
       <c r="U53" s="24"/>
       <c r="V53" s="28">
         <f>ROUND(SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT1H",TableDay1[to_ga],$AD$2),3)</f>
-        <v>3.3570000000000002</v>
+        <v>20.003</v>
       </c>
       <c r="W53" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X53" s="40"/>
       <c r="Y53" s="28">
         <f>ROUND(SUM(Y55:Y58),3)</f>
-        <v>3.3570000000000002</v>
+        <v>20.003</v>
       </c>
       <c r="Z53" s="21">
         <f>SUM(Z55:Z58)</f>
-        <v>3.3559999999999999</v>
+        <v>20.004000000000001</v>
       </c>
       <c r="AA53" s="24"/>
       <c r="AB53" s="2"/>
@@ -7533,7 +7819,7 @@
       <c r="CM53" s="2"/>
       <c r="CN53" s="2"/>
     </row>
-    <row r="54" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -7545,18 +7831,18 @@
         <v>800</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54" s="32">
         <f>totalFlex1H_quarter1+totalFlex15M_quarter1</f>
-        <v>2.5</v>
+        <v>12.563000000000001</v>
       </c>
       <c r="I54" s="27" t="str">
         <f>SUBSTITUTE(ROUND(H54,3),",",".")</f>
-        <v>2.5</v>
+        <v>12.563</v>
       </c>
       <c r="Q54" s="46"/>
       <c r="R54" s="46"/>
@@ -7567,19 +7853,19 @@
       </c>
       <c r="V54" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT1H",TableDay1[to_ga],$AD$2)/4</f>
-        <v>0.83925000000000005</v>
+        <v>5.00075</v>
       </c>
       <c r="W54" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X54" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y54" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X54" s="7" t="s">
+      <c r="Z54" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y54" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z54" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA54" s="24"/>
       <c r="AB54" s="2"/>
@@ -7648,7 +7934,7 @@
       <c r="CM54" s="2"/>
       <c r="CN54" s="2"/>
     </row>
-    <row r="55" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -7656,45 +7942,45 @@
         <v>4</v>
       </c>
       <c r="E55" s="31" t="str">
-        <f t="shared" ref="E55:E57" si="14">$AD$2</f>
+        <f t="shared" ref="E55:E57" si="15">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55" s="32">
         <f>totalFlex1H_quarter2+totalFlex15M_quarter2</f>
-        <v>2.5</v>
+        <v>2.5619999999999998</v>
       </c>
       <c r="I55" s="27" t="str">
-        <f t="shared" ref="I55:I57" si="15">SUBSTITUTE(ROUND(H55,3),",",".")</f>
-        <v>2.5</v>
+        <f t="shared" ref="I55:I57" si="16">SUBSTITUTE(ROUND(H55,3),",",".")</f>
+        <v>2.562</v>
       </c>
       <c r="R55" s="44"/>
       <c r="S55" s="24"/>
       <c r="T55" s="24"/>
       <c r="U55" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V55" s="19">
         <f>V$54</f>
-        <v>0.83925000000000005</v>
+        <v>5.00075</v>
       </c>
       <c r="W55" s="19">
         <f>V55</f>
-        <v>0.83925000000000005</v>
+        <v>5.00075</v>
       </c>
       <c r="X55" s="19"/>
       <c r="Y55" s="23">
         <f>ROUND(W55,3)</f>
-        <v>0.83899999999999997</v>
+        <v>5.0010000000000003</v>
       </c>
       <c r="Z55" s="23">
         <f>ROUND(V55,3)</f>
-        <v>0.83899999999999997</v>
+        <v>5.0010000000000003</v>
       </c>
       <c r="AA55" s="45"/>
       <c r="AB55" s="2"/>
@@ -7763,7 +8049,7 @@
       <c r="CM55" s="2"/>
       <c r="CN55" s="2"/>
     </row>
-    <row r="56" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -7771,48 +8057,48 @@
         <v>5</v>
       </c>
       <c r="E56" s="31" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>800</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56" s="32">
         <f>totalFlex1H_quarter3+totalFlex15M_quarter3</f>
-        <v>2.5</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="I56" s="27" t="str">
-        <f t="shared" si="15"/>
-        <v>2.5</v>
+        <f t="shared" si="16"/>
+        <v>2.563</v>
       </c>
       <c r="R56" s="24"/>
       <c r="S56" s="24"/>
       <c r="T56" s="24"/>
       <c r="U56" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V56" s="19">
         <f>V$54</f>
-        <v>0.83925000000000005</v>
+        <v>5.00075</v>
       </c>
       <c r="W56" s="19">
         <f>X56+W55</f>
-        <v>0.83950000000000014</v>
+        <v>5.0004999999999997</v>
       </c>
       <c r="X56" s="19">
         <f>V56-Y55</f>
-        <v>2.5000000000008349E-4</v>
+        <v>-2.5000000000030553E-4</v>
       </c>
       <c r="Y56" s="23">
-        <f t="shared" ref="Y56:Y58" si="16">ROUND(W56,3)</f>
-        <v>0.84</v>
+        <f t="shared" ref="Y56:Y58" si="17">ROUND(W56,3)</f>
+        <v>5.0010000000000003</v>
       </c>
       <c r="Z56" s="23">
         <f>ROUND(V56,3)</f>
-        <v>0.83899999999999997</v>
+        <v>5.0010000000000003</v>
       </c>
       <c r="AA56" s="45"/>
       <c r="AB56" s="2"/>
@@ -7881,7 +8167,7 @@
       <c r="CM56" s="2"/>
       <c r="CN56" s="2"/>
     </row>
-    <row r="57" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -7889,48 +8175,48 @@
         <v>6</v>
       </c>
       <c r="E57" s="31" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>800</v>
       </c>
       <c r="F57" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57" s="32">
         <f>totalFlex1H_quarter4+totalFlex15M_quarter4</f>
-        <v>2.5</v>
+        <v>2.5619999999999998</v>
       </c>
       <c r="I57" s="27" t="str">
-        <f t="shared" si="15"/>
-        <v>2.5</v>
+        <f t="shared" si="16"/>
+        <v>2.562</v>
       </c>
       <c r="R57" s="24"/>
       <c r="S57" s="24"/>
       <c r="T57" s="24"/>
       <c r="U57" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V57" s="19">
         <f>V$54</f>
-        <v>0.83925000000000005</v>
+        <v>5.00075</v>
       </c>
       <c r="W57" s="19">
         <f>X57+W56</f>
-        <v>0.83875000000000022</v>
+        <v>5.0002499999999994</v>
       </c>
       <c r="X57" s="19">
         <f>V57-Y56</f>
-        <v>-7.499999999999174E-4</v>
+        <v>-2.5000000000030553E-4</v>
       </c>
       <c r="Y57" s="23">
-        <f t="shared" si="16"/>
-        <v>0.83899999999999997</v>
+        <f t="shared" si="17"/>
+        <v>5</v>
       </c>
       <c r="Z57" s="23">
         <f>ROUND(V57,3)</f>
-        <v>0.83899999999999997</v>
+        <v>5.0010000000000003</v>
       </c>
       <c r="AA57" s="45"/>
       <c r="AB57" s="2"/>
@@ -7999,12 +8285,12 @@
       <c r="CM57" s="2"/>
       <c r="CN57" s="2"/>
     </row>
-    <row r="58" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="E58" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F58" s="52"/>
       <c r="G58" s="52"/>
@@ -8013,27 +8299,27 @@
       <c r="S58" s="24"/>
       <c r="T58" s="24"/>
       <c r="U58" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="V58" s="19">
         <f>V$54</f>
-        <v>0.83925000000000005</v>
+        <v>5.00075</v>
       </c>
       <c r="W58" s="19">
         <f>X58+W57</f>
-        <v>0.8390000000000003</v>
+        <v>5.0009999999999994</v>
       </c>
       <c r="X58" s="19">
         <f>V58-Y57</f>
-        <v>2.5000000000008349E-4</v>
+        <v>7.5000000000002842E-4</v>
       </c>
       <c r="Y58" s="23">
-        <f t="shared" si="16"/>
-        <v>0.83899999999999997</v>
+        <f t="shared" si="17"/>
+        <v>5.0010000000000003</v>
       </c>
       <c r="Z58" s="23">
         <f>ROUND(V58,3)</f>
-        <v>0.83899999999999997</v>
+        <v>5.0010000000000003</v>
       </c>
       <c r="AA58" s="45"/>
       <c r="AB58" s="2"/>
@@ -8102,7 +8388,7 @@
       <c r="CM58" s="2"/>
       <c r="CN58" s="2"/>
     </row>
-    <row r="59" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -8127,19 +8413,19 @@
       <c r="U59" s="24"/>
       <c r="V59" s="28">
         <f>ROUND(SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT1H",TableDay1[from_ga],"800"),3)</f>
-        <v>0</v>
+        <v>1.117</v>
       </c>
       <c r="W59" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X59" s="40"/>
       <c r="Y59" s="28">
         <f>ROUND(SUM(Y61:Y64),3)</f>
-        <v>0</v>
+        <v>1.117</v>
       </c>
       <c r="Z59" s="21">
         <f>SUM(Z61:Z64)</f>
-        <v>0</v>
+        <v>1.1160000000000001</v>
       </c>
       <c r="AA59" s="27"/>
       <c r="AB59" s="2"/>
@@ -8208,7 +8494,7 @@
       <c r="CM59" s="2"/>
       <c r="CN59" s="2"/>
     </row>
-    <row r="60" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C60" s="2"/>
       <c r="D60" s="8" t="s">
         <v>3</v>
@@ -8218,40 +8504,40 @@
         <v>800</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60" s="32">
         <f>totalProduction1H_quarter1+totalProduction15M_quarter1</f>
-        <v>4.79</v>
+        <v>7.5009999999999994</v>
       </c>
       <c r="I60" s="27" t="str">
         <f>SUBSTITUTE(ROUND(H60,3),",",".")</f>
-        <v>4.79</v>
+        <v>7.501</v>
       </c>
       <c r="R60" s="44"/>
       <c r="S60" s="24"/>
       <c r="T60" s="24"/>
       <c r="U60" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V60" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT1H",TableDay1[from_ga],"800")/4</f>
-        <v>0</v>
+        <v>0.27925</v>
       </c>
       <c r="W60" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X60" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y60" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X60" s="7" t="s">
+      <c r="Z60" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y60" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z60" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA60" s="27"/>
       <c r="AB60" s="2"/>
@@ -8320,51 +8606,51 @@
       <c r="CM60" s="2"/>
       <c r="CN60" s="2"/>
     </row>
-    <row r="61" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C61" s="2"/>
       <c r="D61" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E61" s="31" t="str">
-        <f t="shared" ref="E61:E63" si="17">$AD$2</f>
+        <f t="shared" ref="E61:E63" si="18">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61" s="32">
         <f>totalProduction1H_quarter2+totalProduction15M_quarter2</f>
-        <v>4.79</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="I61" s="27" t="str">
-        <f t="shared" ref="I61:I63" si="18">SUBSTITUTE(ROUND(H61,3),",",".")</f>
-        <v>4.79</v>
+        <f t="shared" ref="I61:I63" si="19">SUBSTITUTE(ROUND(H61,3),",",".")</f>
+        <v>1.501</v>
       </c>
       <c r="R61" s="24"/>
       <c r="S61" s="24"/>
       <c r="T61" s="24"/>
       <c r="U61" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V61" s="19">
         <f>V$60</f>
-        <v>0</v>
+        <v>0.27925</v>
       </c>
       <c r="W61" s="19">
         <f>V61</f>
-        <v>0</v>
+        <v>0.27925</v>
       </c>
       <c r="X61" s="19"/>
       <c r="Y61" s="23">
         <f>ROUND(W61,3)</f>
-        <v>0</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="Z61" s="23">
         <f>ROUND(V61,3)</f>
-        <v>0</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="AA61" s="45"/>
       <c r="AB61" s="2"/>
@@ -8433,54 +8719,54 @@
       <c r="CM61" s="2"/>
       <c r="CN61" s="2"/>
     </row>
-    <row r="62" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C62" s="2"/>
       <c r="D62" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="31" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>800</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H62" s="32">
         <f>totalProduction1H_quarter3+totalProduction15M_quarter3</f>
-        <v>4.7889999999999997</v>
+        <v>1.5</v>
       </c>
       <c r="I62" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>4.789</v>
+        <f t="shared" si="19"/>
+        <v>1.5</v>
       </c>
       <c r="R62" s="24"/>
       <c r="S62" s="24"/>
       <c r="T62" s="24"/>
       <c r="U62" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V62" s="19">
         <f>V$60</f>
-        <v>0</v>
+        <v>0.27925</v>
       </c>
       <c r="W62" s="19">
         <f>X62+W61</f>
-        <v>0</v>
+        <v>0.27949999999999997</v>
       </c>
       <c r="X62" s="19">
         <f>V62-Y61</f>
-        <v>0</v>
+        <v>2.4999999999997247E-4</v>
       </c>
       <c r="Y62" s="23">
-        <f t="shared" ref="Y62:Y64" si="19">ROUND(W62,3)</f>
-        <v>0</v>
+        <f t="shared" ref="Y62:Y64" si="20">ROUND(W62,3)</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Z62" s="23">
         <f>ROUND(V62,3)</f>
-        <v>0</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="AA62" s="45"/>
       <c r="AB62" s="2"/>
@@ -8549,54 +8835,54 @@
       <c r="CM62" s="2"/>
       <c r="CN62" s="2"/>
     </row>
-    <row r="63" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C63" s="2"/>
       <c r="D63" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="31" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>800</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G63" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63" s="32">
         <f>totalProduction1H_quarter4+totalProduction15M_quarter4</f>
-        <v>4.79</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="I63" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>4.79</v>
+        <f t="shared" si="19"/>
+        <v>1.501</v>
       </c>
       <c r="R63" s="24"/>
       <c r="S63" s="24"/>
       <c r="T63" s="24"/>
       <c r="U63" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V63" s="19">
         <f>V$60</f>
-        <v>0</v>
+        <v>0.27925</v>
       </c>
       <c r="W63" s="19">
         <f>X63+W62</f>
-        <v>0</v>
+        <v>0.27874999999999994</v>
       </c>
       <c r="X63" s="19">
         <f>V63-Y62</f>
-        <v>0</v>
+        <v>-7.5000000000002842E-4</v>
       </c>
       <c r="Y63" s="23">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0.27900000000000003</v>
       </c>
       <c r="Z63" s="23">
         <f>ROUND(V63,3)</f>
-        <v>0</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="AA63" s="45"/>
       <c r="AB63" s="2"/>
@@ -8665,10 +8951,10 @@
       <c r="CM63" s="2"/>
       <c r="CN63" s="2"/>
     </row>
-    <row r="64" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="2"/>
       <c r="E64" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F64" s="52"/>
       <c r="G64" s="52"/>
@@ -8677,27 +8963,27 @@
       <c r="S64" s="24"/>
       <c r="T64" s="24"/>
       <c r="U64" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V64" s="19">
         <f>V$60</f>
-        <v>0</v>
+        <v>0.27925</v>
       </c>
       <c r="W64" s="19">
         <f>X64+W63</f>
-        <v>0</v>
+        <v>0.27899999999999991</v>
       </c>
       <c r="X64" s="19">
         <f>V64-Y63</f>
-        <v>0</v>
+        <v>2.4999999999997247E-4</v>
       </c>
       <c r="Y64" s="23">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0.27900000000000003</v>
       </c>
       <c r="Z64" s="23">
         <f>ROUND(V64,3)</f>
-        <v>0</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="AA64" s="45"/>
       <c r="AB64" s="2"/>
@@ -8766,7 +9052,7 @@
       <c r="CM64" s="2"/>
       <c r="CN64" s="2"/>
     </row>
-    <row r="65" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="s">
         <v>20</v>
@@ -8789,19 +9075,19 @@
       <c r="U65" s="24"/>
       <c r="V65" s="28">
         <f>ROUND(SUMIFS(TableDay1[TotalHour],TableDay1[type],"E17",TableDay1[resolution],"PT1H"),3)</f>
-        <v>10</v>
+        <v>19.056999999999999</v>
       </c>
       <c r="W65" s="55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X65" s="56"/>
       <c r="Y65" s="28">
         <f>ROUND(SUM(Y67:Y70),3)</f>
-        <v>10</v>
+        <v>19.056999999999999</v>
       </c>
       <c r="Z65" s="21">
         <f>SUM(Z67:Z70)</f>
-        <v>10</v>
+        <v>19.056000000000001</v>
       </c>
       <c r="AA65" s="27"/>
       <c r="AB65" s="2"/>
@@ -8870,7 +9156,7 @@
       <c r="CM65" s="2"/>
       <c r="CN65" s="2"/>
     </row>
-    <row r="66" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C66" s="2"/>
       <c r="D66" s="8" t="s">
         <v>3</v>
@@ -8880,18 +9166,18 @@
         <v>800</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66" s="32">
-        <f>totalProduction1H_quarter1+totalProduction15M_quarter1+netEx_quarter1-totalFlex1H_quarter1-totalFlex15M_quarter1-totalNonprofiled1H_quarter1-totalNonprofiled15M_quarter1</f>
-        <v>3.1289999999999996</v>
+        <f ca="1">totalProduction1H_quarter1+totalProduction15M_quarter1+netEx_quarter1-totalFlex1H_quarter1-totalFlex15M_quarter1-totalNonprofiled1H_quarter1-totalNonprofiled15M_quarter1</f>
+        <v>-2.5420000000000016</v>
       </c>
       <c r="I66" s="27" t="str">
-        <f>SUBSTITUTE(ROUND(H66,3),",",".")</f>
-        <v>3.129</v>
+        <f ca="1">SUBSTITUTE(ROUND(H66,3),",",".")</f>
+        <v>-2.542</v>
       </c>
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
@@ -8901,19 +9187,19 @@
       </c>
       <c r="V66" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E17",TableDay1[resolution],"PT1H")/4</f>
-        <v>2.5</v>
+        <v>4.7642500000000005</v>
       </c>
       <c r="W66" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X66" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y66" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X66" s="7" t="s">
+      <c r="Z66" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y66" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z66" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA66" s="27"/>
       <c r="AB66" s="2"/>
@@ -8982,51 +9268,51 @@
       <c r="CM66" s="2"/>
       <c r="CN66" s="2"/>
     </row>
-    <row r="67" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C67" s="2"/>
       <c r="D67" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="31" t="str">
-        <f t="shared" ref="E67:E69" si="20">$AD$2</f>
+        <f t="shared" ref="E67:E69" si="21">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F67" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G67" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67" s="32">
-        <f>totalProduction1H_quarter2+totalProduction15M_quarter2+netEx_quarter2-totalFlex1H_quarter2-totalFlex15M_quarter2-totalNonprofiled1H_quarter2-totalNonprofiled15M_quarter2</f>
-        <v>3.13</v>
+        <f ca="1">totalProduction1H_quarter2+totalProduction15M_quarter2+netEx_quarter2-totalFlex1H_quarter2-totalFlex15M_quarter2-totalNonprofiled1H_quarter2-totalNonprofiled15M_quarter2</f>
+        <v>1.4579999999999997</v>
       </c>
       <c r="I67" s="27" t="str">
-        <f t="shared" ref="I67:I69" si="21">SUBSTITUTE(ROUND(H67,3),",",".")</f>
-        <v>3.13</v>
+        <f t="shared" ref="I67:I69" ca="1" si="22">SUBSTITUTE(ROUND(H67,3),",",".")</f>
+        <v>1.458</v>
       </c>
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
       <c r="T67" s="24"/>
       <c r="U67" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="V67" s="19">
         <f>V$66</f>
-        <v>2.5</v>
+        <v>4.7642500000000005</v>
       </c>
       <c r="W67" s="19">
         <f>V67</f>
-        <v>2.5</v>
+        <v>4.7642500000000005</v>
       </c>
       <c r="X67" s="19"/>
       <c r="Y67" s="23">
         <f>ROUND(W67, 3)</f>
-        <v>2.5</v>
+        <v>4.7640000000000002</v>
       </c>
       <c r="Z67" s="23">
         <f>ROUND(V67,3)</f>
-        <v>2.5</v>
+        <v>4.7640000000000002</v>
       </c>
       <c r="AA67" s="27"/>
       <c r="AB67" s="2"/>
@@ -9095,54 +9381,54 @@
       <c r="CM67" s="2"/>
       <c r="CN67" s="2"/>
     </row>
-    <row r="68" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C68" s="2"/>
       <c r="D68" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E68" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>800</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G68" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H68" s="32">
-        <f>totalProduction1H_quarter3+totalProduction15M_quarter3+netEx_quarter3-totalFlex1H_quarter3-totalFlex15M_quarter3-totalNonprofiled1H_quarter3-totalNonprofiled15M_quarter3</f>
-        <v>3.1280000000000001</v>
+        <f ca="1">totalProduction1H_quarter3+totalProduction15M_quarter3+netEx_quarter3-totalFlex1H_quarter3-totalFlex15M_quarter3-totalNonprofiled1H_quarter3-totalNonprofiled15M_quarter3</f>
+        <v>1.4569999999999999</v>
       </c>
       <c r="I68" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v>3.128</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.457</v>
       </c>
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V68" s="19">
         <f>V$66</f>
-        <v>2.5</v>
+        <v>4.7642500000000005</v>
       </c>
       <c r="W68" s="19">
         <f>X68+W67</f>
-        <v>2.5</v>
+        <v>4.7645000000000008</v>
       </c>
       <c r="X68" s="19">
         <f>V68-Y67</f>
-        <v>0</v>
+        <v>2.5000000000030553E-4</v>
       </c>
       <c r="Y68" s="23">
         <f>ROUND(W68, 3)</f>
-        <v>2.5</v>
+        <v>4.7649999999999997</v>
       </c>
       <c r="Z68" s="23">
         <f>ROUND(V68,3)</f>
-        <v>2.5</v>
+        <v>4.7640000000000002</v>
       </c>
       <c r="AA68" s="27"/>
       <c r="AB68" s="2"/>
@@ -9211,55 +9497,55 @@
       <c r="CM68" s="2"/>
       <c r="CN68" s="2"/>
     </row>
-    <row r="69" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C69" s="2"/>
       <c r="D69" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E69" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>800</v>
       </c>
       <c r="F69" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H69" s="32">
-        <f>totalProduction1H_quarter4+totalProduction15M_quarter4+netEx_quarter4-totalFlex1H_quarter4-totalFlex15M_quarter4-totalNonprofiled1H_quarter4-totalNonprofiled15M_quarter4</f>
-        <v>3.1289999999999996</v>
+        <f ca="1">totalProduction1H_quarter4+totalProduction15M_quarter4+netEx_quarter4-totalFlex1H_quarter4-totalFlex15M_quarter4-totalNonprofiled1H_quarter4-totalNonprofiled15M_quarter4</f>
+        <v>1.459000000000001</v>
       </c>
       <c r="I69" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v>3.129</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.459</v>
       </c>
       <c r="J69" s="2"/>
       <c r="R69" s="24"/>
       <c r="S69" s="24"/>
       <c r="T69" s="24"/>
       <c r="U69" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V69" s="19">
         <f>V$66</f>
-        <v>2.5</v>
+        <v>4.7642500000000005</v>
       </c>
       <c r="W69" s="19">
         <f>X69+W68</f>
-        <v>2.5</v>
+        <v>4.7637500000000017</v>
       </c>
       <c r="X69" s="19">
         <f>V69-Y68</f>
-        <v>0</v>
+        <v>-7.4999999999914024E-4</v>
       </c>
       <c r="Y69" s="23">
         <f>ROUND(W69, 3)</f>
-        <v>2.5</v>
+        <v>4.7640000000000002</v>
       </c>
       <c r="Z69" s="23">
         <f>ROUND(V69,3)</f>
-        <v>2.5</v>
+        <v>4.7640000000000002</v>
       </c>
       <c r="AA69" s="27"/>
       <c r="AB69" s="2"/>
@@ -9328,10 +9614,10 @@
       <c r="CM69" s="2"/>
       <c r="CN69" s="2"/>
     </row>
-    <row r="70" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" s="2"/>
       <c r="E70" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F70" s="52"/>
       <c r="G70" s="52"/>
@@ -9340,27 +9626,27 @@
       <c r="S70" s="24"/>
       <c r="T70" s="27"/>
       <c r="U70" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V70" s="19">
         <f>V$66</f>
-        <v>2.5</v>
+        <v>4.7642500000000005</v>
       </c>
       <c r="W70" s="19">
         <f>X70+W69</f>
-        <v>2.5</v>
+        <v>4.764000000000002</v>
       </c>
       <c r="X70" s="19">
         <f>V70-Y69</f>
-        <v>0</v>
+        <v>2.5000000000030553E-4</v>
       </c>
       <c r="Y70" s="23">
         <f>ROUND(W70, 3)</f>
-        <v>2.5</v>
+        <v>4.7640000000000002</v>
       </c>
       <c r="Z70" s="23">
         <f>ROUND(V70,3)</f>
-        <v>2.5</v>
+        <v>4.7640000000000002</v>
       </c>
       <c r="AA70" s="27"/>
       <c r="AB70" s="2"/>
@@ -9429,7 +9715,7 @@
       <c r="CM70" s="2"/>
       <c r="CN70" s="2"/>
     </row>
-    <row r="71" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="C71" s="2"/>
       <c r="D71" s="4" t="s">
         <v>20</v>
@@ -9522,28 +9808,28 @@
       <c r="CM71" s="2"/>
       <c r="CN71" s="2"/>
     </row>
-    <row r="72" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C72" s="2"/>
       <c r="D72" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E72" s="31" t="str">
         <f>$AD$2</f>
         <v>800</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G72" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72" s="32">
-        <f>IF(gridLoss1H_quarter4&gt;0,gridLoss1H_quarter4,0)</f>
-        <v>3.1289999999999996</v>
+        <f ca="1">IF(gridLoss1H_quarter4&gt;0,gridLoss1H_quarter4,0)</f>
+        <v>1.459000000000001</v>
       </c>
       <c r="I72" s="27" t="str">
-        <f>SUBSTITUTE(ROUND(H72,3),",",".")</f>
-        <v>3.129</v>
+        <f ca="1">SUBSTITUTE(ROUND(H72,3),",",".")</f>
+        <v>1.459</v>
       </c>
       <c r="R72" s="24"/>
       <c r="S72" s="27"/>
@@ -9621,28 +9907,28 @@
       <c r="CM72" s="2"/>
       <c r="CN72" s="2"/>
     </row>
-    <row r="73" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C73" s="2"/>
       <c r="D73" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E73" s="31" t="str">
-        <f t="shared" ref="E73:E75" si="22">$AD$2</f>
+        <f t="shared" ref="E73:E75" si="23">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73" s="32">
-        <f>IF(gridLoss1H_quarter3&gt;0,gridLoss1H_quarter3,0)</f>
-        <v>3.1280000000000001</v>
+        <f ca="1">IF(gridLoss1H_quarter3&gt;0,gridLoss1H_quarter3,0)</f>
+        <v>1.4569999999999999</v>
       </c>
       <c r="I73" s="27" t="str">
-        <f t="shared" ref="I73:I75" si="23">SUBSTITUTE(ROUND(H73,3),",",".")</f>
-        <v>3.128</v>
+        <f t="shared" ref="I73:I75" ca="1" si="24">SUBSTITUTE(ROUND(H73,3),",",".")</f>
+        <v>1.457</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -9713,28 +9999,28 @@
       <c r="CM73" s="2"/>
       <c r="CN73" s="2"/>
     </row>
-    <row r="74" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C74" s="2"/>
       <c r="D74" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E74" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>800</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74" s="32">
-        <f>IF(gridLoss1H_quarter2&gt;0,gridLoss1H_quarter2,0)</f>
-        <v>3.13</v>
+        <f ca="1">IF(gridLoss1H_quarter2&gt;0,gridLoss1H_quarter2,0)</f>
+        <v>1.4579999999999997</v>
       </c>
       <c r="I74" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v>3.13</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>1.458</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9816,28 +10102,28 @@
       <c r="CM74" s="2"/>
       <c r="CN74" s="2"/>
     </row>
-    <row r="75" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C75" s="2"/>
       <c r="D75" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E75" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>800</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H75" s="32">
-        <f>IF(gridLoss1H_quarter1&gt;0,gridLoss1H_quarter1,0)</f>
-        <v>3.1289999999999996</v>
+        <f ca="1">IF(gridLoss1H_quarter1&gt;0,gridLoss1H_quarter1,0)</f>
+        <v>0</v>
       </c>
       <c r="I75" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v>3.129</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -9917,10 +10203,10 @@
       <c r="CM75" s="2"/>
       <c r="CN75" s="2"/>
     </row>
-    <row r="76" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" s="2"/>
       <c r="E76" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F76" s="52"/>
       <c r="G76" s="52"/>
@@ -10010,7 +10296,7 @@
       <c r="CM76" s="2"/>
       <c r="CN76" s="2"/>
     </row>
-    <row r="77" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="C77" s="2"/>
       <c r="D77" s="4" t="s">
         <v>20</v>
@@ -10112,27 +10398,27 @@
       <c r="CM77" s="2"/>
       <c r="CN77" s="2"/>
     </row>
-    <row r="78" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C78" s="2"/>
       <c r="D78" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E78" s="31" t="str">
         <f>$AD$2</f>
         <v>800</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G78" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H78" s="32">
-        <f>IF(gridLoss1H_quarter4&lt;0,gridLoss1H_quarter4*-1,0)</f>
+        <f ca="1">IF(gridLoss1H_quarter4&lt;0,gridLoss1H_quarter4*-1,0)</f>
         <v>0</v>
       </c>
       <c r="I78" s="27" t="str">
-        <f>SUBSTITUTE(ROUND(H78,3),",",".")</f>
+        <f ca="1">SUBSTITUTE(ROUND(H78,3),",",".")</f>
         <v>0</v>
       </c>
       <c r="J78" s="2"/>
@@ -10219,27 +10505,27 @@
       <c r="CM78" s="2"/>
       <c r="CN78" s="2"/>
     </row>
-    <row r="79" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C79" s="2"/>
       <c r="D79" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E79" s="31" t="str">
-        <f t="shared" ref="E79:E81" si="24">$AD$2</f>
+        <f t="shared" ref="E79:E81" si="25">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H79" s="32">
-        <f>IF(gridLoss1H_quarter3&lt;0,gridLoss1H_quarter3*-1,0)</f>
+        <f ca="1">IF(gridLoss1H_quarter3&lt;0,gridLoss1H_quarter3*-1,0)</f>
         <v>0</v>
       </c>
       <c r="I79" s="27" t="str">
-        <f t="shared" ref="I79:I81" si="25">SUBSTITUTE(ROUND(H79,3),",",".")</f>
+        <f t="shared" ref="I79:I81" ca="1" si="26">SUBSTITUTE(ROUND(H79,3),",",".")</f>
         <v>0</v>
       </c>
       <c r="J79" s="2"/>
@@ -10326,27 +10612,27 @@
       <c r="CM79" s="2"/>
       <c r="CN79" s="2"/>
     </row>
-    <row r="80" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C80" s="2"/>
       <c r="D80" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E80" s="31" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>800</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H80" s="32">
-        <f>IF(gridLoss1H_quarter2&lt;0,gridLoss1H_quarter2*-1,0)</f>
+        <f ca="1">IF(gridLoss1H_quarter2&lt;0,gridLoss1H_quarter2*-1,0)</f>
         <v>0</v>
       </c>
       <c r="I80" s="27" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="J80" s="2"/>
@@ -10433,28 +10719,28 @@
       <c r="CM80" s="2"/>
       <c r="CN80" s="2"/>
     </row>
-    <row r="81" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C81" s="2"/>
       <c r="D81" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E81" s="31" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>800</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81" s="32">
-        <f>IF(gridLoss1H_quarter1&lt;0,(gridLoss1H_quarter1)*-1,0)</f>
-        <v>0</v>
+        <f ca="1">IF(gridLoss1H_quarter1&lt;0,(gridLoss1H_quarter1)*-1,0)</f>
+        <v>2.5420000000000016</v>
       </c>
       <c r="I81" s="27" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>2.542</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -10540,10 +10826,10 @@
       <c r="CM81" s="2"/>
       <c r="CN81" s="2"/>
     </row>
-    <row r="82" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" s="2"/>
       <c r="E82" s="51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F82" s="52"/>
       <c r="G82" s="52"/>
@@ -10633,7 +10919,7 @@
       <c r="CM82" s="2"/>
       <c r="CN82" s="2"/>
     </row>
-    <row r="83" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="C83" s="2"/>
       <c r="D83" s="4" t="s">
         <v>20</v>
@@ -10735,33 +11021,33 @@
       <c r="CM83" s="2"/>
       <c r="CN83" s="2"/>
     </row>
-    <row r="84" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C84" s="2"/>
       <c r="D84" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E84" s="31" t="str">
         <f>$AD$2</f>
         <v>800</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H84" s="32">
-        <f>netEx_quarter1+totalProduction1H_quarter1+totalProduction15M_quarter1+negGridLossQuarter1</f>
-        <v>5.6289999999999996</v>
+        <f ca="1">netEx_quarter1+totalProduction1H_quarter1+totalProduction15M_quarter1+negGridLossQuarter1</f>
+        <v>19.765000000000001</v>
       </c>
       <c r="I84" s="27" t="str">
-        <f>SUBSTITUTE(ROUND(H84,3),",",".")</f>
-        <v>5.629</v>
+        <f ca="1">SUBSTITUTE(ROUND(H84,3),",",".")</f>
+        <v>19.765</v>
       </c>
       <c r="J84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W84" s="54"/>
       <c r="X84" s="54"/>
@@ -10837,25 +11123,25 @@
     <row r="85" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C85" s="2"/>
       <c r="D85" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E85" s="31" t="str">
-        <f t="shared" ref="E85:E87" si="26">$AD$2</f>
+        <f t="shared" ref="E85:E87" si="27">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85" s="32">
-        <f>netEx_quarter2+totalProduction1H_quarter2+totalProduction15M_quarter2+negGridLossQuarter2</f>
-        <v>5.63</v>
+        <f ca="1">netEx_quarter2+totalProduction1H_quarter2+totalProduction15M_quarter2+negGridLossQuarter2</f>
+        <v>6.2219999999999995</v>
       </c>
       <c r="I85" s="27" t="str">
-        <f t="shared" ref="I85:I87" si="27">SUBSTITUTE(ROUND(H85,3),",",".")</f>
-        <v>5.63</v>
+        <f t="shared" ref="I85:I87" ca="1" si="28">SUBSTITUTE(ROUND(H85,3),",",".")</f>
+        <v>6.222</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -10864,16 +11150,16 @@
         <v>14</v>
       </c>
       <c r="W85" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X85" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y85" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z85" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="Y85" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z85" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
@@ -10881,8 +11167,7 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
-      <c r="AG85" s="27"/>
-      <c r="AH85" s="2"/>
+      <c r="AH85" s="27"/>
       <c r="AI85" s="2"/>
       <c r="AJ85" s="2"/>
       <c r="AK85" s="2"/>
@@ -10945,59 +11230,57 @@
     <row r="86" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C86" s="2"/>
       <c r="D86" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E86" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>800</v>
       </c>
       <c r="F86" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H86" s="32">
-        <f>netEx_quarter3+totalProduction1H_quarter3+totalProduction15M_quarter3+negGridLossQuarter3</f>
-        <v>5.6280000000000001</v>
+        <f ca="1">netEx_quarter3+totalProduction1H_quarter3+totalProduction15M_quarter3+negGridLossQuarter3</f>
+        <v>6.2210000000000001</v>
       </c>
       <c r="I86" s="27" t="str">
-        <f t="shared" si="27"/>
-        <v>5.628</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>6.221</v>
       </c>
       <c r="J86" s="2"/>
       <c r="R86" s="37"/>
       <c r="S86" s="2"/>
       <c r="U86" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V86" s="26" cm="1">
-        <f t="array" aca="1" ref="V86" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U86&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U86&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V86" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U86&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U86&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <v>10</v>
+      </c>
+      <c r="W86" s="6">
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$3)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$3))/4</f>
         <v>0</v>
-      </c>
-      <c r="W86" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$3)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$3))/4</f>
-        <v>0.83925000000000005</v>
       </c>
       <c r="X86" s="16">
         <f>W86</f>
-        <v>0.83925000000000005</v>
+        <v>0</v>
       </c>
       <c r="Y86" s="16"/>
       <c r="Z86" s="16">
-        <f t="shared" ref="Z86:Z109" si="28">ROUND(X86, 3)</f>
-        <v>0.83899999999999997</v>
+        <f t="shared" ref="Z86:Z109" si="29">ROUND(X86, 3)</f>
+        <v>0</v>
       </c>
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
-      <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
-      <c r="AG86" s="27"/>
-      <c r="AH86" s="2"/>
+      <c r="AG86" s="2"/>
+      <c r="AH86" s="27"/>
       <c r="AI86" s="2"/>
-      <c r="AJ86" s="2"/>
       <c r="AK86" s="2"/>
       <c r="AL86" s="2"/>
       <c r="AM86" s="2"/>
@@ -11058,51 +11341,51 @@
     <row r="87" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C87" s="2"/>
       <c r="D87" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E87" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>800</v>
       </c>
       <c r="F87" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G87" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87" s="32">
-        <f>netEx_quarter4+totalProduction1H_quarter4+totalProduction15M_quarter4+negGridLossQuarter4</f>
-        <v>5.6289999999999996</v>
+        <f ca="1">netEx_quarter4+totalProduction1H_quarter4+totalProduction15M_quarter4+negGridLossQuarter4</f>
+        <v>6.2230000000000008</v>
       </c>
       <c r="I87" s="27" t="str">
-        <f t="shared" si="27"/>
-        <v>5.629</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>6.223</v>
       </c>
       <c r="J87" s="2"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="U87" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V87" s="26" cm="1">
-        <f t="array" aca="1" ref="V87" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U87&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U87&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V87" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U87&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U87&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W87" s="16">
         <f>W$86</f>
-        <v>0.83925000000000005</v>
+        <v>0</v>
       </c>
       <c r="X87" s="16">
         <f>Y87+X86</f>
-        <v>0.83950000000000014</v>
+        <v>0</v>
       </c>
       <c r="Y87" s="16">
         <f>W87-Z86</f>
-        <v>2.5000000000008349E-4</v>
+        <v>0</v>
       </c>
       <c r="Z87" s="16">
-        <f t="shared" si="28"/>
-        <v>0.84</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
@@ -11174,7 +11457,7 @@
     <row r="88" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" s="2"/>
       <c r="E88" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F88" s="52"/>
       <c r="G88" s="52"/>
@@ -11184,27 +11467,27 @@
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
       <c r="U88" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V88" s="26" cm="1">
-        <f t="array" aca="1" ref="V88" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U88&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U88&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V88" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U88&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U88&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W88" s="16">
         <f>W$86</f>
-        <v>0.83925000000000005</v>
+        <v>0</v>
       </c>
       <c r="X88" s="16">
         <f>Y88+X87</f>
-        <v>0.83875000000000022</v>
+        <v>0</v>
       </c>
       <c r="Y88" s="16">
         <f>W88-Z87</f>
-        <v>-7.499999999999174E-4</v>
+        <v>0</v>
       </c>
       <c r="Z88" s="16">
-        <f t="shared" si="28"/>
-        <v>0.83899999999999997</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
@@ -11291,33 +11574,33 @@
         <v>2</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="U89" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V89" s="26" cm="1">
-        <f t="array" aca="1" ref="V89" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U89&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U89&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V89" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U89&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U89&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W89" s="16">
         <f>W$86</f>
-        <v>0.83925000000000005</v>
+        <v>0</v>
       </c>
       <c r="X89" s="16">
         <f>Y89+X88</f>
-        <v>0.8390000000000003</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="16">
         <f>W89-Z88</f>
-        <v>2.5000000000008349E-4</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="16">
-        <f t="shared" si="28"/>
-        <v>0.83899999999999997</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
@@ -11389,10 +11672,10 @@
     <row r="90" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C90" s="2"/>
       <c r="D90" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E90" s="31" t="str">
-        <f t="shared" ref="E90:E113" si="29">IF(AND(ROW()&lt;86+(COUNTA(AH$2:AH$21)*4),ROW()&gt;89),$AH$2,"")</f>
+        <f>IF(ROW()&lt;90+(COUNTA(AH$3:AH$21)*4),$AD$2,"")</f>
         <v>800</v>
       </c>
       <c r="F90" s="31" t="str">
@@ -11405,37 +11688,37 @@
       </c>
       <c r="H90" s="32">
         <f ca="1">IF(E90="","",V86+Z86)</f>
-        <v>0.83899999999999997</v>
+        <v>10</v>
       </c>
       <c r="I90" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I90" ca="1">IF(E90="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I90" ca="1">IF(E90="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>801</v>
       </c>
       <c r="J90" s="27" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(ROUND(H90,3),",","."),"")</f>
-        <v>0.839</v>
+        <v>10</v>
       </c>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="U90" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V90" s="26" cm="1">
-        <f t="array" aca="1" ref="V90" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U90&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U90&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V90" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U90&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U90&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W90" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$4)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$4))/4</f>
-        <v>0</v>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$4)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$4))/4</f>
+        <v>5.00075</v>
       </c>
       <c r="X90" s="16">
         <f>W90</f>
-        <v>0</v>
+        <v>5.00075</v>
       </c>
       <c r="Y90" s="16"/>
       <c r="Z90" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>5.0010000000000003</v>
       </c>
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
@@ -11507,55 +11790,55 @@
     <row r="91" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C91" s="2"/>
       <c r="D91" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E91" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="E91:E113" si="30">IF(ROW()&lt;90+(COUNTA(AH$3:AH$21)*4),$AD$2,"")</f>
         <v>800</v>
       </c>
       <c r="F91" s="31" t="str">
-        <f t="shared" ref="F91:F113" si="30">IF(E91&lt;&gt;"","null","")</f>
+        <f t="shared" ref="F91:F113" si="31">IF(E91&lt;&gt;"","null","")</f>
         <v>null</v>
       </c>
       <c r="G91" s="31" t="str">
-        <f t="shared" ref="G91:G113" si="31">IF(E91&lt;&gt;"","null","")</f>
+        <f t="shared" ref="G91:G113" si="32">IF(E91&lt;&gt;"","null","")</f>
         <v>null</v>
       </c>
       <c r="H91" s="32">
-        <f t="shared" ref="H91:H113" ca="1" si="32">IF(E91="","",V87+Z87)</f>
-        <v>0.84</v>
+        <f t="shared" ref="H91:H113" ca="1" si="33">IF(E91="","",V87+Z87)</f>
+        <v>0</v>
       </c>
       <c r="I91" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I91" ca="1">IF(E91="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I91" ca="1">IF(E91="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>801</v>
       </c>
       <c r="J91" s="27" t="str">
-        <f t="shared" ref="J91:J113" ca="1" si="33">IFERROR(SUBSTITUTE(ROUND(H91,3),",","."),"")</f>
-        <v>0.84</v>
+        <f t="shared" ref="J91:J113" ca="1" si="34">IFERROR(SUBSTITUTE(ROUND(H91,3),",","."),"")</f>
+        <v>0</v>
       </c>
       <c r="R91" s="2"/>
       <c r="U91" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V91" s="26" cm="1">
-        <f t="array" aca="1" ref="V91" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U91&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U91&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V91" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U91&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U91&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W91" s="16">
         <f>W$90</f>
-        <v>0</v>
+        <v>5.00075</v>
       </c>
       <c r="X91" s="16">
         <f>Y91+X90</f>
-        <v>0</v>
+        <v>5.0004999999999997</v>
       </c>
       <c r="Y91" s="16">
         <f>W91-Z90</f>
-        <v>0</v>
+        <v>-2.5000000000030553E-4</v>
       </c>
       <c r="Z91" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>5.0010000000000003</v>
       </c>
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
@@ -11627,54 +11910,54 @@
     <row r="92" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C92" s="2"/>
       <c r="D92" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E92" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F92" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G92" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G92" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H92" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.83899999999999997</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
       </c>
       <c r="I92" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I92" ca="1">IF(E92="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I92" ca="1">IF(E92="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>801</v>
       </c>
       <c r="J92" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>0.839</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
       </c>
       <c r="U92" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V92" s="26" cm="1">
-        <f t="array" aca="1" ref="V92" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U92&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U92&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V92" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U92&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U92&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W92" s="16">
         <f>W$90</f>
-        <v>0</v>
+        <v>5.00075</v>
       </c>
       <c r="X92" s="16">
         <f>Y92+X91</f>
-        <v>0</v>
+        <v>5.0002499999999994</v>
       </c>
       <c r="Y92" s="16">
         <f>W92-Z91</f>
-        <v>0</v>
+        <v>-2.5000000000030553E-4</v>
       </c>
       <c r="Z92" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>5</v>
       </c>
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
@@ -11746,54 +12029,54 @@
     <row r="93" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C93" s="2"/>
       <c r="D93" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E93" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F93" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G93" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G93" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H93" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.83899999999999997</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
       </c>
       <c r="I93" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I93" ca="1">IF(E93="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I93" ca="1">IF(E93="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>801</v>
       </c>
       <c r="J93" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>0.839</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
       </c>
       <c r="U93" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V93" s="26" cm="1">
-        <f t="array" aca="1" ref="V93" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U93&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U93&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V93" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U93&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U93&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W93" s="16">
         <f>W$90</f>
-        <v>0</v>
+        <v>5.00075</v>
       </c>
       <c r="X93" s="16">
         <f>Y93+X92</f>
-        <v>0</v>
+        <v>5.0009999999999994</v>
       </c>
       <c r="Y93" s="16">
         <f>W93-Z92</f>
-        <v>0</v>
+        <v>7.5000000000002842E-4</v>
       </c>
       <c r="Z93" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>5.0010000000000003</v>
       </c>
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
@@ -11865,41 +12148,41 @@
     <row r="94" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C94" s="2"/>
       <c r="D94" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E94" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>800</v>
       </c>
       <c r="F94" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+        <f t="shared" si="31"/>
+        <v>null</v>
       </c>
       <c r="G94" s="31" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H94" s="32" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H94" s="32">
+        <f t="shared" ca="1" si="33"/>
+        <v>5.0010000000000003</v>
       </c>
       <c r="I94" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I94" ca="1">IF(E94="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <f t="array" aca="1" ref="I94" ca="1">IF(E94="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>802</v>
       </c>
       <c r="J94" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="34"/>
+        <v>5.001</v>
       </c>
       <c r="U94" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V94" s="26" cm="1">
-        <f t="array" aca="1" ref="V94" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U94&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U94&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
-        <v>0</v>
+        <f t="array" aca="1" ref="V94" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U94&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U94&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <v>-5</v>
       </c>
       <c r="W94" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$5)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$5))/4</f>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$5)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$5))/4</f>
         <v>0</v>
       </c>
       <c r="X94" s="16">
@@ -11908,7 +12191,7 @@
       </c>
       <c r="Y94" s="16"/>
       <c r="Z94" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA94" s="2"/>
@@ -11981,37 +12264,37 @@
     <row r="95" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C95" s="2"/>
       <c r="D95" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E95" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>800</v>
       </c>
       <c r="F95" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+        <f t="shared" si="31"/>
+        <v>null</v>
       </c>
       <c r="G95" s="31" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H95" s="32" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H95" s="32">
+        <f t="shared" ca="1" si="33"/>
+        <v>5.0010000000000003</v>
       </c>
       <c r="I95" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I95" ca="1">IF(E95="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <f t="array" aca="1" ref="I95" ca="1">IF(E95="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>802</v>
       </c>
       <c r="J95" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="34"/>
+        <v>5.001</v>
       </c>
       <c r="U95" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V95" s="26" cm="1">
-        <f t="array" aca="1" ref="V95" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U95&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U95&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V95" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U95&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U95&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W95" s="16">
@@ -12027,7 +12310,7 @@
         <v>0</v>
       </c>
       <c r="Z95" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA95" s="2"/>
@@ -12100,37 +12383,37 @@
     <row r="96" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C96" s="2"/>
       <c r="D96" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E96" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>800</v>
       </c>
       <c r="F96" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+        <f t="shared" si="31"/>
+        <v>null</v>
       </c>
       <c r="G96" s="31" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H96" s="32" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H96" s="32">
+        <f t="shared" ca="1" si="33"/>
+        <v>5</v>
       </c>
       <c r="I96" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I96" ca="1">IF(E96="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <f t="array" aca="1" ref="I96" ca="1">IF(E96="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>802</v>
       </c>
       <c r="J96" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="34"/>
+        <v>5</v>
       </c>
       <c r="U96" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V96" s="26" cm="1">
-        <f t="array" aca="1" ref="V96" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U96&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U96&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V96" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U96&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U96&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W96" s="16">
@@ -12146,7 +12429,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA96" s="2"/>
@@ -12219,37 +12502,37 @@
     <row r="97" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C97" s="2"/>
       <c r="D97" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E97" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>800</v>
       </c>
       <c r="F97" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+        <f t="shared" si="31"/>
+        <v>null</v>
       </c>
       <c r="G97" s="31" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H97" s="32" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H97" s="32">
+        <f t="shared" ca="1" si="33"/>
+        <v>5.0010000000000003</v>
       </c>
       <c r="I97" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I97" ca="1">IF(E97="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <f t="array" aca="1" ref="I97" ca="1">IF(E97="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>802</v>
       </c>
       <c r="J97" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="34"/>
+        <v>5.001</v>
       </c>
       <c r="U97" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V97" s="26" cm="1">
-        <f t="array" aca="1" ref="V97" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U97&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U97&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V97" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U97&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U97&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W97" s="16">
@@ -12265,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="Z97" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA97" s="2"/>
@@ -12338,51 +12621,51 @@
     <row r="98" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C98" s="2"/>
       <c r="D98" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E98" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>800</v>
       </c>
       <c r="F98" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+        <f t="shared" si="31"/>
+        <v>null</v>
       </c>
       <c r="G98" s="31" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H98" s="32" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H98" s="32">
+        <f t="shared" ca="1" si="33"/>
+        <v>-5</v>
       </c>
       <c r="I98" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I98" ca="1">IF(E98="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <f t="array" aca="1" ref="I98" ca="1">IF(E98="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>803</v>
       </c>
       <c r="J98" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="34"/>
+        <v>-5</v>
       </c>
       <c r="U98" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V98" s="26" cm="1">
-        <f t="array" aca="1" ref="V98" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U98&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U98&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V98" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U98&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U98&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W98" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$6)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$6))/4</f>
-        <v>0</v>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$6)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$6))/4</f>
+        <v>-0.27925</v>
       </c>
       <c r="X98" s="16">
         <f>W98</f>
-        <v>0</v>
+        <v>-0.27925</v>
       </c>
       <c r="Y98" s="16"/>
       <c r="Z98" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
@@ -12454,54 +12737,54 @@
     <row r="99" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C99" s="2"/>
       <c r="D99" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E99" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>800</v>
       </c>
       <c r="F99" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+        <f t="shared" si="31"/>
+        <v>null</v>
       </c>
       <c r="G99" s="31" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H99" s="32" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H99" s="32">
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
       </c>
       <c r="I99" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I99" ca="1">IF(E99="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <f t="array" aca="1" ref="I99" ca="1">IF(E99="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>803</v>
       </c>
       <c r="J99" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
       </c>
       <c r="U99" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V99" s="26" cm="1">
-        <f t="array" aca="1" ref="V99" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U99&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U99&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V99" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U99&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U99&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W99" s="16">
         <f>W$98</f>
-        <v>0</v>
+        <v>-0.27925</v>
       </c>
       <c r="X99" s="16">
         <f>Y99+X98</f>
-        <v>0</v>
+        <v>-0.27949999999999997</v>
       </c>
       <c r="Y99" s="16">
         <f>W99-Z98</f>
-        <v>0</v>
+        <v>-2.4999999999997247E-4</v>
       </c>
       <c r="Z99" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
@@ -12573,54 +12856,54 @@
     <row r="100" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C100" s="2"/>
       <c r="D100" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E100" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>800</v>
       </c>
       <c r="F100" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+        <f t="shared" si="31"/>
+        <v>null</v>
       </c>
       <c r="G100" s="31" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H100" s="32" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H100" s="32">
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
       </c>
       <c r="I100" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I100" ca="1">IF(E100="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <f t="array" aca="1" ref="I100" ca="1">IF(E100="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>803</v>
       </c>
       <c r="J100" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
       </c>
       <c r="U100" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V100" s="26" cm="1">
-        <f t="array" aca="1" ref="V100" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U100&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U100&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V100" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U100&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U100&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W100" s="16">
         <f>W$98</f>
-        <v>0</v>
+        <v>-0.27925</v>
       </c>
       <c r="X100" s="16">
         <f>Y100+X99</f>
-        <v>0</v>
+        <v>-0.27874999999999994</v>
       </c>
       <c r="Y100" s="16">
         <f>W100-Z99</f>
-        <v>0</v>
+        <v>7.5000000000002842E-4</v>
       </c>
       <c r="Z100" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
@@ -12692,54 +12975,54 @@
     <row r="101" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C101" s="2"/>
       <c r="D101" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E101" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>800</v>
       </c>
       <c r="F101" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+        <f t="shared" si="31"/>
+        <v>null</v>
       </c>
       <c r="G101" s="31" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H101" s="32" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H101" s="32">
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
       </c>
       <c r="I101" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I101" ca="1">IF(E101="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <f t="array" aca="1" ref="I101" ca="1">IF(E101="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>803</v>
       </c>
       <c r="J101" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
       </c>
       <c r="U101" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V101" s="26" cm="1">
-        <f t="array" aca="1" ref="V101" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U101&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U101&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V101" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U101&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U101&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W101" s="16">
         <f>W$98</f>
-        <v>0</v>
+        <v>-0.27925</v>
       </c>
       <c r="X101" s="16">
         <f>Y101+X100</f>
-        <v>0</v>
+        <v>-0.27899999999999991</v>
       </c>
       <c r="Y101" s="16">
         <f>W101-Z100</f>
-        <v>0</v>
+        <v>-2.4999999999997247E-4</v>
       </c>
       <c r="Z101" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
@@ -12811,41 +13094,41 @@
     <row r="102" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C102" s="2"/>
       <c r="D102" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E102" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>800</v>
       </c>
       <c r="F102" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+        <f t="shared" si="31"/>
+        <v>null</v>
       </c>
       <c r="G102" s="31" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H102" s="32" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H102" s="32">
+        <f t="shared" ca="1" si="33"/>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="I102" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I102" ca="1">IF(E102="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <f t="array" aca="1" ref="I102" ca="1">IF(E102="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>804</v>
       </c>
       <c r="J102" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="34"/>
+        <v>-0.279</v>
       </c>
       <c r="U102" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V102" s="26" cm="1">
-        <f t="array" aca="1" ref="V102" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U102&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U102&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V102" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U102&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U102&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W102" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$7)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$7))/4</f>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$7)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$7))/4</f>
         <v>0</v>
       </c>
       <c r="X102" s="16">
@@ -12854,7 +13137,7 @@
       </c>
       <c r="Y102" s="16"/>
       <c r="Z102" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA102" s="2"/>
@@ -12927,37 +13210,37 @@
     <row r="103" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C103" s="2"/>
       <c r="D103" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E103" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>800</v>
       </c>
       <c r="F103" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+        <f t="shared" si="31"/>
+        <v>null</v>
       </c>
       <c r="G103" s="31" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H103" s="32" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H103" s="32">
+        <f t="shared" ca="1" si="33"/>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I103" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I103" ca="1">IF(E103="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <f t="array" aca="1" ref="I103" ca="1">IF(E103="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>804</v>
       </c>
       <c r="J103" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="34"/>
+        <v>-0.28</v>
       </c>
       <c r="U103" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V103" s="26" cm="1">
-        <f t="array" aca="1" ref="V103" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U103&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U103&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V103" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U103&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U103&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W103" s="16">
@@ -12973,7 +13256,7 @@
         <v>0</v>
       </c>
       <c r="Z103" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA103" s="2"/>
@@ -13046,37 +13329,37 @@
     <row r="104" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C104" s="2"/>
       <c r="D104" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E104" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>800</v>
       </c>
       <c r="F104" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+        <f t="shared" si="31"/>
+        <v>null</v>
       </c>
       <c r="G104" s="31" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H104" s="32" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H104" s="32">
+        <f t="shared" ca="1" si="33"/>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="I104" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I104" ca="1">IF(E104="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <f t="array" aca="1" ref="I104" ca="1">IF(E104="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>804</v>
       </c>
       <c r="J104" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="34"/>
+        <v>-0.279</v>
       </c>
       <c r="U104" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V104" s="26" cm="1">
-        <f t="array" aca="1" ref="V104" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U104&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U104&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V104" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U104&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U104&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W104" s="16">
@@ -13092,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="Z104" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA104" s="2"/>
@@ -13165,37 +13448,37 @@
     <row r="105" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C105" s="2"/>
       <c r="D105" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E105" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>800</v>
       </c>
       <c r="F105" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+        <f t="shared" si="31"/>
+        <v>null</v>
       </c>
       <c r="G105" s="31" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H105" s="32" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H105" s="32">
+        <f t="shared" ca="1" si="33"/>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="I105" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I105" ca="1">IF(E105="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <f t="array" aca="1" ref="I105" ca="1">IF(E105="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>804</v>
       </c>
       <c r="J105" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="34"/>
+        <v>-0.279</v>
       </c>
       <c r="U105" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V105" s="26" cm="1">
-        <f t="array" aca="1" ref="V105" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U105&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U105&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V105" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U105&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U105&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W105" s="16">
@@ -13211,7 +13494,7 @@
         <v>0</v>
       </c>
       <c r="Z105" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA105" s="2"/>
@@ -13284,41 +13567,41 @@
     <row r="106" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C106" s="2"/>
       <c r="D106" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E106" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F106" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G106" s="31" t="str">
+      <c r="F106" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H106" s="32" t="str">
+      <c r="G106" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I106" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I106" ca="1">IF(E106="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
-      </c>
-      <c r="J106" s="27" t="str">
+      <c r="H106" s="32" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
+      <c r="I106" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I106" ca="1">IF(E106="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v/>
+      </c>
+      <c r="J106" s="27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="U106" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V106" s="26" cm="1">
-        <f t="array" aca="1" ref="V106" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U106&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U106&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V106" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U106&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U106&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W106" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$8)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$8))/4</f>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$8)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$8))/4</f>
         <v>0</v>
       </c>
       <c r="X106" s="16">
@@ -13327,7 +13610,7 @@
       </c>
       <c r="Y106" s="16"/>
       <c r="Z106" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA106" s="2"/>
@@ -13400,37 +13683,37 @@
     <row r="107" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C107" s="2"/>
       <c r="D107" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E107" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F107" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G107" s="31" t="str">
+      <c r="F107" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H107" s="32" t="str">
+      <c r="G107" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I107" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I107" ca="1">IF(E107="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
-      </c>
-      <c r="J107" s="27" t="str">
+      <c r="H107" s="32" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
+      <c r="I107" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I107" ca="1">IF(E107="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v/>
+      </c>
+      <c r="J107" s="27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="U107" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V107" s="26" cm="1">
-        <f t="array" aca="1" ref="V107" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U107&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U107&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V107" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U107&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U107&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W107" s="16">
@@ -13446,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="Z107" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA107" s="2"/>
@@ -13519,37 +13802,37 @@
     <row r="108" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C108" s="2"/>
       <c r="D108" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E108" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F108" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G108" s="31" t="str">
+      <c r="F108" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H108" s="32" t="str">
+      <c r="G108" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I108" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I108" ca="1">IF(E108="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
-      </c>
-      <c r="J108" s="27" t="str">
+      <c r="H108" s="32" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
+      <c r="I108" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I108" ca="1">IF(E108="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v/>
+      </c>
+      <c r="J108" s="27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="U108" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V108" s="26" cm="1">
-        <f t="array" aca="1" ref="V108" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U108&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U108&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V108" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U108&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U108&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W108" s="16">
@@ -13565,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="Z108" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA108" s="2"/>
@@ -13638,37 +13921,37 @@
     <row r="109" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C109" s="2"/>
       <c r="D109" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E109" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F109" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G109" s="31" t="str">
+      <c r="F109" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H109" s="32" t="str">
+      <c r="G109" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I109" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I109" ca="1">IF(E109="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
-      </c>
-      <c r="J109" s="27" t="str">
+      <c r="H109" s="32" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
+      <c r="I109" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I109" ca="1">IF(E109="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v/>
+      </c>
+      <c r="J109" s="27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="U109" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V109" s="26" cm="1">
-        <f t="array" aca="1" ref="V109" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U109&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U109&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V109" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U109&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U109&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W109" s="16">
@@ -13684,7 +13967,7 @@
         <v>0</v>
       </c>
       <c r="Z109" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA109" s="2"/>
@@ -13757,30 +14040,30 @@
     <row r="110" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C110" s="2"/>
       <c r="D110" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E110" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F110" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G110" s="31" t="str">
+      <c r="F110" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H110" s="32" t="str">
+      <c r="G110" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
+      <c r="H110" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="I110" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I110" ca="1">IF(E110="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I110" ca="1">IF(E110="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
       <c r="J110" s="27" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K110" s="2"/>
@@ -13869,30 +14152,30 @@
     <row r="111" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C111" s="2"/>
       <c r="D111" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E111" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F111" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G111" s="31" t="str">
+      <c r="F111" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H111" s="32" t="str">
+      <c r="G111" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
+      <c r="H111" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="I111" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I111" ca="1">IF(E111="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I111" ca="1">IF(E111="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
       <c r="J111" s="27" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K111" s="2"/>
@@ -13981,30 +14264,30 @@
     <row r="112" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C112" s="2"/>
       <c r="D112" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E112" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F112" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G112" s="31" t="str">
+      <c r="F112" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H112" s="32" t="str">
+      <c r="G112" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
+      <c r="H112" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="I112" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I112" ca="1">IF(E112="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I112" ca="1">IF(E112="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
       <c r="J112" s="27" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K112" s="2"/>
@@ -14093,30 +14376,30 @@
     <row r="113" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C113" s="2"/>
       <c r="D113" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E113" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F113" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G113" s="31" t="str">
+      <c r="F113" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H113" s="32" t="str">
+      <c r="G113" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
+      <c r="H113" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="I113" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I113" ca="1">IF(E113="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I113" ca="1">IF(E113="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
       <c r="J113" s="27" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K113" s="2"/>
@@ -40599,7 +40882,8 @@
       <c r="CN400" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="E46:H46"/>

--- a/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - wholesale minimal standard scenario.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - wholesale minimal standard scenario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_an_energy_calculation\when_minimal_standard_scenario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_a_wholesale_calculation\when_minimal_standard_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA6521A-4949-4C73-9C62-1C152E0CCC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160DAEA1-C981-487D-B907-27E3F9068649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
   </bookViews>
@@ -84,8 +84,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -96,16 +97,40 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="124">
   <si>
     <t>energy_supplier_id</t>
   </si>
@@ -422,67 +447,16 @@
     <t>TotalHour</t>
   </si>
   <si>
-    <t>170000001500000101</t>
-  </si>
-  <si>
-    <t>170000001500000201</t>
-  </si>
-  <si>
-    <t>180000001500000001</t>
-  </si>
-  <si>
     <t>flex_consumption</t>
   </si>
   <si>
-    <t>200000000000000002</t>
-  </si>
-  <si>
-    <t>200000000000000004</t>
-  </si>
-  <si>
-    <t>170000000000000102</t>
-  </si>
-  <si>
-    <t>170000000000000103</t>
-  </si>
-  <si>
-    <t>170000000000000202</t>
-  </si>
-  <si>
-    <t>170000000000000203</t>
-  </si>
-  <si>
     <t>180000000000000002</t>
-  </si>
-  <si>
-    <t>180000000000000003</t>
-  </si>
-  <si>
-    <t>802</t>
-  </si>
-  <si>
-    <t>804</t>
   </si>
   <si>
     <t>2000000000000</t>
   </si>
   <si>
     <t>801</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>200000001500000001</t>
-  </si>
-  <si>
-    <t>200000001500000003</t>
-  </si>
-  <si>
-    <t>170000000000001000</t>
-  </si>
-  <si>
-    <t>180000000000001000</t>
   </si>
   <si>
     <t>na_ga for ga_id</t>
@@ -492,6 +466,42 @@
   </si>
   <si>
     <t>Sorted</t>
+  </si>
+  <si>
+    <t>170000000150001000</t>
+  </si>
+  <si>
+    <t>180000000150001000</t>
+  </si>
+  <si>
+    <t>170000000000000201</t>
+  </si>
+  <si>
+    <t>170000000000000101</t>
+  </si>
+  <si>
+    <t>180000000000000001</t>
+  </si>
+  <si>
+    <t>200000000000000001</t>
+  </si>
+  <si>
+    <t>4000000000000</t>
+  </si>
+  <si>
+    <t>3300000000000</t>
+  </si>
+  <si>
+    <t>4400000000000</t>
+  </si>
+  <si>
+    <t>array 1</t>
+  </si>
+  <si>
+    <t>array 2</t>
+  </si>
+  <si>
+    <t>array 3</t>
   </si>
 </sst>
 </file>
@@ -826,6 +836,9 @@
     <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,9 +867,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1113,6 +1123,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>13</v>
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>13</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1443,8 +1519,8 @@
   </sheetPr>
   <dimension ref="A1:CN400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI44" sqref="AI44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1479,7 +1555,7 @@
     <col min="33" max="33" width="22.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="40" width="8.7265625" style="1" customWidth="1"/>
     <col min="41" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -1562,63 +1638,65 @@
       <c r="AG1" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="AH1" s="57" t="s">
+      <c r="AH1" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
     </row>
     <row r="2" spans="1:92" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12">
-        <v>10</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
       <c r="J2" s="43">
         <f t="shared" ref="J2:J19" si="0">IF(C2="","",SUM(F2:I2))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="L2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="O2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q2" s="29" t="s">
         <v>92</v>
       </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
       <c r="R2" s="24"/>
       <c r="S2" s="7" t="s">
         <v>34</v>
       </c>
       <c r="T2" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT15M")</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U2" s="42">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT15M")</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V2" s="42">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT15M")</f>
@@ -1637,15 +1715,15 @@
       <c r="AA2" s="24"/>
       <c r="AC2" s="24"/>
       <c r="AD2" s="27" t="str" cm="1">
-        <f t="array" ref="AD2:AD4">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[ga_id] &lt;&gt; "")))</f>
+        <f t="array" ref="AD2:AD3">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[ga_id] &lt;&gt; "")))</f>
         <v>800</v>
       </c>
       <c r="AE2" s="27" t="str" cm="1">
-        <f t="array" ref="AE2:AE4">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AE28:AE41,AE28:AE41 &lt;&gt; "")))</f>
+        <f t="array" ref="AE2">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AE28:AE41,AE28:AE41 &lt;&gt; "")))</f>
         <v>1000000000000</v>
       </c>
       <c r="AF2" s="27" t="str" cm="1">
-        <f t="array" ref="AF2:AF3">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AF28:AF40,AF28:AF40 &lt;&gt; "")))</f>
+        <f t="array" ref="AF2">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AF28:AF40,AF28:AF40 &lt;&gt; "")))</f>
         <v>1100000000000</v>
       </c>
       <c r="AG2" s="27" t="str">
@@ -1653,61 +1731,61 @@
         <v>D01</v>
       </c>
       <c r="AH2" s="27" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="AI2" s="24" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="AJ2" s="27" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C3" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="12">
-        <v>20.003</v>
-      </c>
+      <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
       <c r="J3" s="43">
         <f t="shared" si="0"/>
-        <v>20.003</v>
+        <v>0</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+        <v>98</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="O3" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q3" s="29" t="s">
         <v>92</v>
       </c>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
       <c r="R3" s="24"/>
       <c r="S3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="T3" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="42">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="42">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
@@ -1728,27 +1806,23 @@
       <c r="AD3" s="24" t="str">
         <v>801</v>
       </c>
-      <c r="AE3" s="24" t="str">
-        <v>2000000000000</v>
-      </c>
-      <c r="AF3" s="24" t="str">
-        <v>2200000000000</v>
-      </c>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
       <c r="AG3" s="24"/>
-      <c r="AH3" s="27" t="str" cm="1">
-        <f t="array" ref="AH3:AH6">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),""))&lt;&gt;""))</f>
-        <v>801</v>
-      </c>
-      <c r="AI3" s="24" t="str" cm="1">
-        <f t="array" ref="AI3:AI6">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),""))&lt;&gt;""))</f>
-        <v>801</v>
-      </c>
-      <c r="AJ3" s="24" t="str" cm="1">
+      <c r="AH3" s="27" t="e" cm="1" vm="1">
+        <f t="array" ref="AH3">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),""))&lt;&gt;""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI3" s="24" t="e" cm="1" vm="1">
+        <f t="array" ref="AI3">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),""))&lt;&gt;""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ3" s="24" t="e" cm="1" vm="2">
         <f t="array" ref="AJ3:AK13">_xlfn._xlws.SORT(AH3:AI13,1)</f>
-        <v>801</v>
-      </c>
-      <c r="AK3" s="24" t="str">
-        <v>801</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK3" s="24" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="AL3" s="24"/>
       <c r="AM3" s="24"/>
@@ -1759,48 +1833,50 @@
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="F4" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="43">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+        <v>89</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="P4" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q4" s="29" t="s">
-        <v>121</v>
-      </c>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
       <c r="R4" s="24"/>
       <c r="S4" s="7" t="s">
         <v>28</v>
       </c>
       <c r="T4" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E18",TableDay1[resolution],"PT15M")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U4" s="42">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[type],"E18",TableDay1[resolution],"PT15M")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V4" s="42">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[type],"E18",TableDay1[resolution],"PT15M")</f>
@@ -1818,25 +1894,17 @@
       <c r="Z4" s="24"/>
       <c r="AA4" s="24"/>
       <c r="AC4" s="24"/>
-      <c r="AD4" s="24" t="str">
-        <v>802</v>
-      </c>
-      <c r="AE4" s="24" t="str">
-        <v>3000000000000</v>
-      </c>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
       <c r="AF4" s="24"/>
       <c r="AG4" s="24"/>
-      <c r="AH4" s="24" t="str">
-        <v>802</v>
-      </c>
-      <c r="AI4" s="24" t="str">
-        <v>802</v>
-      </c>
-      <c r="AJ4" s="24" t="str">
-        <v>802</v>
-      </c>
-      <c r="AK4" s="24" t="str">
-        <v>802</v>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="24">
+        <v>0</v>
       </c>
       <c r="AL4" s="24"/>
       <c r="AM4" s="24"/>
@@ -1846,49 +1914,35 @@
       <c r="AQ4" s="24"/>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C5" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="12">
-        <v>1.117</v>
-      </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="41"/>
       <c r="I5" s="41"/>
-      <c r="J5" s="43">
+      <c r="J5" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>1.117</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>89</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="P5" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" s="29" t="s">
-        <v>118</v>
-      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
       <c r="R5" s="24"/>
       <c r="S5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="T5" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U5" s="42">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V5" s="42">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
@@ -1910,17 +1964,13 @@
       <c r="AE5" s="24"/>
       <c r="AF5" s="24"/>
       <c r="AG5" s="24"/>
-      <c r="AH5" s="24" t="str">
-        <v>803</v>
-      </c>
-      <c r="AI5" s="24" t="str">
-        <v>803</v>
-      </c>
-      <c r="AJ5" s="24" t="str">
-        <v>803</v>
-      </c>
-      <c r="AK5" s="24" t="str">
-        <v>803</v>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="24">
+        <v>0</v>
       </c>
       <c r="AL5" s="24"/>
       <c r="AM5" s="24"/>
@@ -1931,7 +1981,7 @@
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C6" s="10" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>87</v>
@@ -1939,24 +1989,22 @@
       <c r="E6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="12">
-        <v>5</v>
-      </c>
+      <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="43">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
@@ -1979,17 +2027,13 @@
       <c r="AE6" s="24"/>
       <c r="AF6" s="24"/>
       <c r="AG6" s="24"/>
-      <c r="AH6" s="24" t="str">
-        <v>804</v>
-      </c>
-      <c r="AI6" s="24" t="str">
-        <v>804</v>
-      </c>
-      <c r="AJ6" s="24" t="str">
-        <v>804</v>
-      </c>
-      <c r="AK6" s="24" t="str">
-        <v>804</v>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="24">
+        <v>0</v>
       </c>
       <c r="AL6" s="24"/>
       <c r="AM6" s="24"/>
@@ -2000,32 +2044,30 @@
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C7" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>100</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="12">
-        <v>8</v>
+        <v>19.158999999999999</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
       <c r="J7" s="43">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>19.158999999999999</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>89</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10" t="s">
@@ -2064,38 +2106,22 @@
       <c r="AQ7" s="24"/>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C8" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.80700000000000005</v>
-      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
-      <c r="J8" s="43">
+      <c r="J8" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>99</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="O8" s="10"/>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
       <c r="R8" s="24"/>
@@ -2133,29 +2159,25 @@
         <v>106</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="12">
-        <v>10</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="43">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>98</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
@@ -2207,39 +2229,37 @@
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C10" s="10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>88</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="12">
-        <v>10</v>
+        <v>3.3570000000000002</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="43">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3.3570000000000002</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
       <c r="R10" s="15" t="s">
         <v>72</v>
       </c>
@@ -2257,16 +2277,16 @@
       </c>
       <c r="V10" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[es_id],U10,IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT1H")/4</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W10" s="19">
         <f>V10</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X10" s="19"/>
       <c r="Y10" s="23">
         <f t="shared" ref="Y10:Y33" si="1">ROUND(W10, 3)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z10" s="27"/>
       <c r="AA10" s="24"/>
@@ -2291,38 +2311,22 @@
       <c r="AQ10" s="24"/>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C11" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
-      <c r="J11" s="43">
+      <c r="J11" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>99</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="O11" s="10"/>
       <c r="P11" s="29"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="15" t="s">
@@ -2342,11 +2346,11 @@
       </c>
       <c r="V11" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W11" s="19">
         <f>X11+W10</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X11" s="19">
         <f>V11-Y10</f>
@@ -2354,7 +2358,7 @@
       </c>
       <c r="Y11" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z11" s="27"/>
       <c r="AA11" s="24"/>
@@ -2379,36 +2383,22 @@
       <c r="AQ11" s="24"/>
     </row>
     <row r="12" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C12" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>94</v>
-      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="12">
-        <v>6</v>
-      </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
-      <c r="J12" s="43">
+      <c r="J12" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>91</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="O12" s="10"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="15" t="s">
@@ -2428,11 +2418,11 @@
       </c>
       <c r="V12" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W12" s="19">
         <f>X12+W11</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X12" s="19">
         <f>V12-Y11</f>
@@ -2440,7 +2430,7 @@
       </c>
       <c r="Y12" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z12" s="27"/>
       <c r="AA12" s="24"/>
@@ -2469,36 +2459,22 @@
       <c r="AQ12" s="24"/>
     </row>
     <row r="13" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C13" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>94</v>
-      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="12">
-        <v>4</v>
-      </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
-      <c r="J13" s="43">
+      <c r="J13" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>91</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="O13" s="10"/>
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
       <c r="R13" s="15" t="s">
@@ -2518,11 +2494,11 @@
       </c>
       <c r="V13" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W13" s="19">
         <f>X13+W12</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X13" s="19">
         <f>V13-Y12</f>
@@ -2530,18 +2506,18 @@
       </c>
       <c r="Y13" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z13" s="27"/>
       <c r="AA13" s="24"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="36"/>
       <c r="AE13" s="36" t="str" cm="1">
-        <f t="array" ref="AE13:AE15">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(TableDay1[es_id],TableDay1[es_id] &lt;&gt; "")))</f>
+        <f t="array" ref="AE13:AE16">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(TableDay1[es_id],TableDay1[es_id] &lt;&gt; "")))</f>
         <v>1000000000000</v>
       </c>
       <c r="AF13" s="36" t="str" cm="1">
-        <f t="array" ref="AF13:AF14">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(TableDay1[brp_id],TableDay1[brp_id] &lt;&gt; "")))</f>
+        <f t="array" ref="AF13:AF16">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(TableDay1[brp_id],TableDay1[brp_id] &lt;&gt; "")))</f>
         <v>1100000000000</v>
       </c>
       <c r="AG13" s="36"/>
@@ -2561,36 +2537,22 @@
       <c r="AQ13" s="24"/>
     </row>
     <row r="14" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C14" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>94</v>
-      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="12">
-        <v>2.0030000000000001</v>
-      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
-      <c r="J14" s="43">
+      <c r="J14" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>2.0030000000000001</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>99</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="O14" s="10"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
       <c r="R14" s="15" t="s">
@@ -2598,28 +2560,28 @@
       </c>
       <c r="S14" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U14,TableDay1[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T14" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U14,TableDay1[es_id],0)),"")</f>
-        <v>1100000000000</v>
+        <v/>
       </c>
       <c r="U14" s="26" t="str">
         <f>IF(AE$3=0,"",AE$3)</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="V14" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[es_id],U14,IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT1H")/4</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W14" s="19">
         <f>V14</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X14" s="19"/>
       <c r="Y14" s="23">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="27"/>
       <c r="AA14" s="27"/>
@@ -2694,38 +2656,22 @@
       <c r="CN14" s="2"/>
     </row>
     <row r="15" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C15" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="41"/>
       <c r="I15" s="41"/>
-      <c r="J15" s="43">
+      <c r="J15" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>92</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="15" t="s">
@@ -2733,23 +2679,23 @@
       </c>
       <c r="S15" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U15,TableDay1[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T15" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U15,TableDay1[es_id],0)),"")</f>
-        <v>1100000000000</v>
+        <v/>
       </c>
       <c r="U15" s="26" t="str">
         <f t="shared" ref="U15:V17" si="3">U$14</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="V15" s="19">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W15" s="19">
         <f>X15+W14</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X15" s="19">
         <f>V15-Y14</f>
@@ -2757,7 +2703,7 @@
       </c>
       <c r="Y15" s="23">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
@@ -2767,7 +2713,9 @@
       <c r="AE15" s="36" t="str">
         <v>3000000000000</v>
       </c>
-      <c r="AF15" s="36"/>
+      <c r="AF15" s="36" t="str">
+        <v>3300000000000</v>
+      </c>
       <c r="AG15" s="36"/>
       <c r="AH15" s="36"/>
       <c r="AI15" s="24"/>
@@ -2830,38 +2778,22 @@
       <c r="CN15" s="2"/>
     </row>
     <row r="16" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C16" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
-      <c r="J16" s="43">
+      <c r="J16" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>92</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="15" t="s">
@@ -2869,23 +2801,23 @@
       </c>
       <c r="S16" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U16,TableDay1[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T16" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U16,TableDay1[es_id],0)),"")</f>
-        <v>1100000000000</v>
+        <v/>
       </c>
       <c r="U16" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="V16" s="19">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W16" s="19">
         <f>X16+W15</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X16" s="19">
         <f>V16-Y15</f>
@@ -2893,15 +2825,19 @@
       </c>
       <c r="Y16" s="23">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="27"/>
       <c r="AA16" s="27"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="36"/>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
+      <c r="AE16" s="36" t="str">
+        <v>4000000000000</v>
+      </c>
+      <c r="AF16" s="36" t="str">
+        <v>4400000000000</v>
+      </c>
       <c r="AG16" s="36"/>
       <c r="AH16" s="36"/>
       <c r="AI16" s="24"/>
@@ -2987,23 +2923,23 @@
       </c>
       <c r="S17" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U17,TableDay1[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T17" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U17,TableDay1[es_id],0)),"")</f>
-        <v>1100000000000</v>
+        <v/>
       </c>
       <c r="U17" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="V17" s="19">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W17" s="19">
         <f>X17+W16</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X17" s="19">
         <f>V17-Y16</f>
@@ -3011,7 +2947,7 @@
       </c>
       <c r="Y17" s="23">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="27"/>
       <c r="AA17" s="27"/>
@@ -3105,28 +3041,28 @@
       </c>
       <c r="S18" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U18,TableDay1[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T18" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U18,TableDay1[es_id],0)),"")</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="U18" s="26" t="str">
         <f>IF(AE$4=0,"",AE$4)</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="V18" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[es_id],U18,IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT1H")/4</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="W18" s="19">
         <f>V18</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="X18" s="19"/>
       <c r="Y18" s="23">
         <f t="shared" si="1"/>
-        <v>6.3E-2</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="27"/>
       <c r="AA18" s="27"/>
@@ -3220,31 +3156,31 @@
       </c>
       <c r="S19" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U19,TableDay1[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T19" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U19,TableDay1[es_id],0)),"")</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="U19" s="26" t="str">
         <f t="shared" ref="U19:V21" si="4">U$18</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="V19" s="19">
         <f t="shared" si="4"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="W19" s="19">
         <f>X19+W18</f>
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="X19" s="19">
         <f>V19-Y18</f>
-        <v>-5.0000000000000044E-4</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="23">
         <f t="shared" si="1"/>
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="27"/>
       <c r="AA19" s="27"/>
@@ -3315,48 +3251,48 @@
       <c r="CN19" s="2"/>
     </row>
     <row r="20" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" s="47" t="str">
+      <c r="E20" s="48" t="str">
         <f>CONCATENATE(B2,"_per_",B1)</f>
         <v>flex_consumption_per_ga_brp_es</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48" t="s">
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="49"/>
-      <c r="K20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
       <c r="R20" s="15" t="s">
         <v>74</v>
       </c>
       <c r="S20" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U20,TableDay1[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T20" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U20,TableDay1[es_id],0)),"")</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="U20" s="26" t="str">
         <f t="shared" si="4"/>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="V20" s="19">
         <f t="shared" si="4"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="19">
         <f>X20+W19</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="X20" s="19">
         <f>V20-Y19</f>
-        <v>5.0000000000000044E-4</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="23">
         <f t="shared" si="1"/>
-        <v>6.3E-2</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="27"/>
       <c r="AA20" s="27"/>
@@ -3468,31 +3404,31 @@
       </c>
       <c r="S21" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U21,TableDay1[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T21" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U21,TableDay1[es_id],0)),"")</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="U21" s="26" t="str">
         <f t="shared" si="4"/>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="V21" s="19">
         <f t="shared" si="4"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="19">
         <f>X21+W20</f>
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="X21" s="19">
         <f>V21-Y20</f>
-        <v>-5.0000000000000044E-4</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="23">
         <f t="shared" si="1"/>
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="27"/>
       <c r="AA21" s="27"/>
@@ -3589,19 +3525,19 @@
       </c>
       <c r="H22" s="33" t="str">
         <f ca="1">IF(E22="","",SUBSTITUTE(ROUND(I22+J22+K22,3),",","."))</f>
-        <v>10</v>
+        <v>4.79</v>
       </c>
       <c r="I22" s="9">
         <f>SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F22,IF(B$1="ga_brp",G22,E22)),R$10:R$33,D22)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J22" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D22,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D22,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F22,IF(B$1="ga_brp",G22,E22)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" ref="K22:K45" ca="1" si="5">IF(AND(C22="skmp",B$2="production"),VLOOKUP(D22,D$78:H$81,5,FALSE),IF(AND(B22="glmp",B$2="flex_consumption"),VLOOKUP(D22,D$72:H$75,5,FALSE),0))</f>
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3731,11 +3667,11 @@
       </c>
       <c r="H23" s="33" t="str">
         <f t="shared" ref="H23:H45" ca="1" si="7">IF(E23="","",SUBSTITUTE(ROUND(I23+J23+K23,3),",","."))</f>
-        <v>1.458</v>
+        <v>4.79</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" ref="I23:I45" si="8">SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F23,IF(B$1="ga_brp",G23,E23)),R$10:R$33,D23)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J23" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D23,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D23,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F23,IF(B$1="ga_brp",G23,E23)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -3743,7 +3679,7 @@
       </c>
       <c r="K23" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4579999999999997</v>
+        <v>2.29</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3876,11 +3812,11 @@
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1.457</v>
+        <v>4.789</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J24" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D24,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D24,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F24,IF(B$1="ga_brp",G24,E24)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -3888,7 +3824,7 @@
       </c>
       <c r="K24" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4569999999999999</v>
+        <v>2.2889999999999997</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -4024,11 +3960,11 @@
       </c>
       <c r="H25" s="33" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1.459</v>
+        <v>4.79</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J25" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D25,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D25,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F25,IF(B$1="ga_brp",G25,E25)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -4036,7 +3972,7 @@
       </c>
       <c r="K25" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.459000000000001</v>
+        <v>2.29</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="2"/>
@@ -4160,23 +4096,23 @@
       </c>
       <c r="E26" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F26" s="31" t="str">
         <f>IF(B$1="ga",IF(E26="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G26="","","null"))))</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="G26" s="31" t="str">
         <f>IF(B$1="ga",IF(E26="","","null"),IF(B$1="ga_es",IF(F26="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F26="","",INDEX(TableDay1[brp_id],MATCH(F26,TableDay1[es_id],0),1)))))</f>
-        <v>1100000000000</v>
+        <v/>
       </c>
       <c r="H26" s="33" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.5</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J26" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D26,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D26,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F26,IF(B$1="ga_brp",G26,E26)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -4302,23 +4238,23 @@
       </c>
       <c r="E27" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F27" s="31" t="str">
         <f>IF(B$1="ga",IF(E27="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G27="","","null"))))</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="G27" s="31" t="str">
         <f>IF(B$1="ga",IF(E27="","","null"),IF(B$1="ga_es",IF(F27="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F27="","",INDEX(TableDay1[brp_id],MATCH(F27,TableDay1[es_id],0),1)))))</f>
-        <v>1100000000000</v>
+        <v/>
       </c>
       <c r="H27" s="33" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.5</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J27" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D27,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D27,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F27,IF(B$1="ga_brp",G27,E27)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -4453,23 +4389,23 @@
       </c>
       <c r="E28" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F28" s="31" t="str">
         <f>IF(B$1="ga",IF(E28="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G28="","","null"))))</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="G28" s="31" t="str">
         <f>IF(B$1="ga",IF(E28="","","null"),IF(B$1="ga_es",IF(F28="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F28="","",INDEX(TableDay1[brp_id],MATCH(F28,TableDay1[es_id],0),1)))))</f>
-        <v>1100000000000</v>
+        <v/>
       </c>
       <c r="H28" s="33" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.5</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J28" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D28,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D28,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F28,IF(B$1="ga_brp",G28,E28)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -4604,23 +4540,23 @@
       </c>
       <c r="E29" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F29" s="31" t="str">
         <f>IF(B$1="ga",IF(E29="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G29="","","null"))))</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="G29" s="31" t="str">
         <f>IF(B$1="ga",IF(E29="","","null"),IF(B$1="ga_es",IF(F29="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F29="","",INDEX(TableDay1[brp_id],MATCH(F29,TableDay1[es_id],0),1)))))</f>
-        <v>1100000000000</v>
+        <v/>
       </c>
       <c r="H29" s="33" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.5</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J29" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D29,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D29,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F29,IF(B$1="ga_brp",G29,E29)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -4669,11 +4605,11 @@
       <c r="AD29" s="36"/>
       <c r="AE29" s="36" t="str" cm="1">
         <f t="array" ref="AE29">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE14)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE14)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="AF29" s="36" t="str" cm="1">
         <f t="array" ref="AF29">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF14)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF14)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="AG29" s="36"/>
       <c r="AH29" s="36"/>
@@ -4743,30 +4679,30 @@
       </c>
       <c r="C30" s="16" t="str">
         <f>IF(AND(F30&lt;&gt;"null",F30&lt;&gt;""),IF(F30=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G30&lt;&gt;"null",G30&lt;&gt;""),IF(G30=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E30=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v>skmp</v>
+        <v/>
       </c>
       <c r="D30" s="15" t="s">
         <v>72</v>
       </c>
       <c r="E30" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F30" s="31" t="str">
         <f>IF(B$1="ga",IF(E30="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$4=0,"",AE$4),IF(B$1="ga_brp",IF(G30="","","null"))))</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="G30" s="31" t="str">
         <f>IF(B$1="ga",IF(E30="","","null"),IF(B$1="ga_es",IF(F30="","","null"),IF(B$1="ga_brp",IF(AF$4=0,"",AF$4),IF(F30="","",INDEX(TableDay1[brp_id],MATCH(F30,TableDay1[es_id],0),1)))))</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="H30" s="33" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.063</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="8"/>
-        <v>6.3E-2</v>
+        <v>0</v>
       </c>
       <c r="J30" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D30,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D30,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F30,IF(B$1="ga_brp",G30,E30)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -4812,7 +4748,7 @@
       <c r="AD30" s="36"/>
       <c r="AE30" s="36" t="str" cm="1">
         <f t="array" ref="AE30">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE15)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE15)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="AF30" s="36" t="str" cm="1">
         <f t="array" ref="AF30">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF15)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF15)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
@@ -4886,30 +4822,30 @@
       </c>
       <c r="C31" s="16" t="str">
         <f>IF(AND(F31&lt;&gt;"null",F31&lt;&gt;""),IF(F31=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G31&lt;&gt;"null",G31&lt;&gt;""),IF(G31=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E31=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v>skmp</v>
+        <v/>
       </c>
       <c r="D31" s="15" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F31" s="31" t="str">
         <f>IF(B$1="ga",IF(E31="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$4=0,"",AE$4),IF(B$1="ga_brp",IF(G31="","","null"))))</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="G31" s="31" t="str">
         <f>IF(B$1="ga",IF(E31="","","null"),IF(B$1="ga_es",IF(F31="","","null"),IF(B$1="ga_brp",IF(AF$4=0,"",AF$4),IF(F31="","",INDEX(TableDay1[brp_id],MATCH(F31,TableDay1[es_id],0),1)))))</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="H31" s="33" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.062</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I31" s="9">
         <f t="shared" si="8"/>
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D31,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D31,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F31,IF(B$1="ga_brp",G31,E31)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -5032,30 +4968,30 @@
       </c>
       <c r="C32" s="16" t="str">
         <f>IF(AND(F32&lt;&gt;"null",F32&lt;&gt;""),IF(F32=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G32&lt;&gt;"null",G32&lt;&gt;""),IF(G32=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E32=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v>skmp</v>
+        <v/>
       </c>
       <c r="D32" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F32" s="31" t="str">
         <f>IF(B$1="ga",IF(E32="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$4=0,"",AE$4),IF(B$1="ga_brp",IF(G32="","","null"))))</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="G32" s="31" t="str">
         <f>IF(B$1="ga",IF(E32="","","null"),IF(B$1="ga_es",IF(F32="","","null"),IF(B$1="ga_brp",IF(AF$4=0,"",AF$4),IF(F32="","",INDEX(TableDay1[brp_id],MATCH(F32,TableDay1[es_id],0),1)))))</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="H32" s="33" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.063</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I32" s="9">
         <f t="shared" si="8"/>
-        <v>6.3E-2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D32,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D32,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F32,IF(B$1="ga_brp",G32,E32)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -5178,30 +5114,30 @@
       </c>
       <c r="C33" s="16" t="str">
         <f>IF(AND(F33&lt;&gt;"null",F33&lt;&gt;""),IF(F33=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G33&lt;&gt;"null",G33&lt;&gt;""),IF(G33=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E33=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v>skmp</v>
+        <v/>
       </c>
       <c r="D33" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E33" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F33" s="31" t="str">
         <f>IF(B$1="ga",IF(E33="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$4=0,"",AE$4),IF(B$1="ga_brp",IF(G33="","","null"))))</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="G33" s="31" t="str">
         <f>IF(B$1="ga",IF(E33="","","null"),IF(B$1="ga_es",IF(F33="","","null"),IF(B$1="ga_brp",IF(AF$4=0,"",AF$4),IF(F33="","",INDEX(TableDay1[brp_id],MATCH(F33,TableDay1[es_id],0),1)))))</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="H33" s="33" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.062</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I33" s="9">
         <f t="shared" si="8"/>
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="J33" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D33,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D33,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F33,IF(B$1="ga_brp",G33,E33)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -5257,7 +5193,10 @@
         <v/>
       </c>
       <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
+      <c r="AH33" s="36" t="e" cm="1" vm="1">
+        <f t="array" ref="AH33">_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),""))&lt;&gt;"")</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="AI33" s="24"/>
       <c r="AJ33" s="24"/>
       <c r="AK33" s="24"/>
@@ -5487,7 +5426,7 @@
       <c r="U35" s="24"/>
       <c r="V35" s="28">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT1H")</f>
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W35" s="16" t="s">
         <v>47</v>
@@ -5495,16 +5434,19 @@
       <c r="X35" s="16"/>
       <c r="Y35" s="28">
         <f>SUM(Y37:Y40)</f>
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z35" s="21">
         <f>SUM(Z37:Z40)</f>
-        <v>10.252000000000001</v>
+        <v>10</v>
       </c>
       <c r="AA35" s="27"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
-      <c r="AD35" s="36"/>
+      <c r="AD35" s="36" t="b">
+        <f>Q10=AD2</f>
+        <v>1</v>
+      </c>
       <c r="AE35" s="36" t="str" cm="1">
         <f t="array" ref="AE35">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE20)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE20)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
         <v/>
@@ -5574,7 +5516,7 @@
       <c r="CM35" s="2"/>
       <c r="CN35" s="2"/>
     </row>
-    <row r="36" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B36" s="16" t="str">
         <f>IF(AND(F36&lt;&gt;"null",F36&lt;&gt;""),IF(F36=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G36&lt;&gt;"null",G36&lt;&gt;""),IF(G36=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E36=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5623,7 +5565,7 @@
       </c>
       <c r="V36" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT1H")/4</f>
-        <v>2.5625</v>
+        <v>2.5</v>
       </c>
       <c r="W36" s="7" t="s">
         <v>43</v>
@@ -5710,7 +5652,7 @@
       <c r="CM36" s="2"/>
       <c r="CN36" s="2"/>
     </row>
-    <row r="37" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B37" s="16" t="str">
         <f>IF(AND(F37&lt;&gt;"null",F37&lt;&gt;""),IF(F37=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G37&lt;&gt;"null",G37&lt;&gt;""),IF(G37=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E37=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5759,20 +5701,20 @@
       </c>
       <c r="V37" s="19">
         <f>V$36</f>
-        <v>2.5625</v>
+        <v>2.5</v>
       </c>
       <c r="W37" s="19">
         <f>V37</f>
-        <v>2.5625</v>
+        <v>2.5</v>
       </c>
       <c r="X37" s="19"/>
       <c r="Y37" s="23">
         <f>ROUND(W37, 3)</f>
-        <v>2.5630000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="Z37" s="23">
         <f>ROUND(V37,3)</f>
-        <v>2.5630000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="AA37" s="27"/>
       <c r="AB37" s="2"/>
@@ -5847,7 +5789,7 @@
       <c r="CM37" s="2"/>
       <c r="CN37" s="2"/>
     </row>
-    <row r="38" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B38" s="16" t="str">
         <f>IF(AND(F38&lt;&gt;"null",F38&lt;&gt;""),IF(F38=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G38&lt;&gt;"null",G38&lt;&gt;""),IF(G38=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E38=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5896,23 +5838,23 @@
       </c>
       <c r="V38" s="19">
         <f>V$36</f>
-        <v>2.5625</v>
+        <v>2.5</v>
       </c>
       <c r="W38" s="19">
         <f>X38+W37</f>
-        <v>2.5619999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="X38" s="19">
         <f>V38-Y37</f>
-        <v>-5.0000000000016698E-4</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="23">
         <f>ROUND(W38, 3)</f>
-        <v>2.5619999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="Z38" s="23">
         <f>ROUND(V38,3)</f>
-        <v>2.5630000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="AA38" s="27"/>
       <c r="AB38" s="2"/>
@@ -5987,7 +5929,7 @@
       <c r="CM38" s="2"/>
       <c r="CN38" s="2"/>
     </row>
-    <row r="39" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B39" s="16" t="str">
         <f>IF(AND(F39&lt;&gt;"null",F39&lt;&gt;""),IF(F39=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G39&lt;&gt;"null",G39&lt;&gt;""),IF(G39=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E39=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6036,23 +5978,23 @@
       </c>
       <c r="V39" s="19">
         <f>V$36</f>
-        <v>2.5625</v>
+        <v>2.5</v>
       </c>
       <c r="W39" s="19">
         <f>X39+W38</f>
-        <v>2.5625</v>
+        <v>2.5</v>
       </c>
       <c r="X39" s="19">
         <f>V39-Y38</f>
-        <v>5.0000000000016698E-4</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="23">
         <f>ROUND(W39, 3)</f>
-        <v>2.5630000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="Z39" s="23">
         <f>ROUND(V39,3)</f>
-        <v>2.5630000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="AA39" s="27"/>
       <c r="AB39" s="2"/>
@@ -6127,7 +6069,7 @@
       <c r="CM39" s="2"/>
       <c r="CN39" s="2"/>
     </row>
-    <row r="40" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B40" s="16" t="str">
         <f>IF(AND(F40&lt;&gt;"null",F40&lt;&gt;""),IF(F40=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G40&lt;&gt;"null",G40&lt;&gt;""),IF(G40=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E40=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6176,23 +6118,23 @@
       </c>
       <c r="V40" s="19">
         <f>V$36</f>
-        <v>2.5625</v>
+        <v>2.5</v>
       </c>
       <c r="W40" s="19">
         <f>X40+W39</f>
-        <v>2.5619999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="X40" s="19">
         <f>V40-Y39</f>
-        <v>-5.0000000000016698E-4</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="23">
         <f>ROUND(W40, 3)</f>
-        <v>2.5619999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="Z40" s="23">
         <f>ROUND(V40,3)</f>
-        <v>2.5630000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="AA40" s="27"/>
       <c r="AB40" s="2"/>
@@ -6267,7 +6209,7 @@
       <c r="CM40" s="2"/>
       <c r="CN40" s="2"/>
     </row>
-    <row r="41" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B41" s="16" t="str">
         <f>IF(AND(F41&lt;&gt;"null",F41&lt;&gt;""),IF(F41=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G41&lt;&gt;"null",G41&lt;&gt;""),IF(G41=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E41=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6314,7 +6256,7 @@
       <c r="U41" s="24"/>
       <c r="V41" s="28">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E18",TableDay1[resolution],"PT1H")</f>
-        <v>6.0030000000000001</v>
+        <v>19.158999999999999</v>
       </c>
       <c r="W41" s="39" t="s">
         <v>47</v>
@@ -6322,11 +6264,11 @@
       <c r="X41" s="40"/>
       <c r="Y41" s="28">
         <f>SUM(Y43:Y46)</f>
-        <v>6.0030000000000001</v>
+        <v>19.158999999999999</v>
       </c>
       <c r="Z41" s="21">
         <f>SUM(Z43:Z46)</f>
-        <v>6.0039999999999996</v>
+        <v>19.16</v>
       </c>
       <c r="AA41" s="27"/>
       <c r="AB41" s="2"/>
@@ -6401,7 +6343,7 @@
       <c r="CM41" s="2"/>
       <c r="CN41" s="2"/>
     </row>
-    <row r="42" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B42" s="16" t="str">
         <f>IF(AND(F42&lt;&gt;"null",F42&lt;&gt;""),IF(F42=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G42&lt;&gt;"null",G42&lt;&gt;""),IF(G42=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E42=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6450,7 +6392,7 @@
       </c>
       <c r="V42" s="22">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E18",TableDay1[resolution],"PT1H")/4</f>
-        <v>1.50075</v>
+        <v>4.7897499999999997</v>
       </c>
       <c r="W42" s="7" t="s">
         <v>43</v>
@@ -6537,7 +6479,7 @@
       <c r="CM42" s="2"/>
       <c r="CN42" s="2"/>
     </row>
-    <row r="43" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B43" s="16" t="str">
         <f>IF(AND(F43&lt;&gt;"null",F43&lt;&gt;""),IF(F43=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G43&lt;&gt;"null",G43&lt;&gt;""),IF(G43=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E43=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6586,20 +6528,20 @@
       </c>
       <c r="V43" s="19">
         <f>V$42</f>
-        <v>1.50075</v>
+        <v>4.7897499999999997</v>
       </c>
       <c r="W43" s="19">
         <f>V43</f>
-        <v>1.50075</v>
+        <v>4.7897499999999997</v>
       </c>
       <c r="X43" s="19"/>
       <c r="Y43" s="23">
         <f>ROUND(W43, 3)</f>
-        <v>1.5009999999999999</v>
+        <v>4.79</v>
       </c>
       <c r="Z43" s="23">
         <f>ROUND(V43,3)</f>
-        <v>1.5009999999999999</v>
+        <v>4.79</v>
       </c>
       <c r="AA43" s="27"/>
       <c r="AB43" s="2"/>
@@ -6608,9 +6550,15 @@
       <c r="AE43" s="36"/>
       <c r="AF43" s="36"/>
       <c r="AG43" s="36"/>
-      <c r="AH43" s="36"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2"/>
+      <c r="AH43" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ43" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
@@ -6668,7 +6616,7 @@
       <c r="CM43" s="2"/>
       <c r="CN43" s="2"/>
     </row>
-    <row r="44" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B44" s="16" t="str">
         <f>IF(AND(F44&lt;&gt;"null",F44&lt;&gt;""),IF(F44=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G44&lt;&gt;"null",G44&lt;&gt;""),IF(G44=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E44=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6717,23 +6665,23 @@
       </c>
       <c r="V44" s="19">
         <f>V$42</f>
-        <v>1.50075</v>
+        <v>4.7897499999999997</v>
       </c>
       <c r="W44" s="19">
         <f>X44+W43</f>
-        <v>1.5005000000000002</v>
+        <v>4.7894999999999994</v>
       </c>
       <c r="X44" s="19">
         <f>V44-Y43</f>
-        <v>-2.4999999999986144E-4</v>
+        <v>-2.5000000000030553E-4</v>
       </c>
       <c r="Y44" s="23">
         <f>ROUND(W44, 3)</f>
-        <v>1.5009999999999999</v>
+        <v>4.79</v>
       </c>
       <c r="Z44" s="23">
         <f>ROUND(V44,3)</f>
-        <v>1.5009999999999999</v>
+        <v>4.79</v>
       </c>
       <c r="AA44" s="27"/>
       <c r="AB44" s="2"/>
@@ -6741,10 +6689,22 @@
       <c r="AD44" s="36"/>
       <c r="AE44" s="36"/>
       <c r="AF44" s="36"/>
-      <c r="AG44" s="36"/>
-      <c r="AH44" s="36"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
+      <c r="AG44" s="36" t="e" cm="1" vm="1">
+        <f t="array" ref="AG44">_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH44" s="36" t="str" cm="1">
+        <f t="array" ref="AH44">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2)</f>
+        <v>801</v>
+      </c>
+      <c r="AI44" s="2" t="e" cm="1" vm="1">
+        <f t="array" ref="AI44">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ44" s="2" t="str" cm="1">
+        <f t="array" ref="AJ44">IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),"")</f>
+        <v/>
+      </c>
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
@@ -6802,7 +6762,7 @@
       <c r="CM44" s="2"/>
       <c r="CN44" s="2"/>
     </row>
-    <row r="45" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B45" s="16" t="str">
         <f>IF(AND(F45&lt;&gt;"null",F45&lt;&gt;""),IF(F45=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G45&lt;&gt;"null",G45&lt;&gt;""),IF(G45=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E45=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6851,23 +6811,23 @@
       </c>
       <c r="V45" s="19">
         <f>V$42</f>
-        <v>1.50075</v>
+        <v>4.7897499999999997</v>
       </c>
       <c r="W45" s="19">
         <f>X45+W44</f>
-        <v>1.5002500000000003</v>
+        <v>4.7892499999999991</v>
       </c>
       <c r="X45" s="19">
         <f>V45-Y44</f>
-        <v>-2.4999999999986144E-4</v>
+        <v>-2.5000000000030553E-4</v>
       </c>
       <c r="Y45" s="23">
         <f>ROUND(W45, 3)</f>
-        <v>1.5</v>
+        <v>4.7889999999999997</v>
       </c>
       <c r="Z45" s="23">
         <f>ROUND(V45,3)</f>
-        <v>1.5009999999999999</v>
+        <v>4.79</v>
       </c>
       <c r="AA45" s="27"/>
       <c r="AB45" s="2"/>
@@ -6936,14 +6896,14 @@
       <c r="CM45" s="2"/>
       <c r="CN45" s="2"/>
     </row>
-    <row r="46" spans="1:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="2"/>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
       <c r="R46" s="24"/>
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
@@ -6952,11 +6912,11 @@
       </c>
       <c r="V46" s="19">
         <f>V$42</f>
-        <v>1.50075</v>
+        <v>4.7897499999999997</v>
       </c>
       <c r="W46" s="19">
         <f>X46+W45</f>
-        <v>1.5010000000000003</v>
+        <v>4.7899999999999991</v>
       </c>
       <c r="X46" s="19">
         <f>V46-Y45</f>
@@ -6964,11 +6924,11 @@
       </c>
       <c r="Y46" s="23">
         <f>ROUND(W46, 3)</f>
-        <v>1.5009999999999999</v>
+        <v>4.79</v>
       </c>
       <c r="Z46" s="23">
         <f>ROUND(V46,3)</f>
-        <v>1.5009999999999999</v>
+        <v>4.79</v>
       </c>
       <c r="AA46" s="27"/>
       <c r="AB46" s="2"/>
@@ -7037,7 +6997,7 @@
       <c r="CM46" s="2"/>
       <c r="CN46" s="2"/>
     </row>
-    <row r="47" spans="1:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C47" s="2"/>
       <c r="D47" s="4" t="s">
         <v>20</v>
@@ -7060,7 +7020,7 @@
       <c r="U47" s="24"/>
       <c r="V47" s="28">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT1H")</f>
-        <v>8.8070000000000004</v>
+        <v>0</v>
       </c>
       <c r="W47" s="39" t="s">
         <v>47</v>
@@ -7068,11 +7028,11 @@
       <c r="X47" s="40"/>
       <c r="Y47" s="28">
         <f>SUM(Y49:Y52)</f>
-        <v>8.8070000000000004</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="21">
         <f>SUM(Z49:Z52)</f>
-        <v>8.8079999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="27"/>
       <c r="AB47" s="2"/>
@@ -7141,7 +7101,7 @@
       <c r="CM47" s="2"/>
       <c r="CN47" s="2"/>
     </row>
-    <row r="48" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -7160,11 +7120,11 @@
       </c>
       <c r="H48" s="32">
         <f ca="1">SUMIF(D90:D113,D48,H90:H113)</f>
-        <v>9.7220000000000013</v>
+        <v>0</v>
       </c>
       <c r="I48" s="27" t="str">
         <f ca="1">SUBSTITUTE(ROUND(H48,3),",",".")</f>
-        <v>9.722</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2"/>
       <c r="R48" s="24"/>
@@ -7175,7 +7135,7 @@
       </c>
       <c r="V48" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT1H")/4</f>
-        <v>2.2017500000000001</v>
+        <v>0</v>
       </c>
       <c r="W48" s="7" t="s">
         <v>43</v>
@@ -7256,7 +7216,7 @@
       <c r="CM48" s="2"/>
       <c r="CN48" s="2"/>
     </row>
-    <row r="49" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -7275,11 +7235,11 @@
       </c>
       <c r="H49" s="32">
         <f t="shared" ref="H49:H51" ca="1" si="13">SUMIF(D91:D114,D49,H91:H114)</f>
-        <v>4.7210000000000001</v>
+        <v>0</v>
       </c>
       <c r="I49" s="27" t="str">
         <f t="shared" ref="I49:I51" ca="1" si="14">SUBSTITUTE(ROUND(H49,3),",",".")</f>
-        <v>4.721</v>
+        <v>0</v>
       </c>
       <c r="J49" s="2"/>
       <c r="R49" s="24"/>
@@ -7290,20 +7250,20 @@
       </c>
       <c r="V49" s="19">
         <f>V$48</f>
-        <v>2.2017500000000001</v>
+        <v>0</v>
       </c>
       <c r="W49" s="19">
         <f>V49</f>
-        <v>2.2017500000000001</v>
+        <v>0</v>
       </c>
       <c r="X49" s="19"/>
       <c r="Y49" s="23">
         <f>ROUND(W49, 3)</f>
-        <v>2.202</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="23">
         <f>ROUND(V49,3)</f>
-        <v>2.202</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="27"/>
       <c r="AB49" s="2"/>
@@ -7372,7 +7332,7 @@
       <c r="CM49" s="2"/>
       <c r="CN49" s="2"/>
     </row>
-    <row r="50" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -7391,11 +7351,11 @@
       </c>
       <c r="H50" s="32">
         <f t="shared" ca="1" si="13"/>
-        <v>4.7210000000000001</v>
+        <v>0</v>
       </c>
       <c r="I50" s="27" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>4.721</v>
+        <v>0</v>
       </c>
       <c r="J50" s="2"/>
       <c r="R50" s="24"/>
@@ -7406,23 +7366,23 @@
       </c>
       <c r="V50" s="19">
         <f>V$48</f>
-        <v>2.2017500000000001</v>
+        <v>0</v>
       </c>
       <c r="W50" s="19">
         <f>X50+W49</f>
-        <v>2.2015000000000002</v>
+        <v>0</v>
       </c>
       <c r="X50" s="19">
         <f>V50-Y49</f>
-        <v>-2.4999999999986144E-4</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="23">
         <f>ROUND(W50, 3)</f>
-        <v>2.202</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="23">
         <f>ROUND(V50,3)</f>
-        <v>2.202</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="24"/>
       <c r="AB50" s="2"/>
@@ -7491,7 +7451,7 @@
       <c r="CM50" s="2"/>
       <c r="CN50" s="2"/>
     </row>
-    <row r="51" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -7510,11 +7470,11 @@
       </c>
       <c r="H51" s="32">
         <f t="shared" ca="1" si="13"/>
-        <v>4.7220000000000004</v>
+        <v>0</v>
       </c>
       <c r="I51" s="27" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>4.722</v>
+        <v>0</v>
       </c>
       <c r="J51" s="2"/>
       <c r="R51" s="24"/>
@@ -7525,23 +7485,23 @@
       </c>
       <c r="V51" s="19">
         <f>V$48</f>
-        <v>2.2017500000000001</v>
+        <v>0</v>
       </c>
       <c r="W51" s="19">
         <f>X51+W50</f>
-        <v>2.2012500000000004</v>
+        <v>0</v>
       </c>
       <c r="X51" s="19">
         <f>V51-Y50</f>
-        <v>-2.4999999999986144E-4</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="23">
         <f>ROUND(W51, 3)</f>
-        <v>2.2010000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="23">
         <f>ROUND(V51,3)</f>
-        <v>2.202</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="24"/>
       <c r="AB51" s="2"/>
@@ -7610,16 +7570,16 @@
       <c r="CM51" s="2"/>
       <c r="CN51" s="2"/>
     </row>
-    <row r="52" spans="1:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="E52" s="51" t="s">
+      <c r="E52" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="54"/>
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
@@ -7628,23 +7588,23 @@
       </c>
       <c r="V52" s="19">
         <f>V$48</f>
-        <v>2.2017500000000001</v>
+        <v>0</v>
       </c>
       <c r="W52" s="19">
         <f>X52+W51</f>
-        <v>2.2020000000000004</v>
+        <v>0</v>
       </c>
       <c r="X52" s="19">
         <f>V52-Y51</f>
-        <v>7.5000000000002842E-4</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="23">
         <f>ROUND(W52, 3)</f>
-        <v>2.202</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="23">
         <f>ROUND(V52,3)</f>
-        <v>2.202</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="24"/>
       <c r="AB52" s="2"/>
@@ -7713,7 +7673,7 @@
       <c r="CM52" s="2"/>
       <c r="CN52" s="2"/>
     </row>
-    <row r="53" spans="1:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -7738,7 +7698,7 @@
       <c r="U53" s="24"/>
       <c r="V53" s="28">
         <f>ROUND(SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT1H",TableDay1[to_ga],$AD$2),3)</f>
-        <v>20.003</v>
+        <v>3.3570000000000002</v>
       </c>
       <c r="W53" s="39" t="s">
         <v>47</v>
@@ -7746,11 +7706,11 @@
       <c r="X53" s="40"/>
       <c r="Y53" s="28">
         <f>ROUND(SUM(Y55:Y58),3)</f>
-        <v>20.003</v>
+        <v>3.3570000000000002</v>
       </c>
       <c r="Z53" s="21">
         <f>SUM(Z55:Z58)</f>
-        <v>20.004000000000001</v>
+        <v>3.3559999999999999</v>
       </c>
       <c r="AA53" s="24"/>
       <c r="AB53" s="2"/>
@@ -7819,7 +7779,7 @@
       <c r="CM53" s="2"/>
       <c r="CN53" s="2"/>
     </row>
-    <row r="54" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -7838,11 +7798,11 @@
       </c>
       <c r="H54" s="32">
         <f>totalFlex1H_quarter1+totalFlex15M_quarter1</f>
-        <v>12.563000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="I54" s="27" t="str">
         <f>SUBSTITUTE(ROUND(H54,3),",",".")</f>
-        <v>12.563</v>
+        <v>2.5</v>
       </c>
       <c r="Q54" s="46"/>
       <c r="R54" s="46"/>
@@ -7853,7 +7813,7 @@
       </c>
       <c r="V54" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT1H",TableDay1[to_ga],$AD$2)/4</f>
-        <v>5.00075</v>
+        <v>0.83925000000000005</v>
       </c>
       <c r="W54" s="7" t="s">
         <v>43</v>
@@ -7934,7 +7894,7 @@
       <c r="CM54" s="2"/>
       <c r="CN54" s="2"/>
     </row>
-    <row r="55" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -7953,11 +7913,11 @@
       </c>
       <c r="H55" s="32">
         <f>totalFlex1H_quarter2+totalFlex15M_quarter2</f>
-        <v>2.5619999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="I55" s="27" t="str">
         <f t="shared" ref="I55:I57" si="16">SUBSTITUTE(ROUND(H55,3),",",".")</f>
-        <v>2.562</v>
+        <v>2.5</v>
       </c>
       <c r="R55" s="44"/>
       <c r="S55" s="24"/>
@@ -7967,20 +7927,20 @@
       </c>
       <c r="V55" s="19">
         <f>V$54</f>
-        <v>5.00075</v>
+        <v>0.83925000000000005</v>
       </c>
       <c r="W55" s="19">
         <f>V55</f>
-        <v>5.00075</v>
+        <v>0.83925000000000005</v>
       </c>
       <c r="X55" s="19"/>
       <c r="Y55" s="23">
         <f>ROUND(W55,3)</f>
-        <v>5.0010000000000003</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="Z55" s="23">
         <f>ROUND(V55,3)</f>
-        <v>5.0010000000000003</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="AA55" s="45"/>
       <c r="AB55" s="2"/>
@@ -8049,7 +8009,7 @@
       <c r="CM55" s="2"/>
       <c r="CN55" s="2"/>
     </row>
-    <row r="56" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -8068,11 +8028,11 @@
       </c>
       <c r="H56" s="32">
         <f>totalFlex1H_quarter3+totalFlex15M_quarter3</f>
-        <v>2.5630000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="I56" s="27" t="str">
         <f t="shared" si="16"/>
-        <v>2.563</v>
+        <v>2.5</v>
       </c>
       <c r="R56" s="24"/>
       <c r="S56" s="24"/>
@@ -8082,23 +8042,23 @@
       </c>
       <c r="V56" s="19">
         <f>V$54</f>
-        <v>5.00075</v>
+        <v>0.83925000000000005</v>
       </c>
       <c r="W56" s="19">
         <f>X56+W55</f>
-        <v>5.0004999999999997</v>
+        <v>0.83950000000000014</v>
       </c>
       <c r="X56" s="19">
         <f>V56-Y55</f>
-        <v>-2.5000000000030553E-4</v>
+        <v>2.5000000000008349E-4</v>
       </c>
       <c r="Y56" s="23">
         <f t="shared" ref="Y56:Y58" si="17">ROUND(W56,3)</f>
-        <v>5.0010000000000003</v>
+        <v>0.84</v>
       </c>
       <c r="Z56" s="23">
         <f>ROUND(V56,3)</f>
-        <v>5.0010000000000003</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="AA56" s="45"/>
       <c r="AB56" s="2"/>
@@ -8167,7 +8127,7 @@
       <c r="CM56" s="2"/>
       <c r="CN56" s="2"/>
     </row>
-    <row r="57" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -8186,11 +8146,11 @@
       </c>
       <c r="H57" s="32">
         <f>totalFlex1H_quarter4+totalFlex15M_quarter4</f>
-        <v>2.5619999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="I57" s="27" t="str">
         <f t="shared" si="16"/>
-        <v>2.562</v>
+        <v>2.5</v>
       </c>
       <c r="R57" s="24"/>
       <c r="S57" s="24"/>
@@ -8200,23 +8160,23 @@
       </c>
       <c r="V57" s="19">
         <f>V$54</f>
-        <v>5.00075</v>
+        <v>0.83925000000000005</v>
       </c>
       <c r="W57" s="19">
         <f>X57+W56</f>
-        <v>5.0002499999999994</v>
+        <v>0.83875000000000022</v>
       </c>
       <c r="X57" s="19">
         <f>V57-Y56</f>
-        <v>-2.5000000000030553E-4</v>
+        <v>-7.499999999999174E-4</v>
       </c>
       <c r="Y57" s="23">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="Z57" s="23">
         <f>ROUND(V57,3)</f>
-        <v>5.0010000000000003</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="AA57" s="45"/>
       <c r="AB57" s="2"/>
@@ -8285,16 +8245,16 @@
       <c r="CM57" s="2"/>
       <c r="CN57" s="2"/>
     </row>
-    <row r="58" spans="1:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="E58" s="51" t="s">
+      <c r="E58" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="54"/>
       <c r="R58" s="24"/>
       <c r="S58" s="24"/>
       <c r="T58" s="24"/>
@@ -8303,23 +8263,23 @@
       </c>
       <c r="V58" s="19">
         <f>V$54</f>
-        <v>5.00075</v>
+        <v>0.83925000000000005</v>
       </c>
       <c r="W58" s="19">
         <f>X58+W57</f>
-        <v>5.0009999999999994</v>
+        <v>0.8390000000000003</v>
       </c>
       <c r="X58" s="19">
         <f>V58-Y57</f>
-        <v>7.5000000000002842E-4</v>
+        <v>2.5000000000008349E-4</v>
       </c>
       <c r="Y58" s="23">
         <f t="shared" si="17"/>
-        <v>5.0010000000000003</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="Z58" s="23">
         <f>ROUND(V58,3)</f>
-        <v>5.0010000000000003</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="AA58" s="45"/>
       <c r="AB58" s="2"/>
@@ -8388,7 +8348,7 @@
       <c r="CM58" s="2"/>
       <c r="CN58" s="2"/>
     </row>
-    <row r="59" spans="1:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -8413,7 +8373,7 @@
       <c r="U59" s="24"/>
       <c r="V59" s="28">
         <f>ROUND(SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT1H",TableDay1[from_ga],"800"),3)</f>
-        <v>1.117</v>
+        <v>0</v>
       </c>
       <c r="W59" s="39" t="s">
         <v>47</v>
@@ -8421,11 +8381,11 @@
       <c r="X59" s="40"/>
       <c r="Y59" s="28">
         <f>ROUND(SUM(Y61:Y64),3)</f>
-        <v>1.117</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="21">
         <f>SUM(Z61:Z64)</f>
-        <v>1.1160000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="27"/>
       <c r="AB59" s="2"/>
@@ -8494,7 +8454,7 @@
       <c r="CM59" s="2"/>
       <c r="CN59" s="2"/>
     </row>
-    <row r="60" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C60" s="2"/>
       <c r="D60" s="8" t="s">
         <v>3</v>
@@ -8511,11 +8471,11 @@
       </c>
       <c r="H60" s="32">
         <f>totalProduction1H_quarter1+totalProduction15M_quarter1</f>
-        <v>7.5009999999999994</v>
+        <v>4.79</v>
       </c>
       <c r="I60" s="27" t="str">
         <f>SUBSTITUTE(ROUND(H60,3),",",".")</f>
-        <v>7.501</v>
+        <v>4.79</v>
       </c>
       <c r="R60" s="44"/>
       <c r="S60" s="24"/>
@@ -8525,7 +8485,7 @@
       </c>
       <c r="V60" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT1H",TableDay1[from_ga],"800")/4</f>
-        <v>0.27925</v>
+        <v>0</v>
       </c>
       <c r="W60" s="7" t="s">
         <v>43</v>
@@ -8606,7 +8566,7 @@
       <c r="CM60" s="2"/>
       <c r="CN60" s="2"/>
     </row>
-    <row r="61" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C61" s="2"/>
       <c r="D61" s="8" t="s">
         <v>4</v>
@@ -8623,11 +8583,11 @@
       </c>
       <c r="H61" s="32">
         <f>totalProduction1H_quarter2+totalProduction15M_quarter2</f>
-        <v>1.5009999999999999</v>
+        <v>4.79</v>
       </c>
       <c r="I61" s="27" t="str">
         <f t="shared" ref="I61:I63" si="19">SUBSTITUTE(ROUND(H61,3),",",".")</f>
-        <v>1.501</v>
+        <v>4.79</v>
       </c>
       <c r="R61" s="24"/>
       <c r="S61" s="24"/>
@@ -8637,20 +8597,20 @@
       </c>
       <c r="V61" s="19">
         <f>V$60</f>
-        <v>0.27925</v>
+        <v>0</v>
       </c>
       <c r="W61" s="19">
         <f>V61</f>
-        <v>0.27925</v>
+        <v>0</v>
       </c>
       <c r="X61" s="19"/>
       <c r="Y61" s="23">
         <f>ROUND(W61,3)</f>
-        <v>0.27900000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="23">
         <f>ROUND(V61,3)</f>
-        <v>0.27900000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="45"/>
       <c r="AB61" s="2"/>
@@ -8719,7 +8679,7 @@
       <c r="CM61" s="2"/>
       <c r="CN61" s="2"/>
     </row>
-    <row r="62" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C62" s="2"/>
       <c r="D62" s="8" t="s">
         <v>5</v>
@@ -8736,11 +8696,11 @@
       </c>
       <c r="H62" s="32">
         <f>totalProduction1H_quarter3+totalProduction15M_quarter3</f>
-        <v>1.5</v>
+        <v>4.7889999999999997</v>
       </c>
       <c r="I62" s="27" t="str">
         <f t="shared" si="19"/>
-        <v>1.5</v>
+        <v>4.789</v>
       </c>
       <c r="R62" s="24"/>
       <c r="S62" s="24"/>
@@ -8750,23 +8710,23 @@
       </c>
       <c r="V62" s="19">
         <f>V$60</f>
-        <v>0.27925</v>
+        <v>0</v>
       </c>
       <c r="W62" s="19">
         <f>X62+W61</f>
-        <v>0.27949999999999997</v>
+        <v>0</v>
       </c>
       <c r="X62" s="19">
         <f>V62-Y61</f>
-        <v>2.4999999999997247E-4</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="23">
         <f t="shared" ref="Y62:Y64" si="20">ROUND(W62,3)</f>
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="23">
         <f>ROUND(V62,3)</f>
-        <v>0.27900000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="45"/>
       <c r="AB62" s="2"/>
@@ -8835,7 +8795,7 @@
       <c r="CM62" s="2"/>
       <c r="CN62" s="2"/>
     </row>
-    <row r="63" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C63" s="2"/>
       <c r="D63" s="8" t="s">
         <v>6</v>
@@ -8852,11 +8812,11 @@
       </c>
       <c r="H63" s="32">
         <f>totalProduction1H_quarter4+totalProduction15M_quarter4</f>
-        <v>1.5009999999999999</v>
+        <v>4.79</v>
       </c>
       <c r="I63" s="27" t="str">
         <f t="shared" si="19"/>
-        <v>1.501</v>
+        <v>4.79</v>
       </c>
       <c r="R63" s="24"/>
       <c r="S63" s="24"/>
@@ -8866,23 +8826,23 @@
       </c>
       <c r="V63" s="19">
         <f>V$60</f>
-        <v>0.27925</v>
+        <v>0</v>
       </c>
       <c r="W63" s="19">
         <f>X63+W62</f>
-        <v>0.27874999999999994</v>
+        <v>0</v>
       </c>
       <c r="X63" s="19">
         <f>V63-Y62</f>
-        <v>-7.5000000000002842E-4</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="23">
         <f t="shared" si="20"/>
-        <v>0.27900000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="23">
         <f>ROUND(V63,3)</f>
-        <v>0.27900000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA63" s="45"/>
       <c r="AB63" s="2"/>
@@ -8951,14 +8911,14 @@
       <c r="CM63" s="2"/>
       <c r="CN63" s="2"/>
     </row>
-    <row r="64" spans="1:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="2"/>
-      <c r="E64" s="51" t="s">
+      <c r="E64" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="54"/>
       <c r="R64" s="24"/>
       <c r="S64" s="24"/>
       <c r="T64" s="24"/>
@@ -8967,23 +8927,23 @@
       </c>
       <c r="V64" s="19">
         <f>V$60</f>
-        <v>0.27925</v>
+        <v>0</v>
       </c>
       <c r="W64" s="19">
         <f>X64+W63</f>
-        <v>0.27899999999999991</v>
+        <v>0</v>
       </c>
       <c r="X64" s="19">
         <f>V64-Y63</f>
-        <v>2.4999999999997247E-4</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="23">
         <f t="shared" si="20"/>
-        <v>0.27900000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="23">
         <f>ROUND(V64,3)</f>
-        <v>0.27900000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA64" s="45"/>
       <c r="AB64" s="2"/>
@@ -9052,7 +9012,7 @@
       <c r="CM64" s="2"/>
       <c r="CN64" s="2"/>
     </row>
-    <row r="65" spans="3:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="s">
         <v>20</v>
@@ -9075,19 +9035,19 @@
       <c r="U65" s="24"/>
       <c r="V65" s="28">
         <f>ROUND(SUMIFS(TableDay1[TotalHour],TableDay1[type],"E17",TableDay1[resolution],"PT1H"),3)</f>
-        <v>19.056999999999999</v>
-      </c>
-      <c r="W65" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="W65" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="X65" s="56"/>
+      <c r="X65" s="57"/>
       <c r="Y65" s="28">
         <f>ROUND(SUM(Y67:Y70),3)</f>
-        <v>19.056999999999999</v>
+        <v>10</v>
       </c>
       <c r="Z65" s="21">
         <f>SUM(Z67:Z70)</f>
-        <v>19.056000000000001</v>
+        <v>10</v>
       </c>
       <c r="AA65" s="27"/>
       <c r="AB65" s="2"/>
@@ -9156,7 +9116,7 @@
       <c r="CM65" s="2"/>
       <c r="CN65" s="2"/>
     </row>
-    <row r="66" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C66" s="2"/>
       <c r="D66" s="8" t="s">
         <v>3</v>
@@ -9173,11 +9133,11 @@
       </c>
       <c r="H66" s="32">
         <f ca="1">totalProduction1H_quarter1+totalProduction15M_quarter1+netEx_quarter1-totalFlex1H_quarter1-totalFlex15M_quarter1-totalNonprofiled1H_quarter1-totalNonprofiled15M_quarter1</f>
-        <v>-2.5420000000000016</v>
+        <v>2.29</v>
       </c>
       <c r="I66" s="27" t="str">
         <f ca="1">SUBSTITUTE(ROUND(H66,3),",",".")</f>
-        <v>-2.542</v>
+        <v>2.29</v>
       </c>
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
@@ -9187,7 +9147,7 @@
       </c>
       <c r="V66" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E17",TableDay1[resolution],"PT1H")/4</f>
-        <v>4.7642500000000005</v>
+        <v>2.5</v>
       </c>
       <c r="W66" s="7" t="s">
         <v>43</v>
@@ -9268,7 +9228,7 @@
       <c r="CM66" s="2"/>
       <c r="CN66" s="2"/>
     </row>
-    <row r="67" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C67" s="2"/>
       <c r="D67" s="8" t="s">
         <v>4</v>
@@ -9285,11 +9245,11 @@
       </c>
       <c r="H67" s="32">
         <f ca="1">totalProduction1H_quarter2+totalProduction15M_quarter2+netEx_quarter2-totalFlex1H_quarter2-totalFlex15M_quarter2-totalNonprofiled1H_quarter2-totalNonprofiled15M_quarter2</f>
-        <v>1.4579999999999997</v>
+        <v>2.29</v>
       </c>
       <c r="I67" s="27" t="str">
         <f t="shared" ref="I67:I69" ca="1" si="22">SUBSTITUTE(ROUND(H67,3),",",".")</f>
-        <v>1.458</v>
+        <v>2.29</v>
       </c>
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
@@ -9299,20 +9259,20 @@
       </c>
       <c r="V67" s="19">
         <f>V$66</f>
-        <v>4.7642500000000005</v>
+        <v>2.5</v>
       </c>
       <c r="W67" s="19">
         <f>V67</f>
-        <v>4.7642500000000005</v>
+        <v>2.5</v>
       </c>
       <c r="X67" s="19"/>
       <c r="Y67" s="23">
         <f>ROUND(W67, 3)</f>
-        <v>4.7640000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="Z67" s="23">
         <f>ROUND(V67,3)</f>
-        <v>4.7640000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="AA67" s="27"/>
       <c r="AB67" s="2"/>
@@ -9381,7 +9341,7 @@
       <c r="CM67" s="2"/>
       <c r="CN67" s="2"/>
     </row>
-    <row r="68" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C68" s="2"/>
       <c r="D68" s="8" t="s">
         <v>5</v>
@@ -9398,11 +9358,11 @@
       </c>
       <c r="H68" s="32">
         <f ca="1">totalProduction1H_quarter3+totalProduction15M_quarter3+netEx_quarter3-totalFlex1H_quarter3-totalFlex15M_quarter3-totalNonprofiled1H_quarter3-totalNonprofiled15M_quarter3</f>
-        <v>1.4569999999999999</v>
+        <v>2.2889999999999997</v>
       </c>
       <c r="I68" s="27" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1.457</v>
+        <v>2.289</v>
       </c>
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
@@ -9412,23 +9372,23 @@
       </c>
       <c r="V68" s="19">
         <f>V$66</f>
-        <v>4.7642500000000005</v>
+        <v>2.5</v>
       </c>
       <c r="W68" s="19">
         <f>X68+W67</f>
-        <v>4.7645000000000008</v>
+        <v>2.5</v>
       </c>
       <c r="X68" s="19">
         <f>V68-Y67</f>
-        <v>2.5000000000030553E-4</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="23">
         <f>ROUND(W68, 3)</f>
-        <v>4.7649999999999997</v>
+        <v>2.5</v>
       </c>
       <c r="Z68" s="23">
         <f>ROUND(V68,3)</f>
-        <v>4.7640000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="AA68" s="27"/>
       <c r="AB68" s="2"/>
@@ -9497,7 +9457,7 @@
       <c r="CM68" s="2"/>
       <c r="CN68" s="2"/>
     </row>
-    <row r="69" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C69" s="2"/>
       <c r="D69" s="8" t="s">
         <v>6</v>
@@ -9514,11 +9474,11 @@
       </c>
       <c r="H69" s="32">
         <f ca="1">totalProduction1H_quarter4+totalProduction15M_quarter4+netEx_quarter4-totalFlex1H_quarter4-totalFlex15M_quarter4-totalNonprofiled1H_quarter4-totalNonprofiled15M_quarter4</f>
-        <v>1.459000000000001</v>
+        <v>2.29</v>
       </c>
       <c r="I69" s="27" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1.459</v>
+        <v>2.29</v>
       </c>
       <c r="J69" s="2"/>
       <c r="R69" s="24"/>
@@ -9529,23 +9489,23 @@
       </c>
       <c r="V69" s="19">
         <f>V$66</f>
-        <v>4.7642500000000005</v>
+        <v>2.5</v>
       </c>
       <c r="W69" s="19">
         <f>X69+W68</f>
-        <v>4.7637500000000017</v>
+        <v>2.5</v>
       </c>
       <c r="X69" s="19">
         <f>V69-Y68</f>
-        <v>-7.4999999999914024E-4</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="23">
         <f>ROUND(W69, 3)</f>
-        <v>4.7640000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="Z69" s="23">
         <f>ROUND(V69,3)</f>
-        <v>4.7640000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="AA69" s="27"/>
       <c r="AB69" s="2"/>
@@ -9614,14 +9574,14 @@
       <c r="CM69" s="2"/>
       <c r="CN69" s="2"/>
     </row>
-    <row r="70" spans="3:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" s="2"/>
-      <c r="E70" s="51" t="s">
+      <c r="E70" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="54"/>
       <c r="R70" s="24"/>
       <c r="S70" s="24"/>
       <c r="T70" s="27"/>
@@ -9630,23 +9590,23 @@
       </c>
       <c r="V70" s="19">
         <f>V$66</f>
-        <v>4.7642500000000005</v>
+        <v>2.5</v>
       </c>
       <c r="W70" s="19">
         <f>X70+W69</f>
-        <v>4.764000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="X70" s="19">
         <f>V70-Y69</f>
-        <v>2.5000000000030553E-4</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="23">
         <f>ROUND(W70, 3)</f>
-        <v>4.7640000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="Z70" s="23">
         <f>ROUND(V70,3)</f>
-        <v>4.7640000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="AA70" s="27"/>
       <c r="AB70" s="2"/>
@@ -9715,7 +9675,7 @@
       <c r="CM70" s="2"/>
       <c r="CN70" s="2"/>
     </row>
-    <row r="71" spans="3:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C71" s="2"/>
       <c r="D71" s="4" t="s">
         <v>20</v>
@@ -9808,7 +9768,7 @@
       <c r="CM71" s="2"/>
       <c r="CN71" s="2"/>
     </row>
-    <row r="72" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C72" s="2"/>
       <c r="D72" s="15" t="s">
         <v>75</v>
@@ -9825,11 +9785,11 @@
       </c>
       <c r="H72" s="32">
         <f ca="1">IF(gridLoss1H_quarter4&gt;0,gridLoss1H_quarter4,0)</f>
-        <v>1.459000000000001</v>
+        <v>2.29</v>
       </c>
       <c r="I72" s="27" t="str">
         <f ca="1">SUBSTITUTE(ROUND(H72,3),",",".")</f>
-        <v>1.459</v>
+        <v>2.29</v>
       </c>
       <c r="R72" s="24"/>
       <c r="S72" s="27"/>
@@ -9907,7 +9867,7 @@
       <c r="CM72" s="2"/>
       <c r="CN72" s="2"/>
     </row>
-    <row r="73" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C73" s="2"/>
       <c r="D73" s="15" t="s">
         <v>74</v>
@@ -9924,11 +9884,11 @@
       </c>
       <c r="H73" s="32">
         <f ca="1">IF(gridLoss1H_quarter3&gt;0,gridLoss1H_quarter3,0)</f>
-        <v>1.4569999999999999</v>
+        <v>2.2889999999999997</v>
       </c>
       <c r="I73" s="27" t="str">
         <f t="shared" ref="I73:I75" ca="1" si="24">SUBSTITUTE(ROUND(H73,3),",",".")</f>
-        <v>1.457</v>
+        <v>2.289</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -9999,7 +9959,7 @@
       <c r="CM73" s="2"/>
       <c r="CN73" s="2"/>
     </row>
-    <row r="74" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C74" s="2"/>
       <c r="D74" s="15" t="s">
         <v>73</v>
@@ -10016,11 +9976,11 @@
       </c>
       <c r="H74" s="32">
         <f ca="1">IF(gridLoss1H_quarter2&gt;0,gridLoss1H_quarter2,0)</f>
-        <v>1.4579999999999997</v>
+        <v>2.29</v>
       </c>
       <c r="I74" s="27" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1.458</v>
+        <v>2.29</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10102,7 +10062,7 @@
       <c r="CM74" s="2"/>
       <c r="CN74" s="2"/>
     </row>
-    <row r="75" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C75" s="2"/>
       <c r="D75" s="15" t="s">
         <v>72</v>
@@ -10119,11 +10079,11 @@
       </c>
       <c r="H75" s="32">
         <f ca="1">IF(gridLoss1H_quarter1&gt;0,gridLoss1H_quarter1,0)</f>
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="I75" s="27" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -10203,14 +10163,14 @@
       <c r="CM75" s="2"/>
       <c r="CN75" s="2"/>
     </row>
-    <row r="76" spans="3:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" s="2"/>
-      <c r="E76" s="51" t="s">
+      <c r="E76" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="54"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -10296,7 +10256,7 @@
       <c r="CM76" s="2"/>
       <c r="CN76" s="2"/>
     </row>
-    <row r="77" spans="3:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C77" s="2"/>
       <c r="D77" s="4" t="s">
         <v>20</v>
@@ -10398,7 +10358,7 @@
       <c r="CM77" s="2"/>
       <c r="CN77" s="2"/>
     </row>
-    <row r="78" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C78" s="2"/>
       <c r="D78" s="15" t="s">
         <v>75</v>
@@ -10505,7 +10465,7 @@
       <c r="CM78" s="2"/>
       <c r="CN78" s="2"/>
     </row>
-    <row r="79" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C79" s="2"/>
       <c r="D79" s="15" t="s">
         <v>74</v>
@@ -10612,7 +10572,7 @@
       <c r="CM79" s="2"/>
       <c r="CN79" s="2"/>
     </row>
-    <row r="80" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C80" s="2"/>
       <c r="D80" s="15" t="s">
         <v>73</v>
@@ -10719,7 +10679,7 @@
       <c r="CM80" s="2"/>
       <c r="CN80" s="2"/>
     </row>
-    <row r="81" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C81" s="2"/>
       <c r="D81" s="15" t="s">
         <v>72</v>
@@ -10736,11 +10696,11 @@
       </c>
       <c r="H81" s="32">
         <f ca="1">IF(gridLoss1H_quarter1&lt;0,(gridLoss1H_quarter1)*-1,0)</f>
-        <v>2.5420000000000016</v>
+        <v>0</v>
       </c>
       <c r="I81" s="27" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>2.542</v>
+        <v>0</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -10826,14 +10786,14 @@
       <c r="CM81" s="2"/>
       <c r="CN81" s="2"/>
     </row>
-    <row r="82" spans="3:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" s="2"/>
-      <c r="E82" s="51" t="s">
+      <c r="E82" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="54"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -10919,7 +10879,7 @@
       <c r="CM82" s="2"/>
       <c r="CN82" s="2"/>
     </row>
-    <row r="83" spans="3:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C83" s="2"/>
       <c r="D83" s="4" t="s">
         <v>20</v>
@@ -11021,7 +10981,7 @@
       <c r="CM83" s="2"/>
       <c r="CN83" s="2"/>
     </row>
-    <row r="84" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C84" s="2"/>
       <c r="D84" s="15" t="s">
         <v>72</v>
@@ -11038,21 +10998,21 @@
       </c>
       <c r="H84" s="32">
         <f ca="1">netEx_quarter1+totalProduction1H_quarter1+totalProduction15M_quarter1+negGridLossQuarter1</f>
-        <v>19.765000000000001</v>
+        <v>4.79</v>
       </c>
       <c r="I84" s="27" t="str">
         <f ca="1">SUBSTITUTE(ROUND(H84,3),",",".")</f>
-        <v>19.765</v>
+        <v>4.79</v>
       </c>
       <c r="J84" s="2"/>
       <c r="U84" s="2"/>
-      <c r="V84" s="54" t="s">
+      <c r="V84" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="W84" s="54"/>
-      <c r="X84" s="54"/>
-      <c r="Y84" s="54"/>
-      <c r="Z84" s="54"/>
+      <c r="W84" s="55"/>
+      <c r="X84" s="55"/>
+      <c r="Y84" s="55"/>
+      <c r="Z84" s="55"/>
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
@@ -11137,11 +11097,11 @@
       </c>
       <c r="H85" s="32">
         <f ca="1">netEx_quarter2+totalProduction1H_quarter2+totalProduction15M_quarter2+negGridLossQuarter2</f>
-        <v>6.2219999999999995</v>
+        <v>4.79</v>
       </c>
       <c r="I85" s="27" t="str">
         <f t="shared" ref="I85:I87" ca="1" si="28">SUBSTITUTE(ROUND(H85,3),",",".")</f>
-        <v>6.222</v>
+        <v>4.79</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -11244,11 +11204,11 @@
       </c>
       <c r="H86" s="32">
         <f ca="1">netEx_quarter3+totalProduction1H_quarter3+totalProduction15M_quarter3+negGridLossQuarter3</f>
-        <v>6.2210000000000001</v>
+        <v>4.7889999999999997</v>
       </c>
       <c r="I86" s="27" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>6.221</v>
+        <v>4.789</v>
       </c>
       <c r="J86" s="2"/>
       <c r="R86" s="37"/>
@@ -11258,7 +11218,7 @@
       </c>
       <c r="V86" s="26" cm="1">
         <f t="array" aca="1" ref="V86" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U86&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U86&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W86" s="6">
         <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$3)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$3))/4</f>
@@ -11355,11 +11315,11 @@
       </c>
       <c r="H87" s="32">
         <f ca="1">netEx_quarter4+totalProduction1H_quarter4+totalProduction15M_quarter4+negGridLossQuarter4</f>
-        <v>6.2230000000000008</v>
+        <v>4.79</v>
       </c>
       <c r="I87" s="27" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>6.223</v>
+        <v>4.79</v>
       </c>
       <c r="J87" s="2"/>
       <c r="R87" s="2"/>
@@ -11456,13 +11416,13 @@
     </row>
     <row r="88" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" s="2"/>
-      <c r="E88" s="51" t="s">
+      <c r="E88" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="54"/>
       <c r="J88" s="2"/>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
@@ -11688,15 +11648,15 @@
       </c>
       <c r="H90" s="32">
         <f ca="1">IF(E90="","",V86+Z86)</f>
-        <v>10</v>
-      </c>
-      <c r="I90" s="32" t="str" cm="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="32" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="I90" ca="1">IF(E90="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>801</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J90" s="27" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(ROUND(H90,3),",","."),"")</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
@@ -11709,16 +11669,16 @@
       </c>
       <c r="W90" s="6">
         <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$4)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$4))/4</f>
-        <v>5.00075</v>
+        <v>0</v>
       </c>
       <c r="X90" s="16">
         <f>W90</f>
-        <v>5.00075</v>
+        <v>0</v>
       </c>
       <c r="Y90" s="16"/>
       <c r="Z90" s="16">
         <f t="shared" si="29"/>
-        <v>5.0010000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
@@ -11808,9 +11768,9 @@
         <f t="shared" ref="H91:H113" ca="1" si="33">IF(E91="","",V87+Z87)</f>
         <v>0</v>
       </c>
-      <c r="I91" s="32" t="str" cm="1">
+      <c r="I91" s="32" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="I91" ca="1">IF(E91="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>801</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J91" s="27" t="str">
         <f t="shared" ref="J91:J113" ca="1" si="34">IFERROR(SUBSTITUTE(ROUND(H91,3),",","."),"")</f>
@@ -11826,19 +11786,19 @@
       </c>
       <c r="W91" s="16">
         <f>W$90</f>
-        <v>5.00075</v>
+        <v>0</v>
       </c>
       <c r="X91" s="16">
         <f>Y91+X90</f>
-        <v>5.0004999999999997</v>
+        <v>0</v>
       </c>
       <c r="Y91" s="16">
         <f>W91-Z90</f>
-        <v>-2.5000000000030553E-4</v>
+        <v>0</v>
       </c>
       <c r="Z91" s="16">
         <f t="shared" si="29"/>
-        <v>5.0010000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
@@ -11928,9 +11888,9 @@
         <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
-      <c r="I92" s="32" t="str" cm="1">
+      <c r="I92" s="32" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="I92" ca="1">IF(E92="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>801</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J92" s="27" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -11945,19 +11905,19 @@
       </c>
       <c r="W92" s="16">
         <f>W$90</f>
-        <v>5.00075</v>
+        <v>0</v>
       </c>
       <c r="X92" s="16">
         <f>Y92+X91</f>
-        <v>5.0002499999999994</v>
+        <v>0</v>
       </c>
       <c r="Y92" s="16">
         <f>W92-Z91</f>
-        <v>-2.5000000000030553E-4</v>
+        <v>0</v>
       </c>
       <c r="Z92" s="16">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
@@ -12047,9 +12007,9 @@
         <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
-      <c r="I93" s="32" t="str" cm="1">
+      <c r="I93" s="32" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="I93" ca="1">IF(E93="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>801</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J93" s="27" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -12064,19 +12024,19 @@
       </c>
       <c r="W93" s="16">
         <f>W$90</f>
-        <v>5.00075</v>
+        <v>0</v>
       </c>
       <c r="X93" s="16">
         <f>Y93+X92</f>
-        <v>5.0009999999999994</v>
+        <v>0</v>
       </c>
       <c r="Y93" s="16">
         <f>W93-Z92</f>
-        <v>7.5000000000002842E-4</v>
+        <v>0</v>
       </c>
       <c r="Z93" s="16">
         <f t="shared" si="29"/>
-        <v>5.0010000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
@@ -12152,34 +12112,34 @@
       </c>
       <c r="E94" s="31" t="str">
         <f t="shared" si="30"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F94" s="31" t="str">
         <f t="shared" si="31"/>
-        <v>null</v>
+        <v/>
       </c>
       <c r="G94" s="31" t="str">
         <f t="shared" si="32"/>
-        <v>null</v>
-      </c>
-      <c r="H94" s="32">
-        <f t="shared" ca="1" si="33"/>
-        <v>5.0010000000000003</v>
+        <v/>
+      </c>
+      <c r="H94" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="I94" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I94" ca="1">IF(E94="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>802</v>
+        <v/>
       </c>
       <c r="J94" s="27" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>5.001</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
       <c r="U94" s="15" t="s">
         <v>72</v>
       </c>
       <c r="V94" s="26" cm="1">
         <f t="array" aca="1" ref="V94" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U94&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U94&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="W94" s="6">
         <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$5)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$5))/4</f>
@@ -12268,27 +12228,27 @@
       </c>
       <c r="E95" s="31" t="str">
         <f t="shared" si="30"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F95" s="31" t="str">
         <f t="shared" si="31"/>
-        <v>null</v>
+        <v/>
       </c>
       <c r="G95" s="31" t="str">
         <f t="shared" si="32"/>
-        <v>null</v>
-      </c>
-      <c r="H95" s="32">
-        <f t="shared" ca="1" si="33"/>
-        <v>5.0010000000000003</v>
+        <v/>
+      </c>
+      <c r="H95" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="I95" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I95" ca="1">IF(E95="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>802</v>
+        <v/>
       </c>
       <c r="J95" s="27" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>5.001</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
       <c r="U95" s="15" t="s">
         <v>73</v>
@@ -12387,27 +12347,27 @@
       </c>
       <c r="E96" s="31" t="str">
         <f t="shared" si="30"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F96" s="31" t="str">
         <f t="shared" si="31"/>
-        <v>null</v>
+        <v/>
       </c>
       <c r="G96" s="31" t="str">
         <f t="shared" si="32"/>
-        <v>null</v>
-      </c>
-      <c r="H96" s="32">
-        <f t="shared" ca="1" si="33"/>
-        <v>5</v>
+        <v/>
+      </c>
+      <c r="H96" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="I96" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I96" ca="1">IF(E96="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>802</v>
+        <v/>
       </c>
       <c r="J96" s="27" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
       <c r="U96" s="15" t="s">
         <v>74</v>
@@ -12506,27 +12466,27 @@
       </c>
       <c r="E97" s="31" t="str">
         <f t="shared" si="30"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F97" s="31" t="str">
         <f t="shared" si="31"/>
-        <v>null</v>
+        <v/>
       </c>
       <c r="G97" s="31" t="str">
         <f t="shared" si="32"/>
-        <v>null</v>
-      </c>
-      <c r="H97" s="32">
-        <f t="shared" ca="1" si="33"/>
-        <v>5.0010000000000003</v>
+        <v/>
+      </c>
+      <c r="H97" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="I97" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I97" ca="1">IF(E97="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>802</v>
+        <v/>
       </c>
       <c r="J97" s="27" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>5.001</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
       <c r="U97" s="15" t="s">
         <v>75</v>
@@ -12625,27 +12585,27 @@
       </c>
       <c r="E98" s="31" t="str">
         <f t="shared" si="30"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F98" s="31" t="str">
         <f t="shared" si="31"/>
-        <v>null</v>
+        <v/>
       </c>
       <c r="G98" s="31" t="str">
         <f t="shared" si="32"/>
-        <v>null</v>
-      </c>
-      <c r="H98" s="32">
-        <f t="shared" ca="1" si="33"/>
-        <v>-5</v>
+        <v/>
+      </c>
+      <c r="H98" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="I98" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I98" ca="1">IF(E98="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>803</v>
+        <v/>
       </c>
       <c r="J98" s="27" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>-5</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
       <c r="U98" s="15" t="s">
         <v>72</v>
@@ -12656,16 +12616,16 @@
       </c>
       <c r="W98" s="6">
         <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$6)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$6))/4</f>
-        <v>-0.27925</v>
+        <v>0</v>
       </c>
       <c r="X98" s="16">
         <f>W98</f>
-        <v>-0.27925</v>
+        <v>0</v>
       </c>
       <c r="Y98" s="16"/>
       <c r="Z98" s="16">
         <f t="shared" si="29"/>
-        <v>-0.27900000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
@@ -12741,27 +12701,27 @@
       </c>
       <c r="E99" s="31" t="str">
         <f t="shared" si="30"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F99" s="31" t="str">
         <f t="shared" si="31"/>
-        <v>null</v>
+        <v/>
       </c>
       <c r="G99" s="31" t="str">
         <f t="shared" si="32"/>
-        <v>null</v>
-      </c>
-      <c r="H99" s="32">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="H99" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="I99" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I99" ca="1">IF(E99="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>803</v>
+        <v/>
       </c>
       <c r="J99" s="27" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
       <c r="U99" s="15" t="s">
         <v>73</v>
@@ -12772,19 +12732,19 @@
       </c>
       <c r="W99" s="16">
         <f>W$98</f>
-        <v>-0.27925</v>
+        <v>0</v>
       </c>
       <c r="X99" s="16">
         <f>Y99+X98</f>
-        <v>-0.27949999999999997</v>
+        <v>0</v>
       </c>
       <c r="Y99" s="16">
         <f>W99-Z98</f>
-        <v>-2.4999999999997247E-4</v>
+        <v>0</v>
       </c>
       <c r="Z99" s="16">
         <f t="shared" si="29"/>
-        <v>-0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
@@ -12860,27 +12820,27 @@
       </c>
       <c r="E100" s="31" t="str">
         <f t="shared" si="30"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F100" s="31" t="str">
         <f t="shared" si="31"/>
-        <v>null</v>
+        <v/>
       </c>
       <c r="G100" s="31" t="str">
         <f t="shared" si="32"/>
-        <v>null</v>
-      </c>
-      <c r="H100" s="32">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="H100" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="I100" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I100" ca="1">IF(E100="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>803</v>
+        <v/>
       </c>
       <c r="J100" s="27" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
       <c r="U100" s="15" t="s">
         <v>74</v>
@@ -12891,19 +12851,19 @@
       </c>
       <c r="W100" s="16">
         <f>W$98</f>
-        <v>-0.27925</v>
+        <v>0</v>
       </c>
       <c r="X100" s="16">
         <f>Y100+X99</f>
-        <v>-0.27874999999999994</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="16">
         <f>W100-Z99</f>
-        <v>7.5000000000002842E-4</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="16">
         <f t="shared" si="29"/>
-        <v>-0.27900000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
@@ -12979,27 +12939,27 @@
       </c>
       <c r="E101" s="31" t="str">
         <f t="shared" si="30"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F101" s="31" t="str">
         <f t="shared" si="31"/>
-        <v>null</v>
+        <v/>
       </c>
       <c r="G101" s="31" t="str">
         <f t="shared" si="32"/>
-        <v>null</v>
-      </c>
-      <c r="H101" s="32">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="H101" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="I101" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I101" ca="1">IF(E101="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>803</v>
+        <v/>
       </c>
       <c r="J101" s="27" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
       <c r="U101" s="15" t="s">
         <v>75</v>
@@ -13010,19 +12970,19 @@
       </c>
       <c r="W101" s="16">
         <f>W$98</f>
-        <v>-0.27925</v>
+        <v>0</v>
       </c>
       <c r="X101" s="16">
         <f>Y101+X100</f>
-        <v>-0.27899999999999991</v>
+        <v>0</v>
       </c>
       <c r="Y101" s="16">
         <f>W101-Z100</f>
-        <v>-2.4999999999997247E-4</v>
+        <v>0</v>
       </c>
       <c r="Z101" s="16">
         <f t="shared" si="29"/>
-        <v>-0.27900000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
@@ -13098,27 +13058,27 @@
       </c>
       <c r="E102" s="31" t="str">
         <f t="shared" si="30"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F102" s="31" t="str">
         <f t="shared" si="31"/>
-        <v>null</v>
+        <v/>
       </c>
       <c r="G102" s="31" t="str">
         <f t="shared" si="32"/>
-        <v>null</v>
-      </c>
-      <c r="H102" s="32">
-        <f t="shared" ca="1" si="33"/>
-        <v>-0.27900000000000003</v>
+        <v/>
+      </c>
+      <c r="H102" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="I102" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I102" ca="1">IF(E102="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>804</v>
+        <v/>
       </c>
       <c r="J102" s="27" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>-0.279</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
       <c r="U102" s="15" t="s">
         <v>72</v>
@@ -13214,27 +13174,27 @@
       </c>
       <c r="E103" s="31" t="str">
         <f t="shared" si="30"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F103" s="31" t="str">
         <f t="shared" si="31"/>
-        <v>null</v>
+        <v/>
       </c>
       <c r="G103" s="31" t="str">
         <f t="shared" si="32"/>
-        <v>null</v>
-      </c>
-      <c r="H103" s="32">
-        <f t="shared" ca="1" si="33"/>
-        <v>-0.28000000000000003</v>
+        <v/>
+      </c>
+      <c r="H103" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="I103" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I103" ca="1">IF(E103="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>804</v>
+        <v/>
       </c>
       <c r="J103" s="27" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>-0.28</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
       <c r="U103" s="15" t="s">
         <v>73</v>
@@ -13333,27 +13293,27 @@
       </c>
       <c r="E104" s="31" t="str">
         <f t="shared" si="30"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F104" s="31" t="str">
         <f t="shared" si="31"/>
-        <v>null</v>
+        <v/>
       </c>
       <c r="G104" s="31" t="str">
         <f t="shared" si="32"/>
-        <v>null</v>
-      </c>
-      <c r="H104" s="32">
-        <f t="shared" ca="1" si="33"/>
-        <v>-0.27900000000000003</v>
+        <v/>
+      </c>
+      <c r="H104" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="I104" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I104" ca="1">IF(E104="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>804</v>
+        <v/>
       </c>
       <c r="J104" s="27" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>-0.279</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
       <c r="U104" s="15" t="s">
         <v>74</v>
@@ -13452,27 +13412,27 @@
       </c>
       <c r="E105" s="31" t="str">
         <f t="shared" si="30"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F105" s="31" t="str">
         <f t="shared" si="31"/>
-        <v>null</v>
+        <v/>
       </c>
       <c r="G105" s="31" t="str">
         <f t="shared" si="32"/>
-        <v>null</v>
-      </c>
-      <c r="H105" s="32">
-        <f t="shared" ca="1" si="33"/>
-        <v>-0.27900000000000003</v>
+        <v/>
+      </c>
+      <c r="H105" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="I105" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I105" ca="1">IF(E105="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>804</v>
+        <v/>
       </c>
       <c r="J105" s="27" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>-0.279</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
       <c r="U105" s="15" t="s">
         <v>75</v>
@@ -40964,23 +40924,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010083C51B3A6863BB4086AAB9D84DF721A3" ma:contentTypeVersion="9" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="9d92303bd8f83ad3ed572bd327ba273d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="17d0a144-7218-432a-80c1-1473a2ac0f84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e272e23039cec0e41a69c8e3deb1ff81" ns3:_="">
     <xsd:import namespace="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
@@ -41156,31 +41099,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEE2584E-1495-47FC-B560-4437F91C3A10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41196,4 +41132,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - wholesale minimal standard scenario.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - wholesale minimal standard scenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_a_wholesale_calculation\when_minimal_standard_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160DAEA1-C981-487D-B907-27E3F9068649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63228E16-5CAD-40AA-B6DC-57A0BCF99C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
+    <workbookView xWindow="-66" yWindow="-66" windowWidth="23172" windowHeight="12372" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour1" sheetId="11" r:id="rId1"/>
@@ -84,9 +84,8 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -97,40 +96,16 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-    <bk>
-      <rc t="2" v="1"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="122">
   <si>
     <t>energy_supplier_id</t>
   </si>
@@ -447,9 +422,6 @@
     <t>TotalHour</t>
   </si>
   <si>
-    <t>flex_consumption</t>
-  </si>
-  <si>
     <t>180000000000000002</t>
   </si>
   <si>
@@ -495,13 +467,10 @@
     <t>4400000000000</t>
   </si>
   <si>
-    <t>array 1</t>
+    <t>170000000000000102</t>
   </si>
   <si>
-    <t>array 2</t>
-  </si>
-  <si>
-    <t>array 3</t>
+    <t>production</t>
   </si>
 </sst>
 </file>
@@ -772,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -869,6 +838,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,72 +1094,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <rv s="0">
-    <v>13</v>
-    <v>3</v>
-  </rv>
-  <rv s="1">
-    <v>13</v>
-    <v>1</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="propagated" t="b"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1519,8 +1424,8 @@
   </sheetPr>
   <dimension ref="A1:CN400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI44" sqref="AI44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1650,10 +1555,10 @@
         <v>25</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>87</v>
@@ -1719,32 +1624,32 @@
         <v>800</v>
       </c>
       <c r="AE2" s="27" t="str" cm="1">
-        <f t="array" ref="AE2">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AE28:AE41,AE28:AE41 &lt;&gt; "")))</f>
-        <v>1000000000000</v>
+        <f t="array" ref="AE2:AE3">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AE28:AE41,AE28:AE41 &lt;&gt; "")))</f>
+        <v>2000000000000</v>
       </c>
       <c r="AF2" s="27" t="str" cm="1">
-        <f t="array" ref="AF2">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AF28:AF40,AF28:AF40 &lt;&gt; "")))</f>
-        <v>1100000000000</v>
+        <f t="array" ref="AF2:AF3">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AF28:AF40,AF28:AF40 &lt;&gt; "")))</f>
+        <v>2200000000000</v>
       </c>
       <c r="AG2" s="27" t="str">
         <f>IF(B$2="production","E18",IF($B$2="flex_consumption","D01","E02"))</f>
-        <v>D01</v>
+        <v>E18</v>
       </c>
       <c r="AH2" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI2" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="AI2" s="24" t="s">
+      <c r="AJ2" s="27" t="s">
         <v>110</v>
-      </c>
-      <c r="AJ2" s="27" t="s">
-        <v>111</v>
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C3" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>94</v>
@@ -1762,7 +1667,7 @@
         <v>98</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>99</v>
@@ -1781,23 +1686,23 @@
       </c>
       <c r="T3" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>13.298999999999999</v>
       </c>
       <c r="U3" s="42">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="V3" s="42">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>7.9989999999999997</v>
       </c>
       <c r="W3" s="42">
         <f>SUMIFS(TableDay1[Quarter3],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X3" s="42">
         <f>SUMIFS(TableDay1[Quarter4],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y3" s="24"/>
       <c r="Z3" s="24"/>
@@ -1806,23 +1711,27 @@
       <c r="AD3" s="24" t="str">
         <v>801</v>
       </c>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
+      <c r="AE3" s="24" t="str">
+        <v>4000000000000</v>
+      </c>
+      <c r="AF3" s="24" t="str">
+        <v>4400000000000</v>
+      </c>
       <c r="AG3" s="24"/>
-      <c r="AH3" s="27" t="e" cm="1" vm="1">
-        <f t="array" ref="AH3">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),""))&lt;&gt;""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI3" s="24" t="e" cm="1" vm="1">
-        <f t="array" ref="AI3">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),""))&lt;&gt;""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ3" s="24" t="e" cm="1" vm="2">
+      <c r="AH3" s="27" t="str" cm="1">
+        <f t="array" ref="AH3">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),""),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),""),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),""))&lt;&gt;""))</f>
+        <v>801</v>
+      </c>
+      <c r="AI3" s="59" t="str" cm="1">
+        <f t="array" ref="AI3">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),""),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),""),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),""))&lt;&gt;""))</f>
+        <v>801</v>
+      </c>
+      <c r="AJ3" s="24" t="str" cm="1">
         <f t="array" ref="AJ3:AK13">_xlfn._xlws.SORT(AH3:AI13,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK3" s="24" t="e" vm="2">
-        <v>#VALUE!</v>
+        <v>801</v>
+      </c>
+      <c r="AK3" s="24" t="str">
+        <v>801</v>
       </c>
       <c r="AL3" s="24"/>
       <c r="AM3" s="24"/>
@@ -1833,7 +1742,7 @@
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>87</v>
@@ -1938,23 +1847,23 @@
       </c>
       <c r="T5" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>13.298999999999999</v>
       </c>
       <c r="U5" s="42">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="V5" s="42">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>7.9989999999999997</v>
       </c>
       <c r="W5" s="42">
         <f>SUMIFS(TableDay1[Quarter3],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X5" s="42">
         <f>SUMIFS(TableDay1[Quarter4],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y5" s="24"/>
       <c r="Z5" s="24"/>
@@ -1981,7 +1890,7 @@
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C6" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>87</v>
@@ -2004,7 +1913,7 @@
         <v>96</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
@@ -2044,30 +1953,38 @@
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C7" s="10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="F7" s="12">
-        <v>19.158999999999999</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G7" s="12">
+        <v>7.9989999999999997</v>
+      </c>
+      <c r="H7" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="41">
+        <v>0.1</v>
+      </c>
       <c r="J7" s="43">
         <f t="shared" si="0"/>
-        <v>19.158999999999999</v>
+        <v>13.298999999999999</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10" t="s">
@@ -2106,22 +2023,36 @@
       <c r="AQ7" s="24"/>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="12">
+        <v>19.158999999999999</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
-      <c r="J8" s="43" t="str">
+      <c r="J8" s="43">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+        <v>19.158999999999999</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="O8" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
       <c r="R8" s="24"/>
@@ -2156,7 +2087,7 @@
     </row>
     <row r="9" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C9" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>94</v>
@@ -2174,10 +2105,10 @@
         <v>98</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
@@ -2229,7 +2160,7 @@
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C10" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>95</v>
@@ -2252,10 +2183,10 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="29" t="s">
         <v>92</v>
@@ -2269,24 +2200,24 @@
       </c>
       <c r="T10" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U10,TableDay1[es_id],0)),"")</f>
-        <v>1100000000000</v>
+        <v>2200000000000</v>
       </c>
       <c r="U10" s="26" t="str">
         <f>IF(AE$2=0,"",AE$2)</f>
-        <v>1000000000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="V10" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[es_id],U10,IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT1H")/4</f>
-        <v>2.5</v>
+        <v>4.7897499999999997</v>
       </c>
       <c r="W10" s="19">
         <f>V10</f>
-        <v>2.5</v>
+        <v>4.7897499999999997</v>
       </c>
       <c r="X10" s="19"/>
       <c r="Y10" s="23">
         <f t="shared" ref="Y10:Y33" si="1">ROUND(W10, 3)</f>
-        <v>2.5</v>
+        <v>4.79</v>
       </c>
       <c r="Z10" s="27"/>
       <c r="AA10" s="24"/>
@@ -2338,27 +2269,27 @@
       </c>
       <c r="T11" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U11,TableDay1[es_id],0)),"")</f>
-        <v>1100000000000</v>
+        <v>2200000000000</v>
       </c>
       <c r="U11" s="26" t="str">
         <f t="shared" ref="U11:V13" si="2">U$10</f>
-        <v>1000000000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="V11" s="19">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4.7897499999999997</v>
       </c>
       <c r="W11" s="19">
         <f>X11+W10</f>
-        <v>2.5</v>
+        <v>4.7894999999999994</v>
       </c>
       <c r="X11" s="19">
         <f>V11-Y10</f>
-        <v>0</v>
+        <v>-2.5000000000030553E-4</v>
       </c>
       <c r="Y11" s="23">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>4.79</v>
       </c>
       <c r="Z11" s="27"/>
       <c r="AA11" s="24"/>
@@ -2410,27 +2341,27 @@
       </c>
       <c r="T12" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U12,TableDay1[es_id],0)),"")</f>
-        <v>1100000000000</v>
+        <v>2200000000000</v>
       </c>
       <c r="U12" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>1000000000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="V12" s="19">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4.7897499999999997</v>
       </c>
       <c r="W12" s="19">
         <f>X12+W11</f>
-        <v>2.5</v>
+        <v>4.7892499999999991</v>
       </c>
       <c r="X12" s="19">
         <f>V12-Y11</f>
-        <v>0</v>
+        <v>-2.5000000000030553E-4</v>
       </c>
       <c r="Y12" s="23">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>4.7889999999999997</v>
       </c>
       <c r="Z12" s="27"/>
       <c r="AA12" s="24"/>
@@ -2486,27 +2417,27 @@
       </c>
       <c r="T13" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U13,TableDay1[es_id],0)),"")</f>
-        <v>1100000000000</v>
+        <v>2200000000000</v>
       </c>
       <c r="U13" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>1000000000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="V13" s="19">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4.7897499999999997</v>
       </c>
       <c r="W13" s="19">
         <f>X13+W12</f>
-        <v>2.5</v>
+        <v>4.7899999999999991</v>
       </c>
       <c r="X13" s="19">
         <f>V13-Y12</f>
-        <v>0</v>
+        <v>7.5000000000002842E-4</v>
       </c>
       <c r="Y13" s="23">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>4.79</v>
       </c>
       <c r="Z13" s="27"/>
       <c r="AA13" s="24"/>
@@ -2560,15 +2491,15 @@
       </c>
       <c r="S14" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U14,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>800</v>
       </c>
       <c r="T14" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U14,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>4400000000000</v>
       </c>
       <c r="U14" s="26" t="str">
         <f>IF(AE$3=0,"",AE$3)</f>
-        <v/>
+        <v>4000000000000</v>
       </c>
       <c r="V14" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[es_id],U14,IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT1H")/4</f>
@@ -2679,15 +2610,15 @@
       </c>
       <c r="S15" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U15,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>800</v>
       </c>
       <c r="T15" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U15,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>4400000000000</v>
       </c>
       <c r="U15" s="26" t="str">
         <f t="shared" ref="U15:V17" si="3">U$14</f>
-        <v/>
+        <v>4000000000000</v>
       </c>
       <c r="V15" s="19">
         <f t="shared" si="3"/>
@@ -2801,15 +2732,15 @@
       </c>
       <c r="S16" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U16,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>800</v>
       </c>
       <c r="T16" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U16,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>4400000000000</v>
       </c>
       <c r="U16" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4000000000000</v>
       </c>
       <c r="V16" s="19">
         <f t="shared" si="3"/>
@@ -2923,15 +2854,15 @@
       </c>
       <c r="S17" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U17,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>800</v>
       </c>
       <c r="T17" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U17,TableDay1[es_id],0)),"")</f>
-        <v/>
+        <v>4400000000000</v>
       </c>
       <c r="U17" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4000000000000</v>
       </c>
       <c r="V17" s="19">
         <f t="shared" si="3"/>
@@ -3253,7 +3184,7 @@
     <row r="20" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="48" t="str">
         <f>CONCATENATE(B2,"_per_",B1)</f>
-        <v>flex_consumption_per_ga_brp_es</v>
+        <v>production_per_ga_brp_es</v>
       </c>
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
@@ -3502,11 +3433,11 @@
       <c r="A22" s="2"/>
       <c r="B22" s="16" t="str">
         <f>IF(AND(F22&lt;&gt;"null",F22&lt;&gt;""),IF(F22=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G22&lt;&gt;"null",G22&lt;&gt;""),IF(G22=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E22=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
-        <v>glmp</v>
+        <v/>
       </c>
       <c r="C22" s="16" t="str">
         <f>IF(AND(F22&lt;&gt;"null",F22&lt;&gt;""),IF(F22=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G22&lt;&gt;"null",G22&lt;&gt;""),IF(G22=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E22=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v/>
+        <v>skmp</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>72</v>
@@ -3517,19 +3448,19 @@
       </c>
       <c r="F22" s="31" t="str">
         <f>IF(B$1="ga",IF(E22="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$2=0,"",AE$2),IF(B$1="ga_brp",IF(G22="","","null"))))</f>
-        <v>1000000000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="G22" s="31" t="str">
         <f>IF(B$1="ga",IF(E22="","","null"),IF(B$1="ga_es",IF(F22="","","null"),IF(B$1="ga_brp",IF(AF$2=0,"",AF$2),IF(F22="","",INDEX(TableDay1[brp_id],MATCH(F22,TableDay1[es_id],0),1)))))</f>
-        <v>1100000000000</v>
+        <v>2200000000000</v>
       </c>
       <c r="H22" s="33" t="str">
         <f ca="1">IF(E22="","",SUBSTITUTE(ROUND(I22+J22+K22,3),",","."))</f>
-        <v>4.79</v>
+        <v>6.761</v>
       </c>
       <c r="I22" s="9">
         <f>SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F22,IF(B$1="ga_brp",G22,E22)),R$10:R$33,D22)</f>
-        <v>2.5</v>
+        <v>4.79</v>
       </c>
       <c r="J22" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D22,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D22,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F22,IF(B$1="ga_brp",G22,E22)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -3537,7 +3468,7 @@
       </c>
       <c r="K22" s="9">
         <f t="shared" ref="K22:K45" ca="1" si="5">IF(AND(C22="skmp",B$2="production"),VLOOKUP(D22,D$78:H$81,5,FALSE),IF(AND(B22="glmp",B$2="flex_consumption"),VLOOKUP(D22,D$72:H$75,5,FALSE),0))</f>
-        <v>2.29</v>
+        <v>1.9710000000000001</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3644,11 +3575,11 @@
     <row r="23" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="str">
         <f>IF(AND(F23&lt;&gt;"null",F23&lt;&gt;""),IF(F23=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G23&lt;&gt;"null",G23&lt;&gt;""),IF(G23=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E23=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
-        <v>glmp</v>
+        <v/>
       </c>
       <c r="C23" s="16" t="str">
         <f>IF(AND(F23&lt;&gt;"null",F23&lt;&gt;""),IF(F23=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G23&lt;&gt;"null",G23&lt;&gt;""),IF(G23=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E23=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v/>
+        <v>skmp</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>73</v>
@@ -3659,19 +3590,19 @@
       </c>
       <c r="F23" s="31" t="str">
         <f>IF(B$1="ga",IF(E23="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$2=0,"",AE$2),IF(B$1="ga_brp",IF(G23="","","null"))))</f>
-        <v>1000000000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="G23" s="31" t="str">
         <f>IF(B$1="ga",IF(E23="","","null"),IF(B$1="ga_es",IF(F23="","","null"),IF(B$1="ga_brp",IF(AF$2=0,"",AF$2),IF(F23="","",INDEX(TableDay1[brp_id],MATCH(F23,TableDay1[es_id],0),1)))))</f>
-        <v>1100000000000</v>
+        <v>2200000000000</v>
       </c>
       <c r="H23" s="33" t="str">
         <f t="shared" ref="H23:H45" ca="1" si="7">IF(E23="","",SUBSTITUTE(ROUND(I23+J23+K23,3),",","."))</f>
-        <v>4.79</v>
+        <v>9.659</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" ref="I23:I45" si="8">SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F23,IF(B$1="ga_brp",G23,E23)),R$10:R$33,D23)</f>
-        <v>2.5</v>
+        <v>4.79</v>
       </c>
       <c r="J23" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D23,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D23,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F23,IF(B$1="ga_brp",G23,E23)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -3679,7 +3610,7 @@
       </c>
       <c r="K23" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.29</v>
+        <v>4.8689999999999998</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3789,11 +3720,11 @@
     <row r="24" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="str">
         <f>IF(AND(F24&lt;&gt;"null",F24&lt;&gt;""),IF(F24=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G24&lt;&gt;"null",G24&lt;&gt;""),IF(G24=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E24=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
-        <v>glmp</v>
+        <v/>
       </c>
       <c r="C24" s="16" t="str">
         <f>IF(AND(F24&lt;&gt;"null",F24&lt;&gt;""),IF(F24=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G24&lt;&gt;"null",G24&lt;&gt;""),IF(G24=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E24=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v/>
+        <v>skmp</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>74</v>
@@ -3804,11 +3735,11 @@
       </c>
       <c r="F24" s="31" t="str">
         <f>IF(B$1="ga",IF(E24="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$2=0,"",AE$2),IF(B$1="ga_brp",IF(G24="","","null"))))</f>
-        <v>1000000000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="G24" s="31" t="str">
         <f>IF(B$1="ga",IF(E24="","","null"),IF(B$1="ga_es",IF(F24="","","null"),IF(B$1="ga_brp",IF(AF$2=0,"",AF$2),IF(F24="","",INDEX(TableDay1[brp_id],MATCH(F24,TableDay1[es_id],0),1)))))</f>
-        <v>1100000000000</v>
+        <v>2200000000000</v>
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3816,7 +3747,7 @@
       </c>
       <c r="I24" s="9">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>4.7889999999999997</v>
       </c>
       <c r="J24" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D24,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D24,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F24,IF(B$1="ga_brp",G24,E24)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -3824,7 +3755,7 @@
       </c>
       <c r="K24" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2889999999999997</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3937,11 +3868,11 @@
     <row r="25" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="str">
         <f>IF(AND(F25&lt;&gt;"null",F25&lt;&gt;""),IF(F25=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G25&lt;&gt;"null",G25&lt;&gt;""),IF(G25=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E25=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
-        <v>glmp</v>
+        <v/>
       </c>
       <c r="C25" s="16" t="str">
         <f>IF(AND(F25&lt;&gt;"null",F25&lt;&gt;""),IF(F25=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G25&lt;&gt;"null",G25&lt;&gt;""),IF(G25=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E25=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v/>
+        <v>skmp</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>75</v>
@@ -3952,11 +3883,11 @@
       </c>
       <c r="F25" s="31" t="str">
         <f>IF(B$1="ga",IF(E25="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$2=0,"",AE$2),IF(B$1="ga_brp",IF(G25="","","null"))))</f>
-        <v>1000000000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="G25" s="31" t="str">
         <f>IF(B$1="ga",IF(E25="","","null"),IF(B$1="ga_es",IF(F25="","","null"),IF(B$1="ga_brp",IF(AF$2=0,"",AF$2),IF(F25="","",INDEX(TableDay1[brp_id],MATCH(F25,TableDay1[es_id],0),1)))))</f>
-        <v>1100000000000</v>
+        <v>2200000000000</v>
       </c>
       <c r="H25" s="33" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3964,7 +3895,7 @@
       </c>
       <c r="I25" s="9">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>4.79</v>
       </c>
       <c r="J25" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D25,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D25,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F25,IF(B$1="ga_brp",G25,E25)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -3972,7 +3903,7 @@
       </c>
       <c r="K25" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="2"/>
@@ -4096,19 +4027,19 @@
       </c>
       <c r="E26" s="31" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F26" s="31" t="str">
         <f>IF(B$1="ga",IF(E26="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G26="","","null"))))</f>
-        <v/>
+        <v>4000000000000</v>
       </c>
       <c r="G26" s="31" t="str">
         <f>IF(B$1="ga",IF(E26="","","null"),IF(B$1="ga_es",IF(F26="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F26="","",INDEX(TableDay1[brp_id],MATCH(F26,TableDay1[es_id],0),1)))))</f>
-        <v/>
+        <v>4400000000000</v>
       </c>
       <c r="H26" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="8"/>
@@ -4238,19 +4169,19 @@
       </c>
       <c r="E27" s="31" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F27" s="31" t="str">
         <f>IF(B$1="ga",IF(E27="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G27="","","null"))))</f>
-        <v/>
+        <v>4000000000000</v>
       </c>
       <c r="G27" s="31" t="str">
         <f>IF(B$1="ga",IF(E27="","","null"),IF(B$1="ga_es",IF(F27="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F27="","",INDEX(TableDay1[brp_id],MATCH(F27,TableDay1[es_id],0),1)))))</f>
-        <v/>
+        <v>4400000000000</v>
       </c>
       <c r="H27" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="8"/>
@@ -4308,11 +4239,11 @@
       <c r="AD27" s="36"/>
       <c r="AE27" s="36" t="str">
         <f>_xlfn.CONCAT("Energy suppliers for "&amp;B2)</f>
-        <v>Energy suppliers for flex_consumption</v>
+        <v>Energy suppliers for production</v>
       </c>
       <c r="AF27" s="36" t="str">
         <f>_xlfn.CONCAT("Balance responsibles for "&amp;B2)</f>
-        <v>Balance responsibles for flex_consumption</v>
+        <v>Balance responsibles for production</v>
       </c>
       <c r="AG27" s="36"/>
       <c r="AH27" s="36"/>
@@ -4389,19 +4320,19 @@
       </c>
       <c r="E28" s="31" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F28" s="31" t="str">
         <f>IF(B$1="ga",IF(E28="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G28="","","null"))))</f>
-        <v/>
+        <v>4000000000000</v>
       </c>
       <c r="G28" s="31" t="str">
         <f>IF(B$1="ga",IF(E28="","","null"),IF(B$1="ga_es",IF(F28="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F28="","",INDEX(TableDay1[brp_id],MATCH(F28,TableDay1[es_id],0),1)))))</f>
-        <v/>
+        <v>4400000000000</v>
       </c>
       <c r="H28" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="8"/>
@@ -4459,11 +4390,11 @@
       <c r="AD28" s="36"/>
       <c r="AE28" s="36" t="str" cm="1">
         <f t="array" ref="AE28">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE13)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE13)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v>1000000000000</v>
+        <v/>
       </c>
       <c r="AF28" s="36" t="str" cm="1">
         <f t="array" ref="AF28">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF13)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF13)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v>1100000000000</v>
+        <v/>
       </c>
       <c r="AG28" s="36"/>
       <c r="AH28" s="36"/>
@@ -4540,19 +4471,19 @@
       </c>
       <c r="E29" s="31" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F29" s="31" t="str">
         <f>IF(B$1="ga",IF(E29="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G29="","","null"))))</f>
-        <v/>
+        <v>4000000000000</v>
       </c>
       <c r="G29" s="31" t="str">
         <f>IF(B$1="ga",IF(E29="","","null"),IF(B$1="ga_es",IF(F29="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F29="","",INDEX(TableDay1[brp_id],MATCH(F29,TableDay1[es_id],0),1)))))</f>
-        <v/>
+        <v>4400000000000</v>
       </c>
       <c r="H29" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="8"/>
@@ -4605,11 +4536,11 @@
       <c r="AD29" s="36"/>
       <c r="AE29" s="36" t="str" cm="1">
         <f t="array" ref="AE29">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE14)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE14)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v/>
+        <v>2000000000000</v>
       </c>
       <c r="AF29" s="36" t="str" cm="1">
         <f t="array" ref="AF29">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF14)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF14)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v/>
+        <v>2200000000000</v>
       </c>
       <c r="AG29" s="36"/>
       <c r="AH29" s="36"/>
@@ -4894,11 +4825,11 @@
       <c r="AD31" s="36"/>
       <c r="AE31" s="36" t="str" cm="1">
         <f t="array" ref="AE31">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE16)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE16)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v/>
+        <v>4000000000000</v>
       </c>
       <c r="AF31" s="36" t="str" cm="1">
         <f t="array" ref="AF31">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF16)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF16)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v/>
+        <v>4400000000000</v>
       </c>
       <c r="AG31" s="36"/>
       <c r="AH31" s="36"/>
@@ -5184,19 +5115,10 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="36"/>
-      <c r="AE33" s="36" t="str" cm="1">
-        <f t="array" ref="AE33">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE18)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE18)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v/>
-      </c>
-      <c r="AF33" s="36" t="str" cm="1">
-        <f t="array" ref="AF33">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF18)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF18)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v/>
-      </c>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
       <c r="AG33" s="36"/>
-      <c r="AH33" s="36" t="e" cm="1" vm="1">
-        <f t="array" ref="AH33">_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),""))&lt;&gt;"")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="AH33" s="36"/>
       <c r="AI33" s="24"/>
       <c r="AJ33" s="24"/>
       <c r="AK33" s="24"/>
@@ -5310,14 +5232,8 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="36"/>
-      <c r="AE34" s="36" t="str" cm="1">
-        <f t="array" ref="AE34">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE19)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE19)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v/>
-      </c>
-      <c r="AF34" s="36" t="str" cm="1">
-        <f t="array" ref="AF34">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF19)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF19)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v/>
-      </c>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
       <c r="AG34" s="36"/>
       <c r="AH34" s="36"/>
       <c r="AI34" s="24"/>
@@ -5443,18 +5359,9 @@
       <c r="AA35" s="27"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
-      <c r="AD35" s="36" t="b">
-        <f>Q10=AD2</f>
-        <v>1</v>
-      </c>
-      <c r="AE35" s="36" t="str" cm="1">
-        <f t="array" ref="AE35">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE20)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE20)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v/>
-      </c>
-      <c r="AF35" s="36" t="str" cm="1">
-        <f t="array" ref="AF35">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF20)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF20)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v/>
-      </c>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
       <c r="AG35" s="36"/>
       <c r="AH35" s="36"/>
       <c r="AI35" s="24"/>
@@ -5583,14 +5490,8 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
       <c r="AD36" s="36"/>
-      <c r="AE36" s="36" t="str" cm="1">
-        <f t="array" ref="AE36">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE21)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE21)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v/>
-      </c>
-      <c r="AF36" s="36" t="str" cm="1">
-        <f t="array" ref="AF36">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF21)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF21)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v/>
-      </c>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
       <c r="AG36" s="36"/>
       <c r="AH36" s="36"/>
       <c r="AI36" s="2"/>
@@ -5720,14 +5621,8 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="36"/>
-      <c r="AE37" s="36" t="str" cm="1">
-        <f t="array" ref="AE37">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE22)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE22)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v/>
-      </c>
-      <c r="AF37" s="36" t="str" cm="1">
-        <f t="array" ref="AF37">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF22)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF22)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v/>
-      </c>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
       <c r="AG37" s="36"/>
       <c r="AH37" s="36"/>
       <c r="AI37" s="2"/>
@@ -5860,14 +5755,8 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
       <c r="AD38" s="36"/>
-      <c r="AE38" s="36" t="str" cm="1">
-        <f t="array" ref="AE38">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE23)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE23)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v/>
-      </c>
-      <c r="AF38" s="36" t="str" cm="1">
-        <f t="array" ref="AF38">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF23)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF23)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v/>
-      </c>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
       <c r="AG38" s="36"/>
       <c r="AH38" s="36"/>
       <c r="AI38" s="2"/>
@@ -6000,14 +5889,8 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="36"/>
-      <c r="AE39" s="36" t="str" cm="1">
-        <f t="array" ref="AE39">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE24)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE24)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v/>
-      </c>
-      <c r="AF39" s="36" t="str" cm="1">
-        <f t="array" ref="AF39">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF24)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF24)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v/>
-      </c>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
       <c r="AG39" s="36"/>
       <c r="AH39" s="36"/>
       <c r="AI39" s="2"/>
@@ -6140,14 +6023,8 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
       <c r="AD40" s="36"/>
-      <c r="AE40" s="36" t="str" cm="1">
-        <f t="array" ref="AE40">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE25)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE25)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v/>
-      </c>
-      <c r="AF40" s="36" t="str" cm="1">
-        <f t="array" ref="AF40">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF25)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF25)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v/>
-      </c>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
       <c r="AG40" s="36"/>
       <c r="AH40" s="36"/>
       <c r="AI40" s="2"/>
@@ -6274,14 +6151,8 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
       <c r="AD41" s="36"/>
-      <c r="AE41" s="36" t="str" cm="1">
-        <f t="array" ref="AE41">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE26)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE26)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v/>
-      </c>
-      <c r="AF41" s="36" t="str" cm="1">
-        <f t="array" ref="AF41">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF26)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF26)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v/>
-      </c>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
       <c r="AG41" s="36"/>
       <c r="AH41" s="36"/>
       <c r="AI41" s="2"/>
@@ -6410,14 +6281,8 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
       <c r="AD42" s="36"/>
-      <c r="AE42" s="36" t="str" cm="1">
-        <f t="array" ref="AE42">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE27)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE27)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v/>
-      </c>
-      <c r="AF42" s="36" t="str" cm="1">
-        <f t="array" ref="AF42">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF27)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF27)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v/>
-      </c>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
       <c r="AG42" s="36"/>
       <c r="AH42" s="36"/>
       <c r="AI42" s="2"/>
@@ -6550,15 +6415,9 @@
       <c r="AE43" s="36"/>
       <c r="AF43" s="36"/>
       <c r="AG43" s="36"/>
-      <c r="AH43" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ43" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="AH43" s="36"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
@@ -6689,22 +6548,10 @@
       <c r="AD44" s="36"/>
       <c r="AE44" s="36"/>
       <c r="AF44" s="36"/>
-      <c r="AG44" s="36" t="e" cm="1" vm="1">
-        <f t="array" ref="AG44">_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH44" s="36" t="str" cm="1">
-        <f t="array" ref="AH44">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2)</f>
-        <v>801</v>
-      </c>
-      <c r="AI44" s="2" t="e" cm="1" vm="1">
-        <f t="array" ref="AI44">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ44" s="2" t="str" cm="1">
-        <f t="array" ref="AJ44">IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),"")</f>
-        <v/>
-      </c>
+      <c r="AG44" s="58"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
@@ -7120,11 +6967,11 @@
       </c>
       <c r="H48" s="32">
         <f ca="1">SUMIF(D90:D113,D48,H90:H113)</f>
-        <v>0</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="I48" s="27" t="str">
         <f ca="1">SUBSTITUTE(ROUND(H48,3),",",".")</f>
-        <v>0</v>
+        <v>0.839</v>
       </c>
       <c r="J48" s="2"/>
       <c r="R48" s="24"/>
@@ -7235,11 +7082,11 @@
       </c>
       <c r="H49" s="32">
         <f t="shared" ref="H49:H51" ca="1" si="13">SUMIF(D91:D114,D49,H91:H114)</f>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="I49" s="27" t="str">
         <f t="shared" ref="I49:I51" ca="1" si="14">SUBSTITUTE(ROUND(H49,3),",",".")</f>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="J49" s="2"/>
       <c r="R49" s="24"/>
@@ -7351,11 +7198,11 @@
       </c>
       <c r="H50" s="32">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="I50" s="27" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>0.839</v>
       </c>
       <c r="J50" s="2"/>
       <c r="R50" s="24"/>
@@ -7470,11 +7317,11 @@
       </c>
       <c r="H51" s="32">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="I51" s="27" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>0.839</v>
       </c>
       <c r="J51" s="2"/>
       <c r="R51" s="24"/>
@@ -9133,11 +8980,11 @@
       </c>
       <c r="H66" s="32">
         <f ca="1">totalProduction1H_quarter1+totalProduction15M_quarter1+netEx_quarter1-totalFlex1H_quarter1-totalFlex15M_quarter1-totalNonprofiled1H_quarter1-totalNonprofiled15M_quarter1</f>
-        <v>2.29</v>
+        <v>-1.9710000000000001</v>
       </c>
       <c r="I66" s="27" t="str">
         <f ca="1">SUBSTITUTE(ROUND(H66,3),",",".")</f>
-        <v>2.29</v>
+        <v>-1.971</v>
       </c>
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
@@ -9245,11 +9092,11 @@
       </c>
       <c r="H67" s="32">
         <f ca="1">totalProduction1H_quarter2+totalProduction15M_quarter2+netEx_quarter2-totalFlex1H_quarter2-totalFlex15M_quarter2-totalNonprofiled1H_quarter2-totalNonprofiled15M_quarter2</f>
-        <v>2.29</v>
+        <v>-4.8689999999999998</v>
       </c>
       <c r="I67" s="27" t="str">
         <f t="shared" ref="I67:I69" ca="1" si="22">SUBSTITUTE(ROUND(H67,3),",",".")</f>
-        <v>2.29</v>
+        <v>-4.869</v>
       </c>
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
@@ -9358,11 +9205,11 @@
       </c>
       <c r="H68" s="32">
         <f ca="1">totalProduction1H_quarter3+totalProduction15M_quarter3+netEx_quarter3-totalFlex1H_quarter3-totalFlex15M_quarter3-totalNonprofiled1H_quarter3-totalNonprofiled15M_quarter3</f>
-        <v>2.2889999999999997</v>
+        <v>3.028</v>
       </c>
       <c r="I68" s="27" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>2.289</v>
+        <v>3.028</v>
       </c>
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
@@ -9474,11 +9321,11 @@
       </c>
       <c r="H69" s="32">
         <f ca="1">totalProduction1H_quarter4+totalProduction15M_quarter4+netEx_quarter4-totalFlex1H_quarter4-totalFlex15M_quarter4-totalNonprofiled1H_quarter4-totalNonprofiled15M_quarter4</f>
-        <v>2.29</v>
+        <v>3.0289999999999995</v>
       </c>
       <c r="I69" s="27" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>2.29</v>
+        <v>3.029</v>
       </c>
       <c r="J69" s="2"/>
       <c r="R69" s="24"/>
@@ -9785,11 +9632,11 @@
       </c>
       <c r="H72" s="32">
         <f ca="1">IF(gridLoss1H_quarter4&gt;0,gridLoss1H_quarter4,0)</f>
-        <v>2.29</v>
+        <v>3.0289999999999995</v>
       </c>
       <c r="I72" s="27" t="str">
         <f ca="1">SUBSTITUTE(ROUND(H72,3),",",".")</f>
-        <v>2.29</v>
+        <v>3.029</v>
       </c>
       <c r="R72" s="24"/>
       <c r="S72" s="27"/>
@@ -9884,11 +9731,11 @@
       </c>
       <c r="H73" s="32">
         <f ca="1">IF(gridLoss1H_quarter3&gt;0,gridLoss1H_quarter3,0)</f>
-        <v>2.2889999999999997</v>
+        <v>3.028</v>
       </c>
       <c r="I73" s="27" t="str">
         <f t="shared" ref="I73:I75" ca="1" si="24">SUBSTITUTE(ROUND(H73,3),",",".")</f>
-        <v>2.289</v>
+        <v>3.028</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -9976,11 +9823,11 @@
       </c>
       <c r="H74" s="32">
         <f ca="1">IF(gridLoss1H_quarter2&gt;0,gridLoss1H_quarter2,0)</f>
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="I74" s="27" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10079,11 +9926,11 @@
       </c>
       <c r="H75" s="32">
         <f ca="1">IF(gridLoss1H_quarter1&gt;0,gridLoss1H_quarter1,0)</f>
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="I75" s="27" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -10589,11 +10436,11 @@
       </c>
       <c r="H80" s="32">
         <f ca="1">IF(gridLoss1H_quarter2&lt;0,gridLoss1H_quarter2*-1,0)</f>
-        <v>0</v>
+        <v>4.8689999999999998</v>
       </c>
       <c r="I80" s="27" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>4.869</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -10696,11 +10543,11 @@
       </c>
       <c r="H81" s="32">
         <f ca="1">IF(gridLoss1H_quarter1&lt;0,(gridLoss1H_quarter1)*-1,0)</f>
-        <v>0</v>
+        <v>1.9710000000000001</v>
       </c>
       <c r="I81" s="27" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1.971</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -10998,11 +10845,11 @@
       </c>
       <c r="H84" s="32">
         <f ca="1">netEx_quarter1+totalProduction1H_quarter1+totalProduction15M_quarter1+negGridLossQuarter1</f>
-        <v>4.79</v>
+        <v>7.6</v>
       </c>
       <c r="I84" s="27" t="str">
         <f ca="1">SUBSTITUTE(ROUND(H84,3),",",".")</f>
-        <v>4.79</v>
+        <v>7.6</v>
       </c>
       <c r="J84" s="2"/>
       <c r="U84" s="2"/>
@@ -11097,11 +10944,11 @@
       </c>
       <c r="H85" s="32">
         <f ca="1">netEx_quarter2+totalProduction1H_quarter2+totalProduction15M_quarter2+negGridLossQuarter2</f>
-        <v>4.79</v>
+        <v>10.498999999999999</v>
       </c>
       <c r="I85" s="27" t="str">
         <f t="shared" ref="I85:I87" ca="1" si="28">SUBSTITUTE(ROUND(H85,3),",",".")</f>
-        <v>4.79</v>
+        <v>10.499</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -11204,11 +11051,11 @@
       </c>
       <c r="H86" s="32">
         <f ca="1">netEx_quarter3+totalProduction1H_quarter3+totalProduction15M_quarter3+negGridLossQuarter3</f>
-        <v>4.7889999999999997</v>
+        <v>5.6280000000000001</v>
       </c>
       <c r="I86" s="27" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>4.789</v>
+        <v>5.628</v>
       </c>
       <c r="J86" s="2"/>
       <c r="R86" s="37"/>
@@ -11222,16 +11069,16 @@
       </c>
       <c r="W86" s="6">
         <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$3)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$3))/4</f>
-        <v>0</v>
+        <v>0.83925000000000005</v>
       </c>
       <c r="X86" s="16">
         <f>W86</f>
-        <v>0</v>
+        <v>0.83925000000000005</v>
       </c>
       <c r="Y86" s="16"/>
       <c r="Z86" s="16">
         <f t="shared" ref="Z86:Z109" si="29">ROUND(X86, 3)</f>
-        <v>0</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
@@ -11315,11 +11162,11 @@
       </c>
       <c r="H87" s="32">
         <f ca="1">netEx_quarter4+totalProduction1H_quarter4+totalProduction15M_quarter4+negGridLossQuarter4</f>
-        <v>4.79</v>
+        <v>5.6289999999999996</v>
       </c>
       <c r="I87" s="27" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>4.79</v>
+        <v>5.629</v>
       </c>
       <c r="J87" s="2"/>
       <c r="R87" s="2"/>
@@ -11333,19 +11180,19 @@
       </c>
       <c r="W87" s="16">
         <f>W$86</f>
-        <v>0</v>
+        <v>0.83925000000000005</v>
       </c>
       <c r="X87" s="16">
         <f>Y87+X86</f>
-        <v>0</v>
+        <v>0.83950000000000014</v>
       </c>
       <c r="Y87" s="16">
         <f>W87-Z86</f>
-        <v>0</v>
+        <v>2.5000000000008349E-4</v>
       </c>
       <c r="Z87" s="16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
@@ -11435,19 +11282,19 @@
       </c>
       <c r="W88" s="16">
         <f>W$86</f>
-        <v>0</v>
+        <v>0.83925000000000005</v>
       </c>
       <c r="X88" s="16">
         <f>Y88+X87</f>
-        <v>0</v>
+        <v>0.83875000000000022</v>
       </c>
       <c r="Y88" s="16">
         <f>W88-Z87</f>
-        <v>0</v>
+        <v>-7.499999999999174E-4</v>
       </c>
       <c r="Z88" s="16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
@@ -11548,19 +11395,19 @@
       </c>
       <c r="W89" s="16">
         <f>W$86</f>
-        <v>0</v>
+        <v>0.83925000000000005</v>
       </c>
       <c r="X89" s="16">
         <f>Y89+X88</f>
-        <v>0</v>
+        <v>0.8390000000000003</v>
       </c>
       <c r="Y89" s="16">
         <f>W89-Z88</f>
-        <v>0</v>
+        <v>2.5000000000008349E-4</v>
       </c>
       <c r="Z89" s="16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
@@ -11648,15 +11495,15 @@
       </c>
       <c r="H90" s="32">
         <f ca="1">IF(E90="","",V86+Z86)</f>
-        <v>0</v>
-      </c>
-      <c r="I90" s="32" t="e" cm="1" vm="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="I90" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I90" ca="1">IF(E90="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>#VALUE!</v>
+        <v>801</v>
       </c>
       <c r="J90" s="27" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(ROUND(H90,3),",","."),"")</f>
-        <v>0</v>
+        <v>0.839</v>
       </c>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
@@ -11766,15 +11613,15 @@
       </c>
       <c r="H91" s="32">
         <f t="shared" ref="H91:H113" ca="1" si="33">IF(E91="","",V87+Z87)</f>
-        <v>0</v>
-      </c>
-      <c r="I91" s="32" t="e" cm="1" vm="2">
+        <v>0.84</v>
+      </c>
+      <c r="I91" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I91" ca="1">IF(E91="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>#VALUE!</v>
+        <v>801</v>
       </c>
       <c r="J91" s="27" t="str">
         <f t="shared" ref="J91:J113" ca="1" si="34">IFERROR(SUBSTITUTE(ROUND(H91,3),",","."),"")</f>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="R91" s="2"/>
       <c r="U91" s="15" t="s">
@@ -11886,15 +11733,15 @@
       </c>
       <c r="H92" s="32">
         <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="I92" s="32" t="e" cm="1" vm="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="I92" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I92" ca="1">IF(E92="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>#VALUE!</v>
+        <v>801</v>
       </c>
       <c r="J92" s="27" t="str">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>0.839</v>
       </c>
       <c r="U92" s="15" t="s">
         <v>74</v>
@@ -12005,15 +11852,15 @@
       </c>
       <c r="H93" s="32">
         <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="I93" s="32" t="e" cm="1" vm="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="I93" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I93" ca="1">IF(E93="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>#VALUE!</v>
+        <v>801</v>
       </c>
       <c r="J93" s="27" t="str">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>0.839</v>
       </c>
       <c r="U93" s="15" t="s">
         <v>75</v>
@@ -40924,6 +40771,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010083C51B3A6863BB4086AAB9D84DF721A3" ma:contentTypeVersion="9" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="9d92303bd8f83ad3ed572bd327ba273d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="17d0a144-7218-432a-80c1-1473a2ac0f84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e272e23039cec0e41a69c8e3deb1ff81" ns3:_="">
     <xsd:import namespace="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
@@ -41099,15 +40955,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -41117,6 +40964,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEE2584E-1495-47FC-B560-4437F91C3A10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41130,14 +40985,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - wholesale minimal standard scenario.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - wholesale minimal standard scenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_a_wholesale_calculation\when_minimal_standard_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63228E16-5CAD-40AA-B6DC-57A0BCF99C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67424FB1-8130-418C-8535-430A40AA82AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-66" yWindow="-66" windowWidth="23172" windowHeight="12372" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour1" sheetId="11" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="122">
   <si>
     <t>energy_supplier_id</t>
   </si>
@@ -741,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -838,8 +838,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1425,7 +1423,7 @@
   <dimension ref="A1:CN400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1439,7 +1437,7 @@
     <col min="7" max="7" width="28.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="24.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.1796875" style="1" customWidth="1"/>
     <col min="16" max="17" width="11.7265625" style="1" customWidth="1"/>
@@ -1686,23 +1684,23 @@
       </c>
       <c r="T3" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
-        <v>13.298999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="U3" s="42">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
-        <v>5.0999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="V3" s="42">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
-        <v>7.9989999999999997</v>
+        <v>2.5</v>
       </c>
       <c r="W3" s="42">
         <f>SUMIFS(TableDay1[Quarter3],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="X3" s="42">
         <f>SUMIFS(TableDay1[Quarter4],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="Y3" s="24"/>
       <c r="Z3" s="24"/>
@@ -1722,7 +1720,7 @@
         <f t="array" ref="AH3">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),""),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),""),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),""))&lt;&gt;""))</f>
         <v>801</v>
       </c>
-      <c r="AI3" s="59" t="str" cm="1">
+      <c r="AI3" s="27" t="str" cm="1">
         <f t="array" ref="AI3">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),""),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),""),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),""))&lt;&gt;""))</f>
         <v>801</v>
       </c>
@@ -1750,15 +1748,13 @@
       <c r="E4" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="12">
-        <v>10</v>
-      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="43">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>89</v>
@@ -1838,7 +1834,9 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="O5" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="P5" s="29"/>
       <c r="Q5" s="29"/>
       <c r="R5" s="24"/>
@@ -1847,23 +1845,23 @@
       </c>
       <c r="T5" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
-        <v>13.298999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="U5" s="42">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
-        <v>5.0999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="V5" s="42">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
-        <v>7.9989999999999997</v>
+        <v>2.5</v>
       </c>
       <c r="W5" s="42">
         <f>SUMIFS(TableDay1[Quarter3],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="X5" s="42">
         <f>SUMIFS(TableDay1[Quarter4],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="Y5" s="24"/>
       <c r="Z5" s="24"/>
@@ -1898,13 +1896,15 @@
       <c r="E6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="12">
+        <v>20</v>
+      </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>89</v>
@@ -1962,20 +1962,20 @@
         <v>100</v>
       </c>
       <c r="F7" s="12">
-        <v>5.0999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="G7" s="12">
-        <v>7.9989999999999997</v>
+        <v>2.5</v>
       </c>
       <c r="H7" s="41">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="I7" s="41">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="J7" s="43">
         <f t="shared" si="0"/>
-        <v>13.298999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>98</v>
@@ -2031,14 +2031,14 @@
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12">
-        <v>19.158999999999999</v>
+        <v>40.158999999999999</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="43">
         <f t="shared" si="0"/>
-        <v>19.158999999999999</v>
+        <v>40.158999999999999</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>89</v>
@@ -2086,30 +2086,20 @@
       <c r="AQ8" s="24"/>
     </row>
     <row r="9" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C9" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>94</v>
-      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
-      <c r="J9" s="43">
+      <c r="J9" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>119</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
         <v>92</v>
@@ -2160,37 +2150,35 @@
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C10" s="10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="12">
-        <v>3.3570000000000002</v>
-      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="43">
         <f t="shared" si="0"/>
-        <v>3.3570000000000002</v>
+        <v>0</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+        <v>98</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" s="29" t="s">
         <v>92</v>
       </c>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
       <c r="R10" s="15" t="s">
         <v>72</v>
       </c>
@@ -2208,16 +2196,16 @@
       </c>
       <c r="V10" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[es_id],U10,IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT1H")/4</f>
-        <v>4.7897499999999997</v>
+        <v>10.03975</v>
       </c>
       <c r="W10" s="19">
         <f>V10</f>
-        <v>4.7897499999999997</v>
+        <v>10.03975</v>
       </c>
       <c r="X10" s="19"/>
       <c r="Y10" s="23">
         <f t="shared" ref="Y10:Y33" si="1">ROUND(W10, 3)</f>
-        <v>4.79</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="Z10" s="27"/>
       <c r="AA10" s="24"/>
@@ -2242,24 +2230,38 @@
       <c r="AQ10" s="24"/>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="12">
+        <v>3.3570000000000002</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
-      <c r="J11" s="43" t="str">
+      <c r="J11" s="43">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="10"/>
+        <v>3.3570000000000002</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
+      <c r="O11" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="R11" s="15" t="s">
         <v>73</v>
       </c>
@@ -2277,19 +2279,19 @@
       </c>
       <c r="V11" s="19">
         <f t="shared" si="2"/>
-        <v>4.7897499999999997</v>
+        <v>10.03975</v>
       </c>
       <c r="W11" s="19">
         <f>X11+W10</f>
-        <v>4.7894999999999994</v>
+        <v>10.0395</v>
       </c>
       <c r="X11" s="19">
         <f>V11-Y10</f>
-        <v>-2.5000000000030553E-4</v>
+        <v>-2.4999999999941735E-4</v>
       </c>
       <c r="Y11" s="23">
         <f t="shared" si="1"/>
-        <v>4.79</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="Z11" s="27"/>
       <c r="AA11" s="24"/>
@@ -2349,19 +2351,19 @@
       </c>
       <c r="V12" s="19">
         <f t="shared" si="2"/>
-        <v>4.7897499999999997</v>
+        <v>10.03975</v>
       </c>
       <c r="W12" s="19">
         <f>X12+W11</f>
-        <v>4.7892499999999991</v>
+        <v>10.039250000000001</v>
       </c>
       <c r="X12" s="19">
         <f>V12-Y11</f>
-        <v>-2.5000000000030553E-4</v>
+        <v>-2.4999999999941735E-4</v>
       </c>
       <c r="Y12" s="23">
         <f t="shared" si="1"/>
-        <v>4.7889999999999997</v>
+        <v>10.039</v>
       </c>
       <c r="Z12" s="27"/>
       <c r="AA12" s="24"/>
@@ -2425,11 +2427,11 @@
       </c>
       <c r="V13" s="19">
         <f t="shared" si="2"/>
-        <v>4.7897499999999997</v>
+        <v>10.03975</v>
       </c>
       <c r="W13" s="19">
         <f>X13+W12</f>
-        <v>4.7899999999999991</v>
+        <v>10.040000000000001</v>
       </c>
       <c r="X13" s="19">
         <f>V13-Y12</f>
@@ -2437,7 +2439,7 @@
       </c>
       <c r="Y13" s="23">
         <f t="shared" si="1"/>
-        <v>4.79</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="Z13" s="27"/>
       <c r="AA13" s="24"/>
@@ -3456,11 +3458,11 @@
       </c>
       <c r="H22" s="33" t="str">
         <f ca="1">IF(E22="","",SUBSTITUTE(ROUND(I22+J22+K22,3),",","."))</f>
-        <v>6.761</v>
+        <v>10.04</v>
       </c>
       <c r="I22" s="9">
         <f>SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F22,IF(B$1="ga_brp",G22,E22)),R$10:R$33,D22)</f>
-        <v>4.79</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="J22" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D22,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D22,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F22,IF(B$1="ga_brp",G22,E22)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -3468,7 +3470,7 @@
       </c>
       <c r="K22" s="9">
         <f t="shared" ref="K22:K45" ca="1" si="5">IF(AND(C22="skmp",B$2="production"),VLOOKUP(D22,D$78:H$81,5,FALSE),IF(AND(B22="glmp",B$2="flex_consumption"),VLOOKUP(D22,D$72:H$75,5,FALSE),0))</f>
-        <v>1.9710000000000001</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3598,11 +3600,11 @@
       </c>
       <c r="H23" s="33" t="str">
         <f t="shared" ref="H23:H45" ca="1" si="7">IF(E23="","",SUBSTITUTE(ROUND(I23+J23+K23,3),",","."))</f>
-        <v>9.659</v>
+        <v>10.04</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" ref="I23:I45" si="8">SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F23,IF(B$1="ga_brp",G23,E23)),R$10:R$33,D23)</f>
-        <v>4.79</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="J23" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D23,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D23,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F23,IF(B$1="ga_brp",G23,E23)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -3610,7 +3612,7 @@
       </c>
       <c r="K23" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>4.8689999999999998</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3743,11 +3745,11 @@
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>4.789</v>
+        <v>10.039</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="8"/>
-        <v>4.7889999999999997</v>
+        <v>10.039</v>
       </c>
       <c r="J24" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D24,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D24,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F24,IF(B$1="ga_brp",G24,E24)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -3891,11 +3893,11 @@
       </c>
       <c r="H25" s="33" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>4.79</v>
+        <v>14.161</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="8"/>
-        <v>4.79</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="J25" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D25,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D25,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F25,IF(B$1="ga_brp",G25,E25)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -3903,7 +3905,7 @@
       </c>
       <c r="K25" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>4.1210000000000004</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="2"/>
@@ -5342,7 +5344,7 @@
       <c r="U35" s="24"/>
       <c r="V35" s="28">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT1H")</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W35" s="16" t="s">
         <v>47</v>
@@ -5350,11 +5352,11 @@
       <c r="X35" s="16"/>
       <c r="Y35" s="28">
         <f>SUM(Y37:Y40)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="21">
         <f>SUM(Z37:Z40)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="27"/>
       <c r="AB35" s="2"/>
@@ -5472,7 +5474,7 @@
       </c>
       <c r="V36" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT1H")/4</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W36" s="7" t="s">
         <v>43</v>
@@ -5602,20 +5604,20 @@
       </c>
       <c r="V37" s="19">
         <f>V$36</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W37" s="19">
         <f>V37</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X37" s="19"/>
       <c r="Y37" s="23">
         <f>ROUND(W37, 3)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="23">
         <f>ROUND(V37,3)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="27"/>
       <c r="AB37" s="2"/>
@@ -5733,11 +5735,11 @@
       </c>
       <c r="V38" s="19">
         <f>V$36</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W38" s="19">
         <f>X38+W37</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X38" s="19">
         <f>V38-Y37</f>
@@ -5745,11 +5747,11 @@
       </c>
       <c r="Y38" s="23">
         <f>ROUND(W38, 3)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="23">
         <f>ROUND(V38,3)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="27"/>
       <c r="AB38" s="2"/>
@@ -5867,11 +5869,11 @@
       </c>
       <c r="V39" s="19">
         <f>V$36</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W39" s="19">
         <f>X39+W38</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X39" s="19">
         <f>V39-Y38</f>
@@ -5879,11 +5881,11 @@
       </c>
       <c r="Y39" s="23">
         <f>ROUND(W39, 3)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="23">
         <f>ROUND(V39,3)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="27"/>
       <c r="AB39" s="2"/>
@@ -6001,11 +6003,11 @@
       </c>
       <c r="V40" s="19">
         <f>V$36</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W40" s="19">
         <f>X40+W39</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X40" s="19">
         <f>V40-Y39</f>
@@ -6013,11 +6015,11 @@
       </c>
       <c r="Y40" s="23">
         <f>ROUND(W40, 3)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="23">
         <f>ROUND(V40,3)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="27"/>
       <c r="AB40" s="2"/>
@@ -6133,7 +6135,7 @@
       <c r="U41" s="24"/>
       <c r="V41" s="28">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E18",TableDay1[resolution],"PT1H")</f>
-        <v>19.158999999999999</v>
+        <v>40.158999999999999</v>
       </c>
       <c r="W41" s="39" t="s">
         <v>47</v>
@@ -6141,11 +6143,11 @@
       <c r="X41" s="40"/>
       <c r="Y41" s="28">
         <f>SUM(Y43:Y46)</f>
-        <v>19.158999999999999</v>
+        <v>40.158999999999999</v>
       </c>
       <c r="Z41" s="21">
         <f>SUM(Z43:Z46)</f>
-        <v>19.16</v>
+        <v>40.159999999999997</v>
       </c>
       <c r="AA41" s="27"/>
       <c r="AB41" s="2"/>
@@ -6263,7 +6265,7 @@
       </c>
       <c r="V42" s="22">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E18",TableDay1[resolution],"PT1H")/4</f>
-        <v>4.7897499999999997</v>
+        <v>10.03975</v>
       </c>
       <c r="W42" s="7" t="s">
         <v>43</v>
@@ -6393,20 +6395,20 @@
       </c>
       <c r="V43" s="19">
         <f>V$42</f>
-        <v>4.7897499999999997</v>
+        <v>10.03975</v>
       </c>
       <c r="W43" s="19">
         <f>V43</f>
-        <v>4.7897499999999997</v>
+        <v>10.03975</v>
       </c>
       <c r="X43" s="19"/>
       <c r="Y43" s="23">
         <f>ROUND(W43, 3)</f>
-        <v>4.79</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="Z43" s="23">
         <f>ROUND(V43,3)</f>
-        <v>4.79</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="AA43" s="27"/>
       <c r="AB43" s="2"/>
@@ -6524,23 +6526,23 @@
       </c>
       <c r="V44" s="19">
         <f>V$42</f>
-        <v>4.7897499999999997</v>
+        <v>10.03975</v>
       </c>
       <c r="W44" s="19">
         <f>X44+W43</f>
-        <v>4.7894999999999994</v>
+        <v>10.0395</v>
       </c>
       <c r="X44" s="19">
         <f>V44-Y43</f>
-        <v>-2.5000000000030553E-4</v>
+        <v>-2.4999999999941735E-4</v>
       </c>
       <c r="Y44" s="23">
         <f>ROUND(W44, 3)</f>
-        <v>4.79</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="Z44" s="23">
         <f>ROUND(V44,3)</f>
-        <v>4.79</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="AA44" s="27"/>
       <c r="AB44" s="2"/>
@@ -6548,7 +6550,7 @@
       <c r="AD44" s="36"/>
       <c r="AE44" s="36"/>
       <c r="AF44" s="36"/>
-      <c r="AG44" s="58"/>
+      <c r="AG44" s="2"/>
       <c r="AH44" s="36"/>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
@@ -6658,23 +6660,23 @@
       </c>
       <c r="V45" s="19">
         <f>V$42</f>
-        <v>4.7897499999999997</v>
+        <v>10.03975</v>
       </c>
       <c r="W45" s="19">
         <f>X45+W44</f>
-        <v>4.7892499999999991</v>
+        <v>10.039250000000001</v>
       </c>
       <c r="X45" s="19">
         <f>V45-Y44</f>
-        <v>-2.5000000000030553E-4</v>
+        <v>-2.4999999999941735E-4</v>
       </c>
       <c r="Y45" s="23">
         <f>ROUND(W45, 3)</f>
-        <v>4.7889999999999997</v>
+        <v>10.039</v>
       </c>
       <c r="Z45" s="23">
         <f>ROUND(V45,3)</f>
-        <v>4.79</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="AA45" s="27"/>
       <c r="AB45" s="2"/>
@@ -6759,11 +6761,11 @@
       </c>
       <c r="V46" s="19">
         <f>V$42</f>
-        <v>4.7897499999999997</v>
+        <v>10.03975</v>
       </c>
       <c r="W46" s="19">
         <f>X46+W45</f>
-        <v>4.7899999999999991</v>
+        <v>10.040000000000001</v>
       </c>
       <c r="X46" s="19">
         <f>V46-Y45</f>
@@ -6771,11 +6773,11 @@
       </c>
       <c r="Y46" s="23">
         <f>ROUND(W46, 3)</f>
-        <v>4.79</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="Z46" s="23">
         <f>ROUND(V46,3)</f>
-        <v>4.79</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="AA46" s="27"/>
       <c r="AB46" s="2"/>
@@ -6867,7 +6869,7 @@
       <c r="U47" s="24"/>
       <c r="V47" s="28">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT1H")</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W47" s="39" t="s">
         <v>47</v>
@@ -6875,11 +6877,11 @@
       <c r="X47" s="40"/>
       <c r="Y47" s="28">
         <f>SUM(Y49:Y52)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z47" s="21">
         <f>SUM(Z49:Z52)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA47" s="27"/>
       <c r="AB47" s="2"/>
@@ -6982,7 +6984,7 @@
       </c>
       <c r="V48" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT1H")/4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W48" s="7" t="s">
         <v>43</v>
@@ -7097,20 +7099,20 @@
       </c>
       <c r="V49" s="19">
         <f>V$48</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W49" s="19">
         <f>V49</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X49" s="19"/>
       <c r="Y49" s="23">
         <f>ROUND(W49, 3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z49" s="23">
         <f>ROUND(V49,3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA49" s="27"/>
       <c r="AB49" s="2"/>
@@ -7213,11 +7215,11 @@
       </c>
       <c r="V50" s="19">
         <f>V$48</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W50" s="19">
         <f>X50+W49</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X50" s="19">
         <f>V50-Y49</f>
@@ -7225,11 +7227,11 @@
       </c>
       <c r="Y50" s="23">
         <f>ROUND(W50, 3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z50" s="23">
         <f>ROUND(V50,3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA50" s="24"/>
       <c r="AB50" s="2"/>
@@ -7332,11 +7334,11 @@
       </c>
       <c r="V51" s="19">
         <f>V$48</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W51" s="19">
         <f>X51+W50</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X51" s="19">
         <f>V51-Y50</f>
@@ -7344,11 +7346,11 @@
       </c>
       <c r="Y51" s="23">
         <f>ROUND(W51, 3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z51" s="23">
         <f>ROUND(V51,3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA51" s="24"/>
       <c r="AB51" s="2"/>
@@ -7435,11 +7437,11 @@
       </c>
       <c r="V52" s="19">
         <f>V$48</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W52" s="19">
         <f>X52+W51</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X52" s="19">
         <f>V52-Y51</f>
@@ -7447,11 +7449,11 @@
       </c>
       <c r="Y52" s="23">
         <f>ROUND(W52, 3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z52" s="23">
         <f>ROUND(V52,3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA52" s="24"/>
       <c r="AB52" s="2"/>
@@ -7645,11 +7647,11 @@
       </c>
       <c r="H54" s="32">
         <f>totalFlex1H_quarter1+totalFlex15M_quarter1</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I54" s="27" t="str">
         <f>SUBSTITUTE(ROUND(H54,3),",",".")</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="46"/>
       <c r="R54" s="46"/>
@@ -7760,11 +7762,11 @@
       </c>
       <c r="H55" s="32">
         <f>totalFlex1H_quarter2+totalFlex15M_quarter2</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I55" s="27" t="str">
         <f t="shared" ref="I55:I57" si="16">SUBSTITUTE(ROUND(H55,3),",",".")</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R55" s="44"/>
       <c r="S55" s="24"/>
@@ -7875,11 +7877,11 @@
       </c>
       <c r="H56" s="32">
         <f>totalFlex1H_quarter3+totalFlex15M_quarter3</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I56" s="27" t="str">
         <f t="shared" si="16"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R56" s="24"/>
       <c r="S56" s="24"/>
@@ -7993,11 +7995,11 @@
       </c>
       <c r="H57" s="32">
         <f>totalFlex1H_quarter4+totalFlex15M_quarter4</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I57" s="27" t="str">
         <f t="shared" si="16"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R57" s="24"/>
       <c r="S57" s="24"/>
@@ -8318,11 +8320,11 @@
       </c>
       <c r="H60" s="32">
         <f>totalProduction1H_quarter1+totalProduction15M_quarter1</f>
-        <v>4.79</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="I60" s="27" t="str">
         <f>SUBSTITUTE(ROUND(H60,3),",",".")</f>
-        <v>4.79</v>
+        <v>10.04</v>
       </c>
       <c r="R60" s="44"/>
       <c r="S60" s="24"/>
@@ -8430,11 +8432,11 @@
       </c>
       <c r="H61" s="32">
         <f>totalProduction1H_quarter2+totalProduction15M_quarter2</f>
-        <v>4.79</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="I61" s="27" t="str">
         <f t="shared" ref="I61:I63" si="19">SUBSTITUTE(ROUND(H61,3),",",".")</f>
-        <v>4.79</v>
+        <v>10.04</v>
       </c>
       <c r="R61" s="24"/>
       <c r="S61" s="24"/>
@@ -8543,11 +8545,11 @@
       </c>
       <c r="H62" s="32">
         <f>totalProduction1H_quarter3+totalProduction15M_quarter3</f>
-        <v>4.7889999999999997</v>
+        <v>10.039</v>
       </c>
       <c r="I62" s="27" t="str">
         <f t="shared" si="19"/>
-        <v>4.789</v>
+        <v>10.039</v>
       </c>
       <c r="R62" s="24"/>
       <c r="S62" s="24"/>
@@ -8659,11 +8661,11 @@
       </c>
       <c r="H63" s="32">
         <f>totalProduction1H_quarter4+totalProduction15M_quarter4</f>
-        <v>4.79</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="I63" s="27" t="str">
         <f t="shared" si="19"/>
-        <v>4.79</v>
+        <v>10.04</v>
       </c>
       <c r="R63" s="24"/>
       <c r="S63" s="24"/>
@@ -8882,7 +8884,7 @@
       <c r="U65" s="24"/>
       <c r="V65" s="28">
         <f>ROUND(SUMIFS(TableDay1[TotalHour],TableDay1[type],"E17",TableDay1[resolution],"PT1H"),3)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="W65" s="56" t="s">
         <v>47</v>
@@ -8890,11 +8892,11 @@
       <c r="X65" s="57"/>
       <c r="Y65" s="28">
         <f>ROUND(SUM(Y67:Y70),3)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Z65" s="21">
         <f>SUM(Z67:Z70)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA65" s="27"/>
       <c r="AB65" s="2"/>
@@ -8980,11 +8982,11 @@
       </c>
       <c r="H66" s="32">
         <f ca="1">totalProduction1H_quarter1+totalProduction15M_quarter1+netEx_quarter1-totalFlex1H_quarter1-totalFlex15M_quarter1-totalNonprofiled1H_quarter1-totalNonprofiled15M_quarter1</f>
-        <v>-1.9710000000000001</v>
+        <v>3.3789999999999996</v>
       </c>
       <c r="I66" s="27" t="str">
         <f ca="1">SUBSTITUTE(ROUND(H66,3),",",".")</f>
-        <v>-1.971</v>
+        <v>3.379</v>
       </c>
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
@@ -8994,7 +8996,7 @@
       </c>
       <c r="V66" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E17",TableDay1[resolution],"PT1H")/4</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="W66" s="7" t="s">
         <v>43</v>
@@ -9092,11 +9094,11 @@
       </c>
       <c r="H67" s="32">
         <f ca="1">totalProduction1H_quarter2+totalProduction15M_quarter2+netEx_quarter2-totalFlex1H_quarter2-totalFlex15M_quarter2-totalNonprofiled1H_quarter2-totalNonprofiled15M_quarter2</f>
-        <v>-4.8689999999999998</v>
+        <v>3.379999999999999</v>
       </c>
       <c r="I67" s="27" t="str">
         <f t="shared" ref="I67:I69" ca="1" si="22">SUBSTITUTE(ROUND(H67,3),",",".")</f>
-        <v>-4.869</v>
+        <v>3.38</v>
       </c>
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
@@ -9106,20 +9108,20 @@
       </c>
       <c r="V67" s="19">
         <f>V$66</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="W67" s="19">
         <f>V67</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="X67" s="19"/>
       <c r="Y67" s="23">
         <f>ROUND(W67, 3)</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Z67" s="23">
         <f>ROUND(V67,3)</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AA67" s="27"/>
       <c r="AB67" s="2"/>
@@ -9205,11 +9207,11 @@
       </c>
       <c r="H68" s="32">
         <f ca="1">totalProduction1H_quarter3+totalProduction15M_quarter3+netEx_quarter3-totalFlex1H_quarter3-totalFlex15M_quarter3-totalNonprofiled1H_quarter3-totalNonprofiled15M_quarter3</f>
-        <v>3.028</v>
+        <v>3.3780000000000001</v>
       </c>
       <c r="I68" s="27" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>3.028</v>
+        <v>3.378</v>
       </c>
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
@@ -9219,11 +9221,11 @@
       </c>
       <c r="V68" s="19">
         <f>V$66</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="W68" s="19">
         <f>X68+W67</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="X68" s="19">
         <f>V68-Y67</f>
@@ -9231,11 +9233,11 @@
       </c>
       <c r="Y68" s="23">
         <f>ROUND(W68, 3)</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Z68" s="23">
         <f>ROUND(V68,3)</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AA68" s="27"/>
       <c r="AB68" s="2"/>
@@ -9321,11 +9323,11 @@
       </c>
       <c r="H69" s="32">
         <f ca="1">totalProduction1H_quarter4+totalProduction15M_quarter4+netEx_quarter4-totalFlex1H_quarter4-totalFlex15M_quarter4-totalNonprofiled1H_quarter4-totalNonprofiled15M_quarter4</f>
-        <v>3.0289999999999995</v>
+        <v>-4.1210000000000004</v>
       </c>
       <c r="I69" s="27" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>3.029</v>
+        <v>-4.121</v>
       </c>
       <c r="J69" s="2"/>
       <c r="R69" s="24"/>
@@ -9336,11 +9338,11 @@
       </c>
       <c r="V69" s="19">
         <f>V$66</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="W69" s="19">
         <f>X69+W68</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="X69" s="19">
         <f>V69-Y68</f>
@@ -9348,11 +9350,11 @@
       </c>
       <c r="Y69" s="23">
         <f>ROUND(W69, 3)</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Z69" s="23">
         <f>ROUND(V69,3)</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AA69" s="27"/>
       <c r="AB69" s="2"/>
@@ -9437,11 +9439,11 @@
       </c>
       <c r="V70" s="19">
         <f>V$66</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="W70" s="19">
         <f>X70+W69</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="X70" s="19">
         <f>V70-Y69</f>
@@ -9449,11 +9451,11 @@
       </c>
       <c r="Y70" s="23">
         <f>ROUND(W70, 3)</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Z70" s="23">
         <f>ROUND(V70,3)</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AA70" s="27"/>
       <c r="AB70" s="2"/>
@@ -9632,11 +9634,11 @@
       </c>
       <c r="H72" s="32">
         <f ca="1">IF(gridLoss1H_quarter4&gt;0,gridLoss1H_quarter4,0)</f>
-        <v>3.0289999999999995</v>
+        <v>0</v>
       </c>
       <c r="I72" s="27" t="str">
         <f ca="1">SUBSTITUTE(ROUND(H72,3),",",".")</f>
-        <v>3.029</v>
+        <v>0</v>
       </c>
       <c r="R72" s="24"/>
       <c r="S72" s="27"/>
@@ -9731,11 +9733,11 @@
       </c>
       <c r="H73" s="32">
         <f ca="1">IF(gridLoss1H_quarter3&gt;0,gridLoss1H_quarter3,0)</f>
-        <v>3.028</v>
+        <v>3.3780000000000001</v>
       </c>
       <c r="I73" s="27" t="str">
         <f t="shared" ref="I73:I75" ca="1" si="24">SUBSTITUTE(ROUND(H73,3),",",".")</f>
-        <v>3.028</v>
+        <v>3.378</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -9823,11 +9825,11 @@
       </c>
       <c r="H74" s="32">
         <f ca="1">IF(gridLoss1H_quarter2&gt;0,gridLoss1H_quarter2,0)</f>
-        <v>0</v>
+        <v>3.379999999999999</v>
       </c>
       <c r="I74" s="27" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9926,11 +9928,11 @@
       </c>
       <c r="H75" s="32">
         <f ca="1">IF(gridLoss1H_quarter1&gt;0,gridLoss1H_quarter1,0)</f>
-        <v>0</v>
+        <v>3.3789999999999996</v>
       </c>
       <c r="I75" s="27" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>3.379</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -10222,11 +10224,11 @@
       </c>
       <c r="H78" s="32">
         <f ca="1">IF(gridLoss1H_quarter4&lt;0,gridLoss1H_quarter4*-1,0)</f>
-        <v>0</v>
+        <v>4.1210000000000004</v>
       </c>
       <c r="I78" s="27" t="str">
         <f ca="1">SUBSTITUTE(ROUND(H78,3),",",".")</f>
-        <v>0</v>
+        <v>4.121</v>
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -10436,11 +10438,11 @@
       </c>
       <c r="H80" s="32">
         <f ca="1">IF(gridLoss1H_quarter2&lt;0,gridLoss1H_quarter2*-1,0)</f>
-        <v>4.8689999999999998</v>
+        <v>0</v>
       </c>
       <c r="I80" s="27" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>4.869</v>
+        <v>0</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -10543,11 +10545,11 @@
       </c>
       <c r="H81" s="32">
         <f ca="1">IF(gridLoss1H_quarter1&lt;0,(gridLoss1H_quarter1)*-1,0)</f>
-        <v>1.9710000000000001</v>
+        <v>0</v>
       </c>
       <c r="I81" s="27" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>1.971</v>
+        <v>0</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -10845,11 +10847,11 @@
       </c>
       <c r="H84" s="32">
         <f ca="1">netEx_quarter1+totalProduction1H_quarter1+totalProduction15M_quarter1+negGridLossQuarter1</f>
-        <v>7.6</v>
+        <v>10.879</v>
       </c>
       <c r="I84" s="27" t="str">
         <f ca="1">SUBSTITUTE(ROUND(H84,3),",",".")</f>
-        <v>7.6</v>
+        <v>10.879</v>
       </c>
       <c r="J84" s="2"/>
       <c r="U84" s="2"/>
@@ -10944,11 +10946,11 @@
       </c>
       <c r="H85" s="32">
         <f ca="1">netEx_quarter2+totalProduction1H_quarter2+totalProduction15M_quarter2+negGridLossQuarter2</f>
-        <v>10.498999999999999</v>
+        <v>10.879999999999999</v>
       </c>
       <c r="I85" s="27" t="str">
         <f t="shared" ref="I85:I87" ca="1" si="28">SUBSTITUTE(ROUND(H85,3),",",".")</f>
-        <v>10.499</v>
+        <v>10.88</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -11051,11 +11053,11 @@
       </c>
       <c r="H86" s="32">
         <f ca="1">netEx_quarter3+totalProduction1H_quarter3+totalProduction15M_quarter3+negGridLossQuarter3</f>
-        <v>5.6280000000000001</v>
+        <v>10.878</v>
       </c>
       <c r="I86" s="27" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>5.628</v>
+        <v>10.878</v>
       </c>
       <c r="J86" s="2"/>
       <c r="R86" s="37"/>
@@ -11162,11 +11164,11 @@
       </c>
       <c r="H87" s="32">
         <f ca="1">netEx_quarter4+totalProduction1H_quarter4+totalProduction15M_quarter4+negGridLossQuarter4</f>
-        <v>5.6289999999999996</v>
+        <v>15</v>
       </c>
       <c r="I87" s="27" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>5.629</v>
+        <v>15</v>
       </c>
       <c r="J87" s="2"/>
       <c r="R87" s="2"/>
@@ -40771,12 +40773,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40956,17 +40957,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -40990,17 +41000,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - wholesale minimal standard scenario.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - wholesale minimal standard scenario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_a_wholesale_calculation\when_minimal_standard_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67424FB1-8130-418C-8535-430A40AA82AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F920BD-77B9-49AF-92C1-63480DEC09AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour1" sheetId="11" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1423,47 +1423,47 @@
   <dimension ref="A1:CN400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H78" sqref="H78:H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="24.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1796875" style="1" customWidth="1"/>
-    <col min="16" max="17" width="11.7265625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="1.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="8.7265625" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.7265625" style="1"/>
+    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="8.7109375" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:92" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="AJ1" s="47"/>
       <c r="AK1" s="47"/>
     </row>
-    <row r="2" spans="1:92" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:92" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
         <v>112</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="AP3" s="24"/>
       <c r="AQ3" s="24"/>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
         <v>113</v>
       </c>
@@ -1818,7 +1818,7 @@
       <c r="AP4" s="24"/>
       <c r="AQ4" s="24"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -1886,7 +1886,7 @@
       <c r="AP5" s="24"/>
       <c r="AQ5" s="24"/>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
         <v>114</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="AP6" s="24"/>
       <c r="AQ6" s="24"/>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>120</v>
       </c>
@@ -2022,7 +2022,7 @@
       <c r="AP7" s="24"/>
       <c r="AQ7" s="24"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
         <v>115</v>
       </c>
@@ -2085,7 +2085,7 @@
       <c r="AP8" s="24"/>
       <c r="AQ8" s="24"/>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
@@ -2148,7 +2148,7 @@
       <c r="AP9" s="24"/>
       <c r="AQ9" s="24"/>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
         <v>105</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="AP10" s="24"/>
       <c r="AQ10" s="24"/>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>116</v>
       </c>
@@ -2315,7 +2315,7 @@
       <c r="AP11" s="24"/>
       <c r="AQ11" s="24"/>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
@@ -2391,7 +2391,7 @@
       <c r="AP12" s="24"/>
       <c r="AQ12" s="24"/>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
@@ -2469,7 +2469,7 @@
       <c r="AP13" s="24"/>
       <c r="AQ13" s="24"/>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
@@ -2588,7 +2588,7 @@
       <c r="CM14" s="2"/>
       <c r="CN14" s="2"/>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C15" s="13"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
@@ -2710,7 +2710,7 @@
       <c r="CM15" s="2"/>
       <c r="CN15" s="2"/>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C16" s="13"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
@@ -2832,7 +2832,7 @@
       <c r="CM16" s="2"/>
       <c r="CN16" s="2"/>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
@@ -2950,7 +2950,7 @@
       <c r="CM17" s="2"/>
       <c r="CN17" s="2"/>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
@@ -3065,7 +3065,7 @@
       <c r="CM18" s="2"/>
       <c r="CN18" s="2"/>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
@@ -3183,7 +3183,7 @@
       <c r="CM19" s="2"/>
       <c r="CN19" s="2"/>
     </row>
-    <row r="20" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E20" s="48" t="str">
         <f>CONCATENATE(B2,"_per_",B1)</f>
         <v>production_per_ga_brp_es</v>
@@ -3295,7 +3295,7 @@
       <c r="CM20" s="2"/>
       <c r="CN20" s="2"/>
     </row>
-    <row r="21" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3431,7 +3431,7 @@
       <c r="CM21" s="2"/>
       <c r="CN21" s="2"/>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="16" t="str">
         <f>IF(AND(F22&lt;&gt;"null",F22&lt;&gt;""),IF(F22=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G22&lt;&gt;"null",G22&lt;&gt;""),IF(G22=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E22=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
@@ -3574,7 +3574,7 @@
       <c r="CM22" s="2"/>
       <c r="CN22" s="2"/>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="str">
         <f>IF(AND(F23&lt;&gt;"null",F23&lt;&gt;""),IF(F23=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G23&lt;&gt;"null",G23&lt;&gt;""),IF(G23=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E23=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -3719,7 +3719,7 @@
       <c r="CM23" s="2"/>
       <c r="CN23" s="2"/>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="str">
         <f>IF(AND(F24&lt;&gt;"null",F24&lt;&gt;""),IF(F24=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G24&lt;&gt;"null",G24&lt;&gt;""),IF(G24=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E24=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -3867,7 +3867,7 @@
       <c r="CM24" s="2"/>
       <c r="CN24" s="2"/>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="str">
         <f>IF(AND(F25&lt;&gt;"null",F25&lt;&gt;""),IF(F25=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G25&lt;&gt;"null",G25&lt;&gt;""),IF(G25=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E25=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4015,7 +4015,7 @@
       <c r="CM25" s="2"/>
       <c r="CN25" s="2"/>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="str">
         <f>IF(AND(F26&lt;&gt;"null",F26&lt;&gt;""),IF(F26=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G26&lt;&gt;"null",G26&lt;&gt;""),IF(G26=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E26=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4157,7 +4157,7 @@
       <c r="CM26" s="2"/>
       <c r="CN26" s="2"/>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="str">
         <f>IF(AND(F27&lt;&gt;"null",F27&lt;&gt;""),IF(F27=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G27&lt;&gt;"null",G27&lt;&gt;""),IF(G27=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E27=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4308,7 +4308,7 @@
       <c r="CM27" s="2"/>
       <c r="CN27" s="2"/>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="str">
         <f>IF(AND(F28&lt;&gt;"null",F28&lt;&gt;""),IF(F28=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G28&lt;&gt;"null",G28&lt;&gt;""),IF(G28=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E28=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4459,7 +4459,7 @@
       <c r="CM28" s="2"/>
       <c r="CN28" s="2"/>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="str">
         <f>IF(AND(F29&lt;&gt;"null",F29&lt;&gt;""),IF(F29=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G29&lt;&gt;"null",G29&lt;&gt;""),IF(G29=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E29=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4605,7 +4605,7 @@
       <c r="CM29" s="2"/>
       <c r="CN29" s="2"/>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="str">
         <f>IF(AND(F30&lt;&gt;"null",F30&lt;&gt;""),IF(F30=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G30&lt;&gt;"null",G30&lt;&gt;""),IF(G30=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E30=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4748,7 +4748,7 @@
       <c r="CM30" s="2"/>
       <c r="CN30" s="2"/>
     </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="str">
         <f>IF(AND(F31&lt;&gt;"null",F31&lt;&gt;""),IF(F31=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G31&lt;&gt;"null",G31&lt;&gt;""),IF(G31=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E31=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4894,7 +4894,7 @@
       <c r="CM31" s="2"/>
       <c r="CN31" s="2"/>
     </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="str">
         <f>IF(AND(F32&lt;&gt;"null",F32&lt;&gt;""),IF(F32=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G32&lt;&gt;"null",G32&lt;&gt;""),IF(G32=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E32=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5040,7 +5040,7 @@
       <c r="CM32" s="2"/>
       <c r="CN32" s="2"/>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="str">
         <f>IF(AND(F33&lt;&gt;"null",F33&lt;&gt;""),IF(F33=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G33&lt;&gt;"null",G33&lt;&gt;""),IF(G33=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E33=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5180,7 +5180,7 @@
       <c r="CM33" s="2"/>
       <c r="CN33" s="2"/>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="str">
         <f>IF(AND(F34&lt;&gt;"null",F34&lt;&gt;""),IF(F34=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G34&lt;&gt;"null",G34&lt;&gt;""),IF(G34=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E34=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5297,7 +5297,7 @@
       <c r="CM34" s="2"/>
       <c r="CN34" s="2"/>
     </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="str">
         <f>IF(AND(F35&lt;&gt;"null",F35&lt;&gt;""),IF(F35=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G35&lt;&gt;"null",G35&lt;&gt;""),IF(G35=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E35=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5425,7 +5425,7 @@
       <c r="CM35" s="2"/>
       <c r="CN35" s="2"/>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="str">
         <f>IF(AND(F36&lt;&gt;"null",F36&lt;&gt;""),IF(F36=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G36&lt;&gt;"null",G36&lt;&gt;""),IF(G36=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E36=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5555,7 +5555,7 @@
       <c r="CM36" s="2"/>
       <c r="CN36" s="2"/>
     </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="str">
         <f>IF(AND(F37&lt;&gt;"null",F37&lt;&gt;""),IF(F37=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G37&lt;&gt;"null",G37&lt;&gt;""),IF(G37=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E37=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5686,7 +5686,7 @@
       <c r="CM37" s="2"/>
       <c r="CN37" s="2"/>
     </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="str">
         <f>IF(AND(F38&lt;&gt;"null",F38&lt;&gt;""),IF(F38=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G38&lt;&gt;"null",G38&lt;&gt;""),IF(G38=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E38=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5820,7 +5820,7 @@
       <c r="CM38" s="2"/>
       <c r="CN38" s="2"/>
     </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="str">
         <f>IF(AND(F39&lt;&gt;"null",F39&lt;&gt;""),IF(F39=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G39&lt;&gt;"null",G39&lt;&gt;""),IF(G39=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E39=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5954,7 +5954,7 @@
       <c r="CM39" s="2"/>
       <c r="CN39" s="2"/>
     </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="str">
         <f>IF(AND(F40&lt;&gt;"null",F40&lt;&gt;""),IF(F40=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G40&lt;&gt;"null",G40&lt;&gt;""),IF(G40=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E40=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6088,7 +6088,7 @@
       <c r="CM40" s="2"/>
       <c r="CN40" s="2"/>
     </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="str">
         <f>IF(AND(F41&lt;&gt;"null",F41&lt;&gt;""),IF(F41=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G41&lt;&gt;"null",G41&lt;&gt;""),IF(G41=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E41=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6216,7 +6216,7 @@
       <c r="CM41" s="2"/>
       <c r="CN41" s="2"/>
     </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="str">
         <f>IF(AND(F42&lt;&gt;"null",F42&lt;&gt;""),IF(F42=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G42&lt;&gt;"null",G42&lt;&gt;""),IF(G42=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E42=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6346,7 +6346,7 @@
       <c r="CM42" s="2"/>
       <c r="CN42" s="2"/>
     </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="str">
         <f>IF(AND(F43&lt;&gt;"null",F43&lt;&gt;""),IF(F43=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G43&lt;&gt;"null",G43&lt;&gt;""),IF(G43=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E43=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6477,7 +6477,7 @@
       <c r="CM43" s="2"/>
       <c r="CN43" s="2"/>
     </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="str">
         <f>IF(AND(F44&lt;&gt;"null",F44&lt;&gt;""),IF(F44=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G44&lt;&gt;"null",G44&lt;&gt;""),IF(G44=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E44=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6611,7 +6611,7 @@
       <c r="CM44" s="2"/>
       <c r="CN44" s="2"/>
     </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="str">
         <f>IF(AND(F45&lt;&gt;"null",F45&lt;&gt;""),IF(F45=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G45&lt;&gt;"null",G45&lt;&gt;""),IF(G45=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E45=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6745,7 +6745,7 @@
       <c r="CM45" s="2"/>
       <c r="CN45" s="2"/>
     </row>
-    <row r="46" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C46" s="2"/>
       <c r="E46" s="48" t="s">
         <v>33</v>
@@ -6846,7 +6846,7 @@
       <c r="CM46" s="2"/>
       <c r="CN46" s="2"/>
     </row>
-    <row r="47" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
       <c r="D47" s="4" t="s">
         <v>20</v>
@@ -6950,7 +6950,7 @@
       <c r="CM47" s="2"/>
       <c r="CN47" s="2"/>
     </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -7065,7 +7065,7 @@
       <c r="CM48" s="2"/>
       <c r="CN48" s="2"/>
     </row>
-    <row r="49" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -7181,7 +7181,7 @@
       <c r="CM49" s="2"/>
       <c r="CN49" s="2"/>
     </row>
-    <row r="50" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -7300,7 +7300,7 @@
       <c r="CM50" s="2"/>
       <c r="CN50" s="2"/>
     </row>
-    <row r="51" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -7419,7 +7419,7 @@
       <c r="CM51" s="2"/>
       <c r="CN51" s="2"/>
     </row>
-    <row r="52" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -7522,7 +7522,7 @@
       <c r="CM52" s="2"/>
       <c r="CN52" s="2"/>
     </row>
-    <row r="53" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -7628,7 +7628,7 @@
       <c r="CM53" s="2"/>
       <c r="CN53" s="2"/>
     </row>
-    <row r="54" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -7743,7 +7743,7 @@
       <c r="CM54" s="2"/>
       <c r="CN54" s="2"/>
     </row>
-    <row r="55" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -7858,7 +7858,7 @@
       <c r="CM55" s="2"/>
       <c r="CN55" s="2"/>
     </row>
-    <row r="56" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -7976,7 +7976,7 @@
       <c r="CM56" s="2"/>
       <c r="CN56" s="2"/>
     </row>
-    <row r="57" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -8094,7 +8094,7 @@
       <c r="CM57" s="2"/>
       <c r="CN57" s="2"/>
     </row>
-    <row r="58" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -8197,7 +8197,7 @@
       <c r="CM58" s="2"/>
       <c r="CN58" s="2"/>
     </row>
-    <row r="59" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -8303,7 +8303,7 @@
       <c r="CM59" s="2"/>
       <c r="CN59" s="2"/>
     </row>
-    <row r="60" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="D60" s="8" t="s">
         <v>3</v>
@@ -8415,7 +8415,7 @@
       <c r="CM60" s="2"/>
       <c r="CN60" s="2"/>
     </row>
-    <row r="61" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
       <c r="D61" s="8" t="s">
         <v>4</v>
@@ -8528,7 +8528,7 @@
       <c r="CM61" s="2"/>
       <c r="CN61" s="2"/>
     </row>
-    <row r="62" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="8" t="s">
         <v>5</v>
@@ -8644,7 +8644,7 @@
       <c r="CM62" s="2"/>
       <c r="CN62" s="2"/>
     </row>
-    <row r="63" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
       <c r="D63" s="8" t="s">
         <v>6</v>
@@ -8760,7 +8760,7 @@
       <c r="CM63" s="2"/>
       <c r="CN63" s="2"/>
     </row>
-    <row r="64" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C64" s="2"/>
       <c r="E64" s="52" t="s">
         <v>37</v>
@@ -8861,7 +8861,7 @@
       <c r="CM64" s="2"/>
       <c r="CN64" s="2"/>
     </row>
-    <row r="65" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="s">
         <v>20</v>
@@ -8965,7 +8965,7 @@
       <c r="CM65" s="2"/>
       <c r="CN65" s="2"/>
     </row>
-    <row r="66" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="8" t="s">
         <v>3</v>
@@ -9077,7 +9077,7 @@
       <c r="CM66" s="2"/>
       <c r="CN66" s="2"/>
     </row>
-    <row r="67" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="8" t="s">
         <v>4</v>
@@ -9190,7 +9190,7 @@
       <c r="CM67" s="2"/>
       <c r="CN67" s="2"/>
     </row>
-    <row r="68" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="D68" s="8" t="s">
         <v>5</v>
@@ -9306,7 +9306,7 @@
       <c r="CM68" s="2"/>
       <c r="CN68" s="2"/>
     </row>
-    <row r="69" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="8" t="s">
         <v>6</v>
@@ -9423,7 +9423,7 @@
       <c r="CM69" s="2"/>
       <c r="CN69" s="2"/>
     </row>
-    <row r="70" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C70" s="2"/>
       <c r="E70" s="52" t="s">
         <v>39</v>
@@ -9524,7 +9524,7 @@
       <c r="CM70" s="2"/>
       <c r="CN70" s="2"/>
     </row>
-    <row r="71" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C71" s="2"/>
       <c r="D71" s="4" t="s">
         <v>20</v>
@@ -9617,7 +9617,7 @@
       <c r="CM71" s="2"/>
       <c r="CN71" s="2"/>
     </row>
-    <row r="72" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="15" t="s">
         <v>75</v>
@@ -9716,7 +9716,7 @@
       <c r="CM72" s="2"/>
       <c r="CN72" s="2"/>
     </row>
-    <row r="73" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="15" t="s">
         <v>74</v>
@@ -9808,7 +9808,7 @@
       <c r="CM73" s="2"/>
       <c r="CN73" s="2"/>
     </row>
-    <row r="74" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="15" t="s">
         <v>73</v>
@@ -9911,7 +9911,7 @@
       <c r="CM74" s="2"/>
       <c r="CN74" s="2"/>
     </row>
-    <row r="75" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="15" t="s">
         <v>72</v>
@@ -10012,7 +10012,7 @@
       <c r="CM75" s="2"/>
       <c r="CN75" s="2"/>
     </row>
-    <row r="76" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C76" s="2"/>
       <c r="E76" s="52" t="s">
         <v>40</v>
@@ -10105,7 +10105,7 @@
       <c r="CM76" s="2"/>
       <c r="CN76" s="2"/>
     </row>
-    <row r="77" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
       <c r="D77" s="4" t="s">
         <v>20</v>
@@ -10207,7 +10207,7 @@
       <c r="CM77" s="2"/>
       <c r="CN77" s="2"/>
     </row>
-    <row r="78" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="15" t="s">
         <v>75</v>
@@ -10314,7 +10314,7 @@
       <c r="CM78" s="2"/>
       <c r="CN78" s="2"/>
     </row>
-    <row r="79" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="15" t="s">
         <v>74</v>
@@ -10421,7 +10421,7 @@
       <c r="CM79" s="2"/>
       <c r="CN79" s="2"/>
     </row>
-    <row r="80" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="15" t="s">
         <v>73</v>
@@ -10528,7 +10528,7 @@
       <c r="CM80" s="2"/>
       <c r="CN80" s="2"/>
     </row>
-    <row r="81" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="D81" s="15" t="s">
         <v>72</v>
@@ -10635,7 +10635,7 @@
       <c r="CM81" s="2"/>
       <c r="CN81" s="2"/>
     </row>
-    <row r="82" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C82" s="2"/>
       <c r="E82" s="52" t="s">
         <v>77</v>
@@ -10728,7 +10728,7 @@
       <c r="CM82" s="2"/>
       <c r="CN82" s="2"/>
     </row>
-    <row r="83" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C83" s="2"/>
       <c r="D83" s="4" t="s">
         <v>20</v>
@@ -10830,7 +10830,7 @@
       <c r="CM83" s="2"/>
       <c r="CN83" s="2"/>
     </row>
-    <row r="84" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
       <c r="D84" s="15" t="s">
         <v>72</v>
@@ -10929,7 +10929,7 @@
       <c r="CM84" s="2"/>
       <c r="CN84" s="2"/>
     </row>
-    <row r="85" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
       <c r="D85" s="15" t="s">
         <v>73</v>
@@ -11036,7 +11036,7 @@
       <c r="CM85" s="2"/>
       <c r="CN85" s="2"/>
     </row>
-    <row r="86" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="D86" s="15" t="s">
         <v>74</v>
@@ -11147,7 +11147,7 @@
       <c r="CM86" s="2"/>
       <c r="CN86" s="2"/>
     </row>
-    <row r="87" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
       <c r="D87" s="15" t="s">
         <v>75</v>
@@ -11263,7 +11263,7 @@
       <c r="CM87" s="2"/>
       <c r="CN87" s="2"/>
     </row>
-    <row r="88" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C88" s="2"/>
       <c r="E88" s="52" t="s">
         <v>78</v>
@@ -11365,7 +11365,7 @@
       <c r="CM88" s="2"/>
       <c r="CN88" s="2"/>
     </row>
-    <row r="89" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C89" s="2"/>
       <c r="D89" s="4" t="s">
         <v>20</v>
@@ -11478,7 +11478,7 @@
       <c r="CM89" s="2"/>
       <c r="CN89" s="2"/>
     </row>
-    <row r="90" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
       <c r="D90" s="15" t="s">
         <v>72</v>
@@ -11596,7 +11596,7 @@
       <c r="CM90" s="2"/>
       <c r="CN90" s="2"/>
     </row>
-    <row r="91" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
       <c r="D91" s="15" t="s">
         <v>73</v>
@@ -11716,7 +11716,7 @@
       <c r="CM91" s="2"/>
       <c r="CN91" s="2"/>
     </row>
-    <row r="92" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
       <c r="D92" s="15" t="s">
         <v>74</v>
@@ -11835,7 +11835,7 @@
       <c r="CM92" s="2"/>
       <c r="CN92" s="2"/>
     </row>
-    <row r="93" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="D93" s="15" t="s">
         <v>75</v>
@@ -11954,7 +11954,7 @@
       <c r="CM93" s="2"/>
       <c r="CN93" s="2"/>
     </row>
-    <row r="94" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
       <c r="D94" s="15" t="s">
         <v>72</v>
@@ -12070,7 +12070,7 @@
       <c r="CM94" s="2"/>
       <c r="CN94" s="2"/>
     </row>
-    <row r="95" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
       <c r="D95" s="15" t="s">
         <v>73</v>
@@ -12189,7 +12189,7 @@
       <c r="CM95" s="2"/>
       <c r="CN95" s="2"/>
     </row>
-    <row r="96" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
       <c r="D96" s="15" t="s">
         <v>74</v>
@@ -12308,7 +12308,7 @@
       <c r="CM96" s="2"/>
       <c r="CN96" s="2"/>
     </row>
-    <row r="97" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
       <c r="D97" s="15" t="s">
         <v>75</v>
@@ -12427,7 +12427,7 @@
       <c r="CM97" s="2"/>
       <c r="CN97" s="2"/>
     </row>
-    <row r="98" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
       <c r="D98" s="15" t="s">
         <v>72</v>
@@ -12543,7 +12543,7 @@
       <c r="CM98" s="2"/>
       <c r="CN98" s="2"/>
     </row>
-    <row r="99" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
       <c r="D99" s="15" t="s">
         <v>73</v>
@@ -12662,7 +12662,7 @@
       <c r="CM99" s="2"/>
       <c r="CN99" s="2"/>
     </row>
-    <row r="100" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
       <c r="D100" s="15" t="s">
         <v>74</v>
@@ -12781,7 +12781,7 @@
       <c r="CM100" s="2"/>
       <c r="CN100" s="2"/>
     </row>
-    <row r="101" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="D101" s="15" t="s">
         <v>75</v>
@@ -12900,7 +12900,7 @@
       <c r="CM101" s="2"/>
       <c r="CN101" s="2"/>
     </row>
-    <row r="102" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="15" t="s">
         <v>72</v>
@@ -13016,7 +13016,7 @@
       <c r="CM102" s="2"/>
       <c r="CN102" s="2"/>
     </row>
-    <row r="103" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="15" t="s">
         <v>73</v>
@@ -13135,7 +13135,7 @@
       <c r="CM103" s="2"/>
       <c r="CN103" s="2"/>
     </row>
-    <row r="104" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="D104" s="15" t="s">
         <v>74</v>
@@ -13254,7 +13254,7 @@
       <c r="CM104" s="2"/>
       <c r="CN104" s="2"/>
     </row>
-    <row r="105" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="15" t="s">
         <v>75</v>
@@ -13373,7 +13373,7 @@
       <c r="CM105" s="2"/>
       <c r="CN105" s="2"/>
     </row>
-    <row r="106" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="15" t="s">
         <v>72</v>
@@ -13489,7 +13489,7 @@
       <c r="CM106" s="2"/>
       <c r="CN106" s="2"/>
     </row>
-    <row r="107" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="15" t="s">
         <v>73</v>
@@ -13608,7 +13608,7 @@
       <c r="CM107" s="2"/>
       <c r="CN107" s="2"/>
     </row>
-    <row r="108" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="15" t="s">
         <v>74</v>
@@ -13727,7 +13727,7 @@
       <c r="CM108" s="2"/>
       <c r="CN108" s="2"/>
     </row>
-    <row r="109" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="15" t="s">
         <v>75</v>
@@ -13846,7 +13846,7 @@
       <c r="CM109" s="2"/>
       <c r="CN109" s="2"/>
     </row>
-    <row r="110" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="15" t="s">
         <v>72</v>
@@ -13958,7 +13958,7 @@
       <c r="CM110" s="2"/>
       <c r="CN110" s="2"/>
     </row>
-    <row r="111" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="D111" s="15" t="s">
         <v>73</v>
@@ -14070,7 +14070,7 @@
       <c r="CM111" s="2"/>
       <c r="CN111" s="2"/>
     </row>
-    <row r="112" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
       <c r="D112" s="15" t="s">
         <v>74</v>
@@ -14182,7 +14182,7 @@
       <c r="CM112" s="2"/>
       <c r="CN112" s="2"/>
     </row>
-    <row r="113" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
       <c r="D113" s="15" t="s">
         <v>75</v>
@@ -14294,7 +14294,7 @@
       <c r="CM113" s="2"/>
       <c r="CN113" s="2"/>
     </row>
-    <row r="114" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -14384,7 +14384,7 @@
       <c r="CM114" s="2"/>
       <c r="CN114" s="2"/>
     </row>
-    <row r="115" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -14474,7 +14474,7 @@
       <c r="CM115" s="2"/>
       <c r="CN115" s="2"/>
     </row>
-    <row r="116" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -14564,7 +14564,7 @@
       <c r="CM116" s="2"/>
       <c r="CN116" s="2"/>
     </row>
-    <row r="117" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -14654,7 +14654,7 @@
       <c r="CM117" s="2"/>
       <c r="CN117" s="2"/>
     </row>
-    <row r="118" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -14746,7 +14746,7 @@
       <c r="CM118" s="2"/>
       <c r="CN118" s="2"/>
     </row>
-    <row r="119" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -14838,7 +14838,7 @@
       <c r="CM119" s="2"/>
       <c r="CN119" s="2"/>
     </row>
-    <row r="120" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -14930,7 +14930,7 @@
       <c r="CM120" s="2"/>
       <c r="CN120" s="2"/>
     </row>
-    <row r="121" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -15022,7 +15022,7 @@
       <c r="CM121" s="2"/>
       <c r="CN121" s="2"/>
     </row>
-    <row r="122" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -15114,7 +15114,7 @@
       <c r="CM122" s="2"/>
       <c r="CN122" s="2"/>
     </row>
-    <row r="123" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -15206,7 +15206,7 @@
       <c r="CM123" s="2"/>
       <c r="CN123" s="2"/>
     </row>
-    <row r="124" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -15298,7 +15298,7 @@
       <c r="CM124" s="2"/>
       <c r="CN124" s="2"/>
     </row>
-    <row r="125" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -15390,7 +15390,7 @@
       <c r="CM125" s="2"/>
       <c r="CN125" s="2"/>
     </row>
-    <row r="126" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -15482,7 +15482,7 @@
       <c r="CM126" s="2"/>
       <c r="CN126" s="2"/>
     </row>
-    <row r="127" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -15574,7 +15574,7 @@
       <c r="CM127" s="2"/>
       <c r="CN127" s="2"/>
     </row>
-    <row r="128" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -15666,7 +15666,7 @@
       <c r="CM128" s="2"/>
       <c r="CN128" s="2"/>
     </row>
-    <row r="129" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -15758,7 +15758,7 @@
       <c r="CM129" s="2"/>
       <c r="CN129" s="2"/>
     </row>
-    <row r="130" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -15850,7 +15850,7 @@
       <c r="CM130" s="2"/>
       <c r="CN130" s="2"/>
     </row>
-    <row r="131" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -15942,7 +15942,7 @@
       <c r="CM131" s="2"/>
       <c r="CN131" s="2"/>
     </row>
-    <row r="132" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -16034,7 +16034,7 @@
       <c r="CM132" s="2"/>
       <c r="CN132" s="2"/>
     </row>
-    <row r="133" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -16126,7 +16126,7 @@
       <c r="CM133" s="2"/>
       <c r="CN133" s="2"/>
     </row>
-    <row r="134" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -16218,7 +16218,7 @@
       <c r="CM134" s="2"/>
       <c r="CN134" s="2"/>
     </row>
-    <row r="135" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -16310,7 +16310,7 @@
       <c r="CM135" s="2"/>
       <c r="CN135" s="2"/>
     </row>
-    <row r="136" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -16402,7 +16402,7 @@
       <c r="CM136" s="2"/>
       <c r="CN136" s="2"/>
     </row>
-    <row r="137" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -16494,7 +16494,7 @@
       <c r="CM137" s="2"/>
       <c r="CN137" s="2"/>
     </row>
-    <row r="138" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -16586,7 +16586,7 @@
       <c r="CM138" s="2"/>
       <c r="CN138" s="2"/>
     </row>
-    <row r="139" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -16678,7 +16678,7 @@
       <c r="CM139" s="2"/>
       <c r="CN139" s="2"/>
     </row>
-    <row r="140" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -16770,7 +16770,7 @@
       <c r="CM140" s="2"/>
       <c r="CN140" s="2"/>
     </row>
-    <row r="141" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -16862,7 +16862,7 @@
       <c r="CM141" s="2"/>
       <c r="CN141" s="2"/>
     </row>
-    <row r="142" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -16954,7 +16954,7 @@
       <c r="CM142" s="2"/>
       <c r="CN142" s="2"/>
     </row>
-    <row r="143" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -17046,7 +17046,7 @@
       <c r="CM143" s="2"/>
       <c r="CN143" s="2"/>
     </row>
-    <row r="144" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -17138,7 +17138,7 @@
       <c r="CM144" s="2"/>
       <c r="CN144" s="2"/>
     </row>
-    <row r="145" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -17230,7 +17230,7 @@
       <c r="CM145" s="2"/>
       <c r="CN145" s="2"/>
     </row>
-    <row r="146" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -17322,7 +17322,7 @@
       <c r="CM146" s="2"/>
       <c r="CN146" s="2"/>
     </row>
-    <row r="147" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -17414,7 +17414,7 @@
       <c r="CM147" s="2"/>
       <c r="CN147" s="2"/>
     </row>
-    <row r="148" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -17506,7 +17506,7 @@
       <c r="CM148" s="2"/>
       <c r="CN148" s="2"/>
     </row>
-    <row r="149" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -17598,7 +17598,7 @@
       <c r="CM149" s="2"/>
       <c r="CN149" s="2"/>
     </row>
-    <row r="150" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -17690,7 +17690,7 @@
       <c r="CM150" s="2"/>
       <c r="CN150" s="2"/>
     </row>
-    <row r="151" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -17782,7 +17782,7 @@
       <c r="CM151" s="2"/>
       <c r="CN151" s="2"/>
     </row>
-    <row r="152" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -17874,7 +17874,7 @@
       <c r="CM152" s="2"/>
       <c r="CN152" s="2"/>
     </row>
-    <row r="153" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -17966,7 +17966,7 @@
       <c r="CM153" s="2"/>
       <c r="CN153" s="2"/>
     </row>
-    <row r="154" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -18058,7 +18058,7 @@
       <c r="CM154" s="2"/>
       <c r="CN154" s="2"/>
     </row>
-    <row r="155" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -18150,7 +18150,7 @@
       <c r="CM155" s="2"/>
       <c r="CN155" s="2"/>
     </row>
-    <row r="156" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -18242,7 +18242,7 @@
       <c r="CM156" s="2"/>
       <c r="CN156" s="2"/>
     </row>
-    <row r="157" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -18334,7 +18334,7 @@
       <c r="CM157" s="2"/>
       <c r="CN157" s="2"/>
     </row>
-    <row r="158" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -18426,7 +18426,7 @@
       <c r="CM158" s="2"/>
       <c r="CN158" s="2"/>
     </row>
-    <row r="159" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -18518,7 +18518,7 @@
       <c r="CM159" s="2"/>
       <c r="CN159" s="2"/>
     </row>
-    <row r="160" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -18610,7 +18610,7 @@
       <c r="CM160" s="2"/>
       <c r="CN160" s="2"/>
     </row>
-    <row r="161" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -18702,7 +18702,7 @@
       <c r="CM161" s="2"/>
       <c r="CN161" s="2"/>
     </row>
-    <row r="162" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -18794,7 +18794,7 @@
       <c r="CM162" s="2"/>
       <c r="CN162" s="2"/>
     </row>
-    <row r="163" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -18886,7 +18886,7 @@
       <c r="CM163" s="2"/>
       <c r="CN163" s="2"/>
     </row>
-    <row r="164" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -18978,7 +18978,7 @@
       <c r="CM164" s="2"/>
       <c r="CN164" s="2"/>
     </row>
-    <row r="165" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -19070,7 +19070,7 @@
       <c r="CM165" s="2"/>
       <c r="CN165" s="2"/>
     </row>
-    <row r="166" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -19162,7 +19162,7 @@
       <c r="CM166" s="2"/>
       <c r="CN166" s="2"/>
     </row>
-    <row r="167" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -19254,7 +19254,7 @@
       <c r="CM167" s="2"/>
       <c r="CN167" s="2"/>
     </row>
-    <row r="168" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -19346,7 +19346,7 @@
       <c r="CM168" s="2"/>
       <c r="CN168" s="2"/>
     </row>
-    <row r="169" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -19438,7 +19438,7 @@
       <c r="CM169" s="2"/>
       <c r="CN169" s="2"/>
     </row>
-    <row r="170" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -19530,7 +19530,7 @@
       <c r="CM170" s="2"/>
       <c r="CN170" s="2"/>
     </row>
-    <row r="171" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -19622,7 +19622,7 @@
       <c r="CM171" s="2"/>
       <c r="CN171" s="2"/>
     </row>
-    <row r="172" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -19714,7 +19714,7 @@
       <c r="CM172" s="2"/>
       <c r="CN172" s="2"/>
     </row>
-    <row r="173" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -19806,7 +19806,7 @@
       <c r="CM173" s="2"/>
       <c r="CN173" s="2"/>
     </row>
-    <row r="174" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -19898,7 +19898,7 @@
       <c r="CM174" s="2"/>
       <c r="CN174" s="2"/>
     </row>
-    <row r="175" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -19990,7 +19990,7 @@
       <c r="CM175" s="2"/>
       <c r="CN175" s="2"/>
     </row>
-    <row r="176" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -20082,7 +20082,7 @@
       <c r="CM176" s="2"/>
       <c r="CN176" s="2"/>
     </row>
-    <row r="177" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -20174,7 +20174,7 @@
       <c r="CM177" s="2"/>
       <c r="CN177" s="2"/>
     </row>
-    <row r="178" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -20266,7 +20266,7 @@
       <c r="CM178" s="2"/>
       <c r="CN178" s="2"/>
     </row>
-    <row r="179" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -20358,7 +20358,7 @@
       <c r="CM179" s="2"/>
       <c r="CN179" s="2"/>
     </row>
-    <row r="180" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -20450,7 +20450,7 @@
       <c r="CM180" s="2"/>
       <c r="CN180" s="2"/>
     </row>
-    <row r="181" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -20542,7 +20542,7 @@
       <c r="CM181" s="2"/>
       <c r="CN181" s="2"/>
     </row>
-    <row r="182" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -20634,7 +20634,7 @@
       <c r="CM182" s="2"/>
       <c r="CN182" s="2"/>
     </row>
-    <row r="183" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -20726,7 +20726,7 @@
       <c r="CM183" s="2"/>
       <c r="CN183" s="2"/>
     </row>
-    <row r="184" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -20818,7 +20818,7 @@
       <c r="CM184" s="2"/>
       <c r="CN184" s="2"/>
     </row>
-    <row r="185" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -20910,7 +20910,7 @@
       <c r="CM185" s="2"/>
       <c r="CN185" s="2"/>
     </row>
-    <row r="186" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -21002,7 +21002,7 @@
       <c r="CM186" s="2"/>
       <c r="CN186" s="2"/>
     </row>
-    <row r="187" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -21094,7 +21094,7 @@
       <c r="CM187" s="2"/>
       <c r="CN187" s="2"/>
     </row>
-    <row r="188" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -21186,7 +21186,7 @@
       <c r="CM188" s="2"/>
       <c r="CN188" s="2"/>
     </row>
-    <row r="189" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -21278,7 +21278,7 @@
       <c r="CM189" s="2"/>
       <c r="CN189" s="2"/>
     </row>
-    <row r="190" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -21370,7 +21370,7 @@
       <c r="CM190" s="2"/>
       <c r="CN190" s="2"/>
     </row>
-    <row r="191" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -21462,7 +21462,7 @@
       <c r="CM191" s="2"/>
       <c r="CN191" s="2"/>
     </row>
-    <row r="192" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -21554,7 +21554,7 @@
       <c r="CM192" s="2"/>
       <c r="CN192" s="2"/>
     </row>
-    <row r="193" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -21646,7 +21646,7 @@
       <c r="CM193" s="2"/>
       <c r="CN193" s="2"/>
     </row>
-    <row r="194" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -21738,7 +21738,7 @@
       <c r="CM194" s="2"/>
       <c r="CN194" s="2"/>
     </row>
-    <row r="195" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -21830,7 +21830,7 @@
       <c r="CM195" s="2"/>
       <c r="CN195" s="2"/>
     </row>
-    <row r="196" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -21922,7 +21922,7 @@
       <c r="CM196" s="2"/>
       <c r="CN196" s="2"/>
     </row>
-    <row r="197" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -22014,7 +22014,7 @@
       <c r="CM197" s="2"/>
       <c r="CN197" s="2"/>
     </row>
-    <row r="198" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -22106,7 +22106,7 @@
       <c r="CM198" s="2"/>
       <c r="CN198" s="2"/>
     </row>
-    <row r="199" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -22198,7 +22198,7 @@
       <c r="CM199" s="2"/>
       <c r="CN199" s="2"/>
     </row>
-    <row r="200" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -22290,7 +22290,7 @@
       <c r="CM200" s="2"/>
       <c r="CN200" s="2"/>
     </row>
-    <row r="201" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -22382,7 +22382,7 @@
       <c r="CM201" s="2"/>
       <c r="CN201" s="2"/>
     </row>
-    <row r="202" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -22474,7 +22474,7 @@
       <c r="CM202" s="2"/>
       <c r="CN202" s="2"/>
     </row>
-    <row r="203" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -22566,7 +22566,7 @@
       <c r="CM203" s="2"/>
       <c r="CN203" s="2"/>
     </row>
-    <row r="204" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -22658,7 +22658,7 @@
       <c r="CM204" s="2"/>
       <c r="CN204" s="2"/>
     </row>
-    <row r="205" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -22750,7 +22750,7 @@
       <c r="CM205" s="2"/>
       <c r="CN205" s="2"/>
     </row>
-    <row r="206" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -22842,7 +22842,7 @@
       <c r="CM206" s="2"/>
       <c r="CN206" s="2"/>
     </row>
-    <row r="207" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -22934,7 +22934,7 @@
       <c r="CM207" s="2"/>
       <c r="CN207" s="2"/>
     </row>
-    <row r="208" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -23026,7 +23026,7 @@
       <c r="CM208" s="2"/>
       <c r="CN208" s="2"/>
     </row>
-    <row r="209" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -23118,7 +23118,7 @@
       <c r="CM209" s="2"/>
       <c r="CN209" s="2"/>
     </row>
-    <row r="210" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -23210,7 +23210,7 @@
       <c r="CM210" s="2"/>
       <c r="CN210" s="2"/>
     </row>
-    <row r="211" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -23302,7 +23302,7 @@
       <c r="CM211" s="2"/>
       <c r="CN211" s="2"/>
     </row>
-    <row r="212" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -23394,7 +23394,7 @@
       <c r="CM212" s="2"/>
       <c r="CN212" s="2"/>
     </row>
-    <row r="213" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -23486,7 +23486,7 @@
       <c r="CM213" s="2"/>
       <c r="CN213" s="2"/>
     </row>
-    <row r="214" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -23578,7 +23578,7 @@
       <c r="CM214" s="2"/>
       <c r="CN214" s="2"/>
     </row>
-    <row r="215" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -23670,7 +23670,7 @@
       <c r="CM215" s="2"/>
       <c r="CN215" s="2"/>
     </row>
-    <row r="216" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -23762,7 +23762,7 @@
       <c r="CM216" s="2"/>
       <c r="CN216" s="2"/>
     </row>
-    <row r="217" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -23854,7 +23854,7 @@
       <c r="CM217" s="2"/>
       <c r="CN217" s="2"/>
     </row>
-    <row r="218" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -23946,7 +23946,7 @@
       <c r="CM218" s="2"/>
       <c r="CN218" s="2"/>
     </row>
-    <row r="219" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -24038,7 +24038,7 @@
       <c r="CM219" s="2"/>
       <c r="CN219" s="2"/>
     </row>
-    <row r="220" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -24130,7 +24130,7 @@
       <c r="CM220" s="2"/>
       <c r="CN220" s="2"/>
     </row>
-    <row r="221" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -24222,7 +24222,7 @@
       <c r="CM221" s="2"/>
       <c r="CN221" s="2"/>
     </row>
-    <row r="222" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -24314,7 +24314,7 @@
       <c r="CM222" s="2"/>
       <c r="CN222" s="2"/>
     </row>
-    <row r="223" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -24406,7 +24406,7 @@
       <c r="CM223" s="2"/>
       <c r="CN223" s="2"/>
     </row>
-    <row r="224" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -24498,7 +24498,7 @@
       <c r="CM224" s="2"/>
       <c r="CN224" s="2"/>
     </row>
-    <row r="225" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -24590,7 +24590,7 @@
       <c r="CM225" s="2"/>
       <c r="CN225" s="2"/>
     </row>
-    <row r="226" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -24682,7 +24682,7 @@
       <c r="CM226" s="2"/>
       <c r="CN226" s="2"/>
     </row>
-    <row r="227" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -24774,7 +24774,7 @@
       <c r="CM227" s="2"/>
       <c r="CN227" s="2"/>
     </row>
-    <row r="228" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -24866,7 +24866,7 @@
       <c r="CM228" s="2"/>
       <c r="CN228" s="2"/>
     </row>
-    <row r="229" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -24958,7 +24958,7 @@
       <c r="CM229" s="2"/>
       <c r="CN229" s="2"/>
     </row>
-    <row r="230" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -25050,7 +25050,7 @@
       <c r="CM230" s="2"/>
       <c r="CN230" s="2"/>
     </row>
-    <row r="231" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -25142,7 +25142,7 @@
       <c r="CM231" s="2"/>
       <c r="CN231" s="2"/>
     </row>
-    <row r="232" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -25234,7 +25234,7 @@
       <c r="CM232" s="2"/>
       <c r="CN232" s="2"/>
     </row>
-    <row r="233" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -25326,7 +25326,7 @@
       <c r="CM233" s="2"/>
       <c r="CN233" s="2"/>
     </row>
-    <row r="234" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -25418,7 +25418,7 @@
       <c r="CM234" s="2"/>
       <c r="CN234" s="2"/>
     </row>
-    <row r="235" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -25510,7 +25510,7 @@
       <c r="CM235" s="2"/>
       <c r="CN235" s="2"/>
     </row>
-    <row r="236" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -25602,7 +25602,7 @@
       <c r="CM236" s="2"/>
       <c r="CN236" s="2"/>
     </row>
-    <row r="237" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -25694,7 +25694,7 @@
       <c r="CM237" s="2"/>
       <c r="CN237" s="2"/>
     </row>
-    <row r="238" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -25786,7 +25786,7 @@
       <c r="CM238" s="2"/>
       <c r="CN238" s="2"/>
     </row>
-    <row r="239" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -25878,7 +25878,7 @@
       <c r="CM239" s="2"/>
       <c r="CN239" s="2"/>
     </row>
-    <row r="240" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -25970,7 +25970,7 @@
       <c r="CM240" s="2"/>
       <c r="CN240" s="2"/>
     </row>
-    <row r="241" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="241" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -26062,7 +26062,7 @@
       <c r="CM241" s="2"/>
       <c r="CN241" s="2"/>
     </row>
-    <row r="242" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="242" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -26154,7 +26154,7 @@
       <c r="CM242" s="2"/>
       <c r="CN242" s="2"/>
     </row>
-    <row r="243" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="243" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -26246,7 +26246,7 @@
       <c r="CM243" s="2"/>
       <c r="CN243" s="2"/>
     </row>
-    <row r="244" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="244" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -26338,7 +26338,7 @@
       <c r="CM244" s="2"/>
       <c r="CN244" s="2"/>
     </row>
-    <row r="245" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="245" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -26430,7 +26430,7 @@
       <c r="CM245" s="2"/>
       <c r="CN245" s="2"/>
     </row>
-    <row r="246" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="246" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -26522,7 +26522,7 @@
       <c r="CM246" s="2"/>
       <c r="CN246" s="2"/>
     </row>
-    <row r="247" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="247" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -26614,7 +26614,7 @@
       <c r="CM247" s="2"/>
       <c r="CN247" s="2"/>
     </row>
-    <row r="248" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="248" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -26706,7 +26706,7 @@
       <c r="CM248" s="2"/>
       <c r="CN248" s="2"/>
     </row>
-    <row r="249" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="249" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -26798,7 +26798,7 @@
       <c r="CM249" s="2"/>
       <c r="CN249" s="2"/>
     </row>
-    <row r="250" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="250" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -26890,7 +26890,7 @@
       <c r="CM250" s="2"/>
       <c r="CN250" s="2"/>
     </row>
-    <row r="251" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="251" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -26982,7 +26982,7 @@
       <c r="CM251" s="2"/>
       <c r="CN251" s="2"/>
     </row>
-    <row r="252" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="252" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -27074,7 +27074,7 @@
       <c r="CM252" s="2"/>
       <c r="CN252" s="2"/>
     </row>
-    <row r="253" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="253" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -27166,7 +27166,7 @@
       <c r="CM253" s="2"/>
       <c r="CN253" s="2"/>
     </row>
-    <row r="254" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="254" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -27258,7 +27258,7 @@
       <c r="CM254" s="2"/>
       <c r="CN254" s="2"/>
     </row>
-    <row r="255" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="255" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -27350,7 +27350,7 @@
       <c r="CM255" s="2"/>
       <c r="CN255" s="2"/>
     </row>
-    <row r="256" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="256" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -27442,7 +27442,7 @@
       <c r="CM256" s="2"/>
       <c r="CN256" s="2"/>
     </row>
-    <row r="257" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="257" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -27534,7 +27534,7 @@
       <c r="CM257" s="2"/>
       <c r="CN257" s="2"/>
     </row>
-    <row r="258" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="258" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -27626,7 +27626,7 @@
       <c r="CM258" s="2"/>
       <c r="CN258" s="2"/>
     </row>
-    <row r="259" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="259" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -27718,7 +27718,7 @@
       <c r="CM259" s="2"/>
       <c r="CN259" s="2"/>
     </row>
-    <row r="260" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="260" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -27810,7 +27810,7 @@
       <c r="CM260" s="2"/>
       <c r="CN260" s="2"/>
     </row>
-    <row r="261" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="261" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -27902,7 +27902,7 @@
       <c r="CM261" s="2"/>
       <c r="CN261" s="2"/>
     </row>
-    <row r="262" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="262" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -27994,7 +27994,7 @@
       <c r="CM262" s="2"/>
       <c r="CN262" s="2"/>
     </row>
-    <row r="263" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="263" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -28086,7 +28086,7 @@
       <c r="CM263" s="2"/>
       <c r="CN263" s="2"/>
     </row>
-    <row r="264" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="264" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -28178,7 +28178,7 @@
       <c r="CM264" s="2"/>
       <c r="CN264" s="2"/>
     </row>
-    <row r="265" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="265" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -28270,7 +28270,7 @@
       <c r="CM265" s="2"/>
       <c r="CN265" s="2"/>
     </row>
-    <row r="266" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="266" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -28362,7 +28362,7 @@
       <c r="CM266" s="2"/>
       <c r="CN266" s="2"/>
     </row>
-    <row r="267" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="267" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -28454,7 +28454,7 @@
       <c r="CM267" s="2"/>
       <c r="CN267" s="2"/>
     </row>
-    <row r="268" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="268" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -28546,7 +28546,7 @@
       <c r="CM268" s="2"/>
       <c r="CN268" s="2"/>
     </row>
-    <row r="269" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="269" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -28638,7 +28638,7 @@
       <c r="CM269" s="2"/>
       <c r="CN269" s="2"/>
     </row>
-    <row r="270" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="270" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -28730,7 +28730,7 @@
       <c r="CM270" s="2"/>
       <c r="CN270" s="2"/>
     </row>
-    <row r="271" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="271" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -28822,7 +28822,7 @@
       <c r="CM271" s="2"/>
       <c r="CN271" s="2"/>
     </row>
-    <row r="272" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="272" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -28914,7 +28914,7 @@
       <c r="CM272" s="2"/>
       <c r="CN272" s="2"/>
     </row>
-    <row r="273" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="273" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -29006,7 +29006,7 @@
       <c r="CM273" s="2"/>
       <c r="CN273" s="2"/>
     </row>
-    <row r="274" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="274" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -29098,7 +29098,7 @@
       <c r="CM274" s="2"/>
       <c r="CN274" s="2"/>
     </row>
-    <row r="275" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="275" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -29190,7 +29190,7 @@
       <c r="CM275" s="2"/>
       <c r="CN275" s="2"/>
     </row>
-    <row r="276" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="276" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -29282,7 +29282,7 @@
       <c r="CM276" s="2"/>
       <c r="CN276" s="2"/>
     </row>
-    <row r="277" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="277" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -29374,7 +29374,7 @@
       <c r="CM277" s="2"/>
       <c r="CN277" s="2"/>
     </row>
-    <row r="278" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="278" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -29466,7 +29466,7 @@
       <c r="CM278" s="2"/>
       <c r="CN278" s="2"/>
     </row>
-    <row r="279" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="279" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -29558,7 +29558,7 @@
       <c r="CM279" s="2"/>
       <c r="CN279" s="2"/>
     </row>
-    <row r="280" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="280" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -29650,7 +29650,7 @@
       <c r="CM280" s="2"/>
       <c r="CN280" s="2"/>
     </row>
-    <row r="281" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="281" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -29742,7 +29742,7 @@
       <c r="CM281" s="2"/>
       <c r="CN281" s="2"/>
     </row>
-    <row r="282" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="282" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -29834,7 +29834,7 @@
       <c r="CM282" s="2"/>
       <c r="CN282" s="2"/>
     </row>
-    <row r="283" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="283" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -29926,7 +29926,7 @@
       <c r="CM283" s="2"/>
       <c r="CN283" s="2"/>
     </row>
-    <row r="284" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="284" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -30018,7 +30018,7 @@
       <c r="CM284" s="2"/>
       <c r="CN284" s="2"/>
     </row>
-    <row r="285" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="285" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -30110,7 +30110,7 @@
       <c r="CM285" s="2"/>
       <c r="CN285" s="2"/>
     </row>
-    <row r="286" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="286" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -30202,7 +30202,7 @@
       <c r="CM286" s="2"/>
       <c r="CN286" s="2"/>
     </row>
-    <row r="287" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="287" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -30294,7 +30294,7 @@
       <c r="CM287" s="2"/>
       <c r="CN287" s="2"/>
     </row>
-    <row r="288" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="288" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -30386,7 +30386,7 @@
       <c r="CM288" s="2"/>
       <c r="CN288" s="2"/>
     </row>
-    <row r="289" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="289" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -30478,7 +30478,7 @@
       <c r="CM289" s="2"/>
       <c r="CN289" s="2"/>
     </row>
-    <row r="290" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="290" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -30570,7 +30570,7 @@
       <c r="CM290" s="2"/>
       <c r="CN290" s="2"/>
     </row>
-    <row r="291" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="291" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -30662,7 +30662,7 @@
       <c r="CM291" s="2"/>
       <c r="CN291" s="2"/>
     </row>
-    <row r="292" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="292" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -30754,7 +30754,7 @@
       <c r="CM292" s="2"/>
       <c r="CN292" s="2"/>
     </row>
-    <row r="293" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="293" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -30846,7 +30846,7 @@
       <c r="CM293" s="2"/>
       <c r="CN293" s="2"/>
     </row>
-    <row r="294" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="294" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -30938,7 +30938,7 @@
       <c r="CM294" s="2"/>
       <c r="CN294" s="2"/>
     </row>
-    <row r="295" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="295" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -31030,7 +31030,7 @@
       <c r="CM295" s="2"/>
       <c r="CN295" s="2"/>
     </row>
-    <row r="296" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="296" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -31122,7 +31122,7 @@
       <c r="CM296" s="2"/>
       <c r="CN296" s="2"/>
     </row>
-    <row r="297" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="297" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -31214,7 +31214,7 @@
       <c r="CM297" s="2"/>
       <c r="CN297" s="2"/>
     </row>
-    <row r="298" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="298" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -31306,7 +31306,7 @@
       <c r="CM298" s="2"/>
       <c r="CN298" s="2"/>
     </row>
-    <row r="299" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="299" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -31398,7 +31398,7 @@
       <c r="CM299" s="2"/>
       <c r="CN299" s="2"/>
     </row>
-    <row r="300" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="300" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -31490,7 +31490,7 @@
       <c r="CM300" s="2"/>
       <c r="CN300" s="2"/>
     </row>
-    <row r="301" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="301" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -31582,7 +31582,7 @@
       <c r="CM301" s="2"/>
       <c r="CN301" s="2"/>
     </row>
-    <row r="302" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="302" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -31674,7 +31674,7 @@
       <c r="CM302" s="2"/>
       <c r="CN302" s="2"/>
     </row>
-    <row r="303" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="303" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -31766,7 +31766,7 @@
       <c r="CM303" s="2"/>
       <c r="CN303" s="2"/>
     </row>
-    <row r="304" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="304" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -31858,7 +31858,7 @@
       <c r="CM304" s="2"/>
       <c r="CN304" s="2"/>
     </row>
-    <row r="305" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="305" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -31950,7 +31950,7 @@
       <c r="CM305" s="2"/>
       <c r="CN305" s="2"/>
     </row>
-    <row r="306" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="306" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -32042,7 +32042,7 @@
       <c r="CM306" s="2"/>
       <c r="CN306" s="2"/>
     </row>
-    <row r="307" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="307" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -32134,7 +32134,7 @@
       <c r="CM307" s="2"/>
       <c r="CN307" s="2"/>
     </row>
-    <row r="308" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="308" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -32226,7 +32226,7 @@
       <c r="CM308" s="2"/>
       <c r="CN308" s="2"/>
     </row>
-    <row r="309" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="309" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -32318,7 +32318,7 @@
       <c r="CM309" s="2"/>
       <c r="CN309" s="2"/>
     </row>
-    <row r="310" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="310" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -32410,7 +32410,7 @@
       <c r="CM310" s="2"/>
       <c r="CN310" s="2"/>
     </row>
-    <row r="311" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="311" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -32502,7 +32502,7 @@
       <c r="CM311" s="2"/>
       <c r="CN311" s="2"/>
     </row>
-    <row r="312" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="312" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -32594,7 +32594,7 @@
       <c r="CM312" s="2"/>
       <c r="CN312" s="2"/>
     </row>
-    <row r="313" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="313" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -32686,7 +32686,7 @@
       <c r="CM313" s="2"/>
       <c r="CN313" s="2"/>
     </row>
-    <row r="314" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="314" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -32778,7 +32778,7 @@
       <c r="CM314" s="2"/>
       <c r="CN314" s="2"/>
     </row>
-    <row r="315" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="315" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -32870,7 +32870,7 @@
       <c r="CM315" s="2"/>
       <c r="CN315" s="2"/>
     </row>
-    <row r="316" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="316" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -32962,7 +32962,7 @@
       <c r="CM316" s="2"/>
       <c r="CN316" s="2"/>
     </row>
-    <row r="317" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="317" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -33054,7 +33054,7 @@
       <c r="CM317" s="2"/>
       <c r="CN317" s="2"/>
     </row>
-    <row r="318" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="318" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -33146,7 +33146,7 @@
       <c r="CM318" s="2"/>
       <c r="CN318" s="2"/>
     </row>
-    <row r="319" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="319" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -33238,7 +33238,7 @@
       <c r="CM319" s="2"/>
       <c r="CN319" s="2"/>
     </row>
-    <row r="320" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="320" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -33330,7 +33330,7 @@
       <c r="CM320" s="2"/>
       <c r="CN320" s="2"/>
     </row>
-    <row r="321" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="321" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -33422,7 +33422,7 @@
       <c r="CM321" s="2"/>
       <c r="CN321" s="2"/>
     </row>
-    <row r="322" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="322" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -33514,7 +33514,7 @@
       <c r="CM322" s="2"/>
       <c r="CN322" s="2"/>
     </row>
-    <row r="323" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="323" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -33606,7 +33606,7 @@
       <c r="CM323" s="2"/>
       <c r="CN323" s="2"/>
     </row>
-    <row r="324" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="324" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -33698,7 +33698,7 @@
       <c r="CM324" s="2"/>
       <c r="CN324" s="2"/>
     </row>
-    <row r="325" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="325" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -33790,7 +33790,7 @@
       <c r="CM325" s="2"/>
       <c r="CN325" s="2"/>
     </row>
-    <row r="326" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="326" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -33882,7 +33882,7 @@
       <c r="CM326" s="2"/>
       <c r="CN326" s="2"/>
     </row>
-    <row r="327" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="327" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -33974,7 +33974,7 @@
       <c r="CM327" s="2"/>
       <c r="CN327" s="2"/>
     </row>
-    <row r="328" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="328" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -34066,7 +34066,7 @@
       <c r="CM328" s="2"/>
       <c r="CN328" s="2"/>
     </row>
-    <row r="329" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="329" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -34158,7 +34158,7 @@
       <c r="CM329" s="2"/>
       <c r="CN329" s="2"/>
     </row>
-    <row r="330" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="330" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -34250,7 +34250,7 @@
       <c r="CM330" s="2"/>
       <c r="CN330" s="2"/>
     </row>
-    <row r="331" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="331" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -34342,7 +34342,7 @@
       <c r="CM331" s="2"/>
       <c r="CN331" s="2"/>
     </row>
-    <row r="332" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="332" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -34434,7 +34434,7 @@
       <c r="CM332" s="2"/>
       <c r="CN332" s="2"/>
     </row>
-    <row r="333" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="333" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -34526,7 +34526,7 @@
       <c r="CM333" s="2"/>
       <c r="CN333" s="2"/>
     </row>
-    <row r="334" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="334" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -34618,7 +34618,7 @@
       <c r="CM334" s="2"/>
       <c r="CN334" s="2"/>
     </row>
-    <row r="335" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="335" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -34710,7 +34710,7 @@
       <c r="CM335" s="2"/>
       <c r="CN335" s="2"/>
     </row>
-    <row r="336" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="336" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -34802,7 +34802,7 @@
       <c r="CM336" s="2"/>
       <c r="CN336" s="2"/>
     </row>
-    <row r="337" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="337" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -34894,7 +34894,7 @@
       <c r="CM337" s="2"/>
       <c r="CN337" s="2"/>
     </row>
-    <row r="338" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="338" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -34986,7 +34986,7 @@
       <c r="CM338" s="2"/>
       <c r="CN338" s="2"/>
     </row>
-    <row r="339" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="339" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -35078,7 +35078,7 @@
       <c r="CM339" s="2"/>
       <c r="CN339" s="2"/>
     </row>
-    <row r="340" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="340" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -35170,7 +35170,7 @@
       <c r="CM340" s="2"/>
       <c r="CN340" s="2"/>
     </row>
-    <row r="341" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="341" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -35262,7 +35262,7 @@
       <c r="CM341" s="2"/>
       <c r="CN341" s="2"/>
     </row>
-    <row r="342" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="342" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -35354,7 +35354,7 @@
       <c r="CM342" s="2"/>
       <c r="CN342" s="2"/>
     </row>
-    <row r="343" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="343" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -35446,7 +35446,7 @@
       <c r="CM343" s="2"/>
       <c r="CN343" s="2"/>
     </row>
-    <row r="344" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="344" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -35538,7 +35538,7 @@
       <c r="CM344" s="2"/>
       <c r="CN344" s="2"/>
     </row>
-    <row r="345" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="345" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -35630,7 +35630,7 @@
       <c r="CM345" s="2"/>
       <c r="CN345" s="2"/>
     </row>
-    <row r="346" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="346" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -35722,7 +35722,7 @@
       <c r="CM346" s="2"/>
       <c r="CN346" s="2"/>
     </row>
-    <row r="347" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="347" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -35814,7 +35814,7 @@
       <c r="CM347" s="2"/>
       <c r="CN347" s="2"/>
     </row>
-    <row r="348" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="348" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -35906,7 +35906,7 @@
       <c r="CM348" s="2"/>
       <c r="CN348" s="2"/>
     </row>
-    <row r="349" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="349" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -35998,7 +35998,7 @@
       <c r="CM349" s="2"/>
       <c r="CN349" s="2"/>
     </row>
-    <row r="350" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="350" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -36090,7 +36090,7 @@
       <c r="CM350" s="2"/>
       <c r="CN350" s="2"/>
     </row>
-    <row r="351" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="351" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -36182,7 +36182,7 @@
       <c r="CM351" s="2"/>
       <c r="CN351" s="2"/>
     </row>
-    <row r="352" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="352" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -36274,7 +36274,7 @@
       <c r="CM352" s="2"/>
       <c r="CN352" s="2"/>
     </row>
-    <row r="353" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="353" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -36366,7 +36366,7 @@
       <c r="CM353" s="2"/>
       <c r="CN353" s="2"/>
     </row>
-    <row r="354" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="354" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -36458,7 +36458,7 @@
       <c r="CM354" s="2"/>
       <c r="CN354" s="2"/>
     </row>
-    <row r="355" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="355" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -36550,7 +36550,7 @@
       <c r="CM355" s="2"/>
       <c r="CN355" s="2"/>
     </row>
-    <row r="356" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="356" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -36642,7 +36642,7 @@
       <c r="CM356" s="2"/>
       <c r="CN356" s="2"/>
     </row>
-    <row r="357" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="357" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -36734,7 +36734,7 @@
       <c r="CM357" s="2"/>
       <c r="CN357" s="2"/>
     </row>
-    <row r="358" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="358" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -36826,7 +36826,7 @@
       <c r="CM358" s="2"/>
       <c r="CN358" s="2"/>
     </row>
-    <row r="359" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="359" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -36918,7 +36918,7 @@
       <c r="CM359" s="2"/>
       <c r="CN359" s="2"/>
     </row>
-    <row r="360" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="360" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -37010,7 +37010,7 @@
       <c r="CM360" s="2"/>
       <c r="CN360" s="2"/>
     </row>
-    <row r="361" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="361" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -37102,7 +37102,7 @@
       <c r="CM361" s="2"/>
       <c r="CN361" s="2"/>
     </row>
-    <row r="362" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="362" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -37194,7 +37194,7 @@
       <c r="CM362" s="2"/>
       <c r="CN362" s="2"/>
     </row>
-    <row r="363" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="363" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -37286,7 +37286,7 @@
       <c r="CM363" s="2"/>
       <c r="CN363" s="2"/>
     </row>
-    <row r="364" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="364" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -37378,7 +37378,7 @@
       <c r="CM364" s="2"/>
       <c r="CN364" s="2"/>
     </row>
-    <row r="365" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="365" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -37470,7 +37470,7 @@
       <c r="CM365" s="2"/>
       <c r="CN365" s="2"/>
     </row>
-    <row r="366" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="366" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -37562,7 +37562,7 @@
       <c r="CM366" s="2"/>
       <c r="CN366" s="2"/>
     </row>
-    <row r="367" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="367" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -37654,7 +37654,7 @@
       <c r="CM367" s="2"/>
       <c r="CN367" s="2"/>
     </row>
-    <row r="368" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="368" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -37746,7 +37746,7 @@
       <c r="CM368" s="2"/>
       <c r="CN368" s="2"/>
     </row>
-    <row r="369" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="369" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -37838,7 +37838,7 @@
       <c r="CM369" s="2"/>
       <c r="CN369" s="2"/>
     </row>
-    <row r="370" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="370" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -37930,7 +37930,7 @@
       <c r="CM370" s="2"/>
       <c r="CN370" s="2"/>
     </row>
-    <row r="371" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="371" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -38022,7 +38022,7 @@
       <c r="CM371" s="2"/>
       <c r="CN371" s="2"/>
     </row>
-    <row r="372" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="372" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -38114,7 +38114,7 @@
       <c r="CM372" s="2"/>
       <c r="CN372" s="2"/>
     </row>
-    <row r="373" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="373" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -38206,7 +38206,7 @@
       <c r="CM373" s="2"/>
       <c r="CN373" s="2"/>
     </row>
-    <row r="374" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="374" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -38298,7 +38298,7 @@
       <c r="CM374" s="2"/>
       <c r="CN374" s="2"/>
     </row>
-    <row r="375" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="375" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -38390,7 +38390,7 @@
       <c r="CM375" s="2"/>
       <c r="CN375" s="2"/>
     </row>
-    <row r="376" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="376" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -38482,7 +38482,7 @@
       <c r="CM376" s="2"/>
       <c r="CN376" s="2"/>
     </row>
-    <row r="377" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="377" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -38574,7 +38574,7 @@
       <c r="CM377" s="2"/>
       <c r="CN377" s="2"/>
     </row>
-    <row r="378" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="378" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -38666,7 +38666,7 @@
       <c r="CM378" s="2"/>
       <c r="CN378" s="2"/>
     </row>
-    <row r="379" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="379" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -38758,7 +38758,7 @@
       <c r="CM379" s="2"/>
       <c r="CN379" s="2"/>
     </row>
-    <row r="380" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="380" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -38850,7 +38850,7 @@
       <c r="CM380" s="2"/>
       <c r="CN380" s="2"/>
     </row>
-    <row r="381" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="381" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -38942,7 +38942,7 @@
       <c r="CM381" s="2"/>
       <c r="CN381" s="2"/>
     </row>
-    <row r="382" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="382" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -39034,7 +39034,7 @@
       <c r="CM382" s="2"/>
       <c r="CN382" s="2"/>
     </row>
-    <row r="383" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="383" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -39126,7 +39126,7 @@
       <c r="CM383" s="2"/>
       <c r="CN383" s="2"/>
     </row>
-    <row r="384" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="384" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -39218,7 +39218,7 @@
       <c r="CM384" s="2"/>
       <c r="CN384" s="2"/>
     </row>
-    <row r="385" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="385" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -39310,7 +39310,7 @@
       <c r="CM385" s="2"/>
       <c r="CN385" s="2"/>
     </row>
-    <row r="386" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="386" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -39402,7 +39402,7 @@
       <c r="CM386" s="2"/>
       <c r="CN386" s="2"/>
     </row>
-    <row r="387" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="387" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -39494,7 +39494,7 @@
       <c r="CM387" s="2"/>
       <c r="CN387" s="2"/>
     </row>
-    <row r="388" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="388" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -39586,7 +39586,7 @@
       <c r="CM388" s="2"/>
       <c r="CN388" s="2"/>
     </row>
-    <row r="389" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="389" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -39678,7 +39678,7 @@
       <c r="CM389" s="2"/>
       <c r="CN389" s="2"/>
     </row>
-    <row r="390" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="390" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -39770,7 +39770,7 @@
       <c r="CM390" s="2"/>
       <c r="CN390" s="2"/>
     </row>
-    <row r="391" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="391" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -39862,7 +39862,7 @@
       <c r="CM391" s="2"/>
       <c r="CN391" s="2"/>
     </row>
-    <row r="392" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="392" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -39954,7 +39954,7 @@
       <c r="CM392" s="2"/>
       <c r="CN392" s="2"/>
     </row>
-    <row r="393" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="393" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -40046,7 +40046,7 @@
       <c r="CM393" s="2"/>
       <c r="CN393" s="2"/>
     </row>
-    <row r="394" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="394" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -40138,7 +40138,7 @@
       <c r="CM394" s="2"/>
       <c r="CN394" s="2"/>
     </row>
-    <row r="395" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="395" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -40230,7 +40230,7 @@
       <c r="CM395" s="2"/>
       <c r="CN395" s="2"/>
     </row>
-    <row r="396" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="396" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -40322,7 +40322,7 @@
       <c r="CM396" s="2"/>
       <c r="CN396" s="2"/>
     </row>
-    <row r="397" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="397" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -40414,7 +40414,7 @@
       <c r="CM397" s="2"/>
       <c r="CN397" s="2"/>
     </row>
-    <row r="398" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="398" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -40506,7 +40506,7 @@
       <c r="CM398" s="2"/>
       <c r="CN398" s="2"/>
     </row>
-    <row r="399" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="399" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -40598,7 +40598,7 @@
       <c r="CM399" s="2"/>
       <c r="CN399" s="2"/>
     </row>
-    <row r="400" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="400" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>

--- a/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - wholesale minimal standard scenario.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - wholesale minimal standard scenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_a_wholesale_calculation\when_minimal_standard_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F920BD-77B9-49AF-92C1-63480DEC09AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C5922D-E845-4567-93A7-FB10A6BADEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
   </bookViews>
@@ -1422,8 +1422,8 @@
   </sheetPr>
   <dimension ref="A1:CN400"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78:H81"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66:H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40773,11 +40773,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40957,26 +40958,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -41000,9 +40992,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - wholesale minimal standard scenario.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - wholesale minimal standard scenario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_a_wholesale_calculation\when_minimal_standard_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C5922D-E845-4567-93A7-FB10A6BADEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB31EB3E-37E5-4FFB-A553-56A8B89A7846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
+    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour1" sheetId="11" r:id="rId1"/>
@@ -362,9 +362,6 @@
     <t>Number</t>
   </si>
   <si>
-    <t>from_grid_area</t>
-  </si>
-  <si>
     <t>ga_brp_es</t>
   </si>
   <si>
@@ -470,7 +467,10 @@
     <t>170000000000000102</t>
   </si>
   <si>
-    <t>production</t>
+    <t>neighbor_grid_area_code</t>
+  </si>
+  <si>
+    <t>nonprofiled_consumption</t>
   </si>
 </sst>
 </file>
@@ -1422,53 +1422,54 @@
   </sheetPr>
   <dimension ref="A1:CN400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66:H68"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84:I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="11.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="8.7109375" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.7109375" style="1"/>
+    <col min="14" max="14" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.7265625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="1.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="8.7265625" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:92" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>7</v>
@@ -1492,7 +1493,7 @@
         <v>75</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>8</v>
@@ -1539,7 +1540,7 @@
         <v>17</v>
       </c>
       <c r="AG1" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AH1" s="47" t="s">
         <v>81</v>
@@ -1548,7 +1549,7 @@
       <c r="AJ1" s="47"/>
       <c r="AK1" s="47"/>
     </row>
-    <row r="2" spans="1:92" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:92" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
@@ -1556,13 +1557,13 @@
         <v>121</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -1573,19 +1574,19 @@
         <v>0</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
@@ -1622,35 +1623,35 @@
         <v>800</v>
       </c>
       <c r="AE2" s="27" t="str" cm="1">
-        <f t="array" ref="AE2:AE3">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AE28:AE41,AE28:AE41 &lt;&gt; "")))</f>
-        <v>2000000000000</v>
+        <f t="array" ref="AE2">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AE28:AE41,AE28:AE41 &lt;&gt; "")))</f>
+        <v>3000000000000</v>
       </c>
       <c r="AF2" s="27" t="str" cm="1">
-        <f t="array" ref="AF2:AF3">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AF28:AF40,AF28:AF40 &lt;&gt; "")))</f>
-        <v>2200000000000</v>
+        <f t="array" ref="AF2">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AF28:AF40,AF28:AF40 &lt;&gt; "")))</f>
+        <v>3300000000000</v>
       </c>
       <c r="AG2" s="27" t="str">
         <f>IF(B$2="production","E18",IF($B$2="flex_consumption","D01","E02"))</f>
-        <v>E18</v>
+        <v>E02</v>
       </c>
       <c r="AH2" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="AI2" s="24" t="s">
+      <c r="AJ2" s="27" t="s">
         <v>109</v>
-      </c>
-      <c r="AJ2" s="27" t="s">
-        <v>110</v>
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C3" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
@@ -1662,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="N3" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
@@ -1709,12 +1710,8 @@
       <c r="AD3" s="24" t="str">
         <v>801</v>
       </c>
-      <c r="AE3" s="24" t="str">
-        <v>4000000000000</v>
-      </c>
-      <c r="AF3" s="24" t="str">
-        <v>4400000000000</v>
-      </c>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
       <c r="AG3" s="24"/>
       <c r="AH3" s="27" t="str" cm="1">
         <f t="array" ref="AH3">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),""),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),""),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),""))&lt;&gt;""))</f>
@@ -1738,15 +1735,15 @@
       <c r="AP3" s="24"/>
       <c r="AQ3" s="24"/>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -1757,17 +1754,17 @@
         <v>0</v>
       </c>
       <c r="K4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P4" s="29"/>
       <c r="Q4" s="29"/>
@@ -1818,7 +1815,7 @@
       <c r="AP4" s="24"/>
       <c r="AQ4" s="24"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -1835,7 +1832,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P5" s="29"/>
       <c r="Q5" s="29"/>
@@ -1886,15 +1883,15 @@
       <c r="AP5" s="24"/>
       <c r="AQ5" s="24"/>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C6" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="12">
         <v>20</v>
@@ -1907,17 +1904,17 @@
         <v>20</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
@@ -1951,15 +1948,15 @@
       <c r="AP6" s="24"/>
       <c r="AQ6" s="24"/>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C7" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="12">
         <v>2.5</v>
@@ -1978,17 +1975,17 @@
         <v>17.5</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
@@ -2022,12 +2019,12 @@
       <c r="AP7" s="24"/>
       <c r="AQ7" s="24"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C8" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12">
@@ -2041,17 +2038,17 @@
         <v>40.158999999999999</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
@@ -2085,7 +2082,7 @@
       <c r="AP8" s="24"/>
       <c r="AQ8" s="24"/>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
@@ -2102,7 +2099,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
@@ -2148,12 +2145,12 @@
       <c r="AP9" s="24"/>
       <c r="AQ9" s="24"/>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C10" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
@@ -2165,17 +2162,17 @@
         <v>0</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
@@ -2188,24 +2185,24 @@
       </c>
       <c r="T10" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U10,TableDay1[es_id],0)),"")</f>
-        <v>2200000000000</v>
+        <v>3300000000000</v>
       </c>
       <c r="U10" s="26" t="str">
         <f>IF(AE$2=0,"",AE$2)</f>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="V10" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[es_id],U10,IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT1H")/4</f>
-        <v>10.03975</v>
+        <v>5</v>
       </c>
       <c r="W10" s="19">
         <f>V10</f>
-        <v>10.03975</v>
+        <v>5</v>
       </c>
       <c r="X10" s="19"/>
       <c r="Y10" s="23">
         <f t="shared" ref="Y10:Y33" si="1">ROUND(W10, 3)</f>
-        <v>10.039999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z10" s="27"/>
       <c r="AA10" s="24"/>
@@ -2229,12 +2226,12 @@
       <c r="AP10" s="24"/>
       <c r="AQ10" s="24"/>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C11" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="12">
@@ -2248,19 +2245,19 @@
         <v>3.3570000000000002</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P11" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="15" t="s">
         <v>73</v>
@@ -2271,27 +2268,27 @@
       </c>
       <c r="T11" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U11,TableDay1[es_id],0)),"")</f>
-        <v>2200000000000</v>
+        <v>3300000000000</v>
       </c>
       <c r="U11" s="26" t="str">
         <f t="shared" ref="U11:V13" si="2">U$10</f>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="V11" s="19">
         <f t="shared" si="2"/>
-        <v>10.03975</v>
+        <v>5</v>
       </c>
       <c r="W11" s="19">
         <f>X11+W10</f>
-        <v>10.0395</v>
+        <v>5</v>
       </c>
       <c r="X11" s="19">
         <f>V11-Y10</f>
-        <v>-2.4999999999941735E-4</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="23">
         <f t="shared" si="1"/>
-        <v>10.039999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z11" s="27"/>
       <c r="AA11" s="24"/>
@@ -2315,7 +2312,7 @@
       <c r="AP11" s="24"/>
       <c r="AQ11" s="24"/>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
@@ -2343,37 +2340,37 @@
       </c>
       <c r="T12" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U12,TableDay1[es_id],0)),"")</f>
-        <v>2200000000000</v>
+        <v>3300000000000</v>
       </c>
       <c r="U12" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="V12" s="19">
         <f t="shared" si="2"/>
-        <v>10.03975</v>
+        <v>5</v>
       </c>
       <c r="W12" s="19">
         <f>X12+W11</f>
-        <v>10.039250000000001</v>
+        <v>5</v>
       </c>
       <c r="X12" s="19">
         <f>V12-Y11</f>
-        <v>-2.4999999999941735E-4</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="23">
         <f t="shared" si="1"/>
-        <v>10.039</v>
+        <v>5</v>
       </c>
       <c r="Z12" s="27"/>
       <c r="AA12" s="24"/>
       <c r="AC12" s="27"/>
       <c r="AD12" s="36"/>
       <c r="AE12" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF12" s="36" t="s">
         <v>101</v>
-      </c>
-      <c r="AF12" s="36" t="s">
-        <v>102</v>
       </c>
       <c r="AG12" s="36"/>
       <c r="AH12" s="35"/>
@@ -2391,7 +2388,7 @@
       <c r="AP12" s="24"/>
       <c r="AQ12" s="24"/>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
@@ -2419,27 +2416,27 @@
       </c>
       <c r="T13" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U13,TableDay1[es_id],0)),"")</f>
-        <v>2200000000000</v>
+        <v>3300000000000</v>
       </c>
       <c r="U13" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="V13" s="19">
         <f t="shared" si="2"/>
-        <v>10.03975</v>
+        <v>5</v>
       </c>
       <c r="W13" s="19">
         <f>X13+W12</f>
-        <v>10.040000000000001</v>
+        <v>5</v>
       </c>
       <c r="X13" s="19">
         <f>V13-Y12</f>
-        <v>7.5000000000002842E-4</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="23">
         <f t="shared" si="1"/>
-        <v>10.039999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z13" s="27"/>
       <c r="AA13" s="24"/>
@@ -2469,7 +2466,7 @@
       <c r="AP13" s="24"/>
       <c r="AQ13" s="24"/>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
@@ -2493,15 +2490,15 @@
       </c>
       <c r="S14" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U14,TableDay1[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T14" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U14,TableDay1[es_id],0)),"")</f>
-        <v>4400000000000</v>
+        <v/>
       </c>
       <c r="U14" s="26" t="str">
         <f>IF(AE$3=0,"",AE$3)</f>
-        <v>4000000000000</v>
+        <v/>
       </c>
       <c r="V14" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[es_id],U14,IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT1H")/4</f>
@@ -2588,7 +2585,7 @@
       <c r="CM14" s="2"/>
       <c r="CN14" s="2"/>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C15" s="13"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
@@ -2612,15 +2609,15 @@
       </c>
       <c r="S15" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U15,TableDay1[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T15" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U15,TableDay1[es_id],0)),"")</f>
-        <v>4400000000000</v>
+        <v/>
       </c>
       <c r="U15" s="26" t="str">
         <f t="shared" ref="U15:V17" si="3">U$14</f>
-        <v>4000000000000</v>
+        <v/>
       </c>
       <c r="V15" s="19">
         <f t="shared" si="3"/>
@@ -2710,7 +2707,7 @@
       <c r="CM15" s="2"/>
       <c r="CN15" s="2"/>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C16" s="13"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
@@ -2734,15 +2731,15 @@
       </c>
       <c r="S16" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U16,TableDay1[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T16" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U16,TableDay1[es_id],0)),"")</f>
-        <v>4400000000000</v>
+        <v/>
       </c>
       <c r="U16" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>4000000000000</v>
+        <v/>
       </c>
       <c r="V16" s="19">
         <f t="shared" si="3"/>
@@ -2832,7 +2829,7 @@
       <c r="CM16" s="2"/>
       <c r="CN16" s="2"/>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
@@ -2856,15 +2853,15 @@
       </c>
       <c r="S17" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U17,TableDay1[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T17" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[brp_id],MATCH(U17,TableDay1[es_id],0)),"")</f>
-        <v>4400000000000</v>
+        <v/>
       </c>
       <c r="U17" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>4000000000000</v>
+        <v/>
       </c>
       <c r="V17" s="19">
         <f t="shared" si="3"/>
@@ -2950,7 +2947,7 @@
       <c r="CM17" s="2"/>
       <c r="CN17" s="2"/>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
@@ -3065,7 +3062,7 @@
       <c r="CM18" s="2"/>
       <c r="CN18" s="2"/>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
@@ -3183,10 +3180,10 @@
       <c r="CM19" s="2"/>
       <c r="CN19" s="2"/>
     </row>
-    <row r="20" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="48" t="str">
         <f>CONCATENATE(B2,"_per_",B1)</f>
-        <v>production_per_ga_brp_es</v>
+        <v>nonprofiled_consumption_per_ga_brp_es</v>
       </c>
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
@@ -3295,7 +3292,7 @@
       <c r="CM20" s="2"/>
       <c r="CN20" s="2"/>
     </row>
-    <row r="21" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3431,7 +3428,7 @@
       <c r="CM21" s="2"/>
       <c r="CN21" s="2"/>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="16" t="str">
         <f>IF(AND(F22&lt;&gt;"null",F22&lt;&gt;""),IF(F22=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G22&lt;&gt;"null",G22&lt;&gt;""),IF(G22=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E22=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
@@ -3439,7 +3436,7 @@
       </c>
       <c r="C22" s="16" t="str">
         <f>IF(AND(F22&lt;&gt;"null",F22&lt;&gt;""),IF(F22=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G22&lt;&gt;"null",G22&lt;&gt;""),IF(G22=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E22=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v>skmp</v>
+        <v/>
       </c>
       <c r="D22" s="15" t="s">
         <v>72</v>
@@ -3450,26 +3447,26 @@
       </c>
       <c r="F22" s="31" t="str">
         <f>IF(B$1="ga",IF(E22="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$2=0,"",AE$2),IF(B$1="ga_brp",IF(G22="","","null"))))</f>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="G22" s="31" t="str">
         <f>IF(B$1="ga",IF(E22="","","null"),IF(B$1="ga_es",IF(F22="","","null"),IF(B$1="ga_brp",IF(AF$2=0,"",AF$2),IF(F22="","",INDEX(TableDay1[brp_id],MATCH(F22,TableDay1[es_id],0),1)))))</f>
-        <v>2200000000000</v>
+        <v>3300000000000</v>
       </c>
       <c r="H22" s="33" t="str">
         <f ca="1">IF(E22="","",SUBSTITUTE(ROUND(I22+J22+K22,3),",","."))</f>
-        <v>10.04</v>
+        <v>7.5</v>
       </c>
       <c r="I22" s="9">
         <f>SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F22,IF(B$1="ga_brp",G22,E22)),R$10:R$33,D22)</f>
-        <v>10.039999999999999</v>
+        <v>5</v>
       </c>
       <c r="J22" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D22,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D22,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F22,IF(B$1="ga_brp",G22,E22)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" ref="K22:K45" ca="1" si="5">IF(AND(C22="skmp",B$2="production"),VLOOKUP(D22,D$78:H$81,5,FALSE),IF(AND(B22="glmp",B$2="flex_consumption"),VLOOKUP(D22,D$72:H$75,5,FALSE),0))</f>
+        <f t="shared" ref="K22:K45" si="5">IF(AND(C22="skmp",B$2="production"),VLOOKUP(D22,D$78:H$81,5,FALSE),IF(AND(B22="glmp",B$2="flex_consumption"),VLOOKUP(D22,D$72:H$75,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="L22" s="2"/>
@@ -3574,14 +3571,14 @@
       <c r="CM22" s="2"/>
       <c r="CN22" s="2"/>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="str">
         <f>IF(AND(F23&lt;&gt;"null",F23&lt;&gt;""),IF(F23=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G23&lt;&gt;"null",G23&lt;&gt;""),IF(G23=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E23=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
       </c>
       <c r="C23" s="16" t="str">
         <f>IF(AND(F23&lt;&gt;"null",F23&lt;&gt;""),IF(F23=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G23&lt;&gt;"null",G23&lt;&gt;""),IF(G23=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E23=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v>skmp</v>
+        <v/>
       </c>
       <c r="D23" s="15" t="s">
         <v>73</v>
@@ -3592,26 +3589,26 @@
       </c>
       <c r="F23" s="31" t="str">
         <f>IF(B$1="ga",IF(E23="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$2=0,"",AE$2),IF(B$1="ga_brp",IF(G23="","","null"))))</f>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="G23" s="31" t="str">
         <f>IF(B$1="ga",IF(E23="","","null"),IF(B$1="ga_es",IF(F23="","","null"),IF(B$1="ga_brp",IF(AF$2=0,"",AF$2),IF(F23="","",INDEX(TableDay1[brp_id],MATCH(F23,TableDay1[es_id],0),1)))))</f>
-        <v>2200000000000</v>
+        <v>3300000000000</v>
       </c>
       <c r="H23" s="33" t="str">
         <f t="shared" ref="H23:H45" ca="1" si="7">IF(E23="","",SUBSTITUTE(ROUND(I23+J23+K23,3),",","."))</f>
-        <v>10.04</v>
+        <v>7.5</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" ref="I23:I45" si="8">SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F23,IF(B$1="ga_brp",G23,E23)),R$10:R$33,D23)</f>
-        <v>10.039999999999999</v>
+        <v>5</v>
       </c>
       <c r="J23" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D23,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D23,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F23,IF(B$1="ga_brp",G23,E23)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L23" s="2"/>
@@ -3719,14 +3716,14 @@
       <c r="CM23" s="2"/>
       <c r="CN23" s="2"/>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="str">
         <f>IF(AND(F24&lt;&gt;"null",F24&lt;&gt;""),IF(F24=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G24&lt;&gt;"null",G24&lt;&gt;""),IF(G24=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E24=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
       </c>
       <c r="C24" s="16" t="str">
         <f>IF(AND(F24&lt;&gt;"null",F24&lt;&gt;""),IF(F24=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G24&lt;&gt;"null",G24&lt;&gt;""),IF(G24=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E24=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v>skmp</v>
+        <v/>
       </c>
       <c r="D24" s="15" t="s">
         <v>74</v>
@@ -3737,26 +3734,26 @@
       </c>
       <c r="F24" s="31" t="str">
         <f>IF(B$1="ga",IF(E24="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$2=0,"",AE$2),IF(B$1="ga_brp",IF(G24="","","null"))))</f>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="G24" s="31" t="str">
         <f>IF(B$1="ga",IF(E24="","","null"),IF(B$1="ga_es",IF(F24="","","null"),IF(B$1="ga_brp",IF(AF$2=0,"",AF$2),IF(F24="","",INDEX(TableDay1[brp_id],MATCH(F24,TableDay1[es_id],0),1)))))</f>
-        <v>2200000000000</v>
+        <v>3300000000000</v>
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>10.039</v>
+        <v>7.5</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="8"/>
-        <v>10.039</v>
+        <v>5</v>
       </c>
       <c r="J24" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D24,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D24,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F24,IF(B$1="ga_brp",G24,E24)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L24" s="2"/>
@@ -3867,14 +3864,14 @@
       <c r="CM24" s="2"/>
       <c r="CN24" s="2"/>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="str">
         <f>IF(AND(F25&lt;&gt;"null",F25&lt;&gt;""),IF(F25=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G25&lt;&gt;"null",G25&lt;&gt;""),IF(G25=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E25=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
       </c>
       <c r="C25" s="16" t="str">
         <f>IF(AND(F25&lt;&gt;"null",F25&lt;&gt;""),IF(F25=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G25&lt;&gt;"null",G25&lt;&gt;""),IF(G25=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E25=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v>skmp</v>
+        <v/>
       </c>
       <c r="D25" s="15" t="s">
         <v>75</v>
@@ -3885,27 +3882,27 @@
       </c>
       <c r="F25" s="31" t="str">
         <f>IF(B$1="ga",IF(E25="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$2=0,"",AE$2),IF(B$1="ga_brp",IF(G25="","","null"))))</f>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="G25" s="31" t="str">
         <f>IF(B$1="ga",IF(E25="","","null"),IF(B$1="ga_es",IF(F25="","","null"),IF(B$1="ga_brp",IF(AF$2=0,"",AF$2),IF(F25="","",INDEX(TableDay1[brp_id],MATCH(F25,TableDay1[es_id],0),1)))))</f>
-        <v>2200000000000</v>
+        <v>3300000000000</v>
       </c>
       <c r="H25" s="33" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>14.161</v>
+        <v>15</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="8"/>
-        <v>10.039999999999999</v>
+        <v>5</v>
       </c>
       <c r="J25" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D25,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D25,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F25,IF(B$1="ga_brp",G25,E25)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
+        <v>10</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="5"/>
         <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.1210000000000004</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="2"/>
@@ -4015,7 +4012,7 @@
       <c r="CM25" s="2"/>
       <c r="CN25" s="2"/>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B26" s="16" t="str">
         <f>IF(AND(F26&lt;&gt;"null",F26&lt;&gt;""),IF(F26=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G26&lt;&gt;"null",G26&lt;&gt;""),IF(G26=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E26=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4029,19 +4026,19 @@
       </c>
       <c r="E26" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F26" s="31" t="str">
         <f>IF(B$1="ga",IF(E26="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G26="","","null"))))</f>
-        <v>4000000000000</v>
+        <v/>
       </c>
       <c r="G26" s="31" t="str">
         <f>IF(B$1="ga",IF(E26="","","null"),IF(B$1="ga_es",IF(F26="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F26="","",INDEX(TableDay1[brp_id],MATCH(F26,TableDay1[es_id],0),1)))))</f>
-        <v>4400000000000</v>
+        <v/>
       </c>
       <c r="H26" s="33" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="8"/>
@@ -4157,7 +4154,7 @@
       <c r="CM26" s="2"/>
       <c r="CN26" s="2"/>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B27" s="16" t="str">
         <f>IF(AND(F27&lt;&gt;"null",F27&lt;&gt;""),IF(F27=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G27&lt;&gt;"null",G27&lt;&gt;""),IF(G27=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E27=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4171,19 +4168,19 @@
       </c>
       <c r="E27" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F27" s="31" t="str">
         <f>IF(B$1="ga",IF(E27="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G27="","","null"))))</f>
-        <v>4000000000000</v>
+        <v/>
       </c>
       <c r="G27" s="31" t="str">
         <f>IF(B$1="ga",IF(E27="","","null"),IF(B$1="ga_es",IF(F27="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F27="","",INDEX(TableDay1[brp_id],MATCH(F27,TableDay1[es_id],0),1)))))</f>
-        <v>4400000000000</v>
+        <v/>
       </c>
       <c r="H27" s="33" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="8"/>
@@ -4241,11 +4238,11 @@
       <c r="AD27" s="36"/>
       <c r="AE27" s="36" t="str">
         <f>_xlfn.CONCAT("Energy suppliers for "&amp;B2)</f>
-        <v>Energy suppliers for production</v>
+        <v>Energy suppliers for nonprofiled_consumption</v>
       </c>
       <c r="AF27" s="36" t="str">
         <f>_xlfn.CONCAT("Balance responsibles for "&amp;B2)</f>
-        <v>Balance responsibles for production</v>
+        <v>Balance responsibles for nonprofiled_consumption</v>
       </c>
       <c r="AG27" s="36"/>
       <c r="AH27" s="36"/>
@@ -4308,7 +4305,7 @@
       <c r="CM27" s="2"/>
       <c r="CN27" s="2"/>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="str">
         <f>IF(AND(F28&lt;&gt;"null",F28&lt;&gt;""),IF(F28=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G28&lt;&gt;"null",G28&lt;&gt;""),IF(G28=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E28=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4322,19 +4319,19 @@
       </c>
       <c r="E28" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F28" s="31" t="str">
         <f>IF(B$1="ga",IF(E28="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G28="","","null"))))</f>
-        <v>4000000000000</v>
+        <v/>
       </c>
       <c r="G28" s="31" t="str">
         <f>IF(B$1="ga",IF(E28="","","null"),IF(B$1="ga_es",IF(F28="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F28="","",INDEX(TableDay1[brp_id],MATCH(F28,TableDay1[es_id],0),1)))))</f>
-        <v>4400000000000</v>
+        <v/>
       </c>
       <c r="H28" s="33" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="8"/>
@@ -4459,7 +4456,7 @@
       <c r="CM28" s="2"/>
       <c r="CN28" s="2"/>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B29" s="16" t="str">
         <f>IF(AND(F29&lt;&gt;"null",F29&lt;&gt;""),IF(F29=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G29&lt;&gt;"null",G29&lt;&gt;""),IF(G29=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E29=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4473,19 +4470,19 @@
       </c>
       <c r="E29" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F29" s="31" t="str">
         <f>IF(B$1="ga",IF(E29="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G29="","","null"))))</f>
-        <v>4000000000000</v>
+        <v/>
       </c>
       <c r="G29" s="31" t="str">
         <f>IF(B$1="ga",IF(E29="","","null"),IF(B$1="ga_es",IF(F29="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F29="","",INDEX(TableDay1[brp_id],MATCH(F29,TableDay1[es_id],0),1)))))</f>
-        <v>4400000000000</v>
+        <v/>
       </c>
       <c r="H29" s="33" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="8"/>
@@ -4538,11 +4535,11 @@
       <c r="AD29" s="36"/>
       <c r="AE29" s="36" t="str" cm="1">
         <f t="array" ref="AE29">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE14)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE14)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="AF29" s="36" t="str" cm="1">
         <f t="array" ref="AF29">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF14)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF14)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="AG29" s="36"/>
       <c r="AH29" s="36"/>
@@ -4605,7 +4602,7 @@
       <c r="CM29" s="2"/>
       <c r="CN29" s="2"/>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="str">
         <f>IF(AND(F30&lt;&gt;"null",F30&lt;&gt;""),IF(F30=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G30&lt;&gt;"null",G30&lt;&gt;""),IF(G30=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E30=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4681,11 +4678,11 @@
       <c r="AD30" s="36"/>
       <c r="AE30" s="36" t="str" cm="1">
         <f t="array" ref="AE30">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE15)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE15)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v/>
+        <v>3000000000000</v>
       </c>
       <c r="AF30" s="36" t="str" cm="1">
         <f t="array" ref="AF30">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF15)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF15)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v/>
+        <v>3300000000000</v>
       </c>
       <c r="AG30" s="36"/>
       <c r="AH30" s="36"/>
@@ -4748,7 +4745,7 @@
       <c r="CM30" s="2"/>
       <c r="CN30" s="2"/>
     </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="str">
         <f>IF(AND(F31&lt;&gt;"null",F31&lt;&gt;""),IF(F31=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G31&lt;&gt;"null",G31&lt;&gt;""),IF(G31=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E31=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4827,11 +4824,11 @@
       <c r="AD31" s="36"/>
       <c r="AE31" s="36" t="str" cm="1">
         <f t="array" ref="AE31">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE16)*(TableDay1[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[es_id]=AE16)*(TableDay1[settlement_method]=AG$2),""),,9))),"")</f>
-        <v>4000000000000</v>
+        <v/>
       </c>
       <c r="AF31" s="36" t="str" cm="1">
         <f t="array" ref="AF31">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF16)*(TableDay1[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(TableDay1[[type]:[brp_id]],(TableDay1[brp_id]=AF16)*(TableDay1[settlement_method]=AG$2),""),,10))),"")</f>
-        <v>4400000000000</v>
+        <v/>
       </c>
       <c r="AG31" s="36"/>
       <c r="AH31" s="36"/>
@@ -4894,7 +4891,7 @@
       <c r="CM31" s="2"/>
       <c r="CN31" s="2"/>
     </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B32" s="16" t="str">
         <f>IF(AND(F32&lt;&gt;"null",F32&lt;&gt;""),IF(F32=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G32&lt;&gt;"null",G32&lt;&gt;""),IF(G32=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E32=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5040,7 +5037,7 @@
       <c r="CM32" s="2"/>
       <c r="CN32" s="2"/>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B33" s="16" t="str">
         <f>IF(AND(F33&lt;&gt;"null",F33&lt;&gt;""),IF(F33=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G33&lt;&gt;"null",G33&lt;&gt;""),IF(G33=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E33=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5180,7 +5177,7 @@
       <c r="CM33" s="2"/>
       <c r="CN33" s="2"/>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B34" s="16" t="str">
         <f>IF(AND(F34&lt;&gt;"null",F34&lt;&gt;""),IF(F34=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G34&lt;&gt;"null",G34&lt;&gt;""),IF(G34=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E34=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5297,7 +5294,7 @@
       <c r="CM34" s="2"/>
       <c r="CN34" s="2"/>
     </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B35" s="16" t="str">
         <f>IF(AND(F35&lt;&gt;"null",F35&lt;&gt;""),IF(F35=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G35&lt;&gt;"null",G35&lt;&gt;""),IF(G35=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E35=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5425,7 +5422,7 @@
       <c r="CM35" s="2"/>
       <c r="CN35" s="2"/>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B36" s="16" t="str">
         <f>IF(AND(F36&lt;&gt;"null",F36&lt;&gt;""),IF(F36=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G36&lt;&gt;"null",G36&lt;&gt;""),IF(G36=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E36=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5555,7 +5552,7 @@
       <c r="CM36" s="2"/>
       <c r="CN36" s="2"/>
     </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B37" s="16" t="str">
         <f>IF(AND(F37&lt;&gt;"null",F37&lt;&gt;""),IF(F37=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G37&lt;&gt;"null",G37&lt;&gt;""),IF(G37=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E37=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5686,7 +5683,7 @@
       <c r="CM37" s="2"/>
       <c r="CN37" s="2"/>
     </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B38" s="16" t="str">
         <f>IF(AND(F38&lt;&gt;"null",F38&lt;&gt;""),IF(F38=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G38&lt;&gt;"null",G38&lt;&gt;""),IF(G38=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E38=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5820,7 +5817,7 @@
       <c r="CM38" s="2"/>
       <c r="CN38" s="2"/>
     </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B39" s="16" t="str">
         <f>IF(AND(F39&lt;&gt;"null",F39&lt;&gt;""),IF(F39=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G39&lt;&gt;"null",G39&lt;&gt;""),IF(G39=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E39=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5954,7 +5951,7 @@
       <c r="CM39" s="2"/>
       <c r="CN39" s="2"/>
     </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B40" s="16" t="str">
         <f>IF(AND(F40&lt;&gt;"null",F40&lt;&gt;""),IF(F40=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G40&lt;&gt;"null",G40&lt;&gt;""),IF(G40=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E40=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6088,7 +6085,7 @@
       <c r="CM40" s="2"/>
       <c r="CN40" s="2"/>
     </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B41" s="16" t="str">
         <f>IF(AND(F41&lt;&gt;"null",F41&lt;&gt;""),IF(F41=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G41&lt;&gt;"null",G41&lt;&gt;""),IF(G41=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E41=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6216,7 +6213,7 @@
       <c r="CM41" s="2"/>
       <c r="CN41" s="2"/>
     </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B42" s="16" t="str">
         <f>IF(AND(F42&lt;&gt;"null",F42&lt;&gt;""),IF(F42=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G42&lt;&gt;"null",G42&lt;&gt;""),IF(G42=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E42=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6346,7 +6343,7 @@
       <c r="CM42" s="2"/>
       <c r="CN42" s="2"/>
     </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B43" s="16" t="str">
         <f>IF(AND(F43&lt;&gt;"null",F43&lt;&gt;""),IF(F43=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G43&lt;&gt;"null",G43&lt;&gt;""),IF(G43=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E43=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6477,7 +6474,7 @@
       <c r="CM43" s="2"/>
       <c r="CN43" s="2"/>
     </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B44" s="16" t="str">
         <f>IF(AND(F44&lt;&gt;"null",F44&lt;&gt;""),IF(F44=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G44&lt;&gt;"null",G44&lt;&gt;""),IF(G44=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E44=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6611,7 +6608,7 @@
       <c r="CM44" s="2"/>
       <c r="CN44" s="2"/>
     </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B45" s="16" t="str">
         <f>IF(AND(F45&lt;&gt;"null",F45&lt;&gt;""),IF(F45=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G45&lt;&gt;"null",G45&lt;&gt;""),IF(G45=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E45=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6745,7 +6742,7 @@
       <c r="CM45" s="2"/>
       <c r="CN45" s="2"/>
     </row>
-    <row r="46" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="2"/>
       <c r="E46" s="48" t="s">
         <v>33</v>
@@ -6846,7 +6843,7 @@
       <c r="CM46" s="2"/>
       <c r="CN46" s="2"/>
     </row>
-    <row r="47" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C47" s="2"/>
       <c r="D47" s="4" t="s">
         <v>20</v>
@@ -6950,7 +6947,7 @@
       <c r="CM47" s="2"/>
       <c r="CN47" s="2"/>
     </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -7065,7 +7062,7 @@
       <c r="CM48" s="2"/>
       <c r="CN48" s="2"/>
     </row>
-    <row r="49" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -7181,7 +7178,7 @@
       <c r="CM49" s="2"/>
       <c r="CN49" s="2"/>
     </row>
-    <row r="50" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -7300,7 +7297,7 @@
       <c r="CM50" s="2"/>
       <c r="CN50" s="2"/>
     </row>
-    <row r="51" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -7419,7 +7416,7 @@
       <c r="CM51" s="2"/>
       <c r="CN51" s="2"/>
     </row>
-    <row r="52" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -7522,7 +7519,7 @@
       <c r="CM52" s="2"/>
       <c r="CN52" s="2"/>
     </row>
-    <row r="53" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -7628,7 +7625,7 @@
       <c r="CM53" s="2"/>
       <c r="CN53" s="2"/>
     </row>
-    <row r="54" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -7743,7 +7740,7 @@
       <c r="CM54" s="2"/>
       <c r="CN54" s="2"/>
     </row>
-    <row r="55" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -7858,7 +7855,7 @@
       <c r="CM55" s="2"/>
       <c r="CN55" s="2"/>
     </row>
-    <row r="56" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -7976,7 +7973,7 @@
       <c r="CM56" s="2"/>
       <c r="CN56" s="2"/>
     </row>
-    <row r="57" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -8094,7 +8091,7 @@
       <c r="CM57" s="2"/>
       <c r="CN57" s="2"/>
     </row>
-    <row r="58" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -8197,7 +8194,7 @@
       <c r="CM58" s="2"/>
       <c r="CN58" s="2"/>
     </row>
-    <row r="59" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -8303,7 +8300,7 @@
       <c r="CM59" s="2"/>
       <c r="CN59" s="2"/>
     </row>
-    <row r="60" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C60" s="2"/>
       <c r="D60" s="8" t="s">
         <v>3</v>
@@ -8415,7 +8412,7 @@
       <c r="CM60" s="2"/>
       <c r="CN60" s="2"/>
     </row>
-    <row r="61" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C61" s="2"/>
       <c r="D61" s="8" t="s">
         <v>4</v>
@@ -8528,7 +8525,7 @@
       <c r="CM61" s="2"/>
       <c r="CN61" s="2"/>
     </row>
-    <row r="62" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C62" s="2"/>
       <c r="D62" s="8" t="s">
         <v>5</v>
@@ -8644,7 +8641,7 @@
       <c r="CM62" s="2"/>
       <c r="CN62" s="2"/>
     </row>
-    <row r="63" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C63" s="2"/>
       <c r="D63" s="8" t="s">
         <v>6</v>
@@ -8760,7 +8757,7 @@
       <c r="CM63" s="2"/>
       <c r="CN63" s="2"/>
     </row>
-    <row r="64" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="2"/>
       <c r="E64" s="52" t="s">
         <v>37</v>
@@ -8861,7 +8858,7 @@
       <c r="CM64" s="2"/>
       <c r="CN64" s="2"/>
     </row>
-    <row r="65" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="s">
         <v>20</v>
@@ -8965,7 +8962,7 @@
       <c r="CM65" s="2"/>
       <c r="CN65" s="2"/>
     </row>
-    <row r="66" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C66" s="2"/>
       <c r="D66" s="8" t="s">
         <v>3</v>
@@ -9077,7 +9074,7 @@
       <c r="CM66" s="2"/>
       <c r="CN66" s="2"/>
     </row>
-    <row r="67" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C67" s="2"/>
       <c r="D67" s="8" t="s">
         <v>4</v>
@@ -9190,7 +9187,7 @@
       <c r="CM67" s="2"/>
       <c r="CN67" s="2"/>
     </row>
-    <row r="68" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C68" s="2"/>
       <c r="D68" s="8" t="s">
         <v>5</v>
@@ -9306,7 +9303,7 @@
       <c r="CM68" s="2"/>
       <c r="CN68" s="2"/>
     </row>
-    <row r="69" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C69" s="2"/>
       <c r="D69" s="8" t="s">
         <v>6</v>
@@ -9423,7 +9420,7 @@
       <c r="CM69" s="2"/>
       <c r="CN69" s="2"/>
     </row>
-    <row r="70" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" s="2"/>
       <c r="E70" s="52" t="s">
         <v>39</v>
@@ -9524,7 +9521,7 @@
       <c r="CM70" s="2"/>
       <c r="CN70" s="2"/>
     </row>
-    <row r="71" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C71" s="2"/>
       <c r="D71" s="4" t="s">
         <v>20</v>
@@ -9617,7 +9614,7 @@
       <c r="CM71" s="2"/>
       <c r="CN71" s="2"/>
     </row>
-    <row r="72" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C72" s="2"/>
       <c r="D72" s="15" t="s">
         <v>75</v>
@@ -9716,7 +9713,7 @@
       <c r="CM72" s="2"/>
       <c r="CN72" s="2"/>
     </row>
-    <row r="73" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C73" s="2"/>
       <c r="D73" s="15" t="s">
         <v>74</v>
@@ -9808,7 +9805,7 @@
       <c r="CM73" s="2"/>
       <c r="CN73" s="2"/>
     </row>
-    <row r="74" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C74" s="2"/>
       <c r="D74" s="15" t="s">
         <v>73</v>
@@ -9911,7 +9908,7 @@
       <c r="CM74" s="2"/>
       <c r="CN74" s="2"/>
     </row>
-    <row r="75" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C75" s="2"/>
       <c r="D75" s="15" t="s">
         <v>72</v>
@@ -10012,7 +10009,7 @@
       <c r="CM75" s="2"/>
       <c r="CN75" s="2"/>
     </row>
-    <row r="76" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" s="2"/>
       <c r="E76" s="52" t="s">
         <v>40</v>
@@ -10105,7 +10102,7 @@
       <c r="CM76" s="2"/>
       <c r="CN76" s="2"/>
     </row>
-    <row r="77" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C77" s="2"/>
       <c r="D77" s="4" t="s">
         <v>20</v>
@@ -10207,7 +10204,7 @@
       <c r="CM77" s="2"/>
       <c r="CN77" s="2"/>
     </row>
-    <row r="78" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C78" s="2"/>
       <c r="D78" s="15" t="s">
         <v>75</v>
@@ -10314,7 +10311,7 @@
       <c r="CM78" s="2"/>
       <c r="CN78" s="2"/>
     </row>
-    <row r="79" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C79" s="2"/>
       <c r="D79" s="15" t="s">
         <v>74</v>
@@ -10421,7 +10418,7 @@
       <c r="CM79" s="2"/>
       <c r="CN79" s="2"/>
     </row>
-    <row r="80" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C80" s="2"/>
       <c r="D80" s="15" t="s">
         <v>73</v>
@@ -10528,7 +10525,7 @@
       <c r="CM80" s="2"/>
       <c r="CN80" s="2"/>
     </row>
-    <row r="81" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C81" s="2"/>
       <c r="D81" s="15" t="s">
         <v>72</v>
@@ -10635,7 +10632,7 @@
       <c r="CM81" s="2"/>
       <c r="CN81" s="2"/>
     </row>
-    <row r="82" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" s="2"/>
       <c r="E82" s="52" t="s">
         <v>77</v>
@@ -10728,7 +10725,7 @@
       <c r="CM82" s="2"/>
       <c r="CN82" s="2"/>
     </row>
-    <row r="83" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C83" s="2"/>
       <c r="D83" s="4" t="s">
         <v>20</v>
@@ -10830,7 +10827,7 @@
       <c r="CM83" s="2"/>
       <c r="CN83" s="2"/>
     </row>
-    <row r="84" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C84" s="2"/>
       <c r="D84" s="15" t="s">
         <v>72</v>
@@ -10929,7 +10926,7 @@
       <c r="CM84" s="2"/>
       <c r="CN84" s="2"/>
     </row>
-    <row r="85" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C85" s="2"/>
       <c r="D85" s="15" t="s">
         <v>73</v>
@@ -11036,7 +11033,7 @@
       <c r="CM85" s="2"/>
       <c r="CN85" s="2"/>
     </row>
-    <row r="86" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C86" s="2"/>
       <c r="D86" s="15" t="s">
         <v>74</v>
@@ -11147,7 +11144,7 @@
       <c r="CM86" s="2"/>
       <c r="CN86" s="2"/>
     </row>
-    <row r="87" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C87" s="2"/>
       <c r="D87" s="15" t="s">
         <v>75</v>
@@ -11263,7 +11260,7 @@
       <c r="CM87" s="2"/>
       <c r="CN87" s="2"/>
     </row>
-    <row r="88" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" s="2"/>
       <c r="E88" s="52" t="s">
         <v>78</v>
@@ -11365,7 +11362,7 @@
       <c r="CM88" s="2"/>
       <c r="CN88" s="2"/>
     </row>
-    <row r="89" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C89" s="2"/>
       <c r="D89" s="4" t="s">
         <v>20</v>
@@ -11383,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="J89" s="2"/>
       <c r="R89" s="2"/>
@@ -11478,7 +11475,7 @@
       <c r="CM89" s="2"/>
       <c r="CN89" s="2"/>
     </row>
-    <row r="90" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C90" s="2"/>
       <c r="D90" s="15" t="s">
         <v>72</v>
@@ -11596,7 +11593,7 @@
       <c r="CM90" s="2"/>
       <c r="CN90" s="2"/>
     </row>
-    <row r="91" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C91" s="2"/>
       <c r="D91" s="15" t="s">
         <v>73</v>
@@ -11716,7 +11713,7 @@
       <c r="CM91" s="2"/>
       <c r="CN91" s="2"/>
     </row>
-    <row r="92" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C92" s="2"/>
       <c r="D92" s="15" t="s">
         <v>74</v>
@@ -11835,7 +11832,7 @@
       <c r="CM92" s="2"/>
       <c r="CN92" s="2"/>
     </row>
-    <row r="93" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C93" s="2"/>
       <c r="D93" s="15" t="s">
         <v>75</v>
@@ -11954,7 +11951,7 @@
       <c r="CM93" s="2"/>
       <c r="CN93" s="2"/>
     </row>
-    <row r="94" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C94" s="2"/>
       <c r="D94" s="15" t="s">
         <v>72</v>
@@ -12070,7 +12067,7 @@
       <c r="CM94" s="2"/>
       <c r="CN94" s="2"/>
     </row>
-    <row r="95" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C95" s="2"/>
       <c r="D95" s="15" t="s">
         <v>73</v>
@@ -12189,7 +12186,7 @@
       <c r="CM95" s="2"/>
       <c r="CN95" s="2"/>
     </row>
-    <row r="96" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C96" s="2"/>
       <c r="D96" s="15" t="s">
         <v>74</v>
@@ -12308,7 +12305,7 @@
       <c r="CM96" s="2"/>
       <c r="CN96" s="2"/>
     </row>
-    <row r="97" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C97" s="2"/>
       <c r="D97" s="15" t="s">
         <v>75</v>
@@ -12427,7 +12424,7 @@
       <c r="CM97" s="2"/>
       <c r="CN97" s="2"/>
     </row>
-    <row r="98" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C98" s="2"/>
       <c r="D98" s="15" t="s">
         <v>72</v>
@@ -12543,7 +12540,7 @@
       <c r="CM98" s="2"/>
       <c r="CN98" s="2"/>
     </row>
-    <row r="99" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C99" s="2"/>
       <c r="D99" s="15" t="s">
         <v>73</v>
@@ -12662,7 +12659,7 @@
       <c r="CM99" s="2"/>
       <c r="CN99" s="2"/>
     </row>
-    <row r="100" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C100" s="2"/>
       <c r="D100" s="15" t="s">
         <v>74</v>
@@ -12781,7 +12778,7 @@
       <c r="CM100" s="2"/>
       <c r="CN100" s="2"/>
     </row>
-    <row r="101" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C101" s="2"/>
       <c r="D101" s="15" t="s">
         <v>75</v>
@@ -12900,7 +12897,7 @@
       <c r="CM101" s="2"/>
       <c r="CN101" s="2"/>
     </row>
-    <row r="102" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C102" s="2"/>
       <c r="D102" s="15" t="s">
         <v>72</v>
@@ -13016,7 +13013,7 @@
       <c r="CM102" s="2"/>
       <c r="CN102" s="2"/>
     </row>
-    <row r="103" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C103" s="2"/>
       <c r="D103" s="15" t="s">
         <v>73</v>
@@ -13135,7 +13132,7 @@
       <c r="CM103" s="2"/>
       <c r="CN103" s="2"/>
     </row>
-    <row r="104" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C104" s="2"/>
       <c r="D104" s="15" t="s">
         <v>74</v>
@@ -13254,7 +13251,7 @@
       <c r="CM104" s="2"/>
       <c r="CN104" s="2"/>
     </row>
-    <row r="105" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C105" s="2"/>
       <c r="D105" s="15" t="s">
         <v>75</v>
@@ -13373,7 +13370,7 @@
       <c r="CM105" s="2"/>
       <c r="CN105" s="2"/>
     </row>
-    <row r="106" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C106" s="2"/>
       <c r="D106" s="15" t="s">
         <v>72</v>
@@ -13489,7 +13486,7 @@
       <c r="CM106" s="2"/>
       <c r="CN106" s="2"/>
     </row>
-    <row r="107" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C107" s="2"/>
       <c r="D107" s="15" t="s">
         <v>73</v>
@@ -13608,7 +13605,7 @@
       <c r="CM107" s="2"/>
       <c r="CN107" s="2"/>
     </row>
-    <row r="108" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C108" s="2"/>
       <c r="D108" s="15" t="s">
         <v>74</v>
@@ -13727,7 +13724,7 @@
       <c r="CM108" s="2"/>
       <c r="CN108" s="2"/>
     </row>
-    <row r="109" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C109" s="2"/>
       <c r="D109" s="15" t="s">
         <v>75</v>
@@ -13846,7 +13843,7 @@
       <c r="CM109" s="2"/>
       <c r="CN109" s="2"/>
     </row>
-    <row r="110" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C110" s="2"/>
       <c r="D110" s="15" t="s">
         <v>72</v>
@@ -13958,7 +13955,7 @@
       <c r="CM110" s="2"/>
       <c r="CN110" s="2"/>
     </row>
-    <row r="111" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C111" s="2"/>
       <c r="D111" s="15" t="s">
         <v>73</v>
@@ -14070,7 +14067,7 @@
       <c r="CM111" s="2"/>
       <c r="CN111" s="2"/>
     </row>
-    <row r="112" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C112" s="2"/>
       <c r="D112" s="15" t="s">
         <v>74</v>
@@ -14182,7 +14179,7 @@
       <c r="CM112" s="2"/>
       <c r="CN112" s="2"/>
     </row>
-    <row r="113" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C113" s="2"/>
       <c r="D113" s="15" t="s">
         <v>75</v>
@@ -14294,7 +14291,7 @@
       <c r="CM113" s="2"/>
       <c r="CN113" s="2"/>
     </row>
-    <row r="114" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -14384,7 +14381,7 @@
       <c r="CM114" s="2"/>
       <c r="CN114" s="2"/>
     </row>
-    <row r="115" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -14474,7 +14471,7 @@
       <c r="CM115" s="2"/>
       <c r="CN115" s="2"/>
     </row>
-    <row r="116" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -14564,7 +14561,7 @@
       <c r="CM116" s="2"/>
       <c r="CN116" s="2"/>
     </row>
-    <row r="117" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -14654,7 +14651,7 @@
       <c r="CM117" s="2"/>
       <c r="CN117" s="2"/>
     </row>
-    <row r="118" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -14746,7 +14743,7 @@
       <c r="CM118" s="2"/>
       <c r="CN118" s="2"/>
     </row>
-    <row r="119" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -14838,7 +14835,7 @@
       <c r="CM119" s="2"/>
       <c r="CN119" s="2"/>
     </row>
-    <row r="120" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -14930,7 +14927,7 @@
       <c r="CM120" s="2"/>
       <c r="CN120" s="2"/>
     </row>
-    <row r="121" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -15022,7 +15019,7 @@
       <c r="CM121" s="2"/>
       <c r="CN121" s="2"/>
     </row>
-    <row r="122" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -15114,7 +15111,7 @@
       <c r="CM122" s="2"/>
       <c r="CN122" s="2"/>
     </row>
-    <row r="123" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -15206,7 +15203,7 @@
       <c r="CM123" s="2"/>
       <c r="CN123" s="2"/>
     </row>
-    <row r="124" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -15298,7 +15295,7 @@
       <c r="CM124" s="2"/>
       <c r="CN124" s="2"/>
     </row>
-    <row r="125" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -15390,7 +15387,7 @@
       <c r="CM125" s="2"/>
       <c r="CN125" s="2"/>
     </row>
-    <row r="126" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -15482,7 +15479,7 @@
       <c r="CM126" s="2"/>
       <c r="CN126" s="2"/>
     </row>
-    <row r="127" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -15574,7 +15571,7 @@
       <c r="CM127" s="2"/>
       <c r="CN127" s="2"/>
     </row>
-    <row r="128" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -15666,7 +15663,7 @@
       <c r="CM128" s="2"/>
       <c r="CN128" s="2"/>
     </row>
-    <row r="129" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -15758,7 +15755,7 @@
       <c r="CM129" s="2"/>
       <c r="CN129" s="2"/>
     </row>
-    <row r="130" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -15850,7 +15847,7 @@
       <c r="CM130" s="2"/>
       <c r="CN130" s="2"/>
     </row>
-    <row r="131" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -15942,7 +15939,7 @@
       <c r="CM131" s="2"/>
       <c r="CN131" s="2"/>
     </row>
-    <row r="132" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -16034,7 +16031,7 @@
       <c r="CM132" s="2"/>
       <c r="CN132" s="2"/>
     </row>
-    <row r="133" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -16126,7 +16123,7 @@
       <c r="CM133" s="2"/>
       <c r="CN133" s="2"/>
     </row>
-    <row r="134" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -16218,7 +16215,7 @@
       <c r="CM134" s="2"/>
       <c r="CN134" s="2"/>
     </row>
-    <row r="135" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -16310,7 +16307,7 @@
       <c r="CM135" s="2"/>
       <c r="CN135" s="2"/>
     </row>
-    <row r="136" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -16402,7 +16399,7 @@
       <c r="CM136" s="2"/>
       <c r="CN136" s="2"/>
     </row>
-    <row r="137" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -16494,7 +16491,7 @@
       <c r="CM137" s="2"/>
       <c r="CN137" s="2"/>
     </row>
-    <row r="138" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -16586,7 +16583,7 @@
       <c r="CM138" s="2"/>
       <c r="CN138" s="2"/>
     </row>
-    <row r="139" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -16678,7 +16675,7 @@
       <c r="CM139" s="2"/>
       <c r="CN139" s="2"/>
     </row>
-    <row r="140" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -16770,7 +16767,7 @@
       <c r="CM140" s="2"/>
       <c r="CN140" s="2"/>
     </row>
-    <row r="141" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -16862,7 +16859,7 @@
       <c r="CM141" s="2"/>
       <c r="CN141" s="2"/>
     </row>
-    <row r="142" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -16954,7 +16951,7 @@
       <c r="CM142" s="2"/>
       <c r="CN142" s="2"/>
     </row>
-    <row r="143" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -17046,7 +17043,7 @@
       <c r="CM143" s="2"/>
       <c r="CN143" s="2"/>
     </row>
-    <row r="144" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -17138,7 +17135,7 @@
       <c r="CM144" s="2"/>
       <c r="CN144" s="2"/>
     </row>
-    <row r="145" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -17230,7 +17227,7 @@
       <c r="CM145" s="2"/>
       <c r="CN145" s="2"/>
     </row>
-    <row r="146" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -17322,7 +17319,7 @@
       <c r="CM146" s="2"/>
       <c r="CN146" s="2"/>
     </row>
-    <row r="147" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -17414,7 +17411,7 @@
       <c r="CM147" s="2"/>
       <c r="CN147" s="2"/>
     </row>
-    <row r="148" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -17506,7 +17503,7 @@
       <c r="CM148" s="2"/>
       <c r="CN148" s="2"/>
     </row>
-    <row r="149" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -17598,7 +17595,7 @@
       <c r="CM149" s="2"/>
       <c r="CN149" s="2"/>
     </row>
-    <row r="150" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -17690,7 +17687,7 @@
       <c r="CM150" s="2"/>
       <c r="CN150" s="2"/>
     </row>
-    <row r="151" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -17782,7 +17779,7 @@
       <c r="CM151" s="2"/>
       <c r="CN151" s="2"/>
     </row>
-    <row r="152" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -17874,7 +17871,7 @@
       <c r="CM152" s="2"/>
       <c r="CN152" s="2"/>
     </row>
-    <row r="153" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -17966,7 +17963,7 @@
       <c r="CM153" s="2"/>
       <c r="CN153" s="2"/>
     </row>
-    <row r="154" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -18058,7 +18055,7 @@
       <c r="CM154" s="2"/>
       <c r="CN154" s="2"/>
     </row>
-    <row r="155" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -18150,7 +18147,7 @@
       <c r="CM155" s="2"/>
       <c r="CN155" s="2"/>
     </row>
-    <row r="156" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -18242,7 +18239,7 @@
       <c r="CM156" s="2"/>
       <c r="CN156" s="2"/>
     </row>
-    <row r="157" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -18334,7 +18331,7 @@
       <c r="CM157" s="2"/>
       <c r="CN157" s="2"/>
     </row>
-    <row r="158" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -18426,7 +18423,7 @@
       <c r="CM158" s="2"/>
       <c r="CN158" s="2"/>
     </row>
-    <row r="159" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -18518,7 +18515,7 @@
       <c r="CM159" s="2"/>
       <c r="CN159" s="2"/>
     </row>
-    <row r="160" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -18610,7 +18607,7 @@
       <c r="CM160" s="2"/>
       <c r="CN160" s="2"/>
     </row>
-    <row r="161" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -18702,7 +18699,7 @@
       <c r="CM161" s="2"/>
       <c r="CN161" s="2"/>
     </row>
-    <row r="162" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -18794,7 +18791,7 @@
       <c r="CM162" s="2"/>
       <c r="CN162" s="2"/>
     </row>
-    <row r="163" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -18886,7 +18883,7 @@
       <c r="CM163" s="2"/>
       <c r="CN163" s="2"/>
     </row>
-    <row r="164" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -18978,7 +18975,7 @@
       <c r="CM164" s="2"/>
       <c r="CN164" s="2"/>
     </row>
-    <row r="165" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -19070,7 +19067,7 @@
       <c r="CM165" s="2"/>
       <c r="CN165" s="2"/>
     </row>
-    <row r="166" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -19162,7 +19159,7 @@
       <c r="CM166" s="2"/>
       <c r="CN166" s="2"/>
     </row>
-    <row r="167" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -19254,7 +19251,7 @@
       <c r="CM167" s="2"/>
       <c r="CN167" s="2"/>
     </row>
-    <row r="168" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -19346,7 +19343,7 @@
       <c r="CM168" s="2"/>
       <c r="CN168" s="2"/>
     </row>
-    <row r="169" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -19438,7 +19435,7 @@
       <c r="CM169" s="2"/>
       <c r="CN169" s="2"/>
     </row>
-    <row r="170" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -19530,7 +19527,7 @@
       <c r="CM170" s="2"/>
       <c r="CN170" s="2"/>
     </row>
-    <row r="171" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -19622,7 +19619,7 @@
       <c r="CM171" s="2"/>
       <c r="CN171" s="2"/>
     </row>
-    <row r="172" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -19714,7 +19711,7 @@
       <c r="CM172" s="2"/>
       <c r="CN172" s="2"/>
     </row>
-    <row r="173" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -19806,7 +19803,7 @@
       <c r="CM173" s="2"/>
       <c r="CN173" s="2"/>
     </row>
-    <row r="174" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -19898,7 +19895,7 @@
       <c r="CM174" s="2"/>
       <c r="CN174" s="2"/>
     </row>
-    <row r="175" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -19990,7 +19987,7 @@
       <c r="CM175" s="2"/>
       <c r="CN175" s="2"/>
     </row>
-    <row r="176" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -20082,7 +20079,7 @@
       <c r="CM176" s="2"/>
       <c r="CN176" s="2"/>
     </row>
-    <row r="177" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -20174,7 +20171,7 @@
       <c r="CM177" s="2"/>
       <c r="CN177" s="2"/>
     </row>
-    <row r="178" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -20266,7 +20263,7 @@
       <c r="CM178" s="2"/>
       <c r="CN178" s="2"/>
     </row>
-    <row r="179" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -20358,7 +20355,7 @@
       <c r="CM179" s="2"/>
       <c r="CN179" s="2"/>
     </row>
-    <row r="180" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -20450,7 +20447,7 @@
       <c r="CM180" s="2"/>
       <c r="CN180" s="2"/>
     </row>
-    <row r="181" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -20542,7 +20539,7 @@
       <c r="CM181" s="2"/>
       <c r="CN181" s="2"/>
     </row>
-    <row r="182" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -20634,7 +20631,7 @@
       <c r="CM182" s="2"/>
       <c r="CN182" s="2"/>
     </row>
-    <row r="183" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -20726,7 +20723,7 @@
       <c r="CM183" s="2"/>
       <c r="CN183" s="2"/>
     </row>
-    <row r="184" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -20818,7 +20815,7 @@
       <c r="CM184" s="2"/>
       <c r="CN184" s="2"/>
     </row>
-    <row r="185" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -20910,7 +20907,7 @@
       <c r="CM185" s="2"/>
       <c r="CN185" s="2"/>
     </row>
-    <row r="186" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -21002,7 +20999,7 @@
       <c r="CM186" s="2"/>
       <c r="CN186" s="2"/>
     </row>
-    <row r="187" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -21094,7 +21091,7 @@
       <c r="CM187" s="2"/>
       <c r="CN187" s="2"/>
     </row>
-    <row r="188" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -21186,7 +21183,7 @@
       <c r="CM188" s="2"/>
       <c r="CN188" s="2"/>
     </row>
-    <row r="189" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -21278,7 +21275,7 @@
       <c r="CM189" s="2"/>
       <c r="CN189" s="2"/>
     </row>
-    <row r="190" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -21370,7 +21367,7 @@
       <c r="CM190" s="2"/>
       <c r="CN190" s="2"/>
     </row>
-    <row r="191" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -21462,7 +21459,7 @@
       <c r="CM191" s="2"/>
       <c r="CN191" s="2"/>
     </row>
-    <row r="192" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -21554,7 +21551,7 @@
       <c r="CM192" s="2"/>
       <c r="CN192" s="2"/>
     </row>
-    <row r="193" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -21646,7 +21643,7 @@
       <c r="CM193" s="2"/>
       <c r="CN193" s="2"/>
     </row>
-    <row r="194" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -21738,7 +21735,7 @@
       <c r="CM194" s="2"/>
       <c r="CN194" s="2"/>
     </row>
-    <row r="195" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -21830,7 +21827,7 @@
       <c r="CM195" s="2"/>
       <c r="CN195" s="2"/>
     </row>
-    <row r="196" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -21922,7 +21919,7 @@
       <c r="CM196" s="2"/>
       <c r="CN196" s="2"/>
     </row>
-    <row r="197" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -22014,7 +22011,7 @@
       <c r="CM197" s="2"/>
       <c r="CN197" s="2"/>
     </row>
-    <row r="198" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -22106,7 +22103,7 @@
       <c r="CM198" s="2"/>
       <c r="CN198" s="2"/>
     </row>
-    <row r="199" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -22198,7 +22195,7 @@
       <c r="CM199" s="2"/>
       <c r="CN199" s="2"/>
     </row>
-    <row r="200" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -22290,7 +22287,7 @@
       <c r="CM200" s="2"/>
       <c r="CN200" s="2"/>
     </row>
-    <row r="201" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -22382,7 +22379,7 @@
       <c r="CM201" s="2"/>
       <c r="CN201" s="2"/>
     </row>
-    <row r="202" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -22474,7 +22471,7 @@
       <c r="CM202" s="2"/>
       <c r="CN202" s="2"/>
     </row>
-    <row r="203" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -22566,7 +22563,7 @@
       <c r="CM203" s="2"/>
       <c r="CN203" s="2"/>
     </row>
-    <row r="204" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -22658,7 +22655,7 @@
       <c r="CM204" s="2"/>
       <c r="CN204" s="2"/>
     </row>
-    <row r="205" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -22750,7 +22747,7 @@
       <c r="CM205" s="2"/>
       <c r="CN205" s="2"/>
     </row>
-    <row r="206" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -22842,7 +22839,7 @@
       <c r="CM206" s="2"/>
       <c r="CN206" s="2"/>
     </row>
-    <row r="207" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -22934,7 +22931,7 @@
       <c r="CM207" s="2"/>
       <c r="CN207" s="2"/>
     </row>
-    <row r="208" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -23026,7 +23023,7 @@
       <c r="CM208" s="2"/>
       <c r="CN208" s="2"/>
     </row>
-    <row r="209" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -23118,7 +23115,7 @@
       <c r="CM209" s="2"/>
       <c r="CN209" s="2"/>
     </row>
-    <row r="210" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -23210,7 +23207,7 @@
       <c r="CM210" s="2"/>
       <c r="CN210" s="2"/>
     </row>
-    <row r="211" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -23302,7 +23299,7 @@
       <c r="CM211" s="2"/>
       <c r="CN211" s="2"/>
     </row>
-    <row r="212" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -23394,7 +23391,7 @@
       <c r="CM212" s="2"/>
       <c r="CN212" s="2"/>
     </row>
-    <row r="213" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -23486,7 +23483,7 @@
       <c r="CM213" s="2"/>
       <c r="CN213" s="2"/>
     </row>
-    <row r="214" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -23578,7 +23575,7 @@
       <c r="CM214" s="2"/>
       <c r="CN214" s="2"/>
     </row>
-    <row r="215" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -23670,7 +23667,7 @@
       <c r="CM215" s="2"/>
       <c r="CN215" s="2"/>
     </row>
-    <row r="216" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -23762,7 +23759,7 @@
       <c r="CM216" s="2"/>
       <c r="CN216" s="2"/>
     </row>
-    <row r="217" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -23854,7 +23851,7 @@
       <c r="CM217" s="2"/>
       <c r="CN217" s="2"/>
     </row>
-    <row r="218" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -23946,7 +23943,7 @@
       <c r="CM218" s="2"/>
       <c r="CN218" s="2"/>
     </row>
-    <row r="219" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -24038,7 +24035,7 @@
       <c r="CM219" s="2"/>
       <c r="CN219" s="2"/>
     </row>
-    <row r="220" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -24130,7 +24127,7 @@
       <c r="CM220" s="2"/>
       <c r="CN220" s="2"/>
     </row>
-    <row r="221" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -24222,7 +24219,7 @@
       <c r="CM221" s="2"/>
       <c r="CN221" s="2"/>
     </row>
-    <row r="222" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -24314,7 +24311,7 @@
       <c r="CM222" s="2"/>
       <c r="CN222" s="2"/>
     </row>
-    <row r="223" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -24406,7 +24403,7 @@
       <c r="CM223" s="2"/>
       <c r="CN223" s="2"/>
     </row>
-    <row r="224" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -24498,7 +24495,7 @@
       <c r="CM224" s="2"/>
       <c r="CN224" s="2"/>
     </row>
-    <row r="225" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -24590,7 +24587,7 @@
       <c r="CM225" s="2"/>
       <c r="CN225" s="2"/>
     </row>
-    <row r="226" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -24682,7 +24679,7 @@
       <c r="CM226" s="2"/>
       <c r="CN226" s="2"/>
     </row>
-    <row r="227" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -24774,7 +24771,7 @@
       <c r="CM227" s="2"/>
       <c r="CN227" s="2"/>
     </row>
-    <row r="228" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -24866,7 +24863,7 @@
       <c r="CM228" s="2"/>
       <c r="CN228" s="2"/>
     </row>
-    <row r="229" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -24958,7 +24955,7 @@
       <c r="CM229" s="2"/>
       <c r="CN229" s="2"/>
     </row>
-    <row r="230" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -25050,7 +25047,7 @@
       <c r="CM230" s="2"/>
       <c r="CN230" s="2"/>
     </row>
-    <row r="231" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -25142,7 +25139,7 @@
       <c r="CM231" s="2"/>
       <c r="CN231" s="2"/>
     </row>
-    <row r="232" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -25234,7 +25231,7 @@
       <c r="CM232" s="2"/>
       <c r="CN232" s="2"/>
     </row>
-    <row r="233" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -25326,7 +25323,7 @@
       <c r="CM233" s="2"/>
       <c r="CN233" s="2"/>
     </row>
-    <row r="234" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -25418,7 +25415,7 @@
       <c r="CM234" s="2"/>
       <c r="CN234" s="2"/>
     </row>
-    <row r="235" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -25510,7 +25507,7 @@
       <c r="CM235" s="2"/>
       <c r="CN235" s="2"/>
     </row>
-    <row r="236" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -25602,7 +25599,7 @@
       <c r="CM236" s="2"/>
       <c r="CN236" s="2"/>
     </row>
-    <row r="237" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -25694,7 +25691,7 @@
       <c r="CM237" s="2"/>
       <c r="CN237" s="2"/>
     </row>
-    <row r="238" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -25786,7 +25783,7 @@
       <c r="CM238" s="2"/>
       <c r="CN238" s="2"/>
     </row>
-    <row r="239" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -25878,7 +25875,7 @@
       <c r="CM239" s="2"/>
       <c r="CN239" s="2"/>
     </row>
-    <row r="240" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -25970,7 +25967,7 @@
       <c r="CM240" s="2"/>
       <c r="CN240" s="2"/>
     </row>
-    <row r="241" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -26062,7 +26059,7 @@
       <c r="CM241" s="2"/>
       <c r="CN241" s="2"/>
     </row>
-    <row r="242" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -26154,7 +26151,7 @@
       <c r="CM242" s="2"/>
       <c r="CN242" s="2"/>
     </row>
-    <row r="243" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -26246,7 +26243,7 @@
       <c r="CM243" s="2"/>
       <c r="CN243" s="2"/>
     </row>
-    <row r="244" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -26338,7 +26335,7 @@
       <c r="CM244" s="2"/>
       <c r="CN244" s="2"/>
     </row>
-    <row r="245" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -26430,7 +26427,7 @@
       <c r="CM245" s="2"/>
       <c r="CN245" s="2"/>
     </row>
-    <row r="246" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -26522,7 +26519,7 @@
       <c r="CM246" s="2"/>
       <c r="CN246" s="2"/>
     </row>
-    <row r="247" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -26614,7 +26611,7 @@
       <c r="CM247" s="2"/>
       <c r="CN247" s="2"/>
     </row>
-    <row r="248" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -26706,7 +26703,7 @@
       <c r="CM248" s="2"/>
       <c r="CN248" s="2"/>
     </row>
-    <row r="249" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -26798,7 +26795,7 @@
       <c r="CM249" s="2"/>
       <c r="CN249" s="2"/>
     </row>
-    <row r="250" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -26890,7 +26887,7 @@
       <c r="CM250" s="2"/>
       <c r="CN250" s="2"/>
     </row>
-    <row r="251" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -26982,7 +26979,7 @@
       <c r="CM251" s="2"/>
       <c r="CN251" s="2"/>
     </row>
-    <row r="252" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -27074,7 +27071,7 @@
       <c r="CM252" s="2"/>
       <c r="CN252" s="2"/>
     </row>
-    <row r="253" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -27166,7 +27163,7 @@
       <c r="CM253" s="2"/>
       <c r="CN253" s="2"/>
     </row>
-    <row r="254" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -27258,7 +27255,7 @@
       <c r="CM254" s="2"/>
       <c r="CN254" s="2"/>
     </row>
-    <row r="255" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -27350,7 +27347,7 @@
       <c r="CM255" s="2"/>
       <c r="CN255" s="2"/>
     </row>
-    <row r="256" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -27442,7 +27439,7 @@
       <c r="CM256" s="2"/>
       <c r="CN256" s="2"/>
     </row>
-    <row r="257" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -27534,7 +27531,7 @@
       <c r="CM257" s="2"/>
       <c r="CN257" s="2"/>
     </row>
-    <row r="258" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -27626,7 +27623,7 @@
       <c r="CM258" s="2"/>
       <c r="CN258" s="2"/>
     </row>
-    <row r="259" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -27718,7 +27715,7 @@
       <c r="CM259" s="2"/>
       <c r="CN259" s="2"/>
     </row>
-    <row r="260" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -27810,7 +27807,7 @@
       <c r="CM260" s="2"/>
       <c r="CN260" s="2"/>
     </row>
-    <row r="261" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -27902,7 +27899,7 @@
       <c r="CM261" s="2"/>
       <c r="CN261" s="2"/>
     </row>
-    <row r="262" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -27994,7 +27991,7 @@
       <c r="CM262" s="2"/>
       <c r="CN262" s="2"/>
     </row>
-    <row r="263" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -28086,7 +28083,7 @@
       <c r="CM263" s="2"/>
       <c r="CN263" s="2"/>
     </row>
-    <row r="264" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -28178,7 +28175,7 @@
       <c r="CM264" s="2"/>
       <c r="CN264" s="2"/>
     </row>
-    <row r="265" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -28270,7 +28267,7 @@
       <c r="CM265" s="2"/>
       <c r="CN265" s="2"/>
     </row>
-    <row r="266" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -28362,7 +28359,7 @@
       <c r="CM266" s="2"/>
       <c r="CN266" s="2"/>
     </row>
-    <row r="267" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -28454,7 +28451,7 @@
       <c r="CM267" s="2"/>
       <c r="CN267" s="2"/>
     </row>
-    <row r="268" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -28546,7 +28543,7 @@
       <c r="CM268" s="2"/>
       <c r="CN268" s="2"/>
     </row>
-    <row r="269" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -28638,7 +28635,7 @@
       <c r="CM269" s="2"/>
       <c r="CN269" s="2"/>
     </row>
-    <row r="270" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -28730,7 +28727,7 @@
       <c r="CM270" s="2"/>
       <c r="CN270" s="2"/>
     </row>
-    <row r="271" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -28822,7 +28819,7 @@
       <c r="CM271" s="2"/>
       <c r="CN271" s="2"/>
     </row>
-    <row r="272" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -28914,7 +28911,7 @@
       <c r="CM272" s="2"/>
       <c r="CN272" s="2"/>
     </row>
-    <row r="273" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -29006,7 +29003,7 @@
       <c r="CM273" s="2"/>
       <c r="CN273" s="2"/>
     </row>
-    <row r="274" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -29098,7 +29095,7 @@
       <c r="CM274" s="2"/>
       <c r="CN274" s="2"/>
     </row>
-    <row r="275" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -29190,7 +29187,7 @@
       <c r="CM275" s="2"/>
       <c r="CN275" s="2"/>
     </row>
-    <row r="276" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -29282,7 +29279,7 @@
       <c r="CM276" s="2"/>
       <c r="CN276" s="2"/>
     </row>
-    <row r="277" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -29374,7 +29371,7 @@
       <c r="CM277" s="2"/>
       <c r="CN277" s="2"/>
     </row>
-    <row r="278" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -29466,7 +29463,7 @@
       <c r="CM278" s="2"/>
       <c r="CN278" s="2"/>
     </row>
-    <row r="279" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -29558,7 +29555,7 @@
       <c r="CM279" s="2"/>
       <c r="CN279" s="2"/>
     </row>
-    <row r="280" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -29650,7 +29647,7 @@
       <c r="CM280" s="2"/>
       <c r="CN280" s="2"/>
     </row>
-    <row r="281" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -29742,7 +29739,7 @@
       <c r="CM281" s="2"/>
       <c r="CN281" s="2"/>
     </row>
-    <row r="282" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -29834,7 +29831,7 @@
       <c r="CM282" s="2"/>
       <c r="CN282" s="2"/>
     </row>
-    <row r="283" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -29926,7 +29923,7 @@
       <c r="CM283" s="2"/>
       <c r="CN283" s="2"/>
     </row>
-    <row r="284" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -30018,7 +30015,7 @@
       <c r="CM284" s="2"/>
       <c r="CN284" s="2"/>
     </row>
-    <row r="285" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -30110,7 +30107,7 @@
       <c r="CM285" s="2"/>
       <c r="CN285" s="2"/>
     </row>
-    <row r="286" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -30202,7 +30199,7 @@
       <c r="CM286" s="2"/>
       <c r="CN286" s="2"/>
     </row>
-    <row r="287" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -30294,7 +30291,7 @@
       <c r="CM287" s="2"/>
       <c r="CN287" s="2"/>
     </row>
-    <row r="288" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -30386,7 +30383,7 @@
       <c r="CM288" s="2"/>
       <c r="CN288" s="2"/>
     </row>
-    <row r="289" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -30478,7 +30475,7 @@
       <c r="CM289" s="2"/>
       <c r="CN289" s="2"/>
     </row>
-    <row r="290" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -30570,7 +30567,7 @@
       <c r="CM290" s="2"/>
       <c r="CN290" s="2"/>
     </row>
-    <row r="291" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -30662,7 +30659,7 @@
       <c r="CM291" s="2"/>
       <c r="CN291" s="2"/>
     </row>
-    <row r="292" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -30754,7 +30751,7 @@
       <c r="CM292" s="2"/>
       <c r="CN292" s="2"/>
     </row>
-    <row r="293" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -30846,7 +30843,7 @@
       <c r="CM293" s="2"/>
       <c r="CN293" s="2"/>
     </row>
-    <row r="294" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -30938,7 +30935,7 @@
       <c r="CM294" s="2"/>
       <c r="CN294" s="2"/>
     </row>
-    <row r="295" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -31030,7 +31027,7 @@
       <c r="CM295" s="2"/>
       <c r="CN295" s="2"/>
     </row>
-    <row r="296" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -31122,7 +31119,7 @@
       <c r="CM296" s="2"/>
       <c r="CN296" s="2"/>
     </row>
-    <row r="297" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -31214,7 +31211,7 @@
       <c r="CM297" s="2"/>
       <c r="CN297" s="2"/>
     </row>
-    <row r="298" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -31306,7 +31303,7 @@
       <c r="CM298" s="2"/>
       <c r="CN298" s="2"/>
     </row>
-    <row r="299" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -31398,7 +31395,7 @@
       <c r="CM299" s="2"/>
       <c r="CN299" s="2"/>
     </row>
-    <row r="300" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -31490,7 +31487,7 @@
       <c r="CM300" s="2"/>
       <c r="CN300" s="2"/>
     </row>
-    <row r="301" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -31582,7 +31579,7 @@
       <c r="CM301" s="2"/>
       <c r="CN301" s="2"/>
     </row>
-    <row r="302" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -31674,7 +31671,7 @@
       <c r="CM302" s="2"/>
       <c r="CN302" s="2"/>
     </row>
-    <row r="303" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -31766,7 +31763,7 @@
       <c r="CM303" s="2"/>
       <c r="CN303" s="2"/>
     </row>
-    <row r="304" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -31858,7 +31855,7 @@
       <c r="CM304" s="2"/>
       <c r="CN304" s="2"/>
     </row>
-    <row r="305" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -31950,7 +31947,7 @@
       <c r="CM305" s="2"/>
       <c r="CN305" s="2"/>
     </row>
-    <row r="306" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -32042,7 +32039,7 @@
       <c r="CM306" s="2"/>
       <c r="CN306" s="2"/>
     </row>
-    <row r="307" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -32134,7 +32131,7 @@
       <c r="CM307" s="2"/>
       <c r="CN307" s="2"/>
     </row>
-    <row r="308" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -32226,7 +32223,7 @@
       <c r="CM308" s="2"/>
       <c r="CN308" s="2"/>
     </row>
-    <row r="309" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -32318,7 +32315,7 @@
       <c r="CM309" s="2"/>
       <c r="CN309" s="2"/>
     </row>
-    <row r="310" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -32410,7 +32407,7 @@
       <c r="CM310" s="2"/>
       <c r="CN310" s="2"/>
     </row>
-    <row r="311" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -32502,7 +32499,7 @@
       <c r="CM311" s="2"/>
       <c r="CN311" s="2"/>
     </row>
-    <row r="312" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -32594,7 +32591,7 @@
       <c r="CM312" s="2"/>
       <c r="CN312" s="2"/>
     </row>
-    <row r="313" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -32686,7 +32683,7 @@
       <c r="CM313" s="2"/>
       <c r="CN313" s="2"/>
     </row>
-    <row r="314" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -32778,7 +32775,7 @@
       <c r="CM314" s="2"/>
       <c r="CN314" s="2"/>
     </row>
-    <row r="315" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -32870,7 +32867,7 @@
       <c r="CM315" s="2"/>
       <c r="CN315" s="2"/>
     </row>
-    <row r="316" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -32962,7 +32959,7 @@
       <c r="CM316" s="2"/>
       <c r="CN316" s="2"/>
     </row>
-    <row r="317" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -33054,7 +33051,7 @@
       <c r="CM317" s="2"/>
       <c r="CN317" s="2"/>
     </row>
-    <row r="318" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -33146,7 +33143,7 @@
       <c r="CM318" s="2"/>
       <c r="CN318" s="2"/>
     </row>
-    <row r="319" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -33238,7 +33235,7 @@
       <c r="CM319" s="2"/>
       <c r="CN319" s="2"/>
     </row>
-    <row r="320" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -33330,7 +33327,7 @@
       <c r="CM320" s="2"/>
       <c r="CN320" s="2"/>
     </row>
-    <row r="321" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -33422,7 +33419,7 @@
       <c r="CM321" s="2"/>
       <c r="CN321" s="2"/>
     </row>
-    <row r="322" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -33514,7 +33511,7 @@
       <c r="CM322" s="2"/>
       <c r="CN322" s="2"/>
     </row>
-    <row r="323" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -33606,7 +33603,7 @@
       <c r="CM323" s="2"/>
       <c r="CN323" s="2"/>
     </row>
-    <row r="324" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -33698,7 +33695,7 @@
       <c r="CM324" s="2"/>
       <c r="CN324" s="2"/>
     </row>
-    <row r="325" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -33790,7 +33787,7 @@
       <c r="CM325" s="2"/>
       <c r="CN325" s="2"/>
     </row>
-    <row r="326" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -33882,7 +33879,7 @@
       <c r="CM326" s="2"/>
       <c r="CN326" s="2"/>
     </row>
-    <row r="327" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -33974,7 +33971,7 @@
       <c r="CM327" s="2"/>
       <c r="CN327" s="2"/>
     </row>
-    <row r="328" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -34066,7 +34063,7 @@
       <c r="CM328" s="2"/>
       <c r="CN328" s="2"/>
     </row>
-    <row r="329" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -34158,7 +34155,7 @@
       <c r="CM329" s="2"/>
       <c r="CN329" s="2"/>
     </row>
-    <row r="330" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -34250,7 +34247,7 @@
       <c r="CM330" s="2"/>
       <c r="CN330" s="2"/>
     </row>
-    <row r="331" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -34342,7 +34339,7 @@
       <c r="CM331" s="2"/>
       <c r="CN331" s="2"/>
     </row>
-    <row r="332" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -34434,7 +34431,7 @@
       <c r="CM332" s="2"/>
       <c r="CN332" s="2"/>
     </row>
-    <row r="333" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -34526,7 +34523,7 @@
       <c r="CM333" s="2"/>
       <c r="CN333" s="2"/>
     </row>
-    <row r="334" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -34618,7 +34615,7 @@
       <c r="CM334" s="2"/>
       <c r="CN334" s="2"/>
     </row>
-    <row r="335" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -34710,7 +34707,7 @@
       <c r="CM335" s="2"/>
       <c r="CN335" s="2"/>
     </row>
-    <row r="336" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -34802,7 +34799,7 @@
       <c r="CM336" s="2"/>
       <c r="CN336" s="2"/>
     </row>
-    <row r="337" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -34894,7 +34891,7 @@
       <c r="CM337" s="2"/>
       <c r="CN337" s="2"/>
     </row>
-    <row r="338" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -34986,7 +34983,7 @@
       <c r="CM338" s="2"/>
       <c r="CN338" s="2"/>
     </row>
-    <row r="339" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -35078,7 +35075,7 @@
       <c r="CM339" s="2"/>
       <c r="CN339" s="2"/>
     </row>
-    <row r="340" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -35170,7 +35167,7 @@
       <c r="CM340" s="2"/>
       <c r="CN340" s="2"/>
     </row>
-    <row r="341" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -35262,7 +35259,7 @@
       <c r="CM341" s="2"/>
       <c r="CN341" s="2"/>
     </row>
-    <row r="342" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -35354,7 +35351,7 @@
       <c r="CM342" s="2"/>
       <c r="CN342" s="2"/>
     </row>
-    <row r="343" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -35446,7 +35443,7 @@
       <c r="CM343" s="2"/>
       <c r="CN343" s="2"/>
     </row>
-    <row r="344" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -35538,7 +35535,7 @@
       <c r="CM344" s="2"/>
       <c r="CN344" s="2"/>
     </row>
-    <row r="345" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -35630,7 +35627,7 @@
       <c r="CM345" s="2"/>
       <c r="CN345" s="2"/>
     </row>
-    <row r="346" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -35722,7 +35719,7 @@
       <c r="CM346" s="2"/>
       <c r="CN346" s="2"/>
     </row>
-    <row r="347" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -35814,7 +35811,7 @@
       <c r="CM347" s="2"/>
       <c r="CN347" s="2"/>
     </row>
-    <row r="348" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -35906,7 +35903,7 @@
       <c r="CM348" s="2"/>
       <c r="CN348" s="2"/>
     </row>
-    <row r="349" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -35998,7 +35995,7 @@
       <c r="CM349" s="2"/>
       <c r="CN349" s="2"/>
     </row>
-    <row r="350" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -36090,7 +36087,7 @@
       <c r="CM350" s="2"/>
       <c r="CN350" s="2"/>
     </row>
-    <row r="351" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -36182,7 +36179,7 @@
       <c r="CM351" s="2"/>
       <c r="CN351" s="2"/>
     </row>
-    <row r="352" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -36274,7 +36271,7 @@
       <c r="CM352" s="2"/>
       <c r="CN352" s="2"/>
     </row>
-    <row r="353" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -36366,7 +36363,7 @@
       <c r="CM353" s="2"/>
       <c r="CN353" s="2"/>
     </row>
-    <row r="354" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -36458,7 +36455,7 @@
       <c r="CM354" s="2"/>
       <c r="CN354" s="2"/>
     </row>
-    <row r="355" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -36550,7 +36547,7 @@
       <c r="CM355" s="2"/>
       <c r="CN355" s="2"/>
     </row>
-    <row r="356" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -36642,7 +36639,7 @@
       <c r="CM356" s="2"/>
       <c r="CN356" s="2"/>
     </row>
-    <row r="357" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -36734,7 +36731,7 @@
       <c r="CM357" s="2"/>
       <c r="CN357" s="2"/>
     </row>
-    <row r="358" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -36826,7 +36823,7 @@
       <c r="CM358" s="2"/>
       <c r="CN358" s="2"/>
     </row>
-    <row r="359" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -36918,7 +36915,7 @@
       <c r="CM359" s="2"/>
       <c r="CN359" s="2"/>
     </row>
-    <row r="360" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -37010,7 +37007,7 @@
       <c r="CM360" s="2"/>
       <c r="CN360" s="2"/>
     </row>
-    <row r="361" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -37102,7 +37099,7 @@
       <c r="CM361" s="2"/>
       <c r="CN361" s="2"/>
     </row>
-    <row r="362" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -37194,7 +37191,7 @@
       <c r="CM362" s="2"/>
       <c r="CN362" s="2"/>
     </row>
-    <row r="363" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -37286,7 +37283,7 @@
       <c r="CM363" s="2"/>
       <c r="CN363" s="2"/>
     </row>
-    <row r="364" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -37378,7 +37375,7 @@
       <c r="CM364" s="2"/>
       <c r="CN364" s="2"/>
     </row>
-    <row r="365" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -37470,7 +37467,7 @@
       <c r="CM365" s="2"/>
       <c r="CN365" s="2"/>
     </row>
-    <row r="366" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -37562,7 +37559,7 @@
       <c r="CM366" s="2"/>
       <c r="CN366" s="2"/>
     </row>
-    <row r="367" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -37654,7 +37651,7 @@
       <c r="CM367" s="2"/>
       <c r="CN367" s="2"/>
     </row>
-    <row r="368" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -37746,7 +37743,7 @@
       <c r="CM368" s="2"/>
       <c r="CN368" s="2"/>
     </row>
-    <row r="369" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -37838,7 +37835,7 @@
       <c r="CM369" s="2"/>
       <c r="CN369" s="2"/>
     </row>
-    <row r="370" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -37930,7 +37927,7 @@
       <c r="CM370" s="2"/>
       <c r="CN370" s="2"/>
     </row>
-    <row r="371" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -38022,7 +38019,7 @@
       <c r="CM371" s="2"/>
       <c r="CN371" s="2"/>
     </row>
-    <row r="372" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -38114,7 +38111,7 @@
       <c r="CM372" s="2"/>
       <c r="CN372" s="2"/>
     </row>
-    <row r="373" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -38206,7 +38203,7 @@
       <c r="CM373" s="2"/>
       <c r="CN373" s="2"/>
     </row>
-    <row r="374" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -38298,7 +38295,7 @@
       <c r="CM374" s="2"/>
       <c r="CN374" s="2"/>
     </row>
-    <row r="375" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -38390,7 +38387,7 @@
       <c r="CM375" s="2"/>
       <c r="CN375" s="2"/>
     </row>
-    <row r="376" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -38482,7 +38479,7 @@
       <c r="CM376" s="2"/>
       <c r="CN376" s="2"/>
     </row>
-    <row r="377" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -38574,7 +38571,7 @@
       <c r="CM377" s="2"/>
       <c r="CN377" s="2"/>
     </row>
-    <row r="378" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -38666,7 +38663,7 @@
       <c r="CM378" s="2"/>
       <c r="CN378" s="2"/>
     </row>
-    <row r="379" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -38758,7 +38755,7 @@
       <c r="CM379" s="2"/>
       <c r="CN379" s="2"/>
     </row>
-    <row r="380" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -38850,7 +38847,7 @@
       <c r="CM380" s="2"/>
       <c r="CN380" s="2"/>
     </row>
-    <row r="381" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -38942,7 +38939,7 @@
       <c r="CM381" s="2"/>
       <c r="CN381" s="2"/>
     </row>
-    <row r="382" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -39034,7 +39031,7 @@
       <c r="CM382" s="2"/>
       <c r="CN382" s="2"/>
     </row>
-    <row r="383" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -39126,7 +39123,7 @@
       <c r="CM383" s="2"/>
       <c r="CN383" s="2"/>
     </row>
-    <row r="384" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -39218,7 +39215,7 @@
       <c r="CM384" s="2"/>
       <c r="CN384" s="2"/>
     </row>
-    <row r="385" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -39310,7 +39307,7 @@
       <c r="CM385" s="2"/>
       <c r="CN385" s="2"/>
     </row>
-    <row r="386" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -39402,7 +39399,7 @@
       <c r="CM386" s="2"/>
       <c r="CN386" s="2"/>
     </row>
-    <row r="387" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -39494,7 +39491,7 @@
       <c r="CM387" s="2"/>
       <c r="CN387" s="2"/>
     </row>
-    <row r="388" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -39586,7 +39583,7 @@
       <c r="CM388" s="2"/>
       <c r="CN388" s="2"/>
     </row>
-    <row r="389" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -39678,7 +39675,7 @@
       <c r="CM389" s="2"/>
       <c r="CN389" s="2"/>
     </row>
-    <row r="390" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -39770,7 +39767,7 @@
       <c r="CM390" s="2"/>
       <c r="CN390" s="2"/>
     </row>
-    <row r="391" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -39862,7 +39859,7 @@
       <c r="CM391" s="2"/>
       <c r="CN391" s="2"/>
     </row>
-    <row r="392" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -39954,7 +39951,7 @@
       <c r="CM392" s="2"/>
       <c r="CN392" s="2"/>
     </row>
-    <row r="393" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -40046,7 +40043,7 @@
       <c r="CM393" s="2"/>
       <c r="CN393" s="2"/>
     </row>
-    <row r="394" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -40138,7 +40135,7 @@
       <c r="CM394" s="2"/>
       <c r="CN394" s="2"/>
     </row>
-    <row r="395" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -40230,7 +40227,7 @@
       <c r="CM395" s="2"/>
       <c r="CN395" s="2"/>
     </row>
-    <row r="396" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -40322,7 +40319,7 @@
       <c r="CM396" s="2"/>
       <c r="CN396" s="2"/>
     </row>
-    <row r="397" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -40414,7 +40411,7 @@
       <c r="CM397" s="2"/>
       <c r="CN397" s="2"/>
     </row>
-    <row r="398" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -40506,7 +40503,7 @@
       <c r="CM398" s="2"/>
       <c r="CN398" s="2"/>
     </row>
-    <row r="399" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -40598,7 +40595,7 @@
       <c r="CM399" s="2"/>
       <c r="CN399" s="2"/>
     </row>
-    <row r="400" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -40773,12 +40770,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40958,17 +40954,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -40992,17 +40997,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - wholesale minimal standard scenario.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - wholesale minimal standard scenario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_a_wholesale_calculation\when_minimal_standard_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB31EB3E-37E5-4FFB-A553-56A8B89A7846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BA4F13-65CA-4B59-A0F3-4C42D49BBF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour1" sheetId="11" r:id="rId1"/>
@@ -362,9 +362,6 @@
     <t>Number</t>
   </si>
   <si>
-    <t>ga_brp_es</t>
-  </si>
-  <si>
     <t>E17</t>
   </si>
   <si>
@@ -471,6 +468,9 @@
   </si>
   <si>
     <t>nonprofiled_consumption</t>
+  </si>
+  <si>
+    <t>ga</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -664,28 +664,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -741,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -788,17 +766,11 @@
     <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -811,28 +783,28 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1422,8 +1394,8 @@
   </sheetPr>
   <dimension ref="A1:CN400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84:I87"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1469,7 +1441,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>7</v>
@@ -1493,7 +1465,7 @@
         <v>75</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>8</v>
@@ -1540,53 +1512,53 @@
         <v>17</v>
       </c>
       <c r="AG1" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH1" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH1" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
     </row>
     <row r="2" spans="1:92" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="43">
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2:J19" si="0">IF(C2="","",SUM(F2:I2))</f>
         <v>0</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
@@ -1598,19 +1570,19 @@
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT15M")</f>
         <v>0</v>
       </c>
-      <c r="U2" s="42">
+      <c r="U2" s="40">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT15M")</f>
         <v>0</v>
       </c>
-      <c r="V2" s="42">
+      <c r="V2" s="40">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT15M")</f>
         <v>0</v>
       </c>
-      <c r="W2" s="42">
+      <c r="W2" s="40">
         <f>SUMIFS(TableDay1[Quarter3],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT15M")</f>
         <v>0</v>
       </c>
-      <c r="X2" s="42">
+      <c r="X2" s="40">
         <f>SUMIFS(TableDay1[Quarter4],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT15M")</f>
         <v>0</v>
       </c>
@@ -1635,47 +1607,47 @@
         <v>E02</v>
       </c>
       <c r="AH2" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="AI2" s="24" t="s">
+      <c r="AJ2" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="AJ2" s="27" t="s">
-        <v>109</v>
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C3" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="43">
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="N3" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
@@ -1687,19 +1659,19 @@
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
         <v>17.5</v>
       </c>
-      <c r="U3" s="42">
+      <c r="U3" s="40">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
         <v>2.5</v>
       </c>
-      <c r="V3" s="42">
+      <c r="V3" s="40">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
         <v>2.5</v>
       </c>
-      <c r="W3" s="42">
+      <c r="W3" s="40">
         <f>SUMIFS(TableDay1[Quarter3],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
         <v>2.5</v>
       </c>
-      <c r="X3" s="42">
+      <c r="X3" s="40">
         <f>SUMIFS(TableDay1[Quarter4],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
         <v>10</v>
       </c>
@@ -1737,34 +1709,34 @@
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="43">
+      <c r="J4" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P4" s="29"/>
       <c r="Q4" s="29"/>
@@ -1776,19 +1748,19 @@
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E18",TableDay1[resolution],"PT15M")</f>
         <v>0</v>
       </c>
-      <c r="U4" s="42">
+      <c r="U4" s="40">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[type],"E18",TableDay1[resolution],"PT15M")</f>
         <v>0</v>
       </c>
-      <c r="V4" s="42">
+      <c r="V4" s="40">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[type],"E18",TableDay1[resolution],"PT15M")</f>
         <v>0</v>
       </c>
-      <c r="W4" s="42">
+      <c r="W4" s="40">
         <f>SUMIFS(TableDay1[Quarter3],TableDay1[type],"E18",TableDay1[resolution],"PT15M")</f>
         <v>0</v>
       </c>
-      <c r="X4" s="42">
+      <c r="X4" s="40">
         <f>SUMIFS(TableDay1[Quarter4],TableDay1[type],"E18",TableDay1[resolution],"PT15M")</f>
         <v>0</v>
       </c>
@@ -1821,9 +1793,9 @@
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="43" t="str">
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1832,7 +1804,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P5" s="29"/>
       <c r="Q5" s="29"/>
@@ -1844,19 +1816,19 @@
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
         <v>17.5</v>
       </c>
-      <c r="U5" s="42">
+      <c r="U5" s="40">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
         <v>2.5</v>
       </c>
-      <c r="V5" s="42">
+      <c r="V5" s="40">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
         <v>2.5</v>
       </c>
-      <c r="W5" s="42">
+      <c r="W5" s="40">
         <f>SUMIFS(TableDay1[Quarter3],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
         <v>2.5</v>
       </c>
-      <c r="X5" s="42">
+      <c r="X5" s="40">
         <f>SUMIFS(TableDay1[Quarter4],TableDay1[type],"E17",TableDay1[resolution],"PT15M")</f>
         <v>10</v>
       </c>
@@ -1885,13 +1857,13 @@
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C6" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="12">
         <v>20</v>
@@ -1899,22 +1871,22 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="43">
+      <c r="J6" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
@@ -1950,13 +1922,13 @@
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C7" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="12">
         <v>2.5</v>
@@ -1964,28 +1936,28 @@
       <c r="G7" s="12">
         <v>2.5</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="39">
         <v>2.5</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="39">
         <v>10</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="41">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
@@ -2021,34 +1993,34 @@
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C8" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12">
         <v>40.158999999999999</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="43">
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="41">
         <f t="shared" si="0"/>
         <v>40.158999999999999</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
@@ -2088,9 +2060,9 @@
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="43" t="str">
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2099,7 +2071,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
@@ -2147,32 +2119,32 @@
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C10" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="43">
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
@@ -2228,36 +2200,36 @@
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C11" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="12">
         <v>3.3570000000000002</v>
       </c>
       <c r="G11" s="12"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="43">
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="41">
         <f t="shared" si="0"/>
         <v>3.3570000000000002</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P11" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R11" s="15" t="s">
         <v>73</v>
@@ -2318,9 +2290,9 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="43" t="str">
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2367,10 +2339,10 @@
       <c r="AC12" s="27"/>
       <c r="AD12" s="36"/>
       <c r="AE12" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF12" s="36" t="s">
         <v>100</v>
-      </c>
-      <c r="AF12" s="36" t="s">
-        <v>101</v>
       </c>
       <c r="AG12" s="36"/>
       <c r="AH12" s="35"/>
@@ -2394,9 +2366,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="43" t="str">
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2472,9 +2444,9 @@
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="43" t="str">
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2591,9 +2563,9 @@
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="43" t="str">
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2713,9 +2685,9 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="43" t="str">
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2835,9 +2807,9 @@
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="43" t="str">
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2953,9 +2925,9 @@
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="43" t="str">
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3068,9 +3040,9 @@
       <c r="E19" s="11"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="43" t="str">
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3181,18 +3153,18 @@
       <c r="CN19" s="2"/>
     </row>
     <row r="20" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" s="48" t="str">
+      <c r="E20" s="46" t="str">
         <f>CONCATENATE(B2,"_per_",B1)</f>
-        <v>nonprofiled_consumption_per_ga_brp_es</v>
-      </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49" t="s">
+        <v>nonprofiled_consumption_per_ga</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
       <c r="R20" s="15" t="s">
         <v>74</v>
       </c>
@@ -3432,11 +3404,11 @@
       <c r="A22" s="2"/>
       <c r="B22" s="16" t="str">
         <f>IF(AND(F22&lt;&gt;"null",F22&lt;&gt;""),IF(F22=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G22&lt;&gt;"null",G22&lt;&gt;""),IF(G22=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E22=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
-        <v/>
+        <v>glmp</v>
       </c>
       <c r="C22" s="16" t="str">
         <f>IF(AND(F22&lt;&gt;"null",F22&lt;&gt;""),IF(F22=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G22&lt;&gt;"null",G22&lt;&gt;""),IF(G22=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E22=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v/>
+        <v>skmp</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>72</v>
@@ -3447,11 +3419,11 @@
       </c>
       <c r="F22" s="31" t="str">
         <f>IF(B$1="ga",IF(E22="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$2=0,"",AE$2),IF(B$1="ga_brp",IF(G22="","","null"))))</f>
-        <v>3000000000000</v>
+        <v>null</v>
       </c>
       <c r="G22" s="31" t="str">
         <f>IF(B$1="ga",IF(E22="","","null"),IF(B$1="ga_es",IF(F22="","","null"),IF(B$1="ga_brp",IF(AF$2=0,"",AF$2),IF(F22="","",INDEX(TableDay1[brp_id],MATCH(F22,TableDay1[es_id],0),1)))))</f>
-        <v>3300000000000</v>
+        <v>null</v>
       </c>
       <c r="H22" s="33" t="str">
         <f ca="1">IF(E22="","",SUBSTITUTE(ROUND(I22+J22+K22,3),",","."))</f>
@@ -3574,11 +3546,11 @@
     <row r="23" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="str">
         <f>IF(AND(F23&lt;&gt;"null",F23&lt;&gt;""),IF(F23=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G23&lt;&gt;"null",G23&lt;&gt;""),IF(G23=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E23=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
-        <v/>
+        <v>glmp</v>
       </c>
       <c r="C23" s="16" t="str">
         <f>IF(AND(F23&lt;&gt;"null",F23&lt;&gt;""),IF(F23=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G23&lt;&gt;"null",G23&lt;&gt;""),IF(G23=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E23=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v/>
+        <v>skmp</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>73</v>
@@ -3589,11 +3561,11 @@
       </c>
       <c r="F23" s="31" t="str">
         <f>IF(B$1="ga",IF(E23="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$2=0,"",AE$2),IF(B$1="ga_brp",IF(G23="","","null"))))</f>
-        <v>3000000000000</v>
+        <v>null</v>
       </c>
       <c r="G23" s="31" t="str">
         <f>IF(B$1="ga",IF(E23="","","null"),IF(B$1="ga_es",IF(F23="","","null"),IF(B$1="ga_brp",IF(AF$2=0,"",AF$2),IF(F23="","",INDEX(TableDay1[brp_id],MATCH(F23,TableDay1[es_id],0),1)))))</f>
-        <v>3300000000000</v>
+        <v>null</v>
       </c>
       <c r="H23" s="33" t="str">
         <f t="shared" ref="H23:H45" ca="1" si="7">IF(E23="","",SUBSTITUTE(ROUND(I23+J23+K23,3),",","."))</f>
@@ -3719,11 +3691,11 @@
     <row r="24" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="str">
         <f>IF(AND(F24&lt;&gt;"null",F24&lt;&gt;""),IF(F24=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G24&lt;&gt;"null",G24&lt;&gt;""),IF(G24=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E24=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
-        <v/>
+        <v>glmp</v>
       </c>
       <c r="C24" s="16" t="str">
         <f>IF(AND(F24&lt;&gt;"null",F24&lt;&gt;""),IF(F24=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G24&lt;&gt;"null",G24&lt;&gt;""),IF(G24=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E24=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v/>
+        <v>skmp</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>74</v>
@@ -3734,11 +3706,11 @@
       </c>
       <c r="F24" s="31" t="str">
         <f>IF(B$1="ga",IF(E24="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$2=0,"",AE$2),IF(B$1="ga_brp",IF(G24="","","null"))))</f>
-        <v>3000000000000</v>
+        <v>null</v>
       </c>
       <c r="G24" s="31" t="str">
         <f>IF(B$1="ga",IF(E24="","","null"),IF(B$1="ga_es",IF(F24="","","null"),IF(B$1="ga_brp",IF(AF$2=0,"",AF$2),IF(F24="","",INDEX(TableDay1[brp_id],MATCH(F24,TableDay1[es_id],0),1)))))</f>
-        <v>3300000000000</v>
+        <v>null</v>
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3867,11 +3839,11 @@
     <row r="25" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="str">
         <f>IF(AND(F25&lt;&gt;"null",F25&lt;&gt;""),IF(F25=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G25&lt;&gt;"null",G25&lt;&gt;""),IF(G25=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E25=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
-        <v/>
+        <v>glmp</v>
       </c>
       <c r="C25" s="16" t="str">
         <f>IF(AND(F25&lt;&gt;"null",F25&lt;&gt;""),IF(F25=INDEX(TableDay1[es_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(AND(G25&lt;&gt;"null",G25&lt;&gt;""),IF(G25=INDEX(TableDay1[brp_id],MATCH("SKMP",TableDay1[note],0),1),"skmp",""),IF(E25=INDEX(TableDay1[ga_id],MATCH("SKMP",TableDay1[note],0),1),"skmp","")))</f>
-        <v/>
+        <v>skmp</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>75</v>
@@ -3882,11 +3854,11 @@
       </c>
       <c r="F25" s="31" t="str">
         <f>IF(B$1="ga",IF(E25="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$2=0,"",AE$2),IF(B$1="ga_brp",IF(G25="","","null"))))</f>
-        <v>3000000000000</v>
+        <v>null</v>
       </c>
       <c r="G25" s="31" t="str">
         <f>IF(B$1="ga",IF(E25="","","null"),IF(B$1="ga_es",IF(F25="","","null"),IF(B$1="ga_brp",IF(AF$2=0,"",AF$2),IF(F25="","",INDEX(TableDay1[brp_id],MATCH(F25,TableDay1[es_id],0),1)))))</f>
-        <v>3300000000000</v>
+        <v>null</v>
       </c>
       <c r="H25" s="33" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5343,10 +5315,10 @@
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT1H")</f>
         <v>0</v>
       </c>
-      <c r="W35" s="16" t="s">
+      <c r="W35" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="X35" s="16"/>
+      <c r="X35" s="55"/>
       <c r="Y35" s="28">
         <f>SUM(Y37:Y40)</f>
         <v>0</v>
@@ -6134,10 +6106,10 @@
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E18",TableDay1[resolution],"PT1H")</f>
         <v>40.158999999999999</v>
       </c>
-      <c r="W41" s="39" t="s">
+      <c r="W41" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="X41" s="40"/>
+      <c r="X41" s="55"/>
       <c r="Y41" s="28">
         <f>SUM(Y43:Y46)</f>
         <v>40.158999999999999</v>
@@ -6744,12 +6716,12 @@
     </row>
     <row r="46" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="2"/>
-      <c r="E46" s="48" t="s">
+      <c r="E46" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
       <c r="R46" s="24"/>
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
@@ -6868,10 +6840,10 @@
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT1H")</f>
         <v>20</v>
       </c>
-      <c r="W47" s="39" t="s">
+      <c r="W47" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="X47" s="40"/>
+      <c r="X47" s="55"/>
       <c r="Y47" s="28">
         <f>SUM(Y49:Y52)</f>
         <v>20</v>
@@ -7420,12 +7392,12 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="E52" s="52" t="s">
+      <c r="E52" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="52"/>
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
@@ -7546,10 +7518,10 @@
         <f>ROUND(SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT1H",TableDay1[to_ga],$AD$2),3)</f>
         <v>3.3570000000000002</v>
       </c>
-      <c r="W53" s="39" t="s">
+      <c r="W53" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="X53" s="40"/>
+      <c r="X53" s="55"/>
       <c r="Y53" s="28">
         <f>ROUND(SUM(Y55:Y58),3)</f>
         <v>3.3570000000000002</v>
@@ -7650,8 +7622,8 @@
         <f>SUBSTITUTE(ROUND(H54,3),",",".")</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="46"/>
-      <c r="R54" s="46"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
       <c r="S54" s="24"/>
       <c r="T54" s="24"/>
       <c r="U54" s="6" t="s">
@@ -7765,7 +7737,7 @@
         <f t="shared" ref="I55:I57" si="16">SUBSTITUTE(ROUND(H55,3),",",".")</f>
         <v>0</v>
       </c>
-      <c r="R55" s="44"/>
+      <c r="R55" s="42"/>
       <c r="S55" s="24"/>
       <c r="T55" s="24"/>
       <c r="U55" s="15" t="s">
@@ -7788,7 +7760,7 @@
         <f>ROUND(V55,3)</f>
         <v>0.83899999999999997</v>
       </c>
-      <c r="AA55" s="45"/>
+      <c r="AA55" s="43"/>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
@@ -7906,7 +7878,7 @@
         <f>ROUND(V56,3)</f>
         <v>0.83899999999999997</v>
       </c>
-      <c r="AA56" s="45"/>
+      <c r="AA56" s="43"/>
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
@@ -8024,7 +7996,7 @@
         <f>ROUND(V57,3)</f>
         <v>0.83899999999999997</v>
       </c>
-      <c r="AA57" s="45"/>
+      <c r="AA57" s="43"/>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
@@ -8095,12 +8067,12 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="E58" s="52" t="s">
+      <c r="E58" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="54"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="52"/>
       <c r="R58" s="24"/>
       <c r="S58" s="24"/>
       <c r="T58" s="24"/>
@@ -8127,7 +8099,7 @@
         <f>ROUND(V58,3)</f>
         <v>0.83899999999999997</v>
       </c>
-      <c r="AA58" s="45"/>
+      <c r="AA58" s="43"/>
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
@@ -8221,10 +8193,10 @@
         <f>ROUND(SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT1H",TableDay1[from_ga],"800"),3)</f>
         <v>0</v>
       </c>
-      <c r="W59" s="39" t="s">
+      <c r="W59" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="X59" s="40"/>
+      <c r="X59" s="55"/>
       <c r="Y59" s="28">
         <f>ROUND(SUM(Y61:Y64),3)</f>
         <v>0</v>
@@ -8323,7 +8295,7 @@
         <f>SUBSTITUTE(ROUND(H60,3),",",".")</f>
         <v>10.04</v>
       </c>
-      <c r="R60" s="44"/>
+      <c r="R60" s="42"/>
       <c r="S60" s="24"/>
       <c r="T60" s="24"/>
       <c r="U60" s="6" t="s">
@@ -8458,7 +8430,7 @@
         <f>ROUND(V61,3)</f>
         <v>0</v>
       </c>
-      <c r="AA61" s="45"/>
+      <c r="AA61" s="43"/>
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
@@ -8574,7 +8546,7 @@
         <f>ROUND(V62,3)</f>
         <v>0</v>
       </c>
-      <c r="AA62" s="45"/>
+      <c r="AA62" s="43"/>
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
@@ -8690,7 +8662,7 @@
         <f>ROUND(V63,3)</f>
         <v>0</v>
       </c>
-      <c r="AA63" s="45"/>
+      <c r="AA63" s="43"/>
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
@@ -8759,12 +8731,12 @@
     </row>
     <row r="64" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="2"/>
-      <c r="E64" s="52" t="s">
+      <c r="E64" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="54"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="52"/>
       <c r="R64" s="24"/>
       <c r="S64" s="24"/>
       <c r="T64" s="24"/>
@@ -8791,7 +8763,7 @@
         <f>ROUND(V64,3)</f>
         <v>0</v>
       </c>
-      <c r="AA64" s="45"/>
+      <c r="AA64" s="43"/>
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
@@ -8883,10 +8855,10 @@
         <f>ROUND(SUMIFS(TableDay1[TotalHour],TableDay1[type],"E17",TableDay1[resolution],"PT1H"),3)</f>
         <v>20</v>
       </c>
-      <c r="W65" s="56" t="s">
+      <c r="W65" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="X65" s="57"/>
+      <c r="X65" s="55"/>
       <c r="Y65" s="28">
         <f>ROUND(SUM(Y67:Y70),3)</f>
         <v>20</v>
@@ -9422,12 +9394,12 @@
     </row>
     <row r="70" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" s="2"/>
-      <c r="E70" s="52" t="s">
+      <c r="E70" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="54"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="52"/>
       <c r="R70" s="24"/>
       <c r="S70" s="24"/>
       <c r="T70" s="27"/>
@@ -10011,12 +9983,12 @@
     </row>
     <row r="76" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" s="2"/>
-      <c r="E76" s="52" t="s">
+      <c r="E76" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="54"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="52"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -10634,12 +10606,12 @@
     </row>
     <row r="82" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" s="2"/>
-      <c r="E82" s="52" t="s">
+      <c r="E82" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="54"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="52"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -10852,13 +10824,13 @@
       </c>
       <c r="J84" s="2"/>
       <c r="U84" s="2"/>
-      <c r="V84" s="55" t="s">
+      <c r="V84" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="W84" s="55"/>
-      <c r="X84" s="55"/>
-      <c r="Y84" s="55"/>
-      <c r="Z84" s="55"/>
+      <c r="W84" s="53"/>
+      <c r="X84" s="53"/>
+      <c r="Y84" s="53"/>
+      <c r="Z84" s="53"/>
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
@@ -11262,13 +11234,13 @@
     </row>
     <row r="88" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" s="2"/>
-      <c r="E88" s="52" t="s">
+      <c r="E88" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="54"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="52"/>
       <c r="J88" s="2"/>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
@@ -11380,7 +11352,7 @@
         <v>2</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J89" s="2"/>
       <c r="R89" s="2"/>
@@ -40688,7 +40660,9 @@
       <c r="CN400" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="W59:X59"/>
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="I20:K20"/>
@@ -40702,6 +40676,9 @@
     <mergeCell ref="E76:H76"/>
     <mergeCell ref="E82:H82"/>
     <mergeCell ref="W65:X65"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="W47:X47"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="F2:I19">
@@ -40770,11 +40747,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40954,26 +40932,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -40997,9 +40966,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>